--- a/web_files/US Power Sector CO2 Emissions Intensity.xlsx
+++ b/web_files/US Power Sector CO2 Emissions Intensity.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="328">
   <si>
     <t>year</t>
   </si>
@@ -271,6 +271,15 @@
     <t>2019 Q4</t>
   </si>
   <si>
+    <t>2020 Q1</t>
+  </si>
+  <si>
+    <t>2020 Q2</t>
+  </si>
+  <si>
+    <t>2020 Q3</t>
+  </si>
+  <si>
     <t>month</t>
   </si>
   <si>
@@ -959,6 +968,39 @@
   </si>
   <si>
     <t>2019-12-01</t>
+  </si>
+  <si>
+    <t>2020-01-01</t>
+  </si>
+  <si>
+    <t>2020-02-01</t>
+  </si>
+  <si>
+    <t>2020-03-01</t>
+  </si>
+  <si>
+    <t>2020-04-01</t>
+  </si>
+  <si>
+    <t>2020-05-01</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
+  </si>
+  <si>
+    <t>2020-08-01</t>
+  </si>
+  <si>
+    <t>2020-09-01</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>2020-11-01</t>
   </si>
 </sst>
 </file>
@@ -1343,16 +1385,16 @@
         <v>3736520411.15</v>
       </c>
       <c r="C2" t="n">
-        <v>2353860029437.351</v>
+        <v>2353859942597.416</v>
       </c>
       <c r="D2" t="n">
-        <v>629.9604365637325</v>
+        <v>629.9604133228759</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05146536909547494</v>
+        <v>0.05146533030421997</v>
       </c>
       <c r="F2" t="n">
-        <v>1388.810778448405</v>
+        <v>1388.810727211612</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1603,16 +1645,16 @@
         <v>4104659454.56</v>
       </c>
       <c r="C15" t="n">
-        <v>2094303066176.628</v>
+        <v>2094336942609.711</v>
       </c>
       <c r="D15" t="n">
-        <v>510.2257786209277</v>
+        <v>510.2340317862529</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1483834452111595</v>
+        <v>-0.1483696698738189</v>
       </c>
       <c r="F15" t="n">
-        <v>1124.843751547697</v>
+        <v>1124.861946475973</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1623,16 +1665,16 @@
         <v>4091519853.68</v>
       </c>
       <c r="C16" t="n">
-        <v>1969404902369.6</v>
+        <v>1969813639028.55</v>
       </c>
       <c r="D16" t="n">
-        <v>481.3382246204368</v>
+        <v>481.4381231113563</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1965995884265576</v>
+        <v>-0.1964328481083881</v>
       </c>
       <c r="F16" t="n">
-        <v>1061.158249998215</v>
+        <v>1061.378486211296</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1643,16 +1685,16 @@
         <v>4095208935.53</v>
       </c>
       <c r="C17" t="n">
-        <v>1856506247039.617</v>
+        <v>1856972230087.1</v>
       </c>
       <c r="D17" t="n">
-        <v>453.3361487206634</v>
+        <v>453.4499360889803</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2433377823868001</v>
+        <v>-0.2431478601785445</v>
       </c>
       <c r="F17" t="n">
-        <v>999.4248734695744</v>
+        <v>999.675729101766</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1660,19 +1702,19 @@
         <v>2017</v>
       </c>
       <c r="B18" t="n">
-        <v>4058031422.78</v>
+        <v>4058030988.1</v>
       </c>
       <c r="C18" t="n">
-        <v>1779916488949.637</v>
+        <v>1780344062107.865</v>
       </c>
       <c r="D18" t="n">
-        <v>438.6157482561545</v>
+        <v>438.7211599242702</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2679075655180652</v>
+        <v>-0.2677316231698014</v>
       </c>
       <c r="F18" t="n">
-        <v>966.9722786055182</v>
+        <v>967.2046691690463</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1680,19 +1722,19 @@
         <v>2018</v>
       </c>
       <c r="B19" t="n">
-        <v>4203722496.77</v>
+        <v>4207602186.04</v>
       </c>
       <c r="C19" t="n">
-        <v>1798006646646.182</v>
+        <v>1798435688364.013</v>
       </c>
       <c r="D19" t="n">
-        <v>427.7177306607918</v>
+        <v>427.4253146675487</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.2860974190838259</v>
+        <v>-0.2865854898775124</v>
       </c>
       <c r="F19" t="n">
-        <v>942.9465090147817</v>
+        <v>942.301848716078</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1700,19 +1742,19 @@
         <v>2019</v>
       </c>
       <c r="B20" t="n">
-        <v>4150964239.09</v>
+        <v>4161408263.33</v>
       </c>
       <c r="C20" t="n">
-        <v>1648274509389.186</v>
+        <v>1655720094900.914</v>
       </c>
       <c r="D20" t="n">
-        <v>397.0823197818082</v>
+        <v>397.8749476447645</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.3372309057881187</v>
+        <v>-0.3359079326296378</v>
       </c>
       <c r="F20" t="n">
-        <v>875.4076821909745</v>
+        <v>877.1551095776477</v>
       </c>
     </row>
   </sheetData>
@@ -1726,7 +1768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1771,19 +1813,19 @@
         <v>916130656.04</v>
       </c>
       <c r="D2" t="n">
-        <v>583241791738.2903</v>
+        <v>583241769147.9152</v>
       </c>
       <c r="E2" t="n">
-        <v>636.6360386403496</v>
+        <v>636.6360139818852</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06260759961349352</v>
+        <v>0.06260755845611317</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>1403.527810786515</v>
+        <v>1403.527756424464</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1797,19 +1839,19 @@
         <v>906257293.04</v>
       </c>
       <c r="D3" t="n">
-        <v>568057984771.8798</v>
+        <v>568057964188.5997</v>
       </c>
       <c r="E3" t="n">
-        <v>626.8175595766568</v>
+        <v>626.8175368642545</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04621960107667165</v>
+        <v>0.04621956316745877</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>1381.881991842697</v>
+        <v>1381.881941770935</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1823,19 +1865,19 @@
         <v>1035003699.03</v>
       </c>
       <c r="D4" t="n">
-        <v>661654488827.2874</v>
+        <v>661654467247.4973</v>
       </c>
       <c r="E4" t="n">
-        <v>639.2774146096159</v>
+        <v>639.2773937596518</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06701631355368</v>
+        <v>0.06701627875305749</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
       <c r="H4" t="n">
-        <v>1409.350988248359</v>
+        <v>1409.350942282528</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1849,19 +1891,19 @@
         <v>879128763.04</v>
       </c>
       <c r="D5" t="n">
-        <v>540905764099.8939</v>
+        <v>540905742013.4038</v>
       </c>
       <c r="E5" t="n">
-        <v>615.2747889051641</v>
+        <v>615.2747637820069</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02695359178458238</v>
+        <v>0.02695354985158447</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>1356.434799620325</v>
+        <v>1356.434744233813</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3201,19 +3243,19 @@
         <v>972455551.6799999</v>
       </c>
       <c r="D57" t="n">
-        <v>476330945536.1271</v>
+        <v>476364821969.2092</v>
       </c>
       <c r="E57" t="n">
-        <v>489.8228455925051</v>
+        <v>489.8576815631812</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.1824379290520509</v>
+        <v>-0.1823797844216285</v>
       </c>
       <c r="G57" t="s">
         <v>63</v>
       </c>
       <c r="H57" t="n">
-        <v>1079.863445393237</v>
+        <v>1079.94024477419</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3227,19 +3269,19 @@
         <v>1021760431.8</v>
       </c>
       <c r="D58" t="n">
-        <v>498659053509.0075</v>
+        <v>498753744965.5725</v>
       </c>
       <c r="E58" t="n">
-        <v>488.0391117030605</v>
+        <v>488.1317865156857</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.1854151547690556</v>
+        <v>-0.1852604714740309</v>
       </c>
       <c r="G58" t="s">
         <v>64</v>
       </c>
       <c r="H58" t="n">
-        <v>1075.931025660567</v>
+        <v>1076.135336552481</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3253,19 +3295,19 @@
         <v>982642600.02</v>
       </c>
       <c r="D59" t="n">
-        <v>465590894128.4685</v>
+        <v>465714921076.3663</v>
       </c>
       <c r="E59" t="n">
-        <v>473.8150922003506</v>
+        <v>473.9413099603941</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.2091564296942231</v>
+        <v>-0.2089457599506208</v>
       </c>
       <c r="G59" t="s">
         <v>65</v>
       </c>
       <c r="H59" t="n">
-        <v>1044.572752264893</v>
+        <v>1044.851011938685</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3279,19 +3321,19 @@
         <v>1146880730.57</v>
       </c>
       <c r="D60" t="n">
-        <v>582823928019.964</v>
+        <v>582925062991.5507</v>
       </c>
       <c r="E60" t="n">
-        <v>508.1818121839926</v>
+        <v>508.2699948248643</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1517950244140596</v>
+        <v>-0.1516478389915308</v>
       </c>
       <c r="G60" t="s">
         <v>66</v>
       </c>
       <c r="H60" t="n">
-        <v>1120.33762314083</v>
+        <v>1120.532030590896</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3305,19 +3347,19 @@
         <v>940236091.2899996</v>
       </c>
       <c r="D61" t="n">
-        <v>422331026712.1603</v>
+        <v>422419909995.0613</v>
       </c>
       <c r="E61" t="n">
-        <v>449.1755109429208</v>
+        <v>449.270043883875</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.2502822923635057</v>
+        <v>-0.2501245076711934</v>
       </c>
       <c r="G61" t="s">
         <v>67</v>
       </c>
       <c r="H61" t="n">
-        <v>990.2523314247632</v>
+        <v>990.4607387463907</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3331,19 +3373,19 @@
         <v>974403112.76</v>
       </c>
       <c r="D62" t="n">
-        <v>415639262441.1859</v>
+        <v>415739548171.6349</v>
       </c>
       <c r="E62" t="n">
-        <v>426.5578147260698</v>
+        <v>426.6607348924115</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.2880334318326182</v>
+        <v>-0.287861648043655</v>
       </c>
       <c r="G62" t="s">
         <v>68</v>
       </c>
       <c r="H62" t="n">
-        <v>940.3893583450937</v>
+        <v>940.6162561438106</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3357,19 +3399,19 @@
         <v>982883128.3099999</v>
       </c>
       <c r="D63" t="n">
-        <v>424304061915.073</v>
+        <v>424470029824.5038</v>
       </c>
       <c r="E63" t="n">
-        <v>431.6933007535034</v>
+        <v>431.862158987662</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.2794618051114635</v>
+        <v>-0.2791799642605159</v>
       </c>
       <c r="G63" t="s">
         <v>69</v>
       </c>
       <c r="H63" t="n">
-        <v>951.7110508411736</v>
+        <v>952.0833157041997</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3383,19 +3425,19 @@
         <v>1178666326.37</v>
       </c>
       <c r="D64" t="n">
-        <v>582953948950.9454</v>
+        <v>583063507517.9319</v>
       </c>
       <c r="E64" t="n">
-        <v>494.5877691664434</v>
+        <v>494.6807204661754</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.1744848071834591</v>
+        <v>-0.1743296624045048</v>
       </c>
       <c r="G64" t="s">
         <v>70</v>
       </c>
       <c r="H64" t="n">
-        <v>1090.368195904341</v>
+        <v>1090.57311633973</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3409,19 +3451,19 @@
         <v>959256368.09</v>
       </c>
       <c r="D65" t="n">
-        <v>433608973732.4133</v>
+        <v>433699144573.0292</v>
       </c>
       <c r="E65" t="n">
-        <v>452.0261612605016</v>
+        <v>452.1201620340335</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2455242791386006</v>
+        <v>-0.2453673826855851</v>
       </c>
       <c r="G65" t="s">
         <v>71</v>
       </c>
       <c r="H65" t="n">
-        <v>996.5368751149017</v>
+        <v>996.7441092202304</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3432,22 +3474,22 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>955342907.37</v>
+        <v>959282668.98</v>
       </c>
       <c r="D66" t="n">
-        <v>409142786134.1847</v>
+        <v>409254135032.1849</v>
       </c>
       <c r="E66" t="n">
-        <v>428.2679894076248</v>
+        <v>426.625173440632</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.2851789836031904</v>
+        <v>-0.2879210035727496</v>
       </c>
       <c r="G66" t="s">
         <v>72</v>
       </c>
       <c r="H66" t="n">
-        <v>944.1596094480497</v>
+        <v>940.5378573672174</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3458,22 +3500,22 @@
         <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>981830373.5599999</v>
+        <v>984400726.63</v>
       </c>
       <c r="D67" t="n">
-        <v>417506819519.4294</v>
+        <v>417630905920.5593</v>
       </c>
       <c r="E67" t="n">
-        <v>425.2331469494058</v>
+        <v>424.248880179394</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.2902444314635101</v>
+        <v>-0.2918872686363715</v>
       </c>
       <c r="G67" t="s">
         <v>73</v>
       </c>
       <c r="H67" t="n">
-        <v>937.46899576466</v>
+        <v>935.299081243492</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3484,22 +3526,22 @@
         <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>1131773341.65</v>
+        <v>1132268520.22</v>
       </c>
       <c r="D68" t="n">
-        <v>529307839523.9713</v>
+        <v>529405339850.721</v>
       </c>
       <c r="E68" t="n">
-        <v>467.6800734255669</v>
+        <v>467.5616520256674</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.2193963739923487</v>
+        <v>-0.2195940308509816</v>
       </c>
       <c r="G68" t="s">
         <v>74</v>
       </c>
       <c r="H68" t="n">
-        <v>1031.047489874005</v>
+        <v>1030.786418055786</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3510,22 +3552,22 @@
         <v>4</v>
       </c>
       <c r="C69" t="n">
-        <v>989084800.2000002</v>
+        <v>982079072.27</v>
       </c>
       <c r="D69" t="n">
-        <v>423959043772.0515</v>
+        <v>424053681304.3992</v>
       </c>
       <c r="E69" t="n">
-        <v>428.6377100187202</v>
+        <v>431.7917907813999</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.284561883867645</v>
+        <v>-0.2792974156553583</v>
       </c>
       <c r="G69" t="s">
         <v>75</v>
       </c>
       <c r="H69" t="n">
-        <v>944.9746955072707</v>
+        <v>951.9281819566744</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3536,22 +3578,22 @@
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>1007401406.23</v>
+        <v>1007451607.32</v>
       </c>
       <c r="D70" t="n">
-        <v>419548425578.4994</v>
+        <v>419640230123.809</v>
       </c>
       <c r="E70" t="n">
-        <v>416.4659915937344</v>
+        <v>416.5363646995675</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.3048776682620815</v>
+        <v>-0.3047602086893774</v>
       </c>
       <c r="G70" t="s">
         <v>76</v>
       </c>
       <c r="H70" t="n">
-        <v>918.1409250675467</v>
+        <v>918.2960696166666</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3562,22 +3604,22 @@
         <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>1020316668.44</v>
+        <v>1020356356.43</v>
       </c>
       <c r="D71" t="n">
-        <v>415249700035.8303</v>
+        <v>415356885261.8722</v>
       </c>
       <c r="E71" t="n">
-        <v>406.9811979752532</v>
+        <v>407.0704148059738</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.3207087132674637</v>
+        <v>-0.3205598016812776</v>
       </c>
       <c r="G71" t="s">
         <v>77</v>
       </c>
       <c r="H71" t="n">
-        <v>897.2307490562433</v>
+        <v>897.42743648125</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3588,22 +3630,22 @@
         <v>3</v>
       </c>
       <c r="C72" t="n">
-        <v>1184301080.04</v>
+        <v>1184368755.68</v>
       </c>
       <c r="D72" t="n">
-        <v>538431152830.669</v>
+        <v>538558569559.6967</v>
       </c>
       <c r="E72" t="n">
-        <v>454.6404304659448</v>
+        <v>454.7220339753777</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.2411608090292548</v>
+        <v>-0.2410246048183471</v>
       </c>
       <c r="G72" t="s">
         <v>78</v>
       </c>
       <c r="H72" t="n">
-        <v>1002.300293005222</v>
+        <v>1002.480196102118</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3614,22 +3656,22 @@
         <v>4</v>
       </c>
       <c r="C73" t="n">
-        <v>991703342.0599999</v>
+        <v>995425466.61</v>
       </c>
       <c r="D73" t="n">
-        <v>424777368201.1837</v>
+        <v>424880003418.6351</v>
       </c>
       <c r="E73" t="n">
-        <v>428.3310846959753</v>
+        <v>426.8325632310749</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.2850736714172131</v>
+        <v>-0.2875748497988012</v>
       </c>
       <c r="G73" t="s">
         <v>79</v>
       </c>
       <c r="H73" t="n">
-        <v>944.2987093207473</v>
+        <v>940.995068899228</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3640,22 +3682,22 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>1001779191.56</v>
+        <v>1007788097.36</v>
       </c>
       <c r="D74" t="n">
-        <v>404430216314.0046</v>
+        <v>405162129362.0672</v>
       </c>
       <c r="E74" t="n">
-        <v>403.7119354457882</v>
+        <v>402.0310722297964</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.3261654310749576</v>
+        <v>-0.3289709556114545</v>
       </c>
       <c r="G74" t="s">
         <v>80</v>
       </c>
       <c r="H74" t="n">
-        <v>890.0233328837846</v>
+        <v>886.3177018378093</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3666,22 +3708,22 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>983904422.5400002</v>
+        <v>990197617.6799999</v>
       </c>
       <c r="D75" t="n">
-        <v>366151132876.4085</v>
+        <v>368851959498.5653</v>
       </c>
       <c r="E75" t="n">
-        <v>372.1409564672657</v>
+        <v>372.5033800452612</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.37886047212457</v>
+        <v>-0.3782555518484895</v>
       </c>
       <c r="G75" t="s">
         <v>81</v>
       </c>
       <c r="H75" t="n">
-        <v>820.4219526277341</v>
+        <v>821.2209516477827</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3692,22 +3734,22 @@
         <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>1182927572.9</v>
+        <v>1182237725.04</v>
       </c>
       <c r="D76" t="n">
-        <v>501538054468.6464</v>
+        <v>504677843173.925</v>
       </c>
       <c r="E76" t="n">
-        <v>423.9803568354598</v>
+        <v>426.8835552146248</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.2923354602696122</v>
+        <v>-0.2874897392082117</v>
       </c>
       <c r="G76" t="s">
         <v>82</v>
       </c>
       <c r="H76" t="n">
-        <v>934.7070946794548</v>
+        <v>941.1074858261617</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3718,22 +3760,100 @@
         <v>4</v>
       </c>
       <c r="C77" t="n">
-        <v>982353052.09</v>
+        <v>981184823.2500002</v>
       </c>
       <c r="D77" t="n">
-        <v>376155105730.1261</v>
+        <v>377028162866.3561</v>
       </c>
       <c r="E77" t="n">
-        <v>382.9123398454754</v>
+        <v>384.2580459179112</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.3608819834099183</v>
+        <v>-0.3586358688128399</v>
       </c>
       <c r="G77" t="s">
         <v>83</v>
       </c>
       <c r="H77" t="n">
-        <v>844.1685444233351</v>
+        <v>847.135288030627</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>973085219.9299999</v>
+      </c>
+      <c r="D78" t="n">
+        <v>336644951803.2552</v>
+      </c>
+      <c r="E78" t="n">
+        <v>345.9562892420379</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.4225652338692876</v>
+      </c>
+      <c r="G78" t="s">
+        <v>84</v>
+      </c>
+      <c r="H78" t="n">
+        <v>762.695235262997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2</v>
+      </c>
+      <c r="C79" t="n">
+        <v>944544519.86</v>
+      </c>
+      <c r="D79" t="n">
+        <v>314159373200.5373</v>
+      </c>
+      <c r="E79" t="n">
+        <v>332.6040928670064</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.4448513510202138</v>
+      </c>
+      <c r="G79" t="s">
+        <v>85</v>
+      </c>
+      <c r="H79" t="n">
+        <v>733.2589831346022</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1160166124.9</v>
+      </c>
+      <c r="D80" t="n">
+        <v>472407748264.4694</v>
+      </c>
+      <c r="E80" t="n">
+        <v>407.1897447490017</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.3203606283756104</v>
+      </c>
+      <c r="G80" t="s">
+        <v>86</v>
+      </c>
+      <c r="H80" t="n">
+        <v>897.6905112736492</v>
       </c>
     </row>
   </sheetData>
@@ -3747,7 +3867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I229"/>
+  <dimension ref="A1:I240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3760,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3775,7 +3895,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -3795,22 +3915,22 @@
         <v>332483912.02</v>
       </c>
       <c r="D2" t="n">
-        <v>214591031919.6448</v>
+        <v>214591023941.9348</v>
       </c>
       <c r="E2" t="n">
-        <v>645.4177906410595</v>
+        <v>645.4177666467857</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07726519963532781</v>
+        <v>0.07726515958654644</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1422.888061247279</v>
+        <v>1422.888008349504</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3824,22 +3944,22 @@
         <v>282940199.01</v>
       </c>
       <c r="D3" t="n">
-        <v>179938999258.3465</v>
+        <v>179938992004.0915</v>
       </c>
       <c r="E3" t="n">
-        <v>635.9612380564803</v>
+        <v>635.9612124176523</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06148129166810185</v>
+        <v>0.06148124887439917</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1402.040145419316</v>
+        <v>1402.040088895956</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3853,22 +3973,22 @@
         <v>300706545.0100001</v>
       </c>
       <c r="D4" t="n">
-        <v>188711760560.2989</v>
+        <v>188711753201.8889</v>
       </c>
       <c r="E4" t="n">
-        <v>627.5612010840114</v>
+        <v>627.5611766136095</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04746081123309126</v>
+        <v>0.04746077038960551</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1383.521423909811</v>
+        <v>1383.521369962364</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3882,22 +4002,22 @@
         <v>278078103</v>
       </c>
       <c r="D5" t="n">
-        <v>174479653321.1478</v>
+        <v>174479645962.7378</v>
       </c>
       <c r="E5" t="n">
-        <v>627.4483730966325</v>
+        <v>627.448346634966</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04727249032512958</v>
+        <v>0.04727244615802906</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>1383.272683328836</v>
+        <v>1383.272624991446</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3911,22 +4031,22 @@
         <v>300485702.02</v>
       </c>
       <c r="D6" t="n">
-        <v>188798233302.9063</v>
+        <v>188798226769.2913</v>
       </c>
       <c r="E6" t="n">
-        <v>628.3102058890646</v>
+        <v>628.3101841455508</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04871097325611524</v>
+        <v>0.04871093696407162</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>1385.172679903032</v>
+        <v>1385.172631967281</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3940,22 +4060,22 @@
         <v>327693488.02</v>
       </c>
       <c r="D7" t="n">
-        <v>204780098147.8257</v>
+        <v>204780091456.5706</v>
       </c>
       <c r="E7" t="n">
-        <v>624.913541569454</v>
+        <v>624.9135211502048</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04304160944337442</v>
+        <v>0.04304157536165719</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>1377.684393744019</v>
+        <v>1377.684348727741</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3969,22 +4089,22 @@
         <v>357589591</v>
       </c>
       <c r="D8" t="n">
-        <v>229405343975.5568</v>
+        <v>229405336724.1168</v>
       </c>
       <c r="E8" t="n">
-        <v>641.5324991256715</v>
+        <v>641.5324788470052</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0707802694077172</v>
+        <v>0.07078023556064666</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>1414.322547572456</v>
+        <v>1414.322502866107</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3998,22 +4118,22 @@
         <v>370485240.02</v>
       </c>
       <c r="D9" t="n">
-        <v>238687749752.5028</v>
+        <v>238687742503.8778</v>
       </c>
       <c r="E9" t="n">
-        <v>644.2571092430502</v>
+        <v>644.2570896778309</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07532790925370161</v>
+        <v>0.07532787659744344</v>
       </c>
       <c r="G9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>1420.329223037229</v>
+        <v>1420.329179903746</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4027,22 +4147,22 @@
         <v>306928868.01</v>
       </c>
       <c r="D10" t="n">
-        <v>193561395099.2277</v>
+        <v>193561388019.5027</v>
       </c>
       <c r="E10" t="n">
-        <v>630.6392629477958</v>
+        <v>630.6392398814579</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05259839649377376</v>
+        <v>0.05259835799380738</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>1390.307319094711</v>
+        <v>1390.307268242662</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4056,22 +4176,22 @@
         <v>294730111.03</v>
       </c>
       <c r="D11" t="n">
-        <v>182854818134.092</v>
+        <v>182854810905.172</v>
       </c>
       <c r="E11" t="n">
-        <v>620.4144445746149</v>
+        <v>620.4144200473618</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0355321780446675</v>
+        <v>0.03553213710629145</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>1367.765684509196</v>
+        <v>1367.765630436414</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4085,22 +4205,22 @@
         <v>278902324</v>
       </c>
       <c r="D12" t="n">
-        <v>171520217078.9825</v>
+        <v>171520209703.6825</v>
       </c>
       <c r="E12" t="n">
-        <v>614.9831045473197</v>
+        <v>614.9830781032947</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02646674216168697</v>
+        <v>0.02646669802403197</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>1355.791752285021</v>
+        <v>1355.791693986524</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4114,22 +4234,22 @@
         <v>305496328.01</v>
       </c>
       <c r="D13" t="n">
-        <v>186530728886.8195</v>
+        <v>186530721404.5494</v>
       </c>
       <c r="E13" t="n">
-        <v>610.5825562679548</v>
+        <v>610.5825317757783</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01912179817437256</v>
+        <v>0.01912175729454257</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>1346.090303548333</v>
+        <v>1346.090249552881</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4152,7 +4272,7 @@
         <v>0.01111774538231211</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -4181,7 +4301,7 @@
         <v>0.005018273091192093</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -4210,7 +4330,7 @@
         <v>0.01544195713902331</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -4239,7 +4359,7 @@
         <v>0.003355439027818183</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H17" t="n">
         <v>2</v>
@@ -4268,7 +4388,7 @@
         <v>0.00536957613039397</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H18" t="n">
         <v>2</v>
@@ -4297,7 +4417,7 @@
         <v>0.0145689414097139</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
@@ -4326,7 +4446,7 @@
         <v>0.03912865348530959</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
@@ -4355,7 +4475,7 @@
         <v>0.04573043199637251</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
@@ -4384,7 +4504,7 @@
         <v>0.05004182162970362</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
@@ -4413,7 +4533,7 @@
         <v>0.0547357353567896</v>
       </c>
       <c r="G23" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H23" t="n">
         <v>4</v>
@@ -4442,7 +4562,7 @@
         <v>0.03397983951034167</v>
       </c>
       <c r="G24" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H24" t="n">
         <v>4</v>
@@ -4471,7 +4591,7 @@
         <v>0.03489294255166995</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H25" t="n">
         <v>4</v>
@@ -4500,7 +4620,7 @@
         <v>0.05407231572896915</v>
       </c>
       <c r="G26" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -4529,7 +4649,7 @@
         <v>0.0446998960634503</v>
       </c>
       <c r="G27" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -4558,7 +4678,7 @@
         <v>0.02564607186253928</v>
       </c>
       <c r="G28" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -4587,7 +4707,7 @@
         <v>-0.005255460204990879</v>
       </c>
       <c r="G29" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H29" t="n">
         <v>2</v>
@@ -4616,7 +4736,7 @@
         <v>-0.005159282455205773</v>
       </c>
       <c r="G30" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H30" t="n">
         <v>2</v>
@@ -4645,7 +4765,7 @@
         <v>0.01662217479072057</v>
       </c>
       <c r="G31" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H31" t="n">
         <v>2</v>
@@ -4674,7 +4794,7 @@
         <v>0.03768728145702852</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
@@ -4703,7 +4823,7 @@
         <v>0.04140058597533856</v>
       </c>
       <c r="G33" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H33" t="n">
         <v>3</v>
@@ -4732,7 +4852,7 @@
         <v>0.04146258828233757</v>
       </c>
       <c r="G34" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H34" t="n">
         <v>3</v>
@@ -4761,7 +4881,7 @@
         <v>0.05070299868862761</v>
       </c>
       <c r="G35" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H35" t="n">
         <v>4</v>
@@ -4790,7 +4910,7 @@
         <v>0.04234991120899041</v>
       </c>
       <c r="G36" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H36" t="n">
         <v>4</v>
@@ -4819,7 +4939,7 @@
         <v>0.03310887154716038</v>
       </c>
       <c r="G37" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H37" t="n">
         <v>4</v>
@@ -4848,7 +4968,7 @@
         <v>0.03014022625659499</v>
       </c>
       <c r="G38" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -4877,7 +4997,7 @@
         <v>0.01239560014339367</v>
       </c>
       <c r="G39" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -4906,7 +5026,7 @@
         <v>-0.01037094285092945</v>
       </c>
       <c r="G40" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -4935,7 +5055,7 @@
         <v>-0.02234624922534889</v>
       </c>
       <c r="G41" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H41" t="n">
         <v>2</v>
@@ -4964,7 +5084,7 @@
         <v>-0.01332959283944984</v>
       </c>
       <c r="G42" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H42" t="n">
         <v>2</v>
@@ -4993,7 +5113,7 @@
         <v>-0.007522138257441214</v>
       </c>
       <c r="G43" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H43" t="n">
         <v>2</v>
@@ -5022,7 +5142,7 @@
         <v>0.002774173076043244</v>
       </c>
       <c r="G44" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H44" t="n">
         <v>3</v>
@@ -5051,7 +5171,7 @@
         <v>0.005812723595943646</v>
       </c>
       <c r="G45" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H45" t="n">
         <v>3</v>
@@ -5080,7 +5200,7 @@
         <v>-0.0001281622510707689</v>
       </c>
       <c r="G46" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H46" t="n">
         <v>3</v>
@@ -5109,7 +5229,7 @@
         <v>0.005798551352125575</v>
       </c>
       <c r="G47" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H47" t="n">
         <v>4</v>
@@ -5138,7 +5258,7 @@
         <v>0.0142697616731208</v>
       </c>
       <c r="G48" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H48" t="n">
         <v>4</v>
@@ -5167,7 +5287,7 @@
         <v>0.006630546904983436</v>
       </c>
       <c r="G49" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H49" t="n">
         <v>4</v>
@@ -5196,7 +5316,7 @@
         <v>0.01135874913719794</v>
       </c>
       <c r="G50" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -5225,7 +5345,7 @@
         <v>0.00158584139446698</v>
       </c>
       <c r="G51" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -5254,7 +5374,7 @@
         <v>0.0004943352228414668</v>
       </c>
       <c r="G52" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -5283,7 +5403,7 @@
         <v>-0.03023291224285088</v>
       </c>
       <c r="G53" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H53" t="n">
         <v>2</v>
@@ -5312,7 +5432,7 @@
         <v>-0.03619156271650293</v>
       </c>
       <c r="G54" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H54" t="n">
         <v>2</v>
@@ -5341,7 +5461,7 @@
         <v>-0.007018965988378289</v>
       </c>
       <c r="G55" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
@@ -5370,7 +5490,7 @@
         <v>-0.0008959033638951873</v>
       </c>
       <c r="G56" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H56" t="n">
         <v>3</v>
@@ -5399,7 +5519,7 @@
         <v>0.007925452227224232</v>
       </c>
       <c r="G57" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H57" t="n">
         <v>3</v>
@@ -5428,7 +5548,7 @@
         <v>0.01721030590351288</v>
       </c>
       <c r="G58" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H58" t="n">
         <v>3</v>
@@ -5457,7 +5577,7 @@
         <v>0.02231843704751483</v>
       </c>
       <c r="G59" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H59" t="n">
         <v>4</v>
@@ -5486,7 +5606,7 @@
         <v>0.002897748801680964</v>
       </c>
       <c r="G60" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H60" t="n">
         <v>4</v>
@@ -5515,7 +5635,7 @@
         <v>0.00389971424966281</v>
       </c>
       <c r="G61" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H61" t="n">
         <v>4</v>
@@ -5544,7 +5664,7 @@
         <v>-0.02748121131636642</v>
       </c>
       <c r="G62" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -5573,7 +5693,7 @@
         <v>-0.01857254232013877</v>
       </c>
       <c r="G63" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -5602,7 +5722,7 @@
         <v>-0.02435619078134472</v>
       </c>
       <c r="G64" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -5631,7 +5751,7 @@
         <v>-0.06369815302300276</v>
       </c>
       <c r="G65" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H65" t="n">
         <v>2</v>
@@ -5660,7 +5780,7 @@
         <v>-0.05404582225952413</v>
       </c>
       <c r="G66" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H66" t="n">
         <v>2</v>
@@ -5689,7 +5809,7 @@
         <v>-0.04243926553323214</v>
       </c>
       <c r="G67" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H67" t="n">
         <v>2</v>
@@ -5718,7 +5838,7 @@
         <v>-0.01354297585931169</v>
       </c>
       <c r="G68" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H68" t="n">
         <v>3</v>
@@ -5747,7 +5867,7 @@
         <v>-0.004118886890496862</v>
       </c>
       <c r="G69" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H69" t="n">
         <v>3</v>
@@ -5776,7 +5896,7 @@
         <v>-0.01455882450582037</v>
       </c>
       <c r="G70" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H70" t="n">
         <v>3</v>
@@ -5805,7 +5925,7 @@
         <v>0.00439522235340898</v>
       </c>
       <c r="G71" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H71" t="n">
         <v>4</v>
@@ -5834,7 +5954,7 @@
         <v>-0.003746313420402704</v>
       </c>
       <c r="G72" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H72" t="n">
         <v>4</v>
@@ -5863,7 +5983,7 @@
         <v>-0.01605853233048685</v>
       </c>
       <c r="G73" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H73" t="n">
         <v>4</v>
@@ -5892,7 +6012,7 @@
         <v>-0.03511432398711213</v>
       </c>
       <c r="G74" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
@@ -5921,7 +6041,7 @@
         <v>-0.008437620703637254</v>
       </c>
       <c r="G75" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -5950,7 +6070,7 @@
         <v>-0.03117857292861368</v>
       </c>
       <c r="G76" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
@@ -5979,7 +6099,7 @@
         <v>-0.03928361585166878</v>
       </c>
       <c r="G77" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H77" t="n">
         <v>2</v>
@@ -6008,7 +6128,7 @@
         <v>-0.03788195719455209</v>
       </c>
       <c r="G78" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H78" t="n">
         <v>2</v>
@@ -6037,7 +6157,7 @@
         <v>-0.0177532915761511</v>
       </c>
       <c r="G79" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H79" t="n">
         <v>2</v>
@@ -6066,7 +6186,7 @@
         <v>-0.01310236048309173</v>
       </c>
       <c r="G80" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H80" t="n">
         <v>3</v>
@@ -6095,7 +6215,7 @@
         <v>-0.008678539752206496</v>
       </c>
       <c r="G81" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H81" t="n">
         <v>3</v>
@@ -6124,7 +6244,7 @@
         <v>-0.004141764801333879</v>
       </c>
       <c r="G82" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H82" t="n">
         <v>3</v>
@@ -6153,7 +6273,7 @@
         <v>1.642574651693381e-05</v>
       </c>
       <c r="G83" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H83" t="n">
         <v>4</v>
@@ -6182,7 +6302,7 @@
         <v>-0.01470502580322882</v>
       </c>
       <c r="G84" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H84" t="n">
         <v>4</v>
@@ -6211,7 +6331,7 @@
         <v>-0.01552034206631986</v>
       </c>
       <c r="G85" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H85" t="n">
         <v>4</v>
@@ -6240,7 +6360,7 @@
         <v>-0.01703554138701916</v>
       </c>
       <c r="G86" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -6269,7 +6389,7 @@
         <v>-0.01289961080171436</v>
       </c>
       <c r="G87" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -6298,7 +6418,7 @@
         <v>-0.03539719528073028</v>
       </c>
       <c r="G88" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H88" t="n">
         <v>1</v>
@@ -6327,7 +6447,7 @@
         <v>-0.04508011761521417</v>
       </c>
       <c r="G89" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H89" t="n">
         <v>2</v>
@@ -6356,7 +6476,7 @@
         <v>-0.04957830570333151</v>
       </c>
       <c r="G90" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H90" t="n">
         <v>2</v>
@@ -6385,7 +6505,7 @@
         <v>-0.04880070678863985</v>
       </c>
       <c r="G91" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H91" t="n">
         <v>2</v>
@@ -6414,7 +6534,7 @@
         <v>-0.0274894180589785</v>
       </c>
       <c r="G92" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H92" t="n">
         <v>3</v>
@@ -6443,7 +6563,7 @@
         <v>-0.02085837505734224</v>
       </c>
       <c r="G93" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H93" t="n">
         <v>3</v>
@@ -6472,7 +6592,7 @@
         <v>-0.01669978454361145</v>
       </c>
       <c r="G94" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H94" t="n">
         <v>3</v>
@@ -6501,7 +6621,7 @@
         <v>-0.02999219344874965</v>
       </c>
       <c r="G95" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H95" t="n">
         <v>4</v>
@@ -6530,7 +6650,7 @@
         <v>-0.03080314982097817</v>
       </c>
       <c r="G96" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H96" t="n">
         <v>4</v>
@@ -6559,7 +6679,7 @@
         <v>-0.04600766838125035</v>
       </c>
       <c r="G97" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H97" t="n">
         <v>4</v>
@@ -6588,7 +6708,7 @@
         <v>-0.05120162818415125</v>
       </c>
       <c r="G98" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -6617,7 +6737,7 @@
         <v>-0.06946387564298999</v>
       </c>
       <c r="G99" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -6646,7 +6766,7 @@
         <v>-0.1036546461764051</v>
       </c>
       <c r="G100" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -6675,7 +6795,7 @@
         <v>-0.1132003468526878</v>
       </c>
       <c r="G101" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H101" t="n">
         <v>2</v>
@@ -6704,7 +6824,7 @@
         <v>-0.1231526853843904</v>
       </c>
       <c r="G102" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H102" t="n">
         <v>2</v>
@@ -6733,7 +6853,7 @@
         <v>-0.09824854233094853</v>
       </c>
       <c r="G103" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H103" t="n">
         <v>2</v>
@@ -6762,7 +6882,7 @@
         <v>-0.07814990231786137</v>
       </c>
       <c r="G104" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H104" t="n">
         <v>3</v>
@@ -6791,7 +6911,7 @@
         <v>-0.06154336099479781</v>
       </c>
       <c r="G105" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H105" t="n">
         <v>3</v>
@@ -6820,7 +6940,7 @@
         <v>-0.08482641466001017</v>
       </c>
       <c r="G106" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H106" t="n">
         <v>3</v>
@@ -6849,7 +6969,7 @@
         <v>-0.06247971785652189</v>
       </c>
       <c r="G107" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H107" t="n">
         <v>4</v>
@@ -6878,7 +6998,7 @@
         <v>-0.07639133784549447</v>
       </c>
       <c r="G108" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H108" t="n">
         <v>4</v>
@@ -6907,7 +7027,7 @@
         <v>-0.06443636967118098</v>
       </c>
       <c r="G109" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H109" t="n">
         <v>4</v>
@@ -6936,7 +7056,7 @@
         <v>-0.0488799844984841</v>
       </c>
       <c r="G110" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -6965,7 +7085,7 @@
         <v>-0.05825045169669583</v>
       </c>
       <c r="G111" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -6994,7 +7114,7 @@
         <v>-0.07735581168612655</v>
       </c>
       <c r="G112" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -7023,7 +7143,7 @@
         <v>-0.1010225664365227</v>
       </c>
       <c r="G113" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H113" t="n">
         <v>2</v>
@@ -7052,7 +7172,7 @@
         <v>-0.08979818195601069</v>
       </c>
       <c r="G114" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H114" t="n">
         <v>2</v>
@@ -7081,7 +7201,7 @@
         <v>-0.06524048333304372</v>
       </c>
       <c r="G115" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H115" t="n">
         <v>2</v>
@@ -7110,7 +7230,7 @@
         <v>-0.04074387693241805</v>
       </c>
       <c r="G116" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H116" t="n">
         <v>3</v>
@@ -7139,7 +7259,7 @@
         <v>-0.03675707967139325</v>
       </c>
       <c r="G117" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H117" t="n">
         <v>3</v>
@@ -7168,7 +7288,7 @@
         <v>-0.07201037569984288</v>
       </c>
       <c r="G118" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H118" t="n">
         <v>3</v>
@@ -7197,7 +7317,7 @@
         <v>-0.08798764407113459</v>
       </c>
       <c r="G119" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H119" t="n">
         <v>4</v>
@@ -7226,7 +7346,7 @@
         <v>-0.09297937195930114</v>
       </c>
       <c r="G120" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H120" t="n">
         <v>4</v>
@@ -7255,7 +7375,7 @@
         <v>-0.06888446180263902</v>
       </c>
       <c r="G121" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H121" t="n">
         <v>4</v>
@@ -7284,7 +7404,7 @@
         <v>-0.06178402409839879</v>
       </c>
       <c r="G122" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H122" t="n">
         <v>1</v>
@@ -7313,7 +7433,7 @@
         <v>-0.1000963753988781</v>
       </c>
       <c r="G123" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H123" t="n">
         <v>1</v>
@@ -7342,7 +7462,7 @@
         <v>-0.129184632154868</v>
       </c>
       <c r="G124" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H124" t="n">
         <v>1</v>
@@ -7371,7 +7491,7 @@
         <v>-0.1349292609291222</v>
       </c>
       <c r="G125" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H125" t="n">
         <v>2</v>
@@ -7400,7 +7520,7 @@
         <v>-0.1059778059250063</v>
       </c>
       <c r="G126" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H126" t="n">
         <v>2</v>
@@ -7429,7 +7549,7 @@
         <v>-0.081007853314257</v>
       </c>
       <c r="G127" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H127" t="n">
         <v>2</v>
@@ -7458,7 +7578,7 @@
         <v>-0.06182654921614888</v>
       </c>
       <c r="G128" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H128" t="n">
         <v>3</v>
@@ -7487,7 +7607,7 @@
         <v>-0.05965103240997342</v>
       </c>
       <c r="G129" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H129" t="n">
         <v>3</v>
@@ -7516,7 +7636,7 @@
         <v>-0.0903372091951556</v>
       </c>
       <c r="G130" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H130" t="n">
         <v>3</v>
@@ -7545,7 +7665,7 @@
         <v>-0.1209466228210752</v>
       </c>
       <c r="G131" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H131" t="n">
         <v>4</v>
@@ -7574,7 +7694,7 @@
         <v>-0.1459020669822017</v>
       </c>
       <c r="G132" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H132" t="n">
         <v>4</v>
@@ -7603,7 +7723,7 @@
         <v>-0.1448500018406984</v>
       </c>
       <c r="G133" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H133" t="n">
         <v>4</v>
@@ -7632,7 +7752,7 @@
         <v>-0.1655768065392497</v>
       </c>
       <c r="G134" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H134" t="n">
         <v>1</v>
@@ -7661,7 +7781,7 @@
         <v>-0.1688920478560091</v>
       </c>
       <c r="G135" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H135" t="n">
         <v>1</v>
@@ -7690,7 +7810,7 @@
         <v>-0.20286842192788</v>
       </c>
       <c r="G136" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H136" t="n">
         <v>1</v>
@@ -7719,7 +7839,7 @@
         <v>-0.2134075015003669</v>
       </c>
       <c r="G137" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H137" t="n">
         <v>2</v>
@@ -7748,7 +7868,7 @@
         <v>-0.1749832923810191</v>
       </c>
       <c r="G138" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H138" t="n">
         <v>2</v>
@@ -7777,7 +7897,7 @@
         <v>-0.1347935101828394</v>
       </c>
       <c r="G139" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H139" t="n">
         <v>2</v>
@@ -7806,7 +7926,7 @@
         <v>-0.08586343302838688</v>
       </c>
       <c r="G140" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H140" t="n">
         <v>3</v>
@@ -7835,7 +7955,7 @@
         <v>-0.09583413286254644</v>
       </c>
       <c r="G141" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H141" t="n">
         <v>3</v>
@@ -7864,7 +7984,7 @@
         <v>-0.1212332640457878</v>
       </c>
       <c r="G142" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H142" t="n">
         <v>3</v>
@@ -7893,7 +8013,7 @@
         <v>-0.1291033474036325</v>
       </c>
       <c r="G143" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H143" t="n">
         <v>4</v>
@@ -7922,7 +8042,7 @@
         <v>-0.103972413775247</v>
       </c>
       <c r="G144" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H144" t="n">
         <v>4</v>
@@ -7951,7 +8071,7 @@
         <v>-0.1496729265861562</v>
       </c>
       <c r="G145" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H145" t="n">
         <v>4</v>
@@ -7980,7 +8100,7 @@
         <v>-0.1485961495296913</v>
       </c>
       <c r="G146" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H146" t="n">
         <v>1</v>
@@ -8009,7 +8129,7 @@
         <v>-0.1453195655542535</v>
       </c>
       <c r="G147" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H147" t="n">
         <v>1</v>
@@ -8038,7 +8158,7 @@
         <v>-0.1386143662583348</v>
       </c>
       <c r="G148" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H148" t="n">
         <v>1</v>
@@ -8067,7 +8187,7 @@
         <v>-0.1821179183493233</v>
       </c>
       <c r="G149" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H149" t="n">
         <v>2</v>
@@ -8096,7 +8216,7 @@
         <v>-0.1753852982577576</v>
       </c>
       <c r="G150" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H150" t="n">
         <v>2</v>
@@ -8125,7 +8245,7 @@
         <v>-0.1318627511501101</v>
       </c>
       <c r="G151" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H151" t="n">
         <v>2</v>
@@ -8154,7 +8274,7 @@
         <v>-0.1101448680751284</v>
       </c>
       <c r="G152" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H152" t="n">
         <v>3</v>
@@ -8183,7 +8303,7 @@
         <v>-0.1060645126133002</v>
       </c>
       <c r="G153" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H153" t="n">
         <v>3</v>
@@ -8212,7 +8332,7 @@
         <v>-0.1135082142199412</v>
       </c>
       <c r="G154" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H154" t="n">
         <v>3</v>
@@ -8241,7 +8361,7 @@
         <v>-0.1418981805314145</v>
       </c>
       <c r="G155" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H155" t="n">
         <v>4</v>
@@ -8270,7 +8390,7 @@
         <v>-0.1588733260713331</v>
       </c>
       <c r="G156" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H156" t="n">
         <v>4</v>
@@ -8299,7 +8419,7 @@
         <v>-0.1335324447797183</v>
       </c>
       <c r="G157" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H157" t="n">
         <v>4</v>
@@ -8328,7 +8448,7 @@
         <v>-0.1164250865344272</v>
       </c>
       <c r="G158" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H158" t="n">
         <v>1</v>
@@ -8357,7 +8477,7 @@
         <v>-0.09235435026425724</v>
       </c>
       <c r="G159" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H159" t="n">
         <v>1</v>
@@ -8386,7 +8506,7 @@
         <v>-0.1404967846693579</v>
       </c>
       <c r="G160" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H160" t="n">
         <v>1</v>
@@ -8415,7 +8535,7 @@
         <v>-0.1979602327171737</v>
       </c>
       <c r="G161" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H161" t="n">
         <v>2</v>
@@ -8444,7 +8564,7 @@
         <v>-0.1819517134786032</v>
       </c>
       <c r="G162" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H162" t="n">
         <v>2</v>
@@ -8473,7 +8593,7 @@
         <v>-0.1479617441739821</v>
       </c>
       <c r="G163" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H163" t="n">
         <v>2</v>
@@ -8502,7 +8622,7 @@
         <v>-0.1235469123516771</v>
       </c>
       <c r="G164" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H164" t="n">
         <v>3</v>
@@ -8531,7 +8651,7 @@
         <v>-0.1112892814595854</v>
       </c>
       <c r="G165" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H165" t="n">
         <v>3</v>
@@ -8560,7 +8680,7 @@
         <v>-0.1428458470250424</v>
       </c>
       <c r="G166" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H166" t="n">
         <v>3</v>
@@ -8580,22 +8700,22 @@
         <v>315466648.72</v>
       </c>
       <c r="D167" t="n">
-        <v>154932143967.0348</v>
+        <v>154941566540.2584</v>
       </c>
       <c r="E167" t="n">
-        <v>491.1205181139402</v>
+        <v>491.1503867966103</v>
       </c>
       <c r="F167" t="n">
-        <v>-0.1802719871332877</v>
+        <v>-0.1802221333906949</v>
       </c>
       <c r="G167" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H167" t="n">
         <v>4</v>
       </c>
       <c r="I167" t="n">
-        <v>1082.724294233993</v>
+        <v>1082.790142731807</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -8609,22 +8729,22 @@
         <v>318278457.49</v>
       </c>
       <c r="D168" t="n">
-        <v>156252560431.6124</v>
+        <v>156260369449.2323</v>
       </c>
       <c r="E168" t="n">
-        <v>490.9303685327861</v>
+        <v>490.9549037076813</v>
       </c>
       <c r="F168" t="n">
-        <v>-0.1805893653175784</v>
+        <v>-0.1805484137193039</v>
       </c>
       <c r="G168" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H168" t="n">
         <v>4</v>
       </c>
       <c r="I168" t="n">
-        <v>1082.30509046738</v>
+        <v>1082.359180713954</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -8638,22 +8758,22 @@
         <v>338710445.47</v>
       </c>
       <c r="D169" t="n">
-        <v>165146241137.4799</v>
+        <v>165162885979.7187</v>
       </c>
       <c r="E169" t="n">
-        <v>487.5735110805937</v>
+        <v>487.622652884342</v>
       </c>
       <c r="F169" t="n">
-        <v>-0.1861922875887348</v>
+        <v>-0.1861102651285657</v>
       </c>
       <c r="G169" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H169" t="n">
         <v>4</v>
       </c>
       <c r="I169" t="n">
-        <v>1074.904562528277</v>
+        <v>1075.01290054882</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -8667,22 +8787,22 @@
         <v>361191037.38</v>
       </c>
       <c r="D170" t="n">
-        <v>177351526240.8069</v>
+        <v>177376622712.9249</v>
       </c>
       <c r="E170" t="n">
-        <v>491.0186241809203</v>
+        <v>491.0881067248396</v>
       </c>
       <c r="F170" t="n">
-        <v>-0.1804420580388129</v>
+        <v>-0.1803260849007435</v>
       </c>
       <c r="G170" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H170" t="n">
         <v>1</v>
       </c>
       <c r="I170" t="n">
-        <v>1082.499658869257</v>
+        <v>1082.652840085581</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -8696,22 +8816,22 @@
         <v>335258891.09</v>
       </c>
       <c r="D171" t="n">
-        <v>169353608681.8348</v>
+        <v>169384015346.2678</v>
       </c>
       <c r="E171" t="n">
-        <v>505.1427812435614</v>
+        <v>505.2334773152871</v>
       </c>
       <c r="F171" t="n">
-        <v>-0.156867463259431</v>
+        <v>-0.15671608267583</v>
       </c>
       <c r="G171" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H171" t="n">
         <v>1</v>
       </c>
       <c r="I171" t="n">
-        <v>1113.637775529556</v>
+        <v>1113.837724089282</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -8725,22 +8845,22 @@
         <v>325310503.33</v>
       </c>
       <c r="D172" t="n">
-        <v>151953918586.3658</v>
+        <v>151993106906.3797</v>
       </c>
       <c r="E172" t="n">
-        <v>467.1042497272872</v>
+        <v>467.2247140824578</v>
       </c>
       <c r="F172" t="n">
-        <v>-0.2203574798686929</v>
+        <v>-0.2201564131185913</v>
       </c>
       <c r="G172" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H172" t="n">
         <v>1</v>
       </c>
       <c r="I172" t="n">
-        <v>1029.778028948777</v>
+        <v>1030.043604666187</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -8754,22 +8874,22 @@
         <v>295382039.3200001</v>
       </c>
       <c r="D173" t="n">
-        <v>130280851166.6377</v>
+        <v>130317918718.6098</v>
       </c>
       <c r="E173" t="n">
-        <v>441.0588113839206</v>
+        <v>441.1843015865661</v>
       </c>
       <c r="F173" t="n">
-        <v>-0.2638298550393369</v>
+        <v>-0.2636203996599449</v>
       </c>
       <c r="G173" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H173" t="n">
         <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>972.3582555769914</v>
+        <v>972.6349112777436</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -8783,22 +8903,22 @@
         <v>323464197.98</v>
       </c>
       <c r="D174" t="n">
-        <v>152433162012.342</v>
+        <v>152473724386.401</v>
       </c>
       <c r="E174" t="n">
-        <v>471.2520364364005</v>
+        <v>471.3774363239687</v>
       </c>
       <c r="F174" t="n">
-        <v>-0.2134344195780869</v>
+        <v>-0.2132251149433617</v>
       </c>
       <c r="G174" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H174" t="n">
         <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>1038.922239527689</v>
+        <v>1039.198696119821</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -8812,22 +8932,22 @@
         <v>363796362.72</v>
       </c>
       <c r="D175" t="n">
-        <v>182876880949.4888</v>
+        <v>182923277971.3556</v>
       </c>
       <c r="E175" t="n">
-        <v>502.6902401721977</v>
+        <v>502.8177758669471</v>
       </c>
       <c r="F175" t="n">
-        <v>-0.1609609933498121</v>
+        <v>-0.1607481238447302</v>
       </c>
       <c r="G175" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H175" t="n">
         <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>1108.230903483627</v>
+        <v>1108.512068676272</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -8841,22 +8961,22 @@
         <v>401883971.8900002</v>
       </c>
       <c r="D176" t="n">
-        <v>205967765565.5143</v>
+        <v>205996928296.2257</v>
       </c>
       <c r="E176" t="n">
-        <v>512.5055487952874</v>
+        <v>512.5781138457776</v>
       </c>
       <c r="F176" t="n">
-        <v>-0.1445782865873711</v>
+        <v>-0.1444571684453917</v>
       </c>
       <c r="G176" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H176" t="n">
         <v>3</v>
       </c>
       <c r="I176" t="n">
-        <v>1129.869732874091</v>
+        <v>1130.029709784401</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -8870,22 +8990,22 @@
         <v>393563699.96</v>
       </c>
       <c r="D177" t="n">
-        <v>201013924204.8849</v>
+        <v>201050121274.9237</v>
       </c>
       <c r="E177" t="n">
-        <v>510.7532128225114</v>
+        <v>510.8451854054566</v>
       </c>
       <c r="F177" t="n">
-        <v>-0.1475031061211891</v>
+        <v>-0.1473495949159449</v>
       </c>
       <c r="G177" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H177" t="n">
         <v>3</v>
       </c>
       <c r="I177" t="n">
-        <v>1126.006532988509</v>
+        <v>1126.209295744869</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -8899,22 +9019,22 @@
         <v>351433058.72</v>
       </c>
       <c r="D178" t="n">
-        <v>175842238249.5647</v>
+        <v>175878013420.4012</v>
       </c>
       <c r="E178" t="n">
-        <v>500.3577036549224</v>
+        <v>500.4595016217013</v>
       </c>
       <c r="F178" t="n">
-        <v>-0.1648542241429136</v>
+        <v>-0.1646843134143985</v>
       </c>
       <c r="G178" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H178" t="n">
         <v>3</v>
       </c>
       <c r="I178" t="n">
-        <v>1103.088593477642</v>
+        <v>1103.313017275203</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -8928,22 +9048,22 @@
         <v>313291653.9699998</v>
       </c>
       <c r="D179" t="n">
-        <v>147818692467.4064</v>
+        <v>147841586374.8496</v>
       </c>
       <c r="E179" t="n">
-        <v>471.8245462152056</v>
+        <v>471.8976215976904</v>
       </c>
       <c r="F179" t="n">
-        <v>-0.2124788449563445</v>
+        <v>-0.2123568750205254</v>
       </c>
       <c r="G179" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H179" t="n">
         <v>4</v>
       </c>
       <c r="I179" t="n">
-        <v>1040.184394586042</v>
+        <v>1040.345496574268</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -8957,22 +9077,22 @@
         <v>301619345.3299999</v>
       </c>
       <c r="D180" t="n">
-        <v>134985954680.743</v>
+        <v>135018144430.7121</v>
       </c>
       <c r="E180" t="n">
-        <v>447.5374566344729</v>
+        <v>447.6441797292201</v>
       </c>
       <c r="F180" t="n">
-        <v>-0.2530163646608481</v>
+        <v>-0.2528382334137154</v>
       </c>
       <c r="G180" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H180" t="n">
         <v>4</v>
       </c>
       <c r="I180" t="n">
-        <v>986.6410768963588</v>
+        <v>986.8763586310383</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -8986,22 +9106,22 @@
         <v>325325091.9899999</v>
       </c>
       <c r="D181" t="n">
-        <v>139526379564.011</v>
+        <v>139560179189.4995</v>
       </c>
       <c r="E181" t="n">
-        <v>428.8829327935757</v>
+        <v>428.9868277169024</v>
       </c>
       <c r="F181" t="n">
-        <v>-0.2841525831552374</v>
+        <v>-0.2839791724018593</v>
       </c>
       <c r="G181" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H181" t="n">
         <v>4</v>
       </c>
       <c r="I181" t="n">
-        <v>945.5153136367172</v>
+        <v>945.7443603846832</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -9015,22 +9135,22 @@
         <v>353691242.9900001</v>
       </c>
       <c r="D182" t="n">
-        <v>161014969060.6654</v>
+        <v>161038384325.4114</v>
       </c>
       <c r="E182" t="n">
-        <v>455.2416047948855</v>
+        <v>455.3078073520878</v>
       </c>
       <c r="F182" t="n">
-        <v>-0.2401573904794831</v>
+        <v>-0.2400468919589356</v>
       </c>
       <c r="G182" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H182" t="n">
         <v>1</v>
       </c>
       <c r="I182" t="n">
-        <v>1003.625641930805</v>
+        <v>1003.771592088413</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -9044,22 +9164,22 @@
         <v>314822845.6500002</v>
       </c>
       <c r="D183" t="n">
-        <v>135657677633.6077</v>
+        <v>135697119874.8574</v>
       </c>
       <c r="E183" t="n">
-        <v>430.9016308950565</v>
+        <v>431.0269148183635</v>
       </c>
       <c r="F183" t="n">
-        <v>-0.280783179267044</v>
+        <v>-0.2805740681879732</v>
       </c>
       <c r="G183" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H183" t="n">
         <v>1</v>
       </c>
       <c r="I183" t="n">
-        <v>949.9657354712416</v>
+        <v>950.2419364085644</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -9073,22 +9193,22 @@
         <v>305889024.1199999</v>
       </c>
       <c r="D184" t="n">
-        <v>118966615746.9128</v>
+        <v>119004043971.3661</v>
       </c>
       <c r="E184" t="n">
-        <v>388.9208384941668</v>
+        <v>389.0431973285873</v>
       </c>
       <c r="F184" t="n">
-        <v>-0.3508532135338012</v>
+        <v>-0.3506489847131821</v>
       </c>
       <c r="G184" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H184" t="n">
         <v>1</v>
       </c>
       <c r="I184" t="n">
-        <v>857.4148805442403</v>
+        <v>857.6846328306036</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -9102,22 +9222,22 @@
         <v>294568958.4599999</v>
       </c>
       <c r="D185" t="n">
-        <v>116606267223.6425</v>
+        <v>116646161120.9464</v>
       </c>
       <c r="E185" t="n">
-        <v>395.8538870940698</v>
+        <v>395.9893185309476</v>
       </c>
       <c r="F185" t="n">
-        <v>-0.3392812796758305</v>
+        <v>-0.3390552314075603</v>
       </c>
       <c r="G185" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H185" t="n">
         <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>872.6994794875862</v>
+        <v>872.9980516333271</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -9131,22 +9251,22 @@
         <v>318633901.01</v>
       </c>
       <c r="D186" t="n">
-        <v>132149850300.7968</v>
+        <v>132223162145.6396</v>
       </c>
       <c r="E186" t="n">
-        <v>414.738826853987</v>
+        <v>414.968908601756</v>
       </c>
       <c r="F186" t="n">
-        <v>-0.3077604745546056</v>
+        <v>-0.3073764456921587</v>
       </c>
       <c r="G186" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H186" t="n">
         <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>914.3332176822996</v>
+        <v>914.8404559034312</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -9160,22 +9280,22 @@
         <v>369680268.84</v>
       </c>
       <c r="D187" t="n">
-        <v>175547944390.6337</v>
+        <v>175600706557.9177</v>
       </c>
       <c r="E187" t="n">
-        <v>474.8642521319198</v>
+        <v>475.0069759171238</v>
       </c>
       <c r="F187" t="n">
-        <v>-0.2074052795097685</v>
+        <v>-0.2071670596013775</v>
       </c>
       <c r="G187" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H187" t="n">
         <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>1046.88573025003</v>
+        <v>1047.200379106891</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -9189,22 +9309,22 @@
         <v>413857711.4400001</v>
       </c>
       <c r="D188" t="n">
-        <v>205901334506.1659</v>
+        <v>205933255532.0861</v>
       </c>
       <c r="E188" t="n">
-        <v>497.5172113858675</v>
+        <v>497.5943418223383</v>
       </c>
       <c r="F188" t="n">
-        <v>-0.1695952825947526</v>
+        <v>-0.1694665443785963</v>
       </c>
       <c r="G188" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H188" t="n">
         <v>3</v>
       </c>
       <c r="I188" t="n">
-        <v>1096.826444221284</v>
+        <v>1096.996485981527</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -9218,22 +9338,22 @@
         <v>411613836.8800002</v>
       </c>
       <c r="D189" t="n">
-        <v>206237885617.5125</v>
+        <v>206275812361.3413</v>
       </c>
       <c r="E189" t="n">
-        <v>501.0470181973937</v>
+        <v>501.1391597641504</v>
       </c>
       <c r="F189" t="n">
-        <v>-0.1637036909859808</v>
+        <v>-0.1635498977302847</v>
       </c>
       <c r="G189" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H189" t="n">
         <v>3</v>
       </c>
       <c r="I189" t="n">
-        <v>1104.608256317974</v>
+        <v>1104.811391616046</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -9247,22 +9367,22 @@
         <v>353194778.05</v>
       </c>
       <c r="D190" t="n">
-        <v>170814728827.2671</v>
+        <v>170854439624.5045</v>
       </c>
       <c r="E190" t="n">
-        <v>483.6275603233457</v>
+        <v>483.7399934613913</v>
       </c>
       <c r="F190" t="n">
-        <v>-0.1927784640032953</v>
+        <v>-0.1925908021373558</v>
       </c>
       <c r="G190" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H190" t="n">
         <v>3</v>
       </c>
       <c r="I190" t="n">
-        <v>1066.205319488848</v>
+        <v>1066.453189584983</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -9276,22 +9396,22 @@
         <v>314473312.79</v>
       </c>
       <c r="D191" t="n">
-        <v>144952646041.3123</v>
+        <v>144981418325.4933</v>
       </c>
       <c r="E191" t="n">
-        <v>460.9378288901395</v>
+        <v>461.0293224541743</v>
       </c>
       <c r="F191" t="n">
-        <v>-0.2306498372695747</v>
+        <v>-0.2304971255935805</v>
       </c>
       <c r="G191" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H191" t="n">
         <v>4</v>
       </c>
       <c r="I191" t="n">
-        <v>1016.183537571202</v>
+        <v>1016.385244282473</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -9305,22 +9425,22 @@
         <v>298296665.97</v>
       </c>
       <c r="D192" t="n">
-        <v>128449629426.9714</v>
+        <v>128477773481.6743</v>
       </c>
       <c r="E192" t="n">
-        <v>430.6103422553497</v>
+        <v>430.7046914650915</v>
       </c>
       <c r="F192" t="n">
-        <v>-0.2812693683977985</v>
+        <v>-0.2811118903707875</v>
       </c>
       <c r="G192" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H192" t="n">
         <v>4</v>
       </c>
       <c r="I192" t="n">
-        <v>949.323560536144</v>
+        <v>949.5315628039407</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -9334,22 +9454,22 @@
         <v>346486389.33</v>
       </c>
       <c r="D193" t="n">
-        <v>160206698264.1296</v>
+        <v>160239952765.8615</v>
       </c>
       <c r="E193" t="n">
-        <v>462.3751558435557</v>
+        <v>462.4711322015194</v>
       </c>
       <c r="F193" t="n">
-        <v>-0.2282507984921106</v>
+        <v>-0.2280906045961236</v>
       </c>
       <c r="G193" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H193" t="n">
         <v>4</v>
       </c>
       <c r="I193" t="n">
-        <v>1019.352268572703</v>
+        <v>1019.56385805147</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -9360,25 +9480,25 @@
         <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>344422637.41</v>
+        <v>345564690.4</v>
       </c>
       <c r="D194" t="n">
-        <v>156037863543.1925</v>
+        <v>156071783779.8932</v>
       </c>
       <c r="E194" t="n">
-        <v>453.0418346383123</v>
+        <v>451.6427404641259</v>
       </c>
       <c r="F194" t="n">
-        <v>-0.2438290212762095</v>
+        <v>-0.2461642458186973</v>
       </c>
       <c r="G194" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H194" t="n">
         <v>1</v>
       </c>
       <c r="I194" t="n">
-        <v>998.776028643623</v>
+        <v>995.691585627212</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -9389,25 +9509,25 @@
         <v>2</v>
       </c>
       <c r="C195" t="n">
-        <v>291027018.9400001</v>
+        <v>292424145.15</v>
       </c>
       <c r="D195" t="n">
-        <v>122156558115.3555</v>
+        <v>122189464127.116</v>
       </c>
       <c r="E195" t="n">
-        <v>419.7430141032372</v>
+        <v>417.8501199497001</v>
       </c>
       <c r="F195" t="n">
-        <v>-0.2994079982915608</v>
+        <v>-0.3025674231288796</v>
       </c>
       <c r="G195" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H195" t="n">
         <v>1</v>
       </c>
       <c r="I195" t="n">
-        <v>925.3654488919972</v>
+        <v>921.1923744411087</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -9418,25 +9538,25 @@
         <v>3</v>
       </c>
       <c r="C196" t="n">
-        <v>319893251.02</v>
+        <v>321293833.43</v>
       </c>
       <c r="D196" t="n">
-        <v>130948364475.6366</v>
+        <v>130992887125.1756</v>
       </c>
       <c r="E196" t="n">
-        <v>409.3501943479564</v>
+        <v>407.7043301041597</v>
       </c>
       <c r="F196" t="n">
-        <v>-0.3167546274220137</v>
+        <v>-0.3195017352626656</v>
       </c>
       <c r="G196" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H196" t="n">
         <v>1</v>
       </c>
       <c r="I196" t="n">
-        <v>902.4534384595047</v>
+        <v>898.8249661476303</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -9447,25 +9567,25 @@
         <v>4</v>
       </c>
       <c r="C197" t="n">
-        <v>296510295.3</v>
+        <v>297545922.2499999</v>
       </c>
       <c r="D197" t="n">
-        <v>119903345616.1091</v>
+        <v>119949787286.8673</v>
       </c>
       <c r="E197" t="n">
-        <v>404.3817281109739</v>
+        <v>403.1303349070426</v>
       </c>
       <c r="F197" t="n">
-        <v>-0.3250474818339568</v>
+        <v>-0.3271361790610914</v>
       </c>
       <c r="G197" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H197" t="n">
         <v>2</v>
       </c>
       <c r="I197" t="n">
-        <v>891.4999577934531</v>
+        <v>888.7411363360661</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -9476,25 +9596,25 @@
         <v>5</v>
       </c>
       <c r="C198" t="n">
-        <v>324929606.96</v>
+        <v>325858747.93</v>
       </c>
       <c r="D198" t="n">
-        <v>136797466380.1694</v>
+        <v>136836902229.1036</v>
       </c>
       <c r="E198" t="n">
-        <v>421.0064686318648</v>
+        <v>419.9270484476866</v>
       </c>
       <c r="F198" t="n">
-        <v>-0.2972991695379247</v>
+        <v>-0.2991008270333654</v>
       </c>
       <c r="G198" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H198" t="n">
         <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>928.1508607458094</v>
+        <v>925.7711710077699</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -9505,25 +9625,25 @@
         <v>6</v>
       </c>
       <c r="C199" t="n">
-        <v>360390471.3</v>
+        <v>360996056.4500001</v>
       </c>
       <c r="D199" t="n">
-        <v>160806007523.1508</v>
+        <v>160844216404.5883</v>
       </c>
       <c r="E199" t="n">
-        <v>446.1993874119136</v>
+        <v>445.5567132403457</v>
       </c>
       <c r="F199" t="n">
-        <v>-0.2552497326111403</v>
+        <v>-0.2563224184431297</v>
       </c>
       <c r="G199" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H199" t="n">
         <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>983.6911694883047</v>
+        <v>982.2743300096663</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -9534,25 +9654,25 @@
         <v>7</v>
       </c>
       <c r="C200" t="n">
-        <v>406926547.25</v>
+        <v>406971865.19</v>
       </c>
       <c r="D200" t="n">
-        <v>194767485809.7708</v>
+        <v>194796584412.3592</v>
       </c>
       <c r="E200" t="n">
-        <v>478.6305713549653</v>
+        <v>478.6487742129689</v>
       </c>
       <c r="F200" t="n">
-        <v>-0.2011189256339721</v>
+        <v>-0.2010885432897825</v>
       </c>
       <c r="G200" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H200" t="n">
         <v>3</v>
       </c>
       <c r="I200" t="n">
-        <v>1055.188957609156</v>
+        <v>1055.229087629912</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -9563,25 +9683,25 @@
         <v>8</v>
       </c>
       <c r="C201" t="n">
-        <v>386791100.23</v>
+        <v>387187231.7</v>
       </c>
       <c r="D201" t="n">
-        <v>182290770412.7428</v>
+        <v>182328043021.456</v>
       </c>
       <c r="E201" t="n">
-        <v>471.2899813474148</v>
+        <v>470.9040693850337</v>
       </c>
       <c r="F201" t="n">
-        <v>-0.2133710858232203</v>
+        <v>-0.2140152105021869</v>
       </c>
       <c r="G201" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H201" t="n">
         <v>3</v>
       </c>
       <c r="I201" t="n">
-        <v>1039.005892878511</v>
+        <v>1038.155111366246</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -9592,25 +9712,25 @@
         <v>9</v>
       </c>
       <c r="C202" t="n">
-        <v>338055694.17</v>
+        <v>338109423.33</v>
       </c>
       <c r="D202" t="n">
-        <v>152249583301.4578</v>
+        <v>152280712416.9059</v>
       </c>
       <c r="E202" t="n">
-        <v>450.3683444092357</v>
+        <v>450.388844289257</v>
       </c>
       <c r="F202" t="n">
-        <v>-0.2482913370461056</v>
+        <v>-0.2482571207482845</v>
       </c>
       <c r="G202" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H202" t="n">
         <v>3</v>
       </c>
       <c r="I202" t="n">
-        <v>992.8820520846012</v>
+        <v>992.927246120096</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -9621,25 +9741,25 @@
         <v>10</v>
       </c>
       <c r="C203" t="n">
-        <v>322336627.73</v>
+        <v>320630010.1</v>
       </c>
       <c r="D203" t="n">
-        <v>137490153926.8835</v>
+        <v>137530799218.4129</v>
       </c>
       <c r="E203" t="n">
-        <v>426.542136694592</v>
+        <v>428.9392598513126</v>
       </c>
       <c r="F203" t="n">
-        <v>-0.2880595999952484</v>
+        <v>-0.2840585678058347</v>
       </c>
       <c r="G203" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H203" t="n">
         <v>4</v>
       </c>
       <c r="I203" t="n">
-        <v>940.3547945568976</v>
+        <v>945.6394922682041</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -9650,25 +9770,25 @@
         <v>11</v>
       </c>
       <c r="C204" t="n">
-        <v>311850496.6700001</v>
+        <v>309587425.1</v>
       </c>
       <c r="D204" t="n">
-        <v>132099496723.1551</v>
+        <v>132144974366.0841</v>
       </c>
       <c r="E204" t="n">
-        <v>423.5988017775795</v>
+        <v>426.8421894829865</v>
       </c>
       <c r="F204" t="n">
-        <v>-0.2929723128503119</v>
+        <v>-0.2875587826461171</v>
       </c>
       <c r="G204" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H204" t="n">
         <v>4</v>
       </c>
       <c r="I204" t="n">
-        <v>933.8659183988518</v>
+        <v>941.0162909341922</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -9679,25 +9799,25 @@
         <v>12</v>
       </c>
       <c r="C205" t="n">
-        <v>354897675.8000001</v>
+        <v>351861637.07</v>
       </c>
       <c r="D205" t="n">
-        <v>154369393122.0129</v>
+        <v>154377907719.9022</v>
       </c>
       <c r="E205" t="n">
-        <v>434.968735070011</v>
+        <v>438.7460622460241</v>
       </c>
       <c r="F205" t="n">
-        <v>-0.2739947859898487</v>
+        <v>-0.267690058767635</v>
       </c>
       <c r="G205" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H205" t="n">
         <v>4</v>
       </c>
       <c r="I205" t="n">
-        <v>958.9320733353463</v>
+        <v>967.2595688275846</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -9708,25 +9828,25 @@
         <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>374820337.71</v>
+        <v>374838323.87</v>
       </c>
       <c r="D206" t="n">
-        <v>170282290084.7661</v>
+        <v>170312386318.6317</v>
       </c>
       <c r="E206" t="n">
-        <v>454.3037635714267</v>
+        <v>454.3622555992937</v>
       </c>
       <c r="F206" t="n">
-        <v>-0.2417227388901801</v>
+        <v>-0.2416251099946168</v>
       </c>
       <c r="G206" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H206" t="n">
         <v>1</v>
       </c>
       <c r="I206" t="n">
-        <v>1001.558077169567</v>
+        <v>1001.687028694203</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -9737,25 +9857,25 @@
         <v>2</v>
       </c>
       <c r="C207" t="n">
-        <v>308632286.96</v>
+        <v>308647892.4299998</v>
       </c>
       <c r="D207" t="n">
-        <v>123351014780.9323</v>
+        <v>123384032535.0363</v>
       </c>
       <c r="E207" t="n">
-        <v>399.6698336260556</v>
+        <v>399.7566014905457</v>
       </c>
       <c r="F207" t="n">
-        <v>-0.3329120929843783</v>
+        <v>-0.3327672689615248</v>
       </c>
       <c r="G207" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H207" t="n">
         <v>1</v>
       </c>
       <c r="I207" t="n">
-        <v>881.1121152120022</v>
+        <v>881.3034036460573</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -9766,25 +9886,25 @@
         <v>3</v>
       </c>
       <c r="C208" t="n">
-        <v>323948781.5599999</v>
+        <v>323965391.02</v>
       </c>
       <c r="D208" t="n">
-        <v>125915120712.801</v>
+        <v>125943811270.1409</v>
       </c>
       <c r="E208" t="n">
-        <v>388.6883602600607</v>
+        <v>388.756993065243</v>
       </c>
       <c r="F208" t="n">
-        <v>-0.3512412423655233</v>
+        <v>-0.3511266875242277</v>
       </c>
       <c r="G208" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H208" t="n">
         <v>1</v>
       </c>
       <c r="I208" t="n">
-        <v>856.9023590293299</v>
+        <v>857.0536669116347</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -9795,25 +9915,25 @@
         <v>4</v>
       </c>
       <c r="C209" t="n">
-        <v>303466559.1799999</v>
+        <v>303479515.33</v>
       </c>
       <c r="D209" t="n">
-        <v>116115687046.2829</v>
+        <v>116143375558.0651</v>
       </c>
       <c r="E209" t="n">
-        <v>382.6309144573962</v>
+        <v>382.7058160145411</v>
       </c>
       <c r="F209" t="n">
-        <v>-0.3613517098123629</v>
+        <v>-0.3612266918130441</v>
       </c>
       <c r="G209" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H209" t="n">
         <v>2</v>
       </c>
       <c r="I209" t="n">
-        <v>843.5481140127756</v>
+        <v>843.7132419856572</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -9824,25 +9944,25 @@
         <v>5</v>
       </c>
       <c r="C210" t="n">
-        <v>341935300.77</v>
+        <v>341946769.52</v>
       </c>
       <c r="D210" t="n">
-        <v>138355650385.4038</v>
+        <v>138394578985.5095</v>
       </c>
       <c r="E210" t="n">
-        <v>404.62523194839</v>
+        <v>404.7255050245911</v>
       </c>
       <c r="F210" t="n">
-        <v>-0.3246410501956755</v>
+        <v>-0.3244736846581617</v>
       </c>
       <c r="G210" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H210" t="n">
         <v>2</v>
       </c>
       <c r="I210" t="n">
-        <v>892.0367863534209</v>
+        <v>892.2578483772135</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -9853,25 +9973,25 @@
         <v>6</v>
       </c>
       <c r="C211" t="n">
-        <v>374914808.49</v>
+        <v>374930071.58</v>
       </c>
       <c r="D211" t="n">
-        <v>160778362604.1436</v>
+        <v>160818930718.2976</v>
       </c>
       <c r="E211" t="n">
-        <v>428.8397229538402</v>
+        <v>428.930467061731</v>
       </c>
       <c r="F211" t="n">
-        <v>-0.2842247045892974</v>
+        <v>-0.2840732438286549</v>
       </c>
       <c r="G211" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H211" t="n">
         <v>2</v>
       </c>
       <c r="I211" t="n">
-        <v>945.4200532240362</v>
+        <v>945.6201076842923</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -9882,25 +10002,25 @@
         <v>7</v>
       </c>
       <c r="C212" t="n">
-        <v>414393752.72</v>
+        <v>414418886.95</v>
       </c>
       <c r="D212" t="n">
-        <v>190379962916.0775</v>
+        <v>190424421326.2244</v>
       </c>
       <c r="E212" t="n">
-        <v>459.4180333715469</v>
+        <v>459.4974488920897</v>
       </c>
       <c r="F212" t="n">
-        <v>-0.2331865241202971</v>
+        <v>-0.2330539718761039</v>
       </c>
       <c r="G212" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H212" t="n">
         <v>3</v>
       </c>
       <c r="I212" t="n">
-        <v>1012.832996370912</v>
+        <v>1013.008075827501</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -9911,25 +10031,25 @@
         <v>8</v>
       </c>
       <c r="C213" t="n">
-        <v>411007209.6</v>
+        <v>411030574.1700001</v>
       </c>
       <c r="D213" t="n">
-        <v>187650671331.7682</v>
+        <v>187694470242.0007</v>
       </c>
       <c r="E213" t="n">
-        <v>456.5629676287027</v>
+        <v>456.6435735857723</v>
       </c>
       <c r="F213" t="n">
-        <v>-0.2379519071203259</v>
+        <v>-0.237817367921541</v>
       </c>
       <c r="G213" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H213" t="n">
         <v>3</v>
       </c>
       <c r="I213" t="n">
-        <v>1006.538718434238</v>
+        <v>1006.716422327194</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -9940,25 +10060,25 @@
         <v>9</v>
       </c>
       <c r="C214" t="n">
-        <v>358900117.72</v>
+        <v>358919294.5599999</v>
       </c>
       <c r="D214" t="n">
-        <v>160400518582.8232</v>
+        <v>160439677991.4717</v>
       </c>
       <c r="E214" t="n">
-        <v>446.9224462834014</v>
+        <v>447.0076711483429</v>
       </c>
       <c r="F214" t="n">
-        <v>-0.2540428768801142</v>
+        <v>-0.2539006282738991</v>
       </c>
       <c r="G214" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H214" t="n">
         <v>3</v>
       </c>
       <c r="I214" t="n">
-        <v>985.2852250763867</v>
+        <v>985.4731118136368</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -9969,25 +10089,25 @@
         <v>10</v>
       </c>
       <c r="C215" t="n">
-        <v>327270536.35</v>
+        <v>327291940.5099999</v>
       </c>
       <c r="D215" t="n">
-        <v>140826059524.6895</v>
+        <v>140855078589.95</v>
       </c>
       <c r="E215" t="n">
-        <v>430.3047292166955</v>
+        <v>430.3652524118492</v>
       </c>
       <c r="F215" t="n">
-        <v>-0.281779466346555</v>
+        <v>-0.2816784472348181</v>
       </c>
       <c r="G215" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H215" t="n">
         <v>4</v>
       </c>
       <c r="I215" t="n">
-        <v>948.6498060311267</v>
+        <v>948.7832354671627</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -9998,25 +10118,25 @@
         <v>11</v>
       </c>
       <c r="C216" t="n">
-        <v>324213677.9899999</v>
+        <v>324233265.98</v>
       </c>
       <c r="D216" t="n">
-        <v>138104333263.7313</v>
+        <v>138148501905.7901</v>
       </c>
       <c r="E216" t="n">
-        <v>425.967016937487</v>
+        <v>426.0775077727886</v>
       </c>
       <c r="F216" t="n">
-        <v>-0.2890195309251605</v>
+        <v>-0.2888351109518114</v>
       </c>
       <c r="G216" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H216" t="n">
         <v>4</v>
       </c>
       <c r="I216" t="n">
-        <v>939.0868855403841</v>
+        <v>939.33047363589</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -10027,25 +10147,25 @@
         <v>12</v>
       </c>
       <c r="C217" t="n">
-        <v>340219127.72</v>
+        <v>343900260.12</v>
       </c>
       <c r="D217" t="n">
-        <v>145846975412.7629</v>
+        <v>145876422922.895</v>
       </c>
       <c r="E217" t="n">
-        <v>428.6854075200465</v>
+        <v>424.1823570357088</v>
       </c>
       <c r="F217" t="n">
-        <v>-0.2844822720889901</v>
+        <v>-0.2919983022470057</v>
       </c>
       <c r="G217" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H217" t="n">
         <v>4</v>
       </c>
       <c r="I217" t="n">
-        <v>945.0798494186946</v>
+        <v>935.1524243209236</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -10056,25 +10176,25 @@
         <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>359574970.19</v>
+        <v>361338960.48</v>
       </c>
       <c r="D218" t="n">
-        <v>151447205697.6722</v>
+        <v>151697682097.0909</v>
       </c>
       <c r="E218" t="n">
-        <v>421.183948420123</v>
+        <v>419.8209954873863</v>
       </c>
       <c r="F218" t="n">
-        <v>-0.2970029384728666</v>
+        <v>-0.2992778397607903</v>
       </c>
       <c r="G218" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H218" t="n">
         <v>1</v>
       </c>
       <c r="I218" t="n">
-        <v>928.5421326870031</v>
+        <v>925.5373666514917</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -10085,25 +10205,25 @@
         <v>2</v>
       </c>
       <c r="C219" t="n">
-        <v>315655291.46</v>
+        <v>316990404.61</v>
       </c>
       <c r="D219" t="n">
-        <v>126454918973.7381</v>
+        <v>126194390756.1519</v>
       </c>
       <c r="E219" t="n">
-        <v>400.6108004362806</v>
+        <v>398.1016110295562</v>
       </c>
       <c r="F219" t="n">
-        <v>-0.3313415276647265</v>
+        <v>-0.3355296093481782</v>
       </c>
       <c r="G219" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H219" t="n">
         <v>1</v>
       </c>
       <c r="I219" t="n">
-        <v>883.1865706418242</v>
+        <v>877.6548116757598</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -10114,25 +10234,25 @@
         <v>3</v>
       </c>
       <c r="C220" t="n">
-        <v>326548929.91</v>
+        <v>329458732.27</v>
       </c>
       <c r="D220" t="n">
-        <v>126528091642.5943</v>
+        <v>127270056508.8244</v>
       </c>
       <c r="E220" t="n">
-        <v>387.4705443912087</v>
+        <v>386.3004499286524</v>
       </c>
       <c r="F220" t="n">
-        <v>-0.3532738957477223</v>
+        <v>-0.3552268974515427</v>
       </c>
       <c r="G220" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H220" t="n">
         <v>1</v>
       </c>
       <c r="I220" t="n">
-        <v>854.2175621648587</v>
+        <v>851.6379719127069</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -10143,25 +10263,25 @@
         <v>4</v>
       </c>
       <c r="C221" t="n">
-        <v>297333946.63</v>
+        <v>299823167.99</v>
       </c>
       <c r="D221" t="n">
-        <v>103841083288.9281</v>
+        <v>104725567160.1998</v>
       </c>
       <c r="E221" t="n">
-        <v>349.2405911463152</v>
+        <v>349.2911100308721</v>
       </c>
       <c r="F221" t="n">
-        <v>-0.4170834138793867</v>
+        <v>-0.4169990929371277</v>
       </c>
       <c r="G221" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H221" t="n">
         <v>2</v>
       </c>
       <c r="I221" t="n">
-        <v>769.9358072411666</v>
+        <v>770.0471811740608</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -10172,25 +10292,25 @@
         <v>5</v>
       </c>
       <c r="C222" t="n">
-        <v>331679522.33</v>
+        <v>333868759.6700001</v>
       </c>
       <c r="D222" t="n">
-        <v>123189946951.3786</v>
+        <v>124336029296.85</v>
       </c>
       <c r="E222" t="n">
-        <v>371.4125794863283</v>
+        <v>372.409893695191</v>
       </c>
       <c r="F222" t="n">
-        <v>-0.3800762042986087</v>
+        <v>-0.3784115896786081</v>
       </c>
       <c r="G222" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H222" t="n">
         <v>2</v>
       </c>
       <c r="I222" t="n">
-        <v>818.8161727355596</v>
+        <v>821.0148516404181</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -10201,25 +10321,25 @@
         <v>6</v>
       </c>
       <c r="C223" t="n">
-        <v>354890953.5800002</v>
+        <v>356505690.02</v>
       </c>
       <c r="D223" t="n">
-        <v>139120102636.1018</v>
+        <v>139790363041.5156</v>
       </c>
       <c r="E223" t="n">
-        <v>392.008027346747</v>
+        <v>392.1125719863639</v>
       </c>
       <c r="F223" t="n">
-        <v>-0.3457003944392367</v>
+        <v>-0.3455258992460444</v>
       </c>
       <c r="G223" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H223" t="n">
         <v>2</v>
       </c>
       <c r="I223" t="n">
-        <v>864.2208970886386</v>
+        <v>864.4513762011378</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -10230,25 +10350,25 @@
         <v>7</v>
       </c>
       <c r="C224" t="n">
-        <v>415190456.2900001</v>
+        <v>413677113.4200001</v>
       </c>
       <c r="D224" t="n">
-        <v>177588375177.8423</v>
+        <v>178868344373.9786</v>
       </c>
       <c r="E224" t="n">
-        <v>427.7274982780464</v>
+        <v>432.3863674623361</v>
       </c>
       <c r="F224" t="n">
-        <v>-0.2860811159786059</v>
+        <v>-0.2783050092231603</v>
       </c>
       <c r="G224" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H224" t="n">
         <v>3</v>
       </c>
       <c r="I224" t="n">
-        <v>942.9680427037813</v>
+        <v>953.238985707466</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -10259,25 +10379,25 @@
         <v>8</v>
       </c>
       <c r="C225" t="n">
-        <v>405103765.2099999</v>
+        <v>404953556.2000001</v>
       </c>
       <c r="D225" t="n">
-        <v>171782632561.9474</v>
+        <v>173131780597.812</v>
       </c>
       <c r="E225" t="n">
-        <v>424.0460033070732</v>
+        <v>427.5349060332861</v>
       </c>
       <c r="F225" t="n">
-        <v>-0.2922258899101127</v>
+        <v>-0.2864025712065348</v>
       </c>
       <c r="G225" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H225" t="n">
         <v>3</v>
       </c>
       <c r="I225" t="n">
-        <v>934.8518188907736</v>
+        <v>942.5434538409824</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -10288,25 +10408,25 @@
         <v>9</v>
       </c>
       <c r="C226" t="n">
-        <v>362633351.4</v>
+        <v>363607055.42</v>
       </c>
       <c r="D226" t="n">
-        <v>152167046728.8568</v>
+        <v>152677718202.1345</v>
       </c>
       <c r="E226" t="n">
-        <v>419.6168006648954</v>
+        <v>419.89756778998</v>
       </c>
       <c r="F226" t="n">
-        <v>-0.2996186608218221</v>
+        <v>-0.2991500331244745</v>
       </c>
       <c r="G226" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H226" t="n">
         <v>3</v>
       </c>
       <c r="I226" t="n">
-        <v>925.0871987458283</v>
+        <v>925.70617794979</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -10317,25 +10437,25 @@
         <v>10</v>
       </c>
       <c r="C227" t="n">
-        <v>324571214.7</v>
+        <v>323034833.3100001</v>
       </c>
       <c r="D227" t="n">
-        <v>124662728045.8329</v>
+        <v>124378724851.0999</v>
       </c>
       <c r="E227" t="n">
-        <v>384.0843623827152</v>
+        <v>385.0319285280917</v>
       </c>
       <c r="F227" t="n">
-        <v>-0.3589257635615272</v>
+        <v>-0.357344183308289</v>
       </c>
       <c r="G227" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H227" t="n">
         <v>4</v>
       </c>
       <c r="I227" t="n">
-        <v>846.752385308934</v>
+        <v>848.8413896330306</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -10346,25 +10466,25 @@
         <v>11</v>
       </c>
       <c r="C228" t="n">
-        <v>318668785.02</v>
+        <v>317893099.79</v>
       </c>
       <c r="D228" t="n">
-        <v>124778566256.1873</v>
+        <v>125228939378.1823</v>
       </c>
       <c r="E228" t="n">
-        <v>391.5619355323934</v>
+        <v>393.9341227000789</v>
       </c>
       <c r="F228" t="n">
-        <v>-0.3464449651567066</v>
+        <v>-0.3424855535634331</v>
       </c>
       <c r="G228" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H228" t="n">
         <v>4</v>
       </c>
       <c r="I228" t="n">
-        <v>863.2374430747142</v>
+        <v>868.4671669045941</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -10375,25 +10495,344 @@
         <v>12</v>
       </c>
       <c r="C229" t="n">
-        <v>339113052.3699999</v>
+        <v>340256890.15</v>
       </c>
       <c r="D229" t="n">
-        <v>126713811428.1058</v>
+        <v>127420498637.0739</v>
       </c>
       <c r="E229" t="n">
-        <v>373.6624424879133</v>
+        <v>374.4832281894467</v>
       </c>
       <c r="F229" t="n">
-        <v>-0.3763209636611493</v>
+        <v>-0.3749509923256181</v>
       </c>
       <c r="G229" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H229" t="n">
         <v>4</v>
       </c>
       <c r="I229" t="n">
-        <v>823.7762207088538</v>
+        <v>825.585724866454</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+      <c r="C230" t="n">
+        <v>342607271.51</v>
+      </c>
+      <c r="D230" t="n">
+        <v>122256497598.3264</v>
+      </c>
+      <c r="E230" t="n">
+        <v>356.8415143656925</v>
+      </c>
+      <c r="F230" t="n">
+        <v>-0.404396732185654</v>
+      </c>
+      <c r="G230" t="s">
+        <v>317</v>
+      </c>
+      <c r="H230" t="n">
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>786.6928025706057</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2</v>
+      </c>
+      <c r="C231" t="n">
+        <v>320228161.8800001</v>
+      </c>
+      <c r="D231" t="n">
+        <v>110058566328.8358</v>
+      </c>
+      <c r="E231" t="n">
+        <v>343.6879682370922</v>
+      </c>
+      <c r="F231" t="n">
+        <v>-0.4263512827134061</v>
+      </c>
+      <c r="G231" t="s">
+        <v>318</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>757.6944947754934</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B232" t="n">
+        <v>3</v>
+      </c>
+      <c r="C232" t="n">
+        <v>310249786.54</v>
+      </c>
+      <c r="D232" t="n">
+        <v>104329887876.093</v>
+      </c>
+      <c r="E232" t="n">
+        <v>336.2770657785512</v>
+      </c>
+      <c r="F232" t="n">
+        <v>-0.4387208012365141</v>
+      </c>
+      <c r="G232" t="s">
+        <v>319</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>741.3564192153937</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B233" t="n">
+        <v>4</v>
+      </c>
+      <c r="C233" t="n">
+        <v>279442889.37</v>
+      </c>
+      <c r="D233" t="n">
+        <v>87266469145.20724</v>
+      </c>
+      <c r="E233" t="n">
+        <v>312.2873133109533</v>
+      </c>
+      <c r="F233" t="n">
+        <v>-0.4787620363185841</v>
+      </c>
+      <c r="G233" t="s">
+        <v>320</v>
+      </c>
+      <c r="H233" t="n">
+        <v>2</v>
+      </c>
+      <c r="I233" t="n">
+        <v>688.4686109253278</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B234" t="n">
+        <v>5</v>
+      </c>
+      <c r="C234" t="n">
+        <v>308108815.53</v>
+      </c>
+      <c r="D234" t="n">
+        <v>97697493019.18562</v>
+      </c>
+      <c r="E234" t="n">
+        <v>317.0876264969219</v>
+      </c>
+      <c r="F234" t="n">
+        <v>-0.4707498457381877</v>
+      </c>
+      <c r="G234" t="s">
+        <v>321</v>
+      </c>
+      <c r="H234" t="n">
+        <v>2</v>
+      </c>
+      <c r="I234" t="n">
+        <v>699.051381375114</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B235" t="n">
+        <v>6</v>
+      </c>
+      <c r="C235" t="n">
+        <v>356992814.96</v>
+      </c>
+      <c r="D235" t="n">
+        <v>129195411036.1445</v>
+      </c>
+      <c r="E235" t="n">
+        <v>361.8991913061905</v>
+      </c>
+      <c r="F235" t="n">
+        <v>-0.3959549764144273</v>
+      </c>
+      <c r="G235" t="s">
+        <v>322</v>
+      </c>
+      <c r="H235" t="n">
+        <v>2</v>
+      </c>
+      <c r="I235" t="n">
+        <v>797.8429571536275</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B236" t="n">
+        <v>7</v>
+      </c>
+      <c r="C236" t="n">
+        <v>418811407.12</v>
+      </c>
+      <c r="D236" t="n">
+        <v>172744859346.393</v>
+      </c>
+      <c r="E236" t="n">
+        <v>412.4645518475511</v>
+      </c>
+      <c r="F236" t="n">
+        <v>-0.3115564612075306</v>
+      </c>
+      <c r="G236" t="s">
+        <v>323</v>
+      </c>
+      <c r="H236" t="n">
+        <v>3</v>
+      </c>
+      <c r="I236" t="n">
+        <v>909.3193510031113</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B237" t="n">
+        <v>8</v>
+      </c>
+      <c r="C237" t="n">
+        <v>403692201.02</v>
+      </c>
+      <c r="D237" t="n">
+        <v>168389271706.7094</v>
+      </c>
+      <c r="E237" t="n">
+        <v>417.122925043496</v>
+      </c>
+      <c r="F237" t="n">
+        <v>-0.303781182304975</v>
+      </c>
+      <c r="G237" t="s">
+        <v>324</v>
+      </c>
+      <c r="H237" t="n">
+        <v>3</v>
+      </c>
+      <c r="I237" t="n">
+        <v>919.5892005508913</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B238" t="n">
+        <v>9</v>
+      </c>
+      <c r="C238" t="n">
+        <v>337662516.7600001</v>
+      </c>
+      <c r="D238" t="n">
+        <v>131273617211.3669</v>
+      </c>
+      <c r="E238" t="n">
+        <v>388.7716601504577</v>
+      </c>
+      <c r="F238" t="n">
+        <v>-0.3511022067294449</v>
+      </c>
+      <c r="G238" t="s">
+        <v>325</v>
+      </c>
+      <c r="H238" t="n">
+        <v>3</v>
+      </c>
+      <c r="I238" t="n">
+        <v>857.0860019676991</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B239" t="n">
+        <v>10</v>
+      </c>
+      <c r="C239" t="n">
+        <v>317474008.16</v>
+      </c>
+      <c r="D239" t="n">
+        <v>117065420659.7417</v>
+      </c>
+      <c r="E239" t="n">
+        <v>368.740172898637</v>
+      </c>
+      <c r="F239" t="n">
+        <v>-0.3845367113654135</v>
+      </c>
+      <c r="G239" t="s">
+        <v>326</v>
+      </c>
+      <c r="H239" t="n">
+        <v>4</v>
+      </c>
+      <c r="I239" t="n">
+        <v>812.9245851723352</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B240" t="n">
+        <v>11</v>
+      </c>
+      <c r="C240" t="n">
+        <v>304229876.47</v>
+      </c>
+      <c r="D240" t="n">
+        <v>107746956147.4566</v>
+      </c>
+      <c r="E240" t="n">
+        <v>354.1629684686195</v>
+      </c>
+      <c r="F240" t="n">
+        <v>-0.4088674863581983</v>
+      </c>
+      <c r="G240" t="s">
+        <v>327</v>
+      </c>
+      <c r="H240" t="n">
+        <v>4</v>
+      </c>
+      <c r="I240" t="n">
+        <v>780.7876802859184</v>
       </c>
     </row>
   </sheetData>

--- a/web_files/US Power Sector CO2 Emissions Intensity.xlsx
+++ b/web_files/US Power Sector CO2 Emissions Intensity.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="338">
   <si>
     <t>year</t>
   </si>
@@ -286,6 +286,9 @@
     <t>2021 Q1</t>
   </si>
   <si>
+    <t>2021 Q2</t>
+  </si>
+  <si>
     <t>month</t>
   </si>
   <si>
@@ -1019,6 +1022,15 @@
   </si>
   <si>
     <t>2021-03-01</t>
+  </si>
+  <si>
+    <t>2021-04-01</t>
+  </si>
+  <si>
+    <t>2021-05-01</t>
+  </si>
+  <si>
+    <t>2021-06-01</t>
   </si>
 </sst>
 </file>
@@ -1723,16 +1735,16 @@
         <v>4058030988.1</v>
       </c>
       <c r="C18" t="n">
-        <v>1780378551348.644</v>
+        <v>1780378551379.489</v>
       </c>
       <c r="D18" t="n">
-        <v>438.7296589329967</v>
+        <v>438.7296589405975</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2677174374958625</v>
+        <v>-0.2677174374831761</v>
       </c>
       <c r="F18" t="n">
-        <v>967.2234060836847</v>
+        <v>967.2234061004413</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1743,16 +1755,16 @@
         <v>4207602186.04</v>
       </c>
       <c r="C19" t="n">
-        <v>1798487721116.658</v>
+        <v>1798504282118.086</v>
       </c>
       <c r="D19" t="n">
-        <v>427.4376810345065</v>
+        <v>427.4416170058024</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.2865648492057448</v>
+        <v>-0.2865582796860241</v>
       </c>
       <c r="F19" t="n">
-        <v>942.3291116086732</v>
+        <v>942.337788850992</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1763,16 +1775,16 @@
         <v>4162381332.79</v>
       </c>
       <c r="C20" t="n">
-        <v>1655767794801.074</v>
+        <v>1655808982664.746</v>
       </c>
       <c r="D20" t="n">
-        <v>397.7933933533261</v>
+        <v>397.80328861769</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.3360440546909159</v>
+        <v>-0.3360275385302288</v>
       </c>
       <c r="F20" t="n">
-        <v>876.9753149867425</v>
+        <v>876.9971300865594</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1783,16 +1795,16 @@
         <v>4048092156.28</v>
       </c>
       <c r="C21" t="n">
-        <v>1481509583377.116</v>
+        <v>1481612130449.878</v>
       </c>
       <c r="D21" t="n">
-        <v>365.9772372224232</v>
+        <v>366.0025694206051</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.3891483203045779</v>
+        <v>-0.3891060383967542</v>
       </c>
       <c r="F21" t="n">
-        <v>806.8334171805542</v>
+        <v>806.8892645446663</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3593,19 +3605,19 @@
         <v>982079072.27</v>
       </c>
       <c r="D69" t="n">
-        <v>424056131667.5315</v>
+        <v>424056131698.3757</v>
       </c>
       <c r="E69" t="n">
-        <v>431.794285858631</v>
+        <v>431.7942858900381</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.2792932511282715</v>
+        <v>-0.27929325107585</v>
       </c>
       <c r="G69" t="s">
         <v>75</v>
       </c>
       <c r="H69" t="n">
-        <v>951.933682603938</v>
+        <v>951.9336826731779</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3619,19 +3631,19 @@
         <v>1007451607.32</v>
       </c>
       <c r="D70" t="n">
-        <v>419654663331.7893</v>
+        <v>419654783951.9741</v>
       </c>
       <c r="E70" t="n">
-        <v>416.5506911524466</v>
+        <v>416.5508108804654</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.3047362964431631</v>
+        <v>-0.3047360966054303</v>
       </c>
       <c r="G70" t="s">
         <v>76</v>
       </c>
       <c r="H70" t="n">
-        <v>918.3276537146839</v>
+        <v>918.327917667074</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3645,19 +3657,19 @@
         <v>1020356356.43</v>
       </c>
       <c r="D71" t="n">
-        <v>415364914487.4792</v>
+        <v>415367899286.621</v>
       </c>
       <c r="E71" t="n">
-        <v>407.0782838465854</v>
+        <v>407.0812090982614</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.3205466674855237</v>
+        <v>-0.3205417849553603</v>
       </c>
       <c r="G71" t="s">
         <v>77</v>
       </c>
       <c r="H71" t="n">
-        <v>897.4447845681821</v>
+        <v>897.4512335780272</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3671,19 +3683,19 @@
         <v>1184368755.68</v>
       </c>
       <c r="D72" t="n">
-        <v>538574941633.8301</v>
+        <v>538581837048.5731</v>
       </c>
       <c r="E72" t="n">
-        <v>454.7358574353895</v>
+        <v>454.7416794521472</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.2410015321162536</v>
+        <v>-0.2409918146028292</v>
       </c>
       <c r="G72" t="s">
         <v>78</v>
       </c>
       <c r="H72" t="n">
-        <v>1002.51067130206</v>
+        <v>1002.523506520204</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3697,19 +3709,19 @@
         <v>995425466.61</v>
       </c>
       <c r="D73" t="n">
-        <v>424893201663.5593</v>
+        <v>424899761830.9181</v>
       </c>
       <c r="E73" t="n">
-        <v>426.8458221292717</v>
+        <v>426.8524124442463</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.2875527194054034</v>
+        <v>-0.2875417195273712</v>
       </c>
       <c r="G73" t="s">
         <v>79</v>
       </c>
       <c r="H73" t="n">
-        <v>941.0242994661924</v>
+        <v>941.0388284745856</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3723,19 +3735,19 @@
         <v>1008004393.08</v>
       </c>
       <c r="D74" t="n">
-        <v>405175112121.652</v>
+        <v>405183038503.726</v>
       </c>
       <c r="E74" t="n">
-        <v>401.9576848108989</v>
+        <v>401.965548250908</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.3290934463664595</v>
+        <v>-0.329080321518657</v>
       </c>
       <c r="G74" t="s">
         <v>80</v>
       </c>
       <c r="H74" t="n">
-        <v>886.1559119341078</v>
+        <v>886.1732476739518</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3749,19 +3761,19 @@
         <v>990398214.4000002</v>
       </c>
       <c r="D75" t="n">
-        <v>368862866512.5936</v>
+        <v>368873497056.2224</v>
       </c>
       <c r="E75" t="n">
-        <v>372.4389454155639</v>
+        <v>372.4496790209706</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.3783630995257162</v>
+        <v>-0.3783451840921183</v>
       </c>
       <c r="G75" t="s">
         <v>81</v>
       </c>
       <c r="H75" t="n">
-        <v>821.0788990631523</v>
+        <v>821.1025623696316</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3775,19 +3787,19 @@
         <v>1182402315.25</v>
       </c>
       <c r="D76" t="n">
-        <v>504690217499.8117</v>
+        <v>504700664192.4819</v>
       </c>
       <c r="E76" t="n">
-        <v>426.8345985038966</v>
+        <v>426.8434336461621</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.2875714527300895</v>
+        <v>-0.287556706016512</v>
       </c>
       <c r="G76" t="s">
         <v>82</v>
       </c>
       <c r="H76" t="n">
-        <v>940.9995558616906</v>
+        <v>941.0190338163291</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3801,19 +3813,19 @@
         <v>981576410.0599999</v>
       </c>
       <c r="D77" t="n">
-        <v>377039598667.0168</v>
+        <v>377051782912.3154</v>
       </c>
       <c r="E77" t="n">
-        <v>384.1164017419385</v>
+        <v>384.1288146780827</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.3588722867481973</v>
+        <v>-0.3588515683479188</v>
       </c>
       <c r="G77" t="s">
         <v>83</v>
       </c>
       <c r="H77" t="n">
-        <v>846.8230192802777</v>
+        <v>846.8503848393011</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3827,19 +3839,19 @@
         <v>974253921.76</v>
       </c>
       <c r="D78" t="n">
-        <v>336699845242.4945</v>
+        <v>336712685568.3041</v>
       </c>
       <c r="E78" t="n">
-        <v>345.5976288340135</v>
+        <v>345.610808484126</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.4231638730479009</v>
+        <v>-0.4231418749272797</v>
       </c>
       <c r="G78" t="s">
         <v>84</v>
       </c>
       <c r="H78" t="n">
-        <v>761.9045325274662</v>
+        <v>761.9335883841043</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3853,19 +3865,19 @@
         <v>944857554.5700001</v>
       </c>
       <c r="D79" t="n">
-        <v>315008309721.3477</v>
+        <v>315020376970.6643</v>
       </c>
       <c r="E79" t="n">
-        <v>333.3923808914312</v>
+        <v>333.4051523925514</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.4435356214752337</v>
+        <v>-0.4435143045950618</v>
       </c>
       <c r="G79" t="s">
         <v>85</v>
       </c>
       <c r="H79" t="n">
-        <v>734.9968429132492</v>
+        <v>735.0249989646188</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3879,19 +3891,19 @@
         <v>1159510253.94</v>
       </c>
       <c r="D80" t="n">
-        <v>472252639915.4503</v>
+        <v>472285435923.179</v>
       </c>
       <c r="E80" t="n">
-        <v>407.2862989445263</v>
+        <v>407.3145833064949</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3201994700124143</v>
+        <v>-0.3201522606554916</v>
       </c>
       <c r="G80" t="s">
         <v>86</v>
       </c>
       <c r="H80" t="n">
-        <v>897.9033746531027</v>
+        <v>897.9657303574985</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3905,19 +3917,19 @@
         <v>969470426.01</v>
       </c>
       <c r="D81" t="n">
-        <v>357548788497.8237</v>
+        <v>357593631987.7302</v>
       </c>
       <c r="E81" t="n">
-        <v>368.8083503169551</v>
+        <v>368.8546059723143</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3844229166091797</v>
+        <v>-0.3843457114119765</v>
       </c>
       <c r="G81" t="s">
         <v>87</v>
       </c>
       <c r="H81" t="n">
-        <v>813.0748891087592</v>
+        <v>813.1768643265642</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3931,19 +3943,45 @@
         <v>997418941.59</v>
       </c>
       <c r="D82" t="n">
-        <v>377541698471.6443</v>
+        <v>377541945964.0786</v>
       </c>
       <c r="E82" t="n">
-        <v>378.518677286998</v>
+        <v>378.5189254198778</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.3682154344579398</v>
+        <v>-0.3682150202999787</v>
       </c>
       <c r="G82" t="s">
         <v>88</v>
       </c>
       <c r="H82" t="n">
-        <v>834.4822759469157</v>
+        <v>834.4828229806625</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2</v>
+      </c>
+      <c r="C83" t="n">
+        <v>998141284.0599999</v>
+      </c>
+      <c r="D83" t="n">
+        <v>365530956115.6558</v>
+      </c>
+      <c r="E83" t="n">
+        <v>366.2116395274591</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.3887570800109402</v>
+      </c>
+      <c r="G83" t="s">
+        <v>89</v>
+      </c>
+      <c r="H83" t="n">
+        <v>807.3501805022362</v>
       </c>
     </row>
   </sheetData>
@@ -3957,7 +3995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I244"/>
+  <dimension ref="A1:I247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3970,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3985,7 +4023,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -4014,7 +4052,7 @@
         <v>0.07726515958654644</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -4043,7 +4081,7 @@
         <v>0.06148124887439917</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -4072,7 +4110,7 @@
         <v>0.04746077038960551</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -4101,7 +4139,7 @@
         <v>0.04727244615802906</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
@@ -4130,7 +4168,7 @@
         <v>0.04871093696407162</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
@@ -4159,7 +4197,7 @@
         <v>0.04304157536165719</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
@@ -4188,7 +4226,7 @@
         <v>0.07078023556064666</v>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
@@ -4217,7 +4255,7 @@
         <v>0.07532787659744344</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
@@ -4246,7 +4284,7 @@
         <v>0.05259835799380738</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
@@ -4275,7 +4313,7 @@
         <v>0.03553213710629145</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -4304,7 +4342,7 @@
         <v>0.02646669802403197</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -4333,7 +4371,7 @@
         <v>0.01912175729454257</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
@@ -4362,7 +4400,7 @@
         <v>0.01111774538231211</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -4391,7 +4429,7 @@
         <v>0.005018273091192093</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -4420,7 +4458,7 @@
         <v>0.01544195713902331</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -4449,7 +4487,7 @@
         <v>0.003355439027818183</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" t="n">
         <v>2</v>
@@ -4478,7 +4516,7 @@
         <v>0.00536957613039397</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H18" t="n">
         <v>2</v>
@@ -4507,7 +4545,7 @@
         <v>0.0145689414097139</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
@@ -4536,7 +4574,7 @@
         <v>0.03912865348530959</v>
       </c>
       <c r="G20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
@@ -4565,7 +4603,7 @@
         <v>0.04573043199637251</v>
       </c>
       <c r="G21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
@@ -4594,7 +4632,7 @@
         <v>0.05004182162970362</v>
       </c>
       <c r="G22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
@@ -4623,7 +4661,7 @@
         <v>0.0547357353567896</v>
       </c>
       <c r="G23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H23" t="n">
         <v>4</v>
@@ -4652,7 +4690,7 @@
         <v>0.03397983951034167</v>
       </c>
       <c r="G24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H24" t="n">
         <v>4</v>
@@ -4681,7 +4719,7 @@
         <v>0.03489294255166995</v>
       </c>
       <c r="G25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H25" t="n">
         <v>4</v>
@@ -4710,7 +4748,7 @@
         <v>0.05407231572896915</v>
       </c>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -4739,7 +4777,7 @@
         <v>0.0446998960634503</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -4768,7 +4806,7 @@
         <v>0.02564607186253928</v>
       </c>
       <c r="G28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -4797,7 +4835,7 @@
         <v>-0.005255460204990879</v>
       </c>
       <c r="G29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H29" t="n">
         <v>2</v>
@@ -4826,7 +4864,7 @@
         <v>-0.005159282455205773</v>
       </c>
       <c r="G30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H30" t="n">
         <v>2</v>
@@ -4855,7 +4893,7 @@
         <v>0.01662217479072057</v>
       </c>
       <c r="G31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H31" t="n">
         <v>2</v>
@@ -4884,7 +4922,7 @@
         <v>0.03768728145702852</v>
       </c>
       <c r="G32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
@@ -4913,7 +4951,7 @@
         <v>0.04140058597533856</v>
       </c>
       <c r="G33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H33" t="n">
         <v>3</v>
@@ -4942,7 +4980,7 @@
         <v>0.04146258828233757</v>
       </c>
       <c r="G34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H34" t="n">
         <v>3</v>
@@ -4971,7 +5009,7 @@
         <v>0.05070299868862761</v>
       </c>
       <c r="G35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H35" t="n">
         <v>4</v>
@@ -5000,7 +5038,7 @@
         <v>0.04234991120899041</v>
       </c>
       <c r="G36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H36" t="n">
         <v>4</v>
@@ -5029,7 +5067,7 @@
         <v>0.03310887154716038</v>
       </c>
       <c r="G37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H37" t="n">
         <v>4</v>
@@ -5058,7 +5096,7 @@
         <v>0.03014022625659499</v>
       </c>
       <c r="G38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -5087,7 +5125,7 @@
         <v>0.01239560014339367</v>
       </c>
       <c r="G39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -5116,7 +5154,7 @@
         <v>-0.01037094285092945</v>
       </c>
       <c r="G40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -5145,7 +5183,7 @@
         <v>-0.02234624922534889</v>
       </c>
       <c r="G41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H41" t="n">
         <v>2</v>
@@ -5174,7 +5212,7 @@
         <v>-0.01332959283944984</v>
       </c>
       <c r="G42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H42" t="n">
         <v>2</v>
@@ -5203,7 +5241,7 @@
         <v>-0.007522138257441214</v>
       </c>
       <c r="G43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H43" t="n">
         <v>2</v>
@@ -5232,7 +5270,7 @@
         <v>0.002774173076043244</v>
       </c>
       <c r="G44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H44" t="n">
         <v>3</v>
@@ -5261,7 +5299,7 @@
         <v>0.005812723595943646</v>
       </c>
       <c r="G45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H45" t="n">
         <v>3</v>
@@ -5290,7 +5328,7 @@
         <v>-0.0001281622510707689</v>
       </c>
       <c r="G46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H46" t="n">
         <v>3</v>
@@ -5319,7 +5357,7 @@
         <v>0.005798551352125575</v>
       </c>
       <c r="G47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H47" t="n">
         <v>4</v>
@@ -5348,7 +5386,7 @@
         <v>0.0142697616731208</v>
       </c>
       <c r="G48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H48" t="n">
         <v>4</v>
@@ -5377,7 +5415,7 @@
         <v>0.006630546904983436</v>
       </c>
       <c r="G49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H49" t="n">
         <v>4</v>
@@ -5406,7 +5444,7 @@
         <v>0.01135874913719794</v>
       </c>
       <c r="G50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -5435,7 +5473,7 @@
         <v>0.00158584139446698</v>
       </c>
       <c r="G51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -5464,7 +5502,7 @@
         <v>0.0004943352228414668</v>
       </c>
       <c r="G52" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -5493,7 +5531,7 @@
         <v>-0.03023291224285088</v>
       </c>
       <c r="G53" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H53" t="n">
         <v>2</v>
@@ -5522,7 +5560,7 @@
         <v>-0.03619156271650293</v>
       </c>
       <c r="G54" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H54" t="n">
         <v>2</v>
@@ -5551,7 +5589,7 @@
         <v>-0.007018965988378289</v>
       </c>
       <c r="G55" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
@@ -5580,7 +5618,7 @@
         <v>-0.0008959033638951873</v>
       </c>
       <c r="G56" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H56" t="n">
         <v>3</v>
@@ -5609,7 +5647,7 @@
         <v>0.007925452227224232</v>
       </c>
       <c r="G57" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H57" t="n">
         <v>3</v>
@@ -5638,7 +5676,7 @@
         <v>0.01721030590351288</v>
       </c>
       <c r="G58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H58" t="n">
         <v>3</v>
@@ -5667,7 +5705,7 @@
         <v>0.02231843704751483</v>
       </c>
       <c r="G59" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H59" t="n">
         <v>4</v>
@@ -5696,7 +5734,7 @@
         <v>0.002897748801680964</v>
       </c>
       <c r="G60" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H60" t="n">
         <v>4</v>
@@ -5725,7 +5763,7 @@
         <v>0.00389971424966281</v>
       </c>
       <c r="G61" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H61" t="n">
         <v>4</v>
@@ -5754,7 +5792,7 @@
         <v>-0.02748121131636642</v>
       </c>
       <c r="G62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -5783,7 +5821,7 @@
         <v>-0.01857254232013877</v>
       </c>
       <c r="G63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -5812,7 +5850,7 @@
         <v>-0.02435619078134472</v>
       </c>
       <c r="G64" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -5841,7 +5879,7 @@
         <v>-0.06369815302300276</v>
       </c>
       <c r="G65" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H65" t="n">
         <v>2</v>
@@ -5870,7 +5908,7 @@
         <v>-0.05404582225952413</v>
       </c>
       <c r="G66" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H66" t="n">
         <v>2</v>
@@ -5899,7 +5937,7 @@
         <v>-0.04243926553323214</v>
       </c>
       <c r="G67" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H67" t="n">
         <v>2</v>
@@ -5928,7 +5966,7 @@
         <v>-0.01354297585931169</v>
       </c>
       <c r="G68" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H68" t="n">
         <v>3</v>
@@ -5957,7 +5995,7 @@
         <v>-0.004118886890496862</v>
       </c>
       <c r="G69" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H69" t="n">
         <v>3</v>
@@ -5986,7 +6024,7 @@
         <v>-0.01455882450582037</v>
       </c>
       <c r="G70" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H70" t="n">
         <v>3</v>
@@ -6015,7 +6053,7 @@
         <v>0.00439522235340898</v>
       </c>
       <c r="G71" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H71" t="n">
         <v>4</v>
@@ -6044,7 +6082,7 @@
         <v>-0.003746313420402704</v>
       </c>
       <c r="G72" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H72" t="n">
         <v>4</v>
@@ -6073,7 +6111,7 @@
         <v>-0.01605853233048685</v>
       </c>
       <c r="G73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H73" t="n">
         <v>4</v>
@@ -6102,7 +6140,7 @@
         <v>-0.03511432398711213</v>
       </c>
       <c r="G74" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
@@ -6131,7 +6169,7 @@
         <v>-0.008437620703637254</v>
       </c>
       <c r="G75" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -6160,7 +6198,7 @@
         <v>-0.03117857292861368</v>
       </c>
       <c r="G76" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
@@ -6189,7 +6227,7 @@
         <v>-0.03928361585166878</v>
       </c>
       <c r="G77" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H77" t="n">
         <v>2</v>
@@ -6218,7 +6256,7 @@
         <v>-0.03788195719455209</v>
       </c>
       <c r="G78" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H78" t="n">
         <v>2</v>
@@ -6247,7 +6285,7 @@
         <v>-0.0177532915761511</v>
       </c>
       <c r="G79" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H79" t="n">
         <v>2</v>
@@ -6276,7 +6314,7 @@
         <v>-0.01310236048309173</v>
       </c>
       <c r="G80" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H80" t="n">
         <v>3</v>
@@ -6305,7 +6343,7 @@
         <v>-0.008678539752206496</v>
       </c>
       <c r="G81" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H81" t="n">
         <v>3</v>
@@ -6334,7 +6372,7 @@
         <v>-0.004141764801333879</v>
       </c>
       <c r="G82" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H82" t="n">
         <v>3</v>
@@ -6363,7 +6401,7 @@
         <v>1.642574651693381e-05</v>
       </c>
       <c r="G83" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H83" t="n">
         <v>4</v>
@@ -6392,7 +6430,7 @@
         <v>-0.01470502580322882</v>
       </c>
       <c r="G84" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H84" t="n">
         <v>4</v>
@@ -6421,7 +6459,7 @@
         <v>-0.01552034206631986</v>
       </c>
       <c r="G85" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H85" t="n">
         <v>4</v>
@@ -6450,7 +6488,7 @@
         <v>-0.01703554138701916</v>
       </c>
       <c r="G86" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -6479,7 +6517,7 @@
         <v>-0.01289961080171436</v>
       </c>
       <c r="G87" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -6508,7 +6546,7 @@
         <v>-0.03539719528073028</v>
       </c>
       <c r="G88" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H88" t="n">
         <v>1</v>
@@ -6537,7 +6575,7 @@
         <v>-0.04508011761521417</v>
       </c>
       <c r="G89" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H89" t="n">
         <v>2</v>
@@ -6566,7 +6604,7 @@
         <v>-0.04957830570333151</v>
       </c>
       <c r="G90" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H90" t="n">
         <v>2</v>
@@ -6595,7 +6633,7 @@
         <v>-0.04880070678863985</v>
       </c>
       <c r="G91" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H91" t="n">
         <v>2</v>
@@ -6624,7 +6662,7 @@
         <v>-0.0274894180589785</v>
       </c>
       <c r="G92" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H92" t="n">
         <v>3</v>
@@ -6653,7 +6691,7 @@
         <v>-0.02085837505734224</v>
       </c>
       <c r="G93" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H93" t="n">
         <v>3</v>
@@ -6682,7 +6720,7 @@
         <v>-0.01669978454361145</v>
       </c>
       <c r="G94" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H94" t="n">
         <v>3</v>
@@ -6711,7 +6749,7 @@
         <v>-0.02999219344874965</v>
       </c>
       <c r="G95" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H95" t="n">
         <v>4</v>
@@ -6740,7 +6778,7 @@
         <v>-0.03080314982097817</v>
       </c>
       <c r="G96" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H96" t="n">
         <v>4</v>
@@ -6769,7 +6807,7 @@
         <v>-0.04600766838125035</v>
       </c>
       <c r="G97" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H97" t="n">
         <v>4</v>
@@ -6798,7 +6836,7 @@
         <v>-0.05120162818415125</v>
       </c>
       <c r="G98" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -6827,7 +6865,7 @@
         <v>-0.06946387564298999</v>
       </c>
       <c r="G99" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -6856,7 +6894,7 @@
         <v>-0.1036546461764051</v>
       </c>
       <c r="G100" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -6885,7 +6923,7 @@
         <v>-0.1132003468526878</v>
       </c>
       <c r="G101" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H101" t="n">
         <v>2</v>
@@ -6914,7 +6952,7 @@
         <v>-0.1231526853843904</v>
       </c>
       <c r="G102" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H102" t="n">
         <v>2</v>
@@ -6943,7 +6981,7 @@
         <v>-0.09824854233094853</v>
       </c>
       <c r="G103" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H103" t="n">
         <v>2</v>
@@ -6972,7 +7010,7 @@
         <v>-0.07814990231786137</v>
       </c>
       <c r="G104" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H104" t="n">
         <v>3</v>
@@ -7001,7 +7039,7 @@
         <v>-0.06154336099479781</v>
       </c>
       <c r="G105" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H105" t="n">
         <v>3</v>
@@ -7030,7 +7068,7 @@
         <v>-0.08482641466001017</v>
       </c>
       <c r="G106" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H106" t="n">
         <v>3</v>
@@ -7059,7 +7097,7 @@
         <v>-0.06247971785652189</v>
       </c>
       <c r="G107" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H107" t="n">
         <v>4</v>
@@ -7088,7 +7126,7 @@
         <v>-0.07639133784549447</v>
       </c>
       <c r="G108" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H108" t="n">
         <v>4</v>
@@ -7117,7 +7155,7 @@
         <v>-0.06443636967118098</v>
       </c>
       <c r="G109" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H109" t="n">
         <v>4</v>
@@ -7146,7 +7184,7 @@
         <v>-0.0488799844984841</v>
       </c>
       <c r="G110" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -7175,7 +7213,7 @@
         <v>-0.05825045169669583</v>
       </c>
       <c r="G111" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -7204,7 +7242,7 @@
         <v>-0.07735581168612655</v>
       </c>
       <c r="G112" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -7233,7 +7271,7 @@
         <v>-0.1010225664365227</v>
       </c>
       <c r="G113" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H113" t="n">
         <v>2</v>
@@ -7262,7 +7300,7 @@
         <v>-0.08979818195601069</v>
       </c>
       <c r="G114" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H114" t="n">
         <v>2</v>
@@ -7291,7 +7329,7 @@
         <v>-0.06524048333304372</v>
       </c>
       <c r="G115" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H115" t="n">
         <v>2</v>
@@ -7320,7 +7358,7 @@
         <v>-0.04074387693241805</v>
       </c>
       <c r="G116" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H116" t="n">
         <v>3</v>
@@ -7349,7 +7387,7 @@
         <v>-0.03675707967139325</v>
       </c>
       <c r="G117" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H117" t="n">
         <v>3</v>
@@ -7378,7 +7416,7 @@
         <v>-0.07201037569984288</v>
       </c>
       <c r="G118" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H118" t="n">
         <v>3</v>
@@ -7407,7 +7445,7 @@
         <v>-0.08798764407113459</v>
       </c>
       <c r="G119" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H119" t="n">
         <v>4</v>
@@ -7436,7 +7474,7 @@
         <v>-0.09297937195930114</v>
       </c>
       <c r="G120" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H120" t="n">
         <v>4</v>
@@ -7465,7 +7503,7 @@
         <v>-0.06888446180263902</v>
       </c>
       <c r="G121" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H121" t="n">
         <v>4</v>
@@ -7494,7 +7532,7 @@
         <v>-0.06178402409839879</v>
       </c>
       <c r="G122" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H122" t="n">
         <v>1</v>
@@ -7523,7 +7561,7 @@
         <v>-0.1000963753988781</v>
       </c>
       <c r="G123" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H123" t="n">
         <v>1</v>
@@ -7552,7 +7590,7 @@
         <v>-0.129184632154868</v>
       </c>
       <c r="G124" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H124" t="n">
         <v>1</v>
@@ -7581,7 +7619,7 @@
         <v>-0.1349292609291222</v>
       </c>
       <c r="G125" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H125" t="n">
         <v>2</v>
@@ -7610,7 +7648,7 @@
         <v>-0.1059778059250063</v>
       </c>
       <c r="G126" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H126" t="n">
         <v>2</v>
@@ -7639,7 +7677,7 @@
         <v>-0.081007853314257</v>
       </c>
       <c r="G127" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H127" t="n">
         <v>2</v>
@@ -7668,7 +7706,7 @@
         <v>-0.06182654921614888</v>
       </c>
       <c r="G128" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H128" t="n">
         <v>3</v>
@@ -7697,7 +7735,7 @@
         <v>-0.05965103240997342</v>
       </c>
       <c r="G129" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H129" t="n">
         <v>3</v>
@@ -7726,7 +7764,7 @@
         <v>-0.0903372091951556</v>
       </c>
       <c r="G130" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H130" t="n">
         <v>3</v>
@@ -7755,7 +7793,7 @@
         <v>-0.1209466228210752</v>
       </c>
       <c r="G131" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H131" t="n">
         <v>4</v>
@@ -7784,7 +7822,7 @@
         <v>-0.1459020669822017</v>
       </c>
       <c r="G132" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H132" t="n">
         <v>4</v>
@@ -7813,7 +7851,7 @@
         <v>-0.1448500018406984</v>
       </c>
       <c r="G133" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H133" t="n">
         <v>4</v>
@@ -7842,7 +7880,7 @@
         <v>-0.1655768065392497</v>
       </c>
       <c r="G134" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H134" t="n">
         <v>1</v>
@@ -7871,7 +7909,7 @@
         <v>-0.1688920478560091</v>
       </c>
       <c r="G135" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H135" t="n">
         <v>1</v>
@@ -7900,7 +7938,7 @@
         <v>-0.20286842192788</v>
       </c>
       <c r="G136" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H136" t="n">
         <v>1</v>
@@ -7929,7 +7967,7 @@
         <v>-0.2134075015003669</v>
       </c>
       <c r="G137" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H137" t="n">
         <v>2</v>
@@ -7958,7 +7996,7 @@
         <v>-0.1749832923810191</v>
       </c>
       <c r="G138" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H138" t="n">
         <v>2</v>
@@ -7987,7 +8025,7 @@
         <v>-0.1347935101828394</v>
       </c>
       <c r="G139" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H139" t="n">
         <v>2</v>
@@ -8016,7 +8054,7 @@
         <v>-0.08586343302838688</v>
       </c>
       <c r="G140" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H140" t="n">
         <v>3</v>
@@ -8045,7 +8083,7 @@
         <v>-0.09583413286254644</v>
       </c>
       <c r="G141" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H141" t="n">
         <v>3</v>
@@ -8074,7 +8112,7 @@
         <v>-0.1212332640457878</v>
       </c>
       <c r="G142" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H142" t="n">
         <v>3</v>
@@ -8103,7 +8141,7 @@
         <v>-0.1291033474036325</v>
       </c>
       <c r="G143" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H143" t="n">
         <v>4</v>
@@ -8132,7 +8170,7 @@
         <v>-0.103972413775247</v>
       </c>
       <c r="G144" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H144" t="n">
         <v>4</v>
@@ -8161,7 +8199,7 @@
         <v>-0.1496729265861562</v>
       </c>
       <c r="G145" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H145" t="n">
         <v>4</v>
@@ -8190,7 +8228,7 @@
         <v>-0.1485961495296913</v>
       </c>
       <c r="G146" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H146" t="n">
         <v>1</v>
@@ -8219,7 +8257,7 @@
         <v>-0.1453195655542535</v>
       </c>
       <c r="G147" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H147" t="n">
         <v>1</v>
@@ -8248,7 +8286,7 @@
         <v>-0.1386143662583348</v>
       </c>
       <c r="G148" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H148" t="n">
         <v>1</v>
@@ -8277,7 +8315,7 @@
         <v>-0.1821179183493233</v>
       </c>
       <c r="G149" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H149" t="n">
         <v>2</v>
@@ -8306,7 +8344,7 @@
         <v>-0.1753852982577576</v>
       </c>
       <c r="G150" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H150" t="n">
         <v>2</v>
@@ -8335,7 +8373,7 @@
         <v>-0.1318627511501101</v>
       </c>
       <c r="G151" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H151" t="n">
         <v>2</v>
@@ -8364,7 +8402,7 @@
         <v>-0.1101448680751284</v>
       </c>
       <c r="G152" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H152" t="n">
         <v>3</v>
@@ -8393,7 +8431,7 @@
         <v>-0.1060645126133002</v>
       </c>
       <c r="G153" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H153" t="n">
         <v>3</v>
@@ -8422,7 +8460,7 @@
         <v>-0.1135082142199412</v>
       </c>
       <c r="G154" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H154" t="n">
         <v>3</v>
@@ -8451,7 +8489,7 @@
         <v>-0.1418981805314145</v>
       </c>
       <c r="G155" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H155" t="n">
         <v>4</v>
@@ -8480,7 +8518,7 @@
         <v>-0.1588733260713331</v>
       </c>
       <c r="G156" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H156" t="n">
         <v>4</v>
@@ -8509,7 +8547,7 @@
         <v>-0.1335324447797183</v>
       </c>
       <c r="G157" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H157" t="n">
         <v>4</v>
@@ -8538,7 +8576,7 @@
         <v>-0.1164250865344272</v>
       </c>
       <c r="G158" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H158" t="n">
         <v>1</v>
@@ -8567,7 +8605,7 @@
         <v>-0.09235435026425724</v>
       </c>
       <c r="G159" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H159" t="n">
         <v>1</v>
@@ -8596,7 +8634,7 @@
         <v>-0.1404967846693579</v>
       </c>
       <c r="G160" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H160" t="n">
         <v>1</v>
@@ -8625,7 +8663,7 @@
         <v>-0.1979602327171737</v>
       </c>
       <c r="G161" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H161" t="n">
         <v>2</v>
@@ -8654,7 +8692,7 @@
         <v>-0.1819517134786032</v>
       </c>
       <c r="G162" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H162" t="n">
         <v>2</v>
@@ -8683,7 +8721,7 @@
         <v>-0.1479617441739821</v>
       </c>
       <c r="G163" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H163" t="n">
         <v>2</v>
@@ -8712,7 +8750,7 @@
         <v>-0.1235469123516771</v>
       </c>
       <c r="G164" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H164" t="n">
         <v>3</v>
@@ -8741,7 +8779,7 @@
         <v>-0.1112892814595854</v>
       </c>
       <c r="G165" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H165" t="n">
         <v>3</v>
@@ -8770,7 +8808,7 @@
         <v>-0.1428458470250424</v>
       </c>
       <c r="G166" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H166" t="n">
         <v>3</v>
@@ -8799,7 +8837,7 @@
         <v>-0.1802221333906949</v>
       </c>
       <c r="G167" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H167" t="n">
         <v>4</v>
@@ -8828,7 +8866,7 @@
         <v>-0.1805484137193039</v>
       </c>
       <c r="G168" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H168" t="n">
         <v>4</v>
@@ -8857,7 +8895,7 @@
         <v>-0.1861102651285657</v>
       </c>
       <c r="G169" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H169" t="n">
         <v>4</v>
@@ -8886,7 +8924,7 @@
         <v>-0.1803040211119578</v>
       </c>
       <c r="G170" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H170" t="n">
         <v>1</v>
@@ -8915,7 +8953,7 @@
         <v>-0.1566935347558179</v>
       </c>
       <c r="G171" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H171" t="n">
         <v>1</v>
@@ -8944,7 +8982,7 @@
         <v>-0.2201310913406645</v>
       </c>
       <c r="G172" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H172" t="n">
         <v>1</v>
@@ -8973,7 +9011,7 @@
         <v>-0.2635925132742133</v>
       </c>
       <c r="G173" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H173" t="n">
         <v>2</v>
@@ -9002,7 +9040,7 @@
         <v>-0.2131978356272281</v>
       </c>
       <c r="G174" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H174" t="n">
         <v>2</v>
@@ -9031,7 +9069,7 @@
         <v>-0.1607255894791542</v>
       </c>
       <c r="G175" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H175" t="n">
         <v>2</v>
@@ -9060,7 +9098,7 @@
         <v>-0.1444349165763542</v>
       </c>
       <c r="G176" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H176" t="n">
         <v>3</v>
@@ -9089,7 +9127,7 @@
         <v>-0.1473313183318509</v>
       </c>
       <c r="G177" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H177" t="n">
         <v>3</v>
@@ -9118,7 +9156,7 @@
         <v>-0.1646609371790748</v>
       </c>
       <c r="G178" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H178" t="n">
         <v>3</v>
@@ -9147,7 +9185,7 @@
         <v>-0.21234102942571</v>
       </c>
       <c r="G179" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H179" t="n">
         <v>4</v>
@@ -9176,7 +9214,7 @@
         <v>-0.252829210299896</v>
       </c>
       <c r="G180" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H180" t="n">
         <v>4</v>
@@ -9205,7 +9243,7 @@
         <v>-0.2839536185760727</v>
       </c>
       <c r="G181" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H181" t="n">
         <v>4</v>
@@ -9234,7 +9272,7 @@
         <v>-0.2400297788304009</v>
       </c>
       <c r="G182" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H182" t="n">
         <v>1</v>
@@ -9263,7 +9301,7 @@
         <v>-0.2805497954557936</v>
       </c>
       <c r="G183" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H183" t="n">
         <v>1</v>
@@ -9292,7 +9330,7 @@
         <v>-0.3506240564611915</v>
       </c>
       <c r="G184" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H184" t="n">
         <v>1</v>
@@ -9321,7 +9359,7 @@
         <v>-0.3390277903055757</v>
       </c>
       <c r="G185" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H185" t="n">
         <v>2</v>
@@ -9350,7 +9388,7 @@
         <v>-0.3073515739356479</v>
       </c>
       <c r="G186" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H186" t="n">
         <v>2</v>
@@ -9379,7 +9417,7 @@
         <v>-0.2071446270833396</v>
       </c>
       <c r="G187" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H187" t="n">
         <v>2</v>
@@ -9408,7 +9446,7 @@
         <v>-0.1694468249477676</v>
       </c>
       <c r="G188" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H188" t="n">
         <v>3</v>
@@ -9437,7 +9475,7 @@
         <v>-0.1635296695607648</v>
       </c>
       <c r="G189" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H189" t="n">
         <v>3</v>
@@ -9466,7 +9504,7 @@
         <v>-0.1925750637501429</v>
       </c>
       <c r="G190" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H190" t="n">
         <v>3</v>
@@ -9495,7 +9533,7 @@
         <v>-0.2304897535152396</v>
       </c>
       <c r="G191" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H191" t="n">
         <v>4</v>
@@ -9524,7 +9562,7 @@
         <v>-0.2811118884676824</v>
       </c>
       <c r="G192" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H192" t="n">
         <v>4</v>
@@ -9553,7 +9591,7 @@
         <v>-0.2280847863767602</v>
       </c>
       <c r="G193" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H193" t="n">
         <v>4</v>
@@ -9582,7 +9620,7 @@
         <v>-0.2461641217756053</v>
       </c>
       <c r="G194" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H194" t="n">
         <v>1</v>
@@ -9611,7 +9649,7 @@
         <v>-0.3025532995013631</v>
       </c>
       <c r="G195" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H195" t="n">
         <v>1</v>
@@ -9640,7 +9678,7 @@
         <v>-0.3194948687760681</v>
       </c>
       <c r="G196" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H196" t="n">
         <v>1</v>
@@ -9669,7 +9707,7 @@
         <v>-0.3271115928549875</v>
       </c>
       <c r="G197" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H197" t="n">
         <v>2</v>
@@ -9698,7 +9736,7 @@
         <v>-0.2990789202542029</v>
       </c>
       <c r="G198" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H198" t="n">
         <v>2</v>
@@ -9727,7 +9765,7 @@
         <v>-0.2562999577075886</v>
       </c>
       <c r="G199" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H199" t="n">
         <v>2</v>
@@ -9756,7 +9794,7 @@
         <v>-0.2010680757699633</v>
       </c>
       <c r="G200" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H200" t="n">
         <v>3</v>
@@ -9785,7 +9823,7 @@
         <v>-0.2139935751331455</v>
       </c>
       <c r="G201" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H201" t="n">
         <v>3</v>
@@ -9814,7 +9852,7 @@
         <v>-0.2482339685577221</v>
       </c>
       <c r="G202" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H202" t="n">
         <v>3</v>
@@ -9843,7 +9881,7 @@
         <v>-0.2840585191964526</v>
       </c>
       <c r="G203" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H203" t="n">
         <v>4</v>
@@ -9863,22 +9901,22 @@
         <v>309587425.1</v>
       </c>
       <c r="D204" t="n">
-        <v>132144974366.0841</v>
+        <v>132144974396.9284</v>
       </c>
       <c r="E204" t="n">
-        <v>426.8421894829865</v>
+        <v>426.8421895826169</v>
       </c>
       <c r="F204" t="n">
-        <v>-0.2875587826461171</v>
+        <v>-0.2875587824798243</v>
       </c>
       <c r="G204" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H204" t="n">
         <v>4</v>
       </c>
       <c r="I204" t="n">
-        <v>941.0162909341922</v>
+        <v>941.0162911538373</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -9901,7 +9939,7 @@
         <v>-0.2676784794738392</v>
       </c>
       <c r="G205" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H205" t="n">
         <v>4</v>
@@ -9921,22 +9959,22 @@
         <v>374838323.87</v>
       </c>
       <c r="D206" t="n">
-        <v>170316972745.1041</v>
+        <v>170317037713.1364</v>
       </c>
       <c r="E206" t="n">
-        <v>454.3744913451612</v>
+        <v>454.3746646679731</v>
       </c>
       <c r="F206" t="n">
-        <v>-0.2416046873421802</v>
+        <v>-0.2416043980495138</v>
       </c>
       <c r="G206" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H206" t="n">
         <v>1</v>
       </c>
       <c r="I206" t="n">
-        <v>1001.714003619542</v>
+        <v>1001.714385727014</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -9950,22 +9988,22 @@
         <v>308647892.4299998</v>
       </c>
       <c r="D207" t="n">
-        <v>123389107676.5222</v>
+        <v>123389159235.4574</v>
       </c>
       <c r="E207" t="n">
-        <v>399.7730446337208</v>
+        <v>399.7732116814684</v>
       </c>
       <c r="F207" t="n">
-        <v>-0.3327398237528988</v>
+        <v>-0.3327395449339264</v>
       </c>
       <c r="G207" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H207" t="n">
         <v>1</v>
       </c>
       <c r="I207" t="n">
-        <v>881.3396541995007</v>
+        <v>881.3400224729652</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -9979,22 +10017,22 @@
         <v>323965391.02</v>
       </c>
       <c r="D208" t="n">
-        <v>125948582910.163</v>
+        <v>125948587003.3804</v>
       </c>
       <c r="E208" t="n">
-        <v>388.7717219225667</v>
+        <v>388.7717345573033</v>
       </c>
       <c r="F208" t="n">
-        <v>-0.3511021036257742</v>
+        <v>-0.3511020825371674</v>
       </c>
       <c r="G208" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H208" t="n">
         <v>1</v>
       </c>
       <c r="I208" t="n">
-        <v>857.0861381504906</v>
+        <v>857.0861660050308</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -10008,22 +10046,22 @@
         <v>303479515.33</v>
       </c>
       <c r="D209" t="n">
-        <v>116144100909.5753</v>
+        <v>116144118683.1379</v>
       </c>
       <c r="E209" t="n">
-        <v>382.708206131414</v>
+        <v>382.7082646973526</v>
       </c>
       <c r="F209" t="n">
-        <v>-0.3612227024750253</v>
+        <v>-0.3612226047227656</v>
       </c>
       <c r="G209" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H209" t="n">
         <v>2</v>
       </c>
       <c r="I209" t="n">
-        <v>843.7185112373152</v>
+        <v>843.7186403517834</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -10046,7 +10084,7 @@
         <v>-0.3244614607886079</v>
       </c>
       <c r="G210" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H210" t="n">
         <v>2</v>
@@ -10066,22 +10104,22 @@
         <v>374930071.58</v>
       </c>
       <c r="D211" t="n">
-        <v>160823730297.2367</v>
+        <v>160826697322.8159</v>
       </c>
       <c r="E211" t="n">
-        <v>428.9432683260277</v>
+        <v>428.9511818699232</v>
       </c>
       <c r="F211" t="n">
-        <v>-0.2840518772708405</v>
+        <v>-0.284038668794768</v>
       </c>
       <c r="G211" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H211" t="n">
         <v>2</v>
       </c>
       <c r="I211" t="n">
-        <v>945.6483293515608</v>
+        <v>945.6657755504327</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -10095,22 +10133,22 @@
         <v>414418886.95</v>
       </c>
       <c r="D212" t="n">
-        <v>190429921330.2875</v>
+        <v>190432602324.1596</v>
       </c>
       <c r="E212" t="n">
-        <v>459.5107204977921</v>
+        <v>459.517189782751</v>
       </c>
       <c r="F212" t="n">
-        <v>-0.2330318202726407</v>
+        <v>-0.2330210224055012</v>
       </c>
       <c r="G212" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H212" t="n">
         <v>3</v>
       </c>
       <c r="I212" t="n">
-        <v>1013.037334409432</v>
+        <v>1013.051596595053</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -10124,22 +10162,22 @@
         <v>411030574.1700001</v>
       </c>
       <c r="D213" t="n">
-        <v>187699928997.2722</v>
+        <v>187702200838.1439</v>
       </c>
       <c r="E213" t="n">
-        <v>456.6568542408245</v>
+        <v>456.6623814230209</v>
       </c>
       <c r="F213" t="n">
-        <v>-0.2377952012138307</v>
+        <v>-0.237785975808026</v>
       </c>
       <c r="G213" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H213" t="n">
         <v>3</v>
       </c>
       <c r="I213" t="n">
-        <v>1006.745700859322</v>
+        <v>1006.757886085192</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -10153,22 +10191,22 @@
         <v>358919294.5599999</v>
       </c>
       <c r="D214" t="n">
-        <v>160445091306.2704</v>
+        <v>160447033886.2697</v>
       </c>
       <c r="E214" t="n">
-        <v>447.0227534102352</v>
+        <v>447.0281657133036</v>
       </c>
       <c r="F214" t="n">
-        <v>-0.2538754545087753</v>
+        <v>-0.2538664208474321</v>
       </c>
       <c r="G214" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H214" t="n">
         <v>3</v>
       </c>
       <c r="I214" t="n">
-        <v>985.5063621682043</v>
+        <v>985.5182941315492</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -10182,22 +10220,22 @@
         <v>327291940.5099999</v>
       </c>
       <c r="D215" t="n">
-        <v>140860423055.5823</v>
+        <v>140862592745.6425</v>
       </c>
       <c r="E215" t="n">
-        <v>430.3815817648543</v>
+        <v>430.3882109841891</v>
       </c>
       <c r="F215" t="n">
-        <v>-0.2816511919530764</v>
+        <v>-0.2816401271398753</v>
       </c>
       <c r="G215" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H215" t="n">
         <v>4</v>
       </c>
       <c r="I215" t="n">
-        <v>948.8192351587981</v>
+        <v>948.8338499357433</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -10211,22 +10249,22 @@
         <v>324233265.98</v>
       </c>
       <c r="D216" t="n">
-        <v>138151806385.4406</v>
+        <v>138153951422.7566</v>
       </c>
       <c r="E216" t="n">
-        <v>426.0876994464917</v>
+        <v>426.0943151690009</v>
       </c>
       <c r="F216" t="n">
-        <v>-0.2888181000550472</v>
+        <v>-0.2888070577693636</v>
       </c>
       <c r="G216" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H216" t="n">
         <v>4</v>
       </c>
       <c r="I216" t="n">
-        <v>939.3529421997356</v>
+        <v>939.3675272215794</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -10240,22 +10278,22 @@
         <v>343900260.12</v>
       </c>
       <c r="D217" t="n">
-        <v>145880972222.5363</v>
+        <v>145883217662.519</v>
       </c>
       <c r="E217" t="n">
-        <v>424.1955855794725</v>
+        <v>424.2021149144078</v>
       </c>
       <c r="F217" t="n">
-        <v>-0.2919762225181152</v>
+        <v>-0.2919653244217122</v>
       </c>
       <c r="G217" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H217" t="n">
         <v>4</v>
       </c>
       <c r="I217" t="n">
-        <v>935.1815879685053</v>
+        <v>935.1959825403037</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -10269,22 +10307,22 @@
         <v>361391164.43</v>
       </c>
       <c r="D218" t="n">
-        <v>151702277848.1721</v>
+        <v>151704716763.4358</v>
       </c>
       <c r="E218" t="n">
-        <v>419.7730680201958</v>
+        <v>419.7798167055642</v>
       </c>
       <c r="F218" t="n">
-        <v>-0.2993578353748865</v>
+        <v>-0.2993465711612313</v>
       </c>
       <c r="G218" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H218" t="n">
         <v>1</v>
       </c>
       <c r="I218" t="n">
-        <v>925.4317057573236</v>
+        <v>925.4465839090867</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -10298,22 +10336,22 @@
         <v>317065785.15</v>
       </c>
       <c r="D219" t="n">
-        <v>126198458275.1632</v>
+        <v>126201198620.6871</v>
       </c>
       <c r="E219" t="n">
-        <v>398.0197933228911</v>
+        <v>398.0284361523991</v>
       </c>
       <c r="F219" t="n">
-        <v>-0.3356661710751438</v>
+        <v>-0.3356517453503028</v>
       </c>
       <c r="G219" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H219" t="n">
         <v>1</v>
       </c>
       <c r="I219" t="n">
-        <v>877.4744363596459</v>
+        <v>877.4934903415791</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -10327,22 +10365,22 @@
         <v>329547443.5000001</v>
       </c>
       <c r="D220" t="n">
-        <v>127274375998.3167</v>
+        <v>127277123119.6031</v>
       </c>
       <c r="E220" t="n">
-        <v>386.2095686332238</v>
+        <v>386.2179046750914</v>
       </c>
       <c r="F220" t="n">
-        <v>-0.355378587191557</v>
+        <v>-0.3553646735251893</v>
       </c>
       <c r="G220" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H220" t="n">
         <v>1</v>
       </c>
       <c r="I220" t="n">
-        <v>851.4376150088052</v>
+        <v>851.4559926467067</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -10356,22 +10394,22 @@
         <v>299884009.2</v>
       </c>
       <c r="D221" t="n">
-        <v>104730016902.1645</v>
+        <v>104733686778.1619</v>
       </c>
       <c r="E221" t="n">
-        <v>349.2350831961749</v>
+        <v>349.2473208476831</v>
       </c>
       <c r="F221" t="n">
-        <v>-0.4170926071850151</v>
+        <v>-0.4170721813518787</v>
       </c>
       <c r="G221" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H221" t="n">
         <v>2</v>
       </c>
       <c r="I221" t="n">
-        <v>769.9236644142874</v>
+        <v>769.9506435408018</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -10385,22 +10423,22 @@
         <v>333948459.15</v>
       </c>
       <c r="D222" t="n">
-        <v>124340565852.5261</v>
+        <v>124344032632.5488</v>
       </c>
       <c r="E222" t="n">
-        <v>372.3345996834677</v>
+        <v>372.344980866335</v>
       </c>
       <c r="F222" t="n">
-        <v>-0.3785372627228696</v>
+        <v>-0.3785199355168393</v>
       </c>
       <c r="G222" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H222" t="n">
         <v>2</v>
       </c>
       <c r="I222" t="n">
-        <v>820.8488584621729</v>
+        <v>820.871744817922</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -10414,22 +10452,22 @@
         <v>356565746.0500001</v>
       </c>
       <c r="D223" t="n">
-        <v>139792283757.903</v>
+        <v>139795777645.5117</v>
       </c>
       <c r="E223" t="n">
-        <v>392.0519155485574</v>
+        <v>392.0617142677203</v>
       </c>
       <c r="F223" t="n">
-        <v>-0.3456271407527558</v>
+        <v>-0.3456107857354191</v>
       </c>
       <c r="G223" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H223" t="n">
         <v>2</v>
       </c>
       <c r="I223" t="n">
-        <v>864.3176530183496</v>
+        <v>864.3392552746164</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -10443,22 +10481,22 @@
         <v>413742056.3300002</v>
       </c>
       <c r="D224" t="n">
-        <v>178872615232.5807</v>
+        <v>178876290872.8297</v>
       </c>
       <c r="E224" t="n">
-        <v>432.3288205681276</v>
+        <v>432.3377044613474</v>
       </c>
       <c r="F224" t="n">
-        <v>-0.278401060598528</v>
+        <v>-0.2783862325148561</v>
       </c>
       <c r="G224" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H224" t="n">
         <v>3</v>
       </c>
       <c r="I224" t="n">
-        <v>953.112117824494</v>
+        <v>953.1317032554864</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -10472,22 +10510,22 @@
         <v>404986271.24</v>
       </c>
       <c r="D225" t="n">
-        <v>173136284930.7256</v>
+        <v>173139508129.842</v>
       </c>
       <c r="E225" t="n">
-        <v>427.5114916873883</v>
+        <v>427.5194504735134</v>
       </c>
       <c r="F225" t="n">
-        <v>-0.2864416520319686</v>
+        <v>-0.2864283680422055</v>
       </c>
       <c r="G225" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H225" t="n">
         <v>3</v>
       </c>
       <c r="I225" t="n">
-        <v>942.4918345740164</v>
+        <v>942.5093805139073</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -10501,22 +10539,22 @@
         <v>363673987.68</v>
       </c>
       <c r="D226" t="n">
-        <v>152681317336.5052</v>
+        <v>152684865189.8102</v>
       </c>
       <c r="E226" t="n">
-        <v>419.8301844751429</v>
+        <v>419.8399400623588</v>
       </c>
       <c r="F226" t="n">
-        <v>-0.2992625024445996</v>
+        <v>-0.2992462194186867</v>
       </c>
       <c r="G226" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H226" t="n">
         <v>3</v>
       </c>
       <c r="I226" t="n">
-        <v>925.5576246939003</v>
+        <v>925.5791318614763</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -10530,22 +10568,22 @@
         <v>323136595.41</v>
       </c>
       <c r="D227" t="n">
-        <v>124381644742.4395</v>
+        <v>124384999437.0709</v>
       </c>
       <c r="E227" t="n">
-        <v>384.919710454405</v>
+        <v>384.9300921155326</v>
       </c>
       <c r="F227" t="n">
-        <v>-0.3575314862108516</v>
+        <v>-0.3575141582065584</v>
       </c>
       <c r="G227" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H227" t="n">
         <v>4</v>
       </c>
       <c r="I227" t="n">
-        <v>848.5939936677813</v>
+        <v>848.6168810779033</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -10559,22 +10597,22 @@
         <v>318034322.98</v>
       </c>
       <c r="D228" t="n">
-        <v>125232926618.4162</v>
+        <v>125236531445.6418</v>
       </c>
       <c r="E228" t="n">
-        <v>393.7717333304668</v>
+        <v>393.7830680417393</v>
       </c>
       <c r="F228" t="n">
-        <v>-0.3427565972489503</v>
+        <v>-0.3427376785110743</v>
       </c>
       <c r="G228" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H228" t="n">
         <v>4</v>
       </c>
       <c r="I228" t="n">
-        <v>868.1091633003474</v>
+        <v>868.1341518048184</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -10588,22 +10626,22 @@
         <v>340405491.67</v>
       </c>
       <c r="D229" t="n">
-        <v>127425027306.1612</v>
+        <v>127430252029.6028</v>
       </c>
       <c r="E229" t="n">
-        <v>374.3330540321928</v>
+        <v>374.3484025608427</v>
       </c>
       <c r="F229" t="n">
-        <v>-0.3752016476311273</v>
+        <v>-0.3751760294408325</v>
       </c>
       <c r="G229" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H229" t="n">
         <v>4</v>
       </c>
       <c r="I229" t="n">
-        <v>825.2546509193719</v>
+        <v>825.2884882856339</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -10617,22 +10655,22 @@
         <v>342874144.05</v>
       </c>
       <c r="D230" t="n">
-        <v>122281768373.5009</v>
+        <v>122286035933.623</v>
       </c>
       <c r="E230" t="n">
-        <v>356.6374732405283</v>
+        <v>356.6499196737053</v>
       </c>
       <c r="F230" t="n">
-        <v>-0.4047372967108672</v>
+        <v>-0.404716522400776</v>
       </c>
       <c r="G230" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H230" t="n">
         <v>1</v>
       </c>
       <c r="I230" t="n">
-        <v>786.2429735060688</v>
+        <v>786.2704129126507</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -10646,22 +10684,22 @@
         <v>320542732.65</v>
       </c>
       <c r="D231" t="n">
-        <v>110071422753.0076</v>
+        <v>110075497606.2341</v>
       </c>
       <c r="E231" t="n">
-        <v>343.3907917456808</v>
+        <v>343.403504101356</v>
       </c>
       <c r="F231" t="n">
-        <v>-0.4268472992425276</v>
+        <v>-0.4268260810818683</v>
       </c>
       <c r="G231" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H231" t="n">
         <v>1</v>
       </c>
       <c r="I231" t="n">
-        <v>757.0393394825279</v>
+        <v>757.0673651418496</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -10675,22 +10713,22 @@
         <v>310837045.06</v>
       </c>
       <c r="D232" t="n">
-        <v>104346654115.9859</v>
+        <v>104351152028.447</v>
       </c>
       <c r="E232" t="n">
-        <v>335.6956829127113</v>
+        <v>335.7101532357714</v>
       </c>
       <c r="F232" t="n">
-        <v>-0.4396911859053522</v>
+        <v>-0.4396670335257833</v>
       </c>
       <c r="G232" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H232" t="n">
         <v>1</v>
       </c>
       <c r="I232" t="n">
-        <v>740.0747025493636</v>
+        <v>740.1066038235817</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -10704,22 +10742,22 @@
         <v>279802888.0699999</v>
       </c>
       <c r="D233" t="n">
-        <v>87482657952.54382</v>
+        <v>87486749309.2744</v>
       </c>
       <c r="E233" t="n">
-        <v>312.6581664541567</v>
+        <v>312.6727887361453</v>
       </c>
       <c r="F233" t="n">
-        <v>-0.4781430462765655</v>
+        <v>-0.4781186402627339</v>
       </c>
       <c r="G233" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H233" t="n">
         <v>2</v>
       </c>
       <c r="I233" t="n">
-        <v>689.286193764834</v>
+        <v>689.318430047706</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -10733,22 +10771,22 @@
         <v>308288878.02</v>
       </c>
       <c r="D234" t="n">
-        <v>98040430379.9285</v>
+        <v>98043892288.36937</v>
       </c>
       <c r="E234" t="n">
-        <v>318.0148145778007</v>
+        <v>318.0260440080126</v>
       </c>
       <c r="F234" t="n">
-        <v>-0.4692022784607885</v>
+        <v>-0.4691835354472637</v>
       </c>
       <c r="G234" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H234" t="n">
         <v>2</v>
       </c>
       <c r="I234" t="n">
-        <v>701.0954602182193</v>
+        <v>701.1202166200648</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -10762,22 +10800,22 @@
         <v>356765788.48</v>
       </c>
       <c r="D235" t="n">
-        <v>129485221388.8753</v>
+        <v>129489735373.0206</v>
       </c>
       <c r="E235" t="n">
-        <v>362.941811042328</v>
+        <v>362.9544635563609</v>
       </c>
       <c r="F235" t="n">
-        <v>-0.3942147424536027</v>
+        <v>-0.3941936241744768</v>
       </c>
       <c r="G235" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H235" t="n">
         <v>2</v>
       </c>
       <c r="I235" t="n">
-        <v>800.1415166239165</v>
+        <v>800.1694103563533</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -10791,22 +10829,22 @@
         <v>418415349.29</v>
       </c>
       <c r="D236" t="n">
-        <v>172431311917.3914</v>
+        <v>172439942070.2788</v>
       </c>
       <c r="E236" t="n">
-        <v>412.1056080040714</v>
+        <v>412.126233807838</v>
       </c>
       <c r="F236" t="n">
-        <v>-0.3121555734675443</v>
+        <v>-0.3121211469907187</v>
       </c>
       <c r="G236" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H236" t="n">
         <v>3</v>
       </c>
       <c r="I236" t="n">
-        <v>908.5280234057758</v>
+        <v>908.5734950527597</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -10820,22 +10858,22 @@
         <v>403364118.94</v>
       </c>
       <c r="D237" t="n">
-        <v>168464177291.7761</v>
+        <v>168480019897.0266</v>
       </c>
       <c r="E237" t="n">
-        <v>417.6479002011455</v>
+        <v>417.6871763898459</v>
       </c>
       <c r="F237" t="n">
-        <v>-0.302904947599007</v>
+        <v>-0.3028393918119264</v>
       </c>
       <c r="G237" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H237" t="n">
         <v>3</v>
       </c>
       <c r="I237" t="n">
-        <v>920.7465607834455</v>
+        <v>920.8331490690545</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -10849,22 +10887,22 @@
         <v>337730785.7099999</v>
       </c>
       <c r="D238" t="n">
-        <v>131357150706.2828</v>
+        <v>131365473955.8737</v>
       </c>
       <c r="E238" t="n">
-        <v>388.9404113105508</v>
+        <v>388.9650559385888</v>
       </c>
       <c r="F238" t="n">
-        <v>-0.350820544595549</v>
+        <v>-0.3507794103093109</v>
       </c>
       <c r="G238" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H238" t="n">
         <v>3</v>
       </c>
       <c r="I238" t="n">
-        <v>857.4580307752403</v>
+        <v>857.512362322213</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -10878,22 +10916,22 @@
         <v>317001803.61</v>
       </c>
       <c r="D239" t="n">
-        <v>117291187175.753</v>
+        <v>117300334594.4263</v>
       </c>
       <c r="E239" t="n">
-        <v>370.001639864654</v>
+        <v>370.0304959107997</v>
       </c>
       <c r="F239" t="n">
-        <v>-0.3824312000474966</v>
+        <v>-0.3823830364939618</v>
       </c>
       <c r="G239" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H239" t="n">
         <v>4</v>
       </c>
       <c r="I239" t="n">
-        <v>815.7056152456163</v>
+        <v>815.7692312849492</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -10907,22 +10945,22 @@
         <v>305147333.9999999</v>
       </c>
       <c r="D240" t="n">
-        <v>108025155209.2638</v>
+        <v>108030814786.0767</v>
       </c>
       <c r="E240" t="n">
-        <v>354.0098279517127</v>
+        <v>354.0283749818922</v>
       </c>
       <c r="F240" t="n">
-        <v>-0.4091230928070907</v>
+        <v>-0.4090921360059943</v>
       </c>
       <c r="G240" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H240" t="n">
         <v>4</v>
       </c>
       <c r="I240" t="n">
-        <v>780.4500667023459</v>
+        <v>780.4909554850798</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -10936,22 +10974,22 @@
         <v>347321288.4</v>
       </c>
       <c r="D241" t="n">
-        <v>132232446112.8069</v>
+        <v>132262482607.2273</v>
       </c>
       <c r="E241" t="n">
-        <v>380.7208211220228</v>
+        <v>380.8073015521708</v>
       </c>
       <c r="F241" t="n">
-        <v>-0.3645398417605222</v>
+        <v>-0.3643954974936011</v>
       </c>
       <c r="G241" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H241" t="n">
         <v>4</v>
       </c>
       <c r="I241" t="n">
-        <v>839.3371222456116</v>
+        <v>839.5277770019158</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -10965,22 +11003,22 @@
         <v>353310194.9999999</v>
       </c>
       <c r="D242" t="n">
-        <v>134206956133.9059</v>
+        <v>134205106923.1703</v>
       </c>
       <c r="E242" t="n">
-        <v>379.8558831111735</v>
+        <v>379.8506491531339</v>
       </c>
       <c r="F242" t="n">
-        <v>-0.3659835076037031</v>
+        <v>-0.3659922435898104</v>
       </c>
       <c r="G242" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H242" t="n">
         <v>1</v>
       </c>
       <c r="I242" t="n">
-        <v>837.430279906893</v>
+        <v>837.418741122999</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -10994,22 +11032,22 @@
         <v>329568117.91</v>
       </c>
       <c r="D243" t="n">
-        <v>135404241097.6588</v>
+        <v>135402637059.9386</v>
       </c>
       <c r="E243" t="n">
-        <v>410.8535800014357</v>
+        <v>410.8487129113473</v>
       </c>
       <c r="F243" t="n">
-        <v>-0.3142453302355886</v>
+        <v>-0.3142534538833278</v>
       </c>
       <c r="G243" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H243" t="n">
         <v>1</v>
       </c>
       <c r="I243" t="n">
-        <v>905.7678024711653</v>
+        <v>905.7570724843563</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -11023,22 +11061,109 @@
         <v>314540628.6800001</v>
       </c>
       <c r="D244" t="n">
-        <v>107930501240.0797</v>
+        <v>107934201980.9696</v>
       </c>
       <c r="E244" t="n">
-        <v>343.1369158668639</v>
+        <v>343.1486814085858</v>
       </c>
       <c r="F244" t="n">
-        <v>-0.4272710428288404</v>
+        <v>-0.4272514049929522</v>
       </c>
       <c r="G244" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H244" t="n">
         <v>1</v>
       </c>
       <c r="I244" t="n">
-        <v>756.4796447200882</v>
+        <v>756.5055830333682</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B245" t="n">
+        <v>4</v>
+      </c>
+      <c r="C245" t="n">
+        <v>296853784.52</v>
+      </c>
+      <c r="D245" t="n">
+        <v>99786583231.6086</v>
+      </c>
+      <c r="E245" t="n">
+        <v>336.1472497073241</v>
+      </c>
+      <c r="F245" t="n">
+        <v>-0.4389374769121992</v>
+      </c>
+      <c r="G245" t="s">
+        <v>335</v>
+      </c>
+      <c r="H245" t="n">
+        <v>2</v>
+      </c>
+      <c r="I245" t="n">
+        <v>741.0702267047667</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B246" t="n">
+        <v>5</v>
+      </c>
+      <c r="C246" t="n">
+        <v>322319029.37</v>
+      </c>
+      <c r="D246" t="n">
+        <v>113855858220.3395</v>
+      </c>
+      <c r="E246" t="n">
+        <v>353.2396409944533</v>
+      </c>
+      <c r="F246" t="n">
+        <v>-0.4104086099067114</v>
+      </c>
+      <c r="G246" t="s">
+        <v>336</v>
+      </c>
+      <c r="H246" t="n">
+        <v>2</v>
+      </c>
+      <c r="I246" t="n">
+        <v>778.7521125363721</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B247" t="n">
+        <v>6</v>
+      </c>
+      <c r="C247" t="n">
+        <v>378968470.1699998</v>
+      </c>
+      <c r="D247" t="n">
+        <v>151888514663.7077</v>
+      </c>
+      <c r="E247" t="n">
+        <v>400.7945953803827</v>
+      </c>
+      <c r="F247" t="n">
+        <v>-0.3310347559890441</v>
+      </c>
+      <c r="G247" t="s">
+        <v>337</v>
+      </c>
+      <c r="H247" t="n">
+        <v>2</v>
+      </c>
+      <c r="I247" t="n">
+        <v>883.5917649755918</v>
       </c>
     </row>
   </sheetData>

--- a/web_files/US Power Sector CO2 Emissions Intensity.xlsx
+++ b/web_files/US Power Sector CO2 Emissions Intensity.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="342">
   <si>
     <t>year</t>
   </si>
@@ -289,6 +289,9 @@
     <t>2021 Q2</t>
   </si>
   <si>
+    <t>2021 Q3</t>
+  </si>
+  <si>
     <t>month</t>
   </si>
   <si>
@@ -1031,6 +1034,15 @@
   </si>
   <si>
     <t>2021-06-01</t>
+  </si>
+  <si>
+    <t>2021-07-01</t>
+  </si>
+  <si>
+    <t>2021-08-01</t>
+  </si>
+  <si>
+    <t>2021-09-01</t>
   </si>
 </sst>
 </file>
@@ -1672,19 +1684,19 @@
         <v>2014</v>
       </c>
       <c r="B15" t="n">
-        <v>4104659454.56</v>
+        <v>4104591433.59</v>
       </c>
       <c r="C15" t="n">
         <v>2094336942609.711</v>
       </c>
       <c r="D15" t="n">
-        <v>510.2340317862529</v>
+        <v>510.2424873449439</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1483696698738189</v>
+        <v>-0.1483555567222241</v>
       </c>
       <c r="F15" t="n">
-        <v>1124.861946475973</v>
+        <v>1124.880587600663</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1692,19 +1704,19 @@
         <v>2015</v>
       </c>
       <c r="B16" t="n">
-        <v>4091519853.68</v>
+        <v>4091446794.71</v>
       </c>
       <c r="C16" t="n">
         <v>1969867185933.869</v>
       </c>
       <c r="D16" t="n">
-        <v>481.4512104009781</v>
+        <v>481.4598074404369</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.196411004146428</v>
+        <v>-0.1963966548496421</v>
       </c>
       <c r="F16" t="n">
-        <v>1061.407338449996</v>
+        <v>1061.426291483187</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1712,19 +1724,19 @@
         <v>2016</v>
       </c>
       <c r="B17" t="n">
-        <v>4095208935.53</v>
+        <v>4095143764.57</v>
       </c>
       <c r="C17" t="n">
-        <v>1857015368111.038</v>
+        <v>1857033270288.884</v>
       </c>
       <c r="D17" t="n">
-        <v>453.4604698675048</v>
+        <v>453.4720578934002</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2431302782754894</v>
+        <v>-0.2431109367308177</v>
       </c>
       <c r="F17" t="n">
-        <v>999.6989518699013</v>
+        <v>999.7244988317904</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1732,19 +1744,19 @@
         <v>2017</v>
       </c>
       <c r="B18" t="n">
-        <v>4058030988.1</v>
+        <v>4057943287.12</v>
       </c>
       <c r="C18" t="n">
-        <v>1780378551379.489</v>
+        <v>1780378877695.958</v>
       </c>
       <c r="D18" t="n">
-        <v>438.7296589405975</v>
+        <v>438.739221256965</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2677174374831761</v>
+        <v>-0.2677014770451466</v>
       </c>
       <c r="F18" t="n">
-        <v>967.2234061004413</v>
+        <v>967.2444871831053</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1755,16 +1767,16 @@
         <v>4207602186.04</v>
       </c>
       <c r="C19" t="n">
-        <v>1798504282118.086</v>
+        <v>1798510654213.064</v>
       </c>
       <c r="D19" t="n">
-        <v>427.4416170058024</v>
+        <v>427.4431314300982</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.2865582796860241</v>
+        <v>-0.2865557519642676</v>
       </c>
       <c r="F19" t="n">
-        <v>942.337788850992</v>
+        <v>942.3411275507947</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1775,16 +1787,16 @@
         <v>4162381332.79</v>
       </c>
       <c r="C20" t="n">
-        <v>1655808982664.746</v>
+        <v>1655848494057.677</v>
       </c>
       <c r="D20" t="n">
-        <v>397.80328861769</v>
+        <v>397.812781114838</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.3360275385302288</v>
+        <v>-0.3360116946272816</v>
       </c>
       <c r="F20" t="n">
-        <v>876.9971300865594</v>
+        <v>877.0180572457721</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1792,19 +1804,19 @@
         <v>2020</v>
       </c>
       <c r="B21" t="n">
-        <v>4048092156.28</v>
+        <v>4048186462.070001</v>
       </c>
       <c r="C21" t="n">
-        <v>1481612130449.878</v>
+        <v>1485952719111.706</v>
       </c>
       <c r="D21" t="n">
-        <v>366.0025694206051</v>
+        <v>367.066273511492</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.3891060383967542</v>
+        <v>-0.3873306125928203</v>
       </c>
       <c r="F21" t="n">
-        <v>806.8892645446663</v>
+        <v>809.2343065834352</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +1830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3212,22 +3224,22 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>1035573117.26</v>
+        <v>1035558409.64</v>
       </c>
       <c r="D54" t="n">
         <v>548092678999.1687</v>
       </c>
       <c r="E54" t="n">
-        <v>529.2650705817422</v>
+        <v>529.2725875208786</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.1166050112223625</v>
+        <v>-0.1165924647182889</v>
       </c>
       <c r="G54" t="s">
         <v>60</v>
       </c>
       <c r="H54" t="n">
-        <v>1166.817774604509</v>
+        <v>1166.834346448529</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3238,22 +3250,22 @@
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>983321676.4</v>
+        <v>983304469.48</v>
       </c>
       <c r="D55" t="n">
         <v>486385242864.6228</v>
       </c>
       <c r="E55" t="n">
-        <v>494.6349241941951</v>
+        <v>494.6435798485056</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.1744061008460737</v>
+        <v>-0.1743916537153872</v>
       </c>
       <c r="G55" t="s">
         <v>61</v>
       </c>
       <c r="H55" t="n">
-        <v>1090.472153878522</v>
+        <v>1090.491236134016</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3264,22 +3276,22 @@
         <v>3</v>
       </c>
       <c r="C56" t="n">
-        <v>1113309109.22</v>
+        <v>1113290726.65</v>
       </c>
       <c r="D56" t="n">
         <v>583494198776.7098</v>
       </c>
       <c r="E56" t="n">
-        <v>524.1079893665058</v>
+        <v>524.1166433969145</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.1252126824167825</v>
+        <v>-0.1251982379965464</v>
       </c>
       <c r="G56" t="s">
         <v>62</v>
       </c>
       <c r="H56" t="n">
-        <v>1155.448473357399</v>
+        <v>1155.467552032838</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3290,22 +3302,22 @@
         <v>4</v>
       </c>
       <c r="C57" t="n">
-        <v>972455551.6799999</v>
+        <v>972437827.8200001</v>
       </c>
       <c r="D57" t="n">
         <v>476364821969.2092</v>
       </c>
       <c r="E57" t="n">
-        <v>489.8576815631812</v>
+        <v>489.8666098141394</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.1823797844216285</v>
+        <v>-0.1823648823005677</v>
       </c>
       <c r="G57" t="s">
         <v>63</v>
       </c>
       <c r="H57" t="n">
-        <v>1079.94024477419</v>
+        <v>1079.959927996252</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3316,22 +3328,22 @@
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>1021760431.8</v>
+        <v>1021743631.31</v>
       </c>
       <c r="D58" t="n">
         <v>498767983842.6959</v>
       </c>
       <c r="E58" t="n">
-        <v>488.1457221474446</v>
+        <v>488.1537487081906</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.1852372115463585</v>
+        <v>-0.1852238144341472</v>
       </c>
       <c r="G58" t="s">
         <v>64</v>
       </c>
       <c r="H58" t="n">
-        <v>1076.166059046257</v>
+        <v>1076.183754402077</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3342,22 +3354,22 @@
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>982642600.02</v>
+        <v>982624564.37</v>
       </c>
       <c r="D59" t="n">
         <v>465730054368.658</v>
       </c>
       <c r="E59" t="n">
-        <v>473.9567105671777</v>
+        <v>473.9654098381472</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.2089200548368453</v>
+        <v>-0.2089055349057035</v>
       </c>
       <c r="G59" t="s">
         <v>65</v>
       </c>
       <c r="H59" t="n">
-        <v>1044.8849641164</v>
+        <v>1044.904142529179</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3368,22 +3380,22 @@
         <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>1146880730.57</v>
+        <v>1146861408.84</v>
       </c>
       <c r="D60" t="n">
         <v>582939652224.3123</v>
       </c>
       <c r="E60" t="n">
-        <v>508.2827156182065</v>
+        <v>508.291278903464</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1516266067475829</v>
+        <v>-0.1516123137898487</v>
       </c>
       <c r="G60" t="s">
         <v>66</v>
       </c>
       <c r="H60" t="n">
-        <v>1120.560074851898</v>
+        <v>1120.578953470577</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3394,22 +3406,22 @@
         <v>4</v>
       </c>
       <c r="C61" t="n">
-        <v>940236091.2899996</v>
+        <v>940217190.1899998</v>
       </c>
       <c r="D61" t="n">
         <v>422429495498.2031</v>
       </c>
       <c r="E61" t="n">
-        <v>449.2802386671115</v>
+        <v>449.2892705065712</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.2501074915843148</v>
+        <v>-0.2500924165639486</v>
       </c>
       <c r="G61" t="s">
         <v>67</v>
       </c>
       <c r="H61" t="n">
-        <v>990.483214165514</v>
+        <v>990.503125758787</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3420,22 +3432,22 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>974403112.76</v>
+        <v>974387563.86</v>
       </c>
       <c r="D62" t="n">
-        <v>415752321334.0254</v>
+        <v>415757517325.113</v>
       </c>
       <c r="E62" t="n">
-        <v>426.6738435968309</v>
+        <v>426.6859848642824</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.2878397683383107</v>
+        <v>-0.2878195033795588</v>
       </c>
       <c r="G62" t="s">
         <v>68</v>
       </c>
       <c r="H62" t="n">
-        <v>940.6451555935733</v>
+        <v>940.6719222317972</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3446,22 +3458,22 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>982883128.3099999</v>
+        <v>982867071.35</v>
       </c>
       <c r="D63" t="n">
-        <v>424484589274.3917</v>
+        <v>424488152958.9769</v>
       </c>
       <c r="E63" t="n">
-        <v>431.876971989807</v>
+        <v>431.8876533079175</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.2791552399161543</v>
+        <v>-0.2791374117551499</v>
       </c>
       <c r="G63" t="s">
         <v>69</v>
       </c>
       <c r="H63" t="n">
-        <v>952.1159724487284</v>
+        <v>952.1395204826347</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3472,22 +3484,22 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>1178666326.37</v>
+        <v>1178649522.33</v>
       </c>
       <c r="D64" t="n">
-        <v>583076715823.3752</v>
+        <v>583085533644.1443</v>
       </c>
       <c r="E64" t="n">
-        <v>494.6919266109068</v>
+        <v>494.7064607394726</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.1743109582567167</v>
+        <v>-0.1742866993795399</v>
       </c>
       <c r="G64" t="s">
         <v>70</v>
       </c>
       <c r="H64" t="n">
-        <v>1090.597821406405</v>
+        <v>1090.629863346241</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3498,22 +3510,22 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>959256368.09</v>
+        <v>959239607.03</v>
       </c>
       <c r="D65" t="n">
-        <v>433701741679.2454</v>
+        <v>433702066360.6495</v>
       </c>
       <c r="E65" t="n">
-        <v>452.122869450218</v>
+        <v>452.1311079965504</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2453628637440887</v>
+        <v>-0.2453491128072721</v>
       </c>
       <c r="G65" t="s">
         <v>71</v>
       </c>
       <c r="H65" t="n">
-        <v>996.7500779899507</v>
+        <v>996.7682406891953</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3524,22 +3536,22 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>959282668.98</v>
+        <v>959262216.27</v>
       </c>
       <c r="D66" t="n">
-        <v>409257956926.6771</v>
+        <v>409257882531.1814</v>
       </c>
       <c r="E66" t="n">
-        <v>426.6291575577392</v>
+        <v>426.6381762877535</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.287914353692977</v>
+        <v>-0.287899300553553</v>
       </c>
       <c r="G66" t="s">
         <v>72</v>
       </c>
       <c r="H66" t="n">
-        <v>940.546640751792</v>
+        <v>940.5665234439813</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3550,22 +3562,22 @@
         <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>984400726.63</v>
+        <v>984379167.3099999</v>
       </c>
       <c r="D67" t="n">
-        <v>417644423572.1032</v>
+        <v>417642618946.849</v>
       </c>
       <c r="E67" t="n">
-        <v>424.2626120379535</v>
+        <v>424.2700707372095</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.2918643488260301</v>
+        <v>-0.2918518995299935</v>
       </c>
       <c r="G67" t="s">
         <v>73</v>
       </c>
       <c r="H67" t="n">
-        <v>935.3293544988724</v>
+        <v>935.3457979472521</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3576,22 +3588,22 @@
         <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>1132268520.22</v>
+        <v>1132245772.11</v>
       </c>
       <c r="D68" t="n">
-        <v>529420039182.3328</v>
+        <v>529420761741.2925</v>
       </c>
       <c r="E68" t="n">
-        <v>467.5746342214533</v>
+        <v>467.5846664939971</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.2195723623008768</v>
+        <v>-0.219555617460184</v>
       </c>
       <c r="G68" t="s">
         <v>74</v>
       </c>
       <c r="H68" t="n">
-        <v>1030.815038604616</v>
+        <v>1030.837155752666</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3602,22 +3614,22 @@
         <v>4</v>
       </c>
       <c r="C69" t="n">
-        <v>982079072.27</v>
+        <v>982056131.4299999</v>
       </c>
       <c r="D69" t="n">
-        <v>424056131698.3757</v>
+        <v>424057614476.6345</v>
       </c>
       <c r="E69" t="n">
-        <v>431.7942858900381</v>
+        <v>431.8058824796013</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.27929325107585</v>
+        <v>-0.2792738952375819</v>
       </c>
       <c r="G69" t="s">
         <v>75</v>
       </c>
       <c r="H69" t="n">
-        <v>951.9336826731779</v>
+        <v>951.9592485145292</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3631,19 +3643,19 @@
         <v>1007451607.32</v>
       </c>
       <c r="D70" t="n">
-        <v>419654783951.9741</v>
+        <v>419654195061.1908</v>
       </c>
       <c r="E70" t="n">
-        <v>416.5508108804654</v>
+        <v>416.5502263454077</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.3047360966054303</v>
+        <v>-0.3047370722514144</v>
       </c>
       <c r="G70" t="s">
         <v>76</v>
       </c>
       <c r="H70" t="n">
-        <v>918.327917667074</v>
+        <v>918.326629001086</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3657,19 +3669,19 @@
         <v>1020356356.43</v>
       </c>
       <c r="D71" t="n">
-        <v>415367899286.621</v>
+        <v>415364939866.9857</v>
       </c>
       <c r="E71" t="n">
-        <v>407.0812090982614</v>
+        <v>407.0783087197646</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.3205417849553603</v>
+        <v>-0.3205466259697633</v>
       </c>
       <c r="G71" t="s">
         <v>77</v>
       </c>
       <c r="H71" t="n">
-        <v>897.4512335780272</v>
+        <v>897.4448394035928</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3683,19 +3695,19 @@
         <v>1184368755.68</v>
       </c>
       <c r="D72" t="n">
-        <v>538581837048.5731</v>
+        <v>538587901321.5594</v>
       </c>
       <c r="E72" t="n">
-        <v>454.7416794521472</v>
+        <v>454.7467997096323</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.2409918146028292</v>
+        <v>-0.2409832683940295</v>
       </c>
       <c r="G72" t="s">
         <v>78</v>
       </c>
       <c r="H72" t="n">
-        <v>1002.523506520204</v>
+        <v>1002.534794639856</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3709,19 +3721,19 @@
         <v>995425466.61</v>
       </c>
       <c r="D73" t="n">
-        <v>424899761830.9181</v>
+        <v>424903617963.3284</v>
       </c>
       <c r="E73" t="n">
-        <v>426.8524124442463</v>
+        <v>426.8562862977288</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.2875417195273712</v>
+        <v>-0.2875352536883355</v>
       </c>
       <c r="G73" t="s">
         <v>79</v>
       </c>
       <c r="H73" t="n">
-        <v>941.0388284745856</v>
+        <v>941.047368771973</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3735,19 +3747,19 @@
         <v>1008004393.08</v>
       </c>
       <c r="D74" t="n">
-        <v>405183038503.726</v>
+        <v>405187021240.504</v>
       </c>
       <c r="E74" t="n">
-        <v>401.965548250908</v>
+        <v>401.9694993614443</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.329080321518657</v>
+        <v>-0.3290737267300683</v>
       </c>
       <c r="G74" t="s">
         <v>80</v>
       </c>
       <c r="H74" t="n">
-        <v>886.1732476739518</v>
+        <v>886.1819582922401</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3761,19 +3773,19 @@
         <v>990398214.4000002</v>
       </c>
       <c r="D75" t="n">
-        <v>368873497056.2224</v>
+        <v>368897521436.0672</v>
       </c>
       <c r="E75" t="n">
-        <v>372.4496790209706</v>
+        <v>372.4739363141436</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.3783451840921183</v>
+        <v>-0.3783046963055223</v>
       </c>
       <c r="G75" t="s">
         <v>81</v>
       </c>
       <c r="H75" t="n">
-        <v>821.1025623696316</v>
+        <v>821.1560399981612</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3787,19 +3799,19 @@
         <v>1182402315.25</v>
       </c>
       <c r="D76" t="n">
-        <v>504700664192.4819</v>
+        <v>504710592772.8922</v>
       </c>
       <c r="E76" t="n">
-        <v>426.8434336461621</v>
+        <v>426.8518306023269</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.287556706016512</v>
+        <v>-0.2875426906782454</v>
       </c>
       <c r="G76" t="s">
         <v>82</v>
       </c>
       <c r="H76" t="n">
-        <v>941.0190338163291</v>
+        <v>941.0375457458897</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3813,19 +3825,19 @@
         <v>981576410.0599999</v>
       </c>
       <c r="D77" t="n">
-        <v>377051782912.3154</v>
+        <v>377053358608.2129</v>
       </c>
       <c r="E77" t="n">
-        <v>384.1288146780827</v>
+        <v>384.1304199488301</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.3588515683479188</v>
+        <v>-0.3588488889945802</v>
       </c>
       <c r="G77" t="s">
         <v>83</v>
       </c>
       <c r="H77" t="n">
-        <v>846.8503848393011</v>
+        <v>846.8539238191909</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3836,22 +3848,22 @@
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>974253921.76</v>
+        <v>979266652.4400001</v>
       </c>
       <c r="D78" t="n">
-        <v>336712685568.3041</v>
+        <v>337643969705.3193</v>
       </c>
       <c r="E78" t="n">
-        <v>345.610808484126</v>
+        <v>344.7926760949382</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.4231418749272797</v>
+        <v>-0.4245074176258954</v>
       </c>
       <c r="G78" t="s">
         <v>84</v>
       </c>
       <c r="H78" t="n">
-        <v>761.9335883841043</v>
+        <v>760.1299337189007</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3862,22 +3874,22 @@
         <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>944857554.5700001</v>
+        <v>948186060.61</v>
       </c>
       <c r="D79" t="n">
-        <v>315020376970.6643</v>
+        <v>316238067781.1371</v>
       </c>
       <c r="E79" t="n">
-        <v>333.4051523925514</v>
+        <v>333.5190010889746</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.4435143045950618</v>
+        <v>-0.4433242800242196</v>
       </c>
       <c r="G79" t="s">
         <v>85</v>
       </c>
       <c r="H79" t="n">
-        <v>735.0249989646188</v>
+        <v>735.2759898007532</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3888,22 +3900,22 @@
         <v>3</v>
       </c>
       <c r="C80" t="n">
-        <v>1159510253.94</v>
+        <v>1153270924.68</v>
       </c>
       <c r="D80" t="n">
-        <v>472285435923.179</v>
+        <v>474095924477.841</v>
       </c>
       <c r="E80" t="n">
-        <v>407.3145833064949</v>
+        <v>411.0880750846894</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3201522606554916</v>
+        <v>-0.3138539350860624</v>
       </c>
       <c r="G80" t="s">
         <v>86</v>
       </c>
       <c r="H80" t="n">
-        <v>897.9657303574985</v>
+        <v>906.2847703317063</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3914,22 +3926,22 @@
         <v>4</v>
       </c>
       <c r="C81" t="n">
-        <v>969470426.01</v>
+        <v>967462824.34</v>
       </c>
       <c r="D81" t="n">
-        <v>357593631987.7302</v>
+        <v>357974757147.4083</v>
       </c>
       <c r="E81" t="n">
-        <v>368.8546059723143</v>
+        <v>370.0139665744961</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3843457114119765</v>
+        <v>-0.3824106255673205</v>
       </c>
       <c r="G81" t="s">
         <v>87</v>
       </c>
       <c r="H81" t="n">
-        <v>813.1768643265642</v>
+        <v>815.7327907101339</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3940,22 +3952,22 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>997418941.59</v>
+        <v>999476515.86</v>
       </c>
       <c r="D82" t="n">
-        <v>377541945964.0786</v>
+        <v>377951104223.7452</v>
       </c>
       <c r="E82" t="n">
-        <v>378.5189254198778</v>
+        <v>378.1490592588231</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.3682150202999787</v>
+        <v>-0.3688323629725925</v>
       </c>
       <c r="G82" t="s">
         <v>88</v>
       </c>
       <c r="H82" t="n">
-        <v>834.4828229806625</v>
+        <v>833.6674160420015</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3966,22 +3978,48 @@
         <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>998141284.0599999</v>
+        <v>999319099.4299999</v>
       </c>
       <c r="D83" t="n">
-        <v>365530956115.6558</v>
+        <v>366340793058.276</v>
       </c>
       <c r="E83" t="n">
-        <v>366.2116395274591</v>
+        <v>366.5904046737749</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3887570800109402</v>
+        <v>-0.3881248840645664</v>
       </c>
       <c r="G83" t="s">
         <v>89</v>
       </c>
       <c r="H83" t="n">
-        <v>807.3501805022362</v>
+        <v>808.1852061438042</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1179648136.09</v>
+      </c>
+      <c r="D84" t="n">
+        <v>493271862817.041</v>
+      </c>
+      <c r="E84" t="n">
+        <v>418.1516909372774</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.3020640717573379</v>
+      </c>
+      <c r="G84" t="s">
+        <v>90</v>
+      </c>
+      <c r="H84" t="n">
+        <v>921.8572178403217</v>
       </c>
     </row>
   </sheetData>
@@ -3995,7 +4033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I247"/>
+  <dimension ref="A1:I250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4008,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4023,7 +4061,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -4052,7 +4090,7 @@
         <v>0.07726515958654644</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -4081,7 +4119,7 @@
         <v>0.06148124887439917</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -4110,7 +4148,7 @@
         <v>0.04746077038960551</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -4139,7 +4177,7 @@
         <v>0.04727244615802906</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
@@ -4168,7 +4206,7 @@
         <v>0.04871093696407162</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
@@ -4197,7 +4235,7 @@
         <v>0.04304157536165719</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
@@ -4226,7 +4264,7 @@
         <v>0.07078023556064666</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
@@ -4255,7 +4293,7 @@
         <v>0.07532787659744344</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
@@ -4284,7 +4322,7 @@
         <v>0.05259835799380738</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
@@ -4313,7 +4351,7 @@
         <v>0.03553213710629145</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -4342,7 +4380,7 @@
         <v>0.02646669802403197</v>
       </c>
       <c r="G12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -4371,7 +4409,7 @@
         <v>0.01912175729454257</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
@@ -4400,7 +4438,7 @@
         <v>0.01111774538231211</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -4429,7 +4467,7 @@
         <v>0.005018273091192093</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -4458,7 +4496,7 @@
         <v>0.01544195713902331</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -4487,7 +4525,7 @@
         <v>0.003355439027818183</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" t="n">
         <v>2</v>
@@ -4516,7 +4554,7 @@
         <v>0.00536957613039397</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H18" t="n">
         <v>2</v>
@@ -4545,7 +4583,7 @@
         <v>0.0145689414097139</v>
       </c>
       <c r="G19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
@@ -4574,7 +4612,7 @@
         <v>0.03912865348530959</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
@@ -4603,7 +4641,7 @@
         <v>0.04573043199637251</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
@@ -4632,7 +4670,7 @@
         <v>0.05004182162970362</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
@@ -4661,7 +4699,7 @@
         <v>0.0547357353567896</v>
       </c>
       <c r="G23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H23" t="n">
         <v>4</v>
@@ -4690,7 +4728,7 @@
         <v>0.03397983951034167</v>
       </c>
       <c r="G24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H24" t="n">
         <v>4</v>
@@ -4719,7 +4757,7 @@
         <v>0.03489294255166995</v>
       </c>
       <c r="G25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H25" t="n">
         <v>4</v>
@@ -4748,7 +4786,7 @@
         <v>0.05407231572896915</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -4777,7 +4815,7 @@
         <v>0.0446998960634503</v>
       </c>
       <c r="G27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -4806,7 +4844,7 @@
         <v>0.02564607186253928</v>
       </c>
       <c r="G28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -4835,7 +4873,7 @@
         <v>-0.005255460204990879</v>
       </c>
       <c r="G29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H29" t="n">
         <v>2</v>
@@ -4864,7 +4902,7 @@
         <v>-0.005159282455205773</v>
       </c>
       <c r="G30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H30" t="n">
         <v>2</v>
@@ -4893,7 +4931,7 @@
         <v>0.01662217479072057</v>
       </c>
       <c r="G31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H31" t="n">
         <v>2</v>
@@ -4922,7 +4960,7 @@
         <v>0.03768728145702852</v>
       </c>
       <c r="G32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
@@ -4951,7 +4989,7 @@
         <v>0.04140058597533856</v>
       </c>
       <c r="G33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H33" t="n">
         <v>3</v>
@@ -4980,7 +5018,7 @@
         <v>0.04146258828233757</v>
       </c>
       <c r="G34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H34" t="n">
         <v>3</v>
@@ -5009,7 +5047,7 @@
         <v>0.05070299868862761</v>
       </c>
       <c r="G35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H35" t="n">
         <v>4</v>
@@ -5038,7 +5076,7 @@
         <v>0.04234991120899041</v>
       </c>
       <c r="G36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H36" t="n">
         <v>4</v>
@@ -5067,7 +5105,7 @@
         <v>0.03310887154716038</v>
       </c>
       <c r="G37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H37" t="n">
         <v>4</v>
@@ -5096,7 +5134,7 @@
         <v>0.03014022625659499</v>
       </c>
       <c r="G38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -5125,7 +5163,7 @@
         <v>0.01239560014339367</v>
       </c>
       <c r="G39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -5154,7 +5192,7 @@
         <v>-0.01037094285092945</v>
       </c>
       <c r="G40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -5183,7 +5221,7 @@
         <v>-0.02234624922534889</v>
       </c>
       <c r="G41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H41" t="n">
         <v>2</v>
@@ -5212,7 +5250,7 @@
         <v>-0.01332959283944984</v>
       </c>
       <c r="G42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H42" t="n">
         <v>2</v>
@@ -5241,7 +5279,7 @@
         <v>-0.007522138257441214</v>
       </c>
       <c r="G43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H43" t="n">
         <v>2</v>
@@ -5270,7 +5308,7 @@
         <v>0.002774173076043244</v>
       </c>
       <c r="G44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H44" t="n">
         <v>3</v>
@@ -5299,7 +5337,7 @@
         <v>0.005812723595943646</v>
       </c>
       <c r="G45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H45" t="n">
         <v>3</v>
@@ -5328,7 +5366,7 @@
         <v>-0.0001281622510707689</v>
       </c>
       <c r="G46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H46" t="n">
         <v>3</v>
@@ -5357,7 +5395,7 @@
         <v>0.005798551352125575</v>
       </c>
       <c r="G47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H47" t="n">
         <v>4</v>
@@ -5386,7 +5424,7 @@
         <v>0.0142697616731208</v>
       </c>
       <c r="G48" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H48" t="n">
         <v>4</v>
@@ -5415,7 +5453,7 @@
         <v>0.006630546904983436</v>
       </c>
       <c r="G49" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H49" t="n">
         <v>4</v>
@@ -5444,7 +5482,7 @@
         <v>0.01135874913719794</v>
       </c>
       <c r="G50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -5473,7 +5511,7 @@
         <v>0.00158584139446698</v>
       </c>
       <c r="G51" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -5502,7 +5540,7 @@
         <v>0.0004943352228414668</v>
       </c>
       <c r="G52" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -5531,7 +5569,7 @@
         <v>-0.03023291224285088</v>
       </c>
       <c r="G53" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H53" t="n">
         <v>2</v>
@@ -5560,7 +5598,7 @@
         <v>-0.03619156271650293</v>
       </c>
       <c r="G54" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H54" t="n">
         <v>2</v>
@@ -5589,7 +5627,7 @@
         <v>-0.007018965988378289</v>
       </c>
       <c r="G55" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
@@ -5618,7 +5656,7 @@
         <v>-0.0008959033638951873</v>
       </c>
       <c r="G56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H56" t="n">
         <v>3</v>
@@ -5647,7 +5685,7 @@
         <v>0.007925452227224232</v>
       </c>
       <c r="G57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H57" t="n">
         <v>3</v>
@@ -5676,7 +5714,7 @@
         <v>0.01721030590351288</v>
       </c>
       <c r="G58" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H58" t="n">
         <v>3</v>
@@ -5705,7 +5743,7 @@
         <v>0.02231843704751483</v>
       </c>
       <c r="G59" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H59" t="n">
         <v>4</v>
@@ -5734,7 +5772,7 @@
         <v>0.002897748801680964</v>
       </c>
       <c r="G60" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H60" t="n">
         <v>4</v>
@@ -5763,7 +5801,7 @@
         <v>0.00389971424966281</v>
       </c>
       <c r="G61" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H61" t="n">
         <v>4</v>
@@ -5792,7 +5830,7 @@
         <v>-0.02748121131636642</v>
       </c>
       <c r="G62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -5821,7 +5859,7 @@
         <v>-0.01857254232013877</v>
       </c>
       <c r="G63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -5850,7 +5888,7 @@
         <v>-0.02435619078134472</v>
       </c>
       <c r="G64" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -5879,7 +5917,7 @@
         <v>-0.06369815302300276</v>
       </c>
       <c r="G65" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H65" t="n">
         <v>2</v>
@@ -5908,7 +5946,7 @@
         <v>-0.05404582225952413</v>
       </c>
       <c r="G66" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H66" t="n">
         <v>2</v>
@@ -5937,7 +5975,7 @@
         <v>-0.04243926553323214</v>
       </c>
       <c r="G67" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H67" t="n">
         <v>2</v>
@@ -5966,7 +6004,7 @@
         <v>-0.01354297585931169</v>
       </c>
       <c r="G68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H68" t="n">
         <v>3</v>
@@ -5995,7 +6033,7 @@
         <v>-0.004118886890496862</v>
       </c>
       <c r="G69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H69" t="n">
         <v>3</v>
@@ -6024,7 +6062,7 @@
         <v>-0.01455882450582037</v>
       </c>
       <c r="G70" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H70" t="n">
         <v>3</v>
@@ -6053,7 +6091,7 @@
         <v>0.00439522235340898</v>
       </c>
       <c r="G71" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H71" t="n">
         <v>4</v>
@@ -6082,7 +6120,7 @@
         <v>-0.003746313420402704</v>
       </c>
       <c r="G72" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H72" t="n">
         <v>4</v>
@@ -6111,7 +6149,7 @@
         <v>-0.01605853233048685</v>
       </c>
       <c r="G73" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H73" t="n">
         <v>4</v>
@@ -6140,7 +6178,7 @@
         <v>-0.03511432398711213</v>
       </c>
       <c r="G74" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
@@ -6169,7 +6207,7 @@
         <v>-0.008437620703637254</v>
       </c>
       <c r="G75" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -6198,7 +6236,7 @@
         <v>-0.03117857292861368</v>
       </c>
       <c r="G76" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
@@ -6227,7 +6265,7 @@
         <v>-0.03928361585166878</v>
       </c>
       <c r="G77" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H77" t="n">
         <v>2</v>
@@ -6256,7 +6294,7 @@
         <v>-0.03788195719455209</v>
       </c>
       <c r="G78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H78" t="n">
         <v>2</v>
@@ -6285,7 +6323,7 @@
         <v>-0.0177532915761511</v>
       </c>
       <c r="G79" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H79" t="n">
         <v>2</v>
@@ -6314,7 +6352,7 @@
         <v>-0.01310236048309173</v>
       </c>
       <c r="G80" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H80" t="n">
         <v>3</v>
@@ -6343,7 +6381,7 @@
         <v>-0.008678539752206496</v>
       </c>
       <c r="G81" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H81" t="n">
         <v>3</v>
@@ -6372,7 +6410,7 @@
         <v>-0.004141764801333879</v>
       </c>
       <c r="G82" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H82" t="n">
         <v>3</v>
@@ -6401,7 +6439,7 @@
         <v>1.642574651693381e-05</v>
       </c>
       <c r="G83" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H83" t="n">
         <v>4</v>
@@ -6430,7 +6468,7 @@
         <v>-0.01470502580322882</v>
       </c>
       <c r="G84" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H84" t="n">
         <v>4</v>
@@ -6459,7 +6497,7 @@
         <v>-0.01552034206631986</v>
       </c>
       <c r="G85" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H85" t="n">
         <v>4</v>
@@ -6488,7 +6526,7 @@
         <v>-0.01703554138701916</v>
       </c>
       <c r="G86" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -6517,7 +6555,7 @@
         <v>-0.01289961080171436</v>
       </c>
       <c r="G87" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -6546,7 +6584,7 @@
         <v>-0.03539719528073028</v>
       </c>
       <c r="G88" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H88" t="n">
         <v>1</v>
@@ -6575,7 +6613,7 @@
         <v>-0.04508011761521417</v>
       </c>
       <c r="G89" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H89" t="n">
         <v>2</v>
@@ -6604,7 +6642,7 @@
         <v>-0.04957830570333151</v>
       </c>
       <c r="G90" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H90" t="n">
         <v>2</v>
@@ -6633,7 +6671,7 @@
         <v>-0.04880070678863985</v>
       </c>
       <c r="G91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H91" t="n">
         <v>2</v>
@@ -6662,7 +6700,7 @@
         <v>-0.0274894180589785</v>
       </c>
       <c r="G92" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H92" t="n">
         <v>3</v>
@@ -6691,7 +6729,7 @@
         <v>-0.02085837505734224</v>
       </c>
       <c r="G93" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H93" t="n">
         <v>3</v>
@@ -6720,7 +6758,7 @@
         <v>-0.01669978454361145</v>
       </c>
       <c r="G94" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H94" t="n">
         <v>3</v>
@@ -6749,7 +6787,7 @@
         <v>-0.02999219344874965</v>
       </c>
       <c r="G95" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H95" t="n">
         <v>4</v>
@@ -6778,7 +6816,7 @@
         <v>-0.03080314982097817</v>
       </c>
       <c r="G96" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H96" t="n">
         <v>4</v>
@@ -6807,7 +6845,7 @@
         <v>-0.04600766838125035</v>
       </c>
       <c r="G97" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H97" t="n">
         <v>4</v>
@@ -6836,7 +6874,7 @@
         <v>-0.05120162818415125</v>
       </c>
       <c r="G98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -6865,7 +6903,7 @@
         <v>-0.06946387564298999</v>
       </c>
       <c r="G99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -6894,7 +6932,7 @@
         <v>-0.1036546461764051</v>
       </c>
       <c r="G100" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -6923,7 +6961,7 @@
         <v>-0.1132003468526878</v>
       </c>
       <c r="G101" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H101" t="n">
         <v>2</v>
@@ -6952,7 +6990,7 @@
         <v>-0.1231526853843904</v>
       </c>
       <c r="G102" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H102" t="n">
         <v>2</v>
@@ -6981,7 +7019,7 @@
         <v>-0.09824854233094853</v>
       </c>
       <c r="G103" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H103" t="n">
         <v>2</v>
@@ -7010,7 +7048,7 @@
         <v>-0.07814990231786137</v>
       </c>
       <c r="G104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H104" t="n">
         <v>3</v>
@@ -7039,7 +7077,7 @@
         <v>-0.06154336099479781</v>
       </c>
       <c r="G105" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H105" t="n">
         <v>3</v>
@@ -7068,7 +7106,7 @@
         <v>-0.08482641466001017</v>
       </c>
       <c r="G106" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H106" t="n">
         <v>3</v>
@@ -7097,7 +7135,7 @@
         <v>-0.06247971785652189</v>
       </c>
       <c r="G107" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H107" t="n">
         <v>4</v>
@@ -7126,7 +7164,7 @@
         <v>-0.07639133784549447</v>
       </c>
       <c r="G108" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H108" t="n">
         <v>4</v>
@@ -7155,7 +7193,7 @@
         <v>-0.06443636967118098</v>
       </c>
       <c r="G109" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H109" t="n">
         <v>4</v>
@@ -7184,7 +7222,7 @@
         <v>-0.0488799844984841</v>
       </c>
       <c r="G110" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -7213,7 +7251,7 @@
         <v>-0.05825045169669583</v>
       </c>
       <c r="G111" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -7242,7 +7280,7 @@
         <v>-0.07735581168612655</v>
       </c>
       <c r="G112" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -7271,7 +7309,7 @@
         <v>-0.1010225664365227</v>
       </c>
       <c r="G113" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H113" t="n">
         <v>2</v>
@@ -7300,7 +7338,7 @@
         <v>-0.08979818195601069</v>
       </c>
       <c r="G114" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H114" t="n">
         <v>2</v>
@@ -7329,7 +7367,7 @@
         <v>-0.06524048333304372</v>
       </c>
       <c r="G115" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H115" t="n">
         <v>2</v>
@@ -7358,7 +7396,7 @@
         <v>-0.04074387693241805</v>
       </c>
       <c r="G116" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H116" t="n">
         <v>3</v>
@@ -7387,7 +7425,7 @@
         <v>-0.03675707967139325</v>
       </c>
       <c r="G117" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H117" t="n">
         <v>3</v>
@@ -7416,7 +7454,7 @@
         <v>-0.07201037569984288</v>
       </c>
       <c r="G118" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H118" t="n">
         <v>3</v>
@@ -7445,7 +7483,7 @@
         <v>-0.08798764407113459</v>
       </c>
       <c r="G119" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H119" t="n">
         <v>4</v>
@@ -7474,7 +7512,7 @@
         <v>-0.09297937195930114</v>
       </c>
       <c r="G120" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H120" t="n">
         <v>4</v>
@@ -7503,7 +7541,7 @@
         <v>-0.06888446180263902</v>
       </c>
       <c r="G121" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H121" t="n">
         <v>4</v>
@@ -7532,7 +7570,7 @@
         <v>-0.06178402409839879</v>
       </c>
       <c r="G122" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H122" t="n">
         <v>1</v>
@@ -7561,7 +7599,7 @@
         <v>-0.1000963753988781</v>
       </c>
       <c r="G123" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H123" t="n">
         <v>1</v>
@@ -7590,7 +7628,7 @@
         <v>-0.129184632154868</v>
       </c>
       <c r="G124" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H124" t="n">
         <v>1</v>
@@ -7619,7 +7657,7 @@
         <v>-0.1349292609291222</v>
       </c>
       <c r="G125" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H125" t="n">
         <v>2</v>
@@ -7648,7 +7686,7 @@
         <v>-0.1059778059250063</v>
       </c>
       <c r="G126" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H126" t="n">
         <v>2</v>
@@ -7677,7 +7715,7 @@
         <v>-0.081007853314257</v>
       </c>
       <c r="G127" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H127" t="n">
         <v>2</v>
@@ -7706,7 +7744,7 @@
         <v>-0.06182654921614888</v>
       </c>
       <c r="G128" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H128" t="n">
         <v>3</v>
@@ -7735,7 +7773,7 @@
         <v>-0.05965103240997342</v>
       </c>
       <c r="G129" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H129" t="n">
         <v>3</v>
@@ -7764,7 +7802,7 @@
         <v>-0.0903372091951556</v>
       </c>
       <c r="G130" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H130" t="n">
         <v>3</v>
@@ -7793,7 +7831,7 @@
         <v>-0.1209466228210752</v>
       </c>
       <c r="G131" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H131" t="n">
         <v>4</v>
@@ -7822,7 +7860,7 @@
         <v>-0.1459020669822017</v>
       </c>
       <c r="G132" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H132" t="n">
         <v>4</v>
@@ -7851,7 +7889,7 @@
         <v>-0.1448500018406984</v>
       </c>
       <c r="G133" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H133" t="n">
         <v>4</v>
@@ -7880,7 +7918,7 @@
         <v>-0.1655768065392497</v>
       </c>
       <c r="G134" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H134" t="n">
         <v>1</v>
@@ -7909,7 +7947,7 @@
         <v>-0.1688920478560091</v>
       </c>
       <c r="G135" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H135" t="n">
         <v>1</v>
@@ -7938,7 +7976,7 @@
         <v>-0.20286842192788</v>
       </c>
       <c r="G136" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H136" t="n">
         <v>1</v>
@@ -7967,7 +8005,7 @@
         <v>-0.2134075015003669</v>
       </c>
       <c r="G137" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H137" t="n">
         <v>2</v>
@@ -7996,7 +8034,7 @@
         <v>-0.1749832923810191</v>
       </c>
       <c r="G138" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H138" t="n">
         <v>2</v>
@@ -8025,7 +8063,7 @@
         <v>-0.1347935101828394</v>
       </c>
       <c r="G139" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H139" t="n">
         <v>2</v>
@@ -8054,7 +8092,7 @@
         <v>-0.08586343302838688</v>
       </c>
       <c r="G140" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H140" t="n">
         <v>3</v>
@@ -8083,7 +8121,7 @@
         <v>-0.09583413286254644</v>
       </c>
       <c r="G141" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H141" t="n">
         <v>3</v>
@@ -8112,7 +8150,7 @@
         <v>-0.1212332640457878</v>
       </c>
       <c r="G142" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H142" t="n">
         <v>3</v>
@@ -8141,7 +8179,7 @@
         <v>-0.1291033474036325</v>
       </c>
       <c r="G143" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H143" t="n">
         <v>4</v>
@@ -8170,7 +8208,7 @@
         <v>-0.103972413775247</v>
       </c>
       <c r="G144" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H144" t="n">
         <v>4</v>
@@ -8199,7 +8237,7 @@
         <v>-0.1496729265861562</v>
       </c>
       <c r="G145" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H145" t="n">
         <v>4</v>
@@ -8228,7 +8266,7 @@
         <v>-0.1485961495296913</v>
       </c>
       <c r="G146" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H146" t="n">
         <v>1</v>
@@ -8257,7 +8295,7 @@
         <v>-0.1453195655542535</v>
       </c>
       <c r="G147" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H147" t="n">
         <v>1</v>
@@ -8286,7 +8324,7 @@
         <v>-0.1386143662583348</v>
       </c>
       <c r="G148" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H148" t="n">
         <v>1</v>
@@ -8315,7 +8353,7 @@
         <v>-0.1821179183493233</v>
       </c>
       <c r="G149" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H149" t="n">
         <v>2</v>
@@ -8344,7 +8382,7 @@
         <v>-0.1753852982577576</v>
       </c>
       <c r="G150" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H150" t="n">
         <v>2</v>
@@ -8373,7 +8411,7 @@
         <v>-0.1318627511501101</v>
       </c>
       <c r="G151" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H151" t="n">
         <v>2</v>
@@ -8402,7 +8440,7 @@
         <v>-0.1101448680751284</v>
       </c>
       <c r="G152" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H152" t="n">
         <v>3</v>
@@ -8431,7 +8469,7 @@
         <v>-0.1060645126133002</v>
       </c>
       <c r="G153" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H153" t="n">
         <v>3</v>
@@ -8460,7 +8498,7 @@
         <v>-0.1135082142199412</v>
       </c>
       <c r="G154" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H154" t="n">
         <v>3</v>
@@ -8489,7 +8527,7 @@
         <v>-0.1418981805314145</v>
       </c>
       <c r="G155" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H155" t="n">
         <v>4</v>
@@ -8518,7 +8556,7 @@
         <v>-0.1588733260713331</v>
       </c>
       <c r="G156" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H156" t="n">
         <v>4</v>
@@ -8547,7 +8585,7 @@
         <v>-0.1335324447797183</v>
       </c>
       <c r="G157" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H157" t="n">
         <v>4</v>
@@ -8564,25 +8602,25 @@
         <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>377866469.6499999</v>
+        <v>377861589.5399998</v>
       </c>
       <c r="D158" t="n">
         <v>200032256825.3429</v>
       </c>
       <c r="E158" t="n">
-        <v>529.3728681738377</v>
+        <v>529.3797050630565</v>
       </c>
       <c r="F158" t="n">
-        <v>-0.1164250865344272</v>
+        <v>-0.1164136750999487</v>
       </c>
       <c r="G158" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H158" t="n">
         <v>1</v>
       </c>
       <c r="I158" t="n">
-        <v>1167.055425176042</v>
+        <v>1167.070497782014</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -8593,25 +8631,25 @@
         <v>2</v>
       </c>
       <c r="C159" t="n">
-        <v>324989604.41</v>
+        <v>324985289.5199999</v>
       </c>
       <c r="D159" t="n">
         <v>176727486831.2576</v>
       </c>
       <c r="E159" t="n">
-        <v>543.7942765956968</v>
+        <v>543.8014966532251</v>
       </c>
       <c r="F159" t="n">
-        <v>-0.09235435026425724</v>
+        <v>-0.09234229928452396</v>
       </c>
       <c r="G159" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H159" t="n">
         <v>1</v>
       </c>
       <c r="I159" t="n">
-        <v>1198.848862182873</v>
+        <v>1198.8647795217</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -8622,25 +8660,25 @@
         <v>3</v>
       </c>
       <c r="C160" t="n">
-        <v>332717043.2</v>
+        <v>332711530.58</v>
       </c>
       <c r="D160" t="n">
         <v>171332935342.5682</v>
       </c>
       <c r="E160" t="n">
-        <v>514.9508834736126</v>
+        <v>514.9594155750832</v>
       </c>
       <c r="F160" t="n">
-        <v>-0.1404967846693579</v>
+        <v>-0.1404825437604039</v>
       </c>
       <c r="G160" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H160" t="n">
         <v>1</v>
       </c>
       <c r="I160" t="n">
-        <v>1135.260717705927</v>
+        <v>1135.279527576829</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -8651,25 +8689,25 @@
         <v>4</v>
       </c>
       <c r="C161" t="n">
-        <v>298606913.15</v>
+        <v>298601618.17</v>
       </c>
       <c r="D161" t="n">
         <v>143487497788.6957</v>
       </c>
       <c r="E161" t="n">
-        <v>480.5230269957525</v>
+        <v>480.5315479134658</v>
       </c>
       <c r="F161" t="n">
-        <v>-0.1979602327171737</v>
+        <v>-0.1979460104750002</v>
       </c>
       <c r="G161" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H161" t="n">
         <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>1059.361065314836</v>
+        <v>1059.379850530027</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -8680,25 +8718,25 @@
         <v>5</v>
       </c>
       <c r="C162" t="n">
-        <v>325784784</v>
+        <v>325778684.8</v>
       </c>
       <c r="D162" t="n">
         <v>159671732517.4369</v>
       </c>
       <c r="E162" t="n">
-        <v>490.1141500747219</v>
+        <v>490.1233259489077</v>
       </c>
       <c r="F162" t="n">
-        <v>-0.1819517134786032</v>
+        <v>-0.1819363980502405</v>
       </c>
       <c r="G162" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H162" t="n">
         <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>1080.505655254732</v>
+        <v>1080.525884386962</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -8709,25 +8747,25 @@
         <v>6</v>
       </c>
       <c r="C163" t="n">
-        <v>358929979.25</v>
+        <v>358924166.51</v>
       </c>
       <c r="D163" t="n">
         <v>183226012558.4901</v>
       </c>
       <c r="E163" t="n">
-        <v>510.4784307550709</v>
+        <v>510.4866979008094</v>
       </c>
       <c r="F163" t="n">
-        <v>-0.1479617441739821</v>
+        <v>-0.147947945501969</v>
       </c>
       <c r="G163" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H163" t="n">
         <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>1125.40074844263</v>
+        <v>1125.418974192125</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -8738,25 +8776,25 @@
         <v>7</v>
       </c>
       <c r="C164" t="n">
-        <v>386916892.08</v>
+        <v>386910613.85</v>
       </c>
       <c r="D164" t="n">
         <v>203172379920.1956</v>
       </c>
       <c r="E164" t="n">
-        <v>525.1059958327875</v>
+        <v>525.1145164990556</v>
       </c>
       <c r="F164" t="n">
-        <v>-0.1235469123516771</v>
+        <v>-0.1235326905291902</v>
       </c>
       <c r="G164" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H164" t="n">
         <v>3</v>
       </c>
       <c r="I164" t="n">
-        <v>1157.648678412964</v>
+        <v>1157.667463073818</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -8767,25 +8805,25 @@
         <v>8</v>
       </c>
       <c r="C165" t="n">
-        <v>385469037.6000001</v>
+        <v>385462867.6000001</v>
       </c>
       <c r="D165" t="n">
         <v>205242936446.5303</v>
       </c>
       <c r="E165" t="n">
-        <v>532.4498634816687</v>
+        <v>532.4583862628075</v>
       </c>
       <c r="F165" t="n">
-        <v>-0.1112892814595854</v>
+        <v>-0.1112750561071732</v>
       </c>
       <c r="G165" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H165" t="n">
         <v>3</v>
       </c>
       <c r="I165" t="n">
-        <v>1173.838969031687</v>
+        <v>1173.857758354985</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -8796,25 +8834,25 @@
         <v>9</v>
       </c>
       <c r="C166" t="n">
-        <v>340923179.54</v>
+        <v>340917245.2</v>
       </c>
       <c r="D166" t="n">
         <v>175078882409.984</v>
       </c>
       <c r="E166" t="n">
-        <v>513.5434987031798</v>
+        <v>513.5524379450898</v>
       </c>
       <c r="F166" t="n">
-        <v>-0.1428458470250424</v>
+        <v>-0.1428309265590121</v>
       </c>
       <c r="G166" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H166" t="n">
         <v>3</v>
       </c>
       <c r="I166" t="n">
-        <v>1132.15799724103</v>
+        <v>1132.177704693745</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -8825,25 +8863,25 @@
         <v>10</v>
       </c>
       <c r="C167" t="n">
-        <v>315466648.72</v>
+        <v>315460977.88</v>
       </c>
       <c r="D167" t="n">
         <v>154941566540.2584</v>
       </c>
       <c r="E167" t="n">
-        <v>491.1503867966103</v>
+        <v>491.159215892615</v>
       </c>
       <c r="F167" t="n">
-        <v>-0.1802221333906949</v>
+        <v>-0.1802073967689159</v>
       </c>
       <c r="G167" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H167" t="n">
         <v>4</v>
       </c>
       <c r="I167" t="n">
-        <v>1082.790142731807</v>
+        <v>1082.809607356859</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -8854,25 +8892,25 @@
         <v>11</v>
       </c>
       <c r="C168" t="n">
-        <v>318278457.49</v>
+        <v>318272469.29</v>
       </c>
       <c r="D168" t="n">
         <v>156260369449.2323</v>
       </c>
       <c r="E168" t="n">
-        <v>490.9549037076813</v>
+        <v>490.9641408753224</v>
       </c>
       <c r="F168" t="n">
-        <v>-0.1805484137193039</v>
+        <v>-0.1805329959861901</v>
       </c>
       <c r="G168" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H168" t="n">
         <v>4</v>
       </c>
       <c r="I168" t="n">
-        <v>1082.359180713954</v>
+        <v>1082.379544973736</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -8883,25 +8921,25 @@
         <v>12</v>
       </c>
       <c r="C169" t="n">
-        <v>338710445.47</v>
+        <v>338704380.65</v>
       </c>
       <c r="D169" t="n">
         <v>165162885979.7187</v>
       </c>
       <c r="E169" t="n">
-        <v>487.622652884342</v>
+        <v>487.6313842258498</v>
       </c>
       <c r="F169" t="n">
-        <v>-0.1861102651285657</v>
+        <v>-0.1860956916685698</v>
       </c>
       <c r="G169" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H169" t="n">
         <v>4</v>
       </c>
       <c r="I169" t="n">
-        <v>1075.01290054882</v>
+        <v>1075.032149664308</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -8912,25 +8950,25 @@
         <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>361191037.38</v>
+        <v>361185053.4499999</v>
       </c>
       <c r="D170" t="n">
         <v>177381397294.9471</v>
       </c>
       <c r="E170" t="n">
-        <v>491.1013257184691</v>
+        <v>491.1094620350966</v>
       </c>
       <c r="F170" t="n">
-        <v>-0.1803040211119578</v>
+        <v>-0.1802904408064825</v>
       </c>
       <c r="G170" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H170" t="n">
         <v>1</v>
       </c>
       <c r="I170" t="n">
-        <v>1082.681982678937</v>
+        <v>1082.699920002574</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -8941,25 +8979,25 @@
         <v>2</v>
       </c>
       <c r="C171" t="n">
-        <v>335258891.09</v>
+        <v>335253888.05</v>
       </c>
       <c r="D171" t="n">
         <v>169388544375.1641</v>
       </c>
       <c r="E171" t="n">
-        <v>505.2469863646119</v>
+        <v>505.2545262350586</v>
       </c>
       <c r="F171" t="n">
-        <v>-0.1566935347558179</v>
+        <v>-0.1566809499771525</v>
       </c>
       <c r="G171" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H171" t="n">
         <v>1</v>
       </c>
       <c r="I171" t="n">
-        <v>1113.867506139424</v>
+        <v>1113.88412853781</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -8970,25 +9008,25 @@
         <v>3</v>
       </c>
       <c r="C172" t="n">
-        <v>325310503.33</v>
+        <v>325304689.81</v>
       </c>
       <c r="D172" t="n">
         <v>151998042172.5847</v>
       </c>
       <c r="E172" t="n">
-        <v>467.2398850226963</v>
+        <v>467.2482350665212</v>
       </c>
       <c r="F172" t="n">
-        <v>-0.2201310913406645</v>
+        <v>-0.2201171543036653</v>
       </c>
       <c r="G172" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H172" t="n">
         <v>1</v>
       </c>
       <c r="I172" t="n">
-        <v>1030.077050521036</v>
+        <v>1030.095459027653</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -8999,25 +9037,25 @@
         <v>4</v>
       </c>
       <c r="C173" t="n">
-        <v>295382039.3200001</v>
+        <v>295376328.1800001</v>
       </c>
       <c r="D173" t="n">
         <v>130322853803.3778</v>
       </c>
       <c r="E173" t="n">
-        <v>441.2010090504978</v>
+        <v>441.2095397298056</v>
       </c>
       <c r="F173" t="n">
-        <v>-0.2635925132742133</v>
+        <v>-0.2635782747389874</v>
       </c>
       <c r="G173" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H173" t="n">
         <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>972.6717445527273</v>
+        <v>972.6905512883293</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -9028,25 +9066,25 @@
         <v>5</v>
       </c>
       <c r="C174" t="n">
-        <v>323464197.98</v>
+        <v>323458048.41</v>
       </c>
       <c r="D174" t="n">
         <v>152479011005.2403</v>
       </c>
       <c r="E174" t="n">
-        <v>471.3937800766073</v>
+        <v>471.4027421941443</v>
       </c>
       <c r="F174" t="n">
-        <v>-0.2131978356272281</v>
+        <v>-0.2131828769795464</v>
       </c>
       <c r="G174" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H174" t="n">
         <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>1039.234727556888</v>
+        <v>1039.254485441211</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -9057,25 +9095,25 @@
         <v>6</v>
       </c>
       <c r="C175" t="n">
-        <v>363796362.72</v>
+        <v>363790187.78</v>
       </c>
       <c r="D175" t="n">
         <v>182928189560.0399</v>
       </c>
       <c r="E175" t="n">
-        <v>502.8312767954544</v>
+        <v>502.839811805657</v>
       </c>
       <c r="F175" t="n">
-        <v>-0.1607255894791542</v>
+        <v>-0.1607113437152425</v>
       </c>
       <c r="G175" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H175" t="n">
         <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>1108.541832823259</v>
+        <v>1108.560649106751</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -9086,25 +9124,25 @@
         <v>7</v>
       </c>
       <c r="C176" t="n">
-        <v>401883971.8900002</v>
+        <v>401877547.1200001</v>
       </c>
       <c r="D176" t="n">
         <v>206002286083.7047</v>
       </c>
       <c r="E176" t="n">
-        <v>512.5914455232112</v>
+        <v>512.599640263537</v>
       </c>
       <c r="F176" t="n">
-        <v>-0.1444349165763542</v>
+        <v>-0.1444212387560319</v>
       </c>
       <c r="G176" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H176" t="n">
         <v>3</v>
       </c>
       <c r="I176" t="n">
-        <v>1130.059100800471</v>
+        <v>1130.077166924994</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -9115,25 +9153,25 @@
         <v>8</v>
       </c>
       <c r="C177" t="n">
-        <v>393563699.96</v>
+        <v>393557109.73</v>
       </c>
       <c r="D177" t="n">
         <v>201054430789.6165</v>
       </c>
       <c r="E177" t="n">
-        <v>510.8561353855826</v>
+        <v>510.8646898223997</v>
       </c>
       <c r="F177" t="n">
-        <v>-0.1473313183318509</v>
+        <v>-0.1473170401430263</v>
       </c>
       <c r="G177" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H177" t="n">
         <v>3</v>
       </c>
       <c r="I177" t="n">
-        <v>1126.233436071055</v>
+        <v>1126.252295182462</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -9144,25 +9182,25 @@
         <v>9</v>
       </c>
       <c r="C178" t="n">
-        <v>351433058.72</v>
+        <v>351426751.99</v>
       </c>
       <c r="D178" t="n">
         <v>175882935350.9911</v>
       </c>
       <c r="E178" t="n">
-        <v>500.4735069364197</v>
+        <v>500.4824884703027</v>
       </c>
       <c r="F178" t="n">
-        <v>-0.1646609371790748</v>
+        <v>-0.1646459461236192</v>
       </c>
       <c r="G178" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H178" t="n">
         <v>3</v>
       </c>
       <c r="I178" t="n">
-        <v>1103.343893392031</v>
+        <v>1103.363694081629</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -9173,25 +9211,25 @@
         <v>10</v>
       </c>
       <c r="C179" t="n">
-        <v>313291653.9699998</v>
+        <v>313285700.0299999</v>
       </c>
       <c r="D179" t="n">
         <v>147844560612.5472</v>
       </c>
       <c r="E179" t="n">
-        <v>471.9071151084812</v>
+        <v>471.9160836207645</v>
       </c>
       <c r="F179" t="n">
-        <v>-0.21234102942571</v>
+        <v>-0.2123260601045734</v>
       </c>
       <c r="G179" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H179" t="n">
         <v>4</v>
       </c>
       <c r="I179" t="n">
-        <v>1040.366425968158</v>
+        <v>1040.386197950337</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -9202,25 +9240,25 @@
         <v>11</v>
       </c>
       <c r="C180" t="n">
-        <v>301619345.3299999</v>
+        <v>301612897.17</v>
       </c>
       <c r="D180" t="n">
         <v>135019774979.998</v>
       </c>
       <c r="E180" t="n">
-        <v>447.6495857129908</v>
+        <v>447.6591559806407</v>
       </c>
       <c r="F180" t="n">
-        <v>-0.252829210299896</v>
+        <v>-0.2528132365904012</v>
       </c>
       <c r="G180" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H180" t="n">
         <v>4</v>
       </c>
       <c r="I180" t="n">
-        <v>986.8882766628593</v>
+        <v>986.9093752749203</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -9231,25 +9269,25 @@
         <v>12</v>
       </c>
       <c r="C181" t="n">
-        <v>325325091.9899999</v>
+        <v>325318592.9899999</v>
       </c>
       <c r="D181" t="n">
         <v>139565159905.6579</v>
       </c>
       <c r="E181" t="n">
-        <v>429.0021376830902</v>
+        <v>429.0107080044701</v>
       </c>
       <c r="F181" t="n">
-        <v>-0.2839536185760727</v>
+        <v>-0.2839393138743644</v>
       </c>
       <c r="G181" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H181" t="n">
         <v>4</v>
       </c>
       <c r="I181" t="n">
-        <v>945.7781127361408</v>
+        <v>945.7970068666548</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -9260,25 +9298,25 @@
         <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>353691242.9900001</v>
+        <v>353685989.65</v>
       </c>
       <c r="D182" t="n">
-        <v>161042010694.645</v>
+        <v>161044583651.8911</v>
       </c>
       <c r="E182" t="n">
-        <v>455.3180602755215</v>
+        <v>455.3320978624496</v>
       </c>
       <c r="F182" t="n">
-        <v>-0.2400297788304009</v>
+        <v>-0.240006348729614</v>
       </c>
       <c r="G182" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H182" t="n">
         <v>1</v>
       </c>
       <c r="I182" t="n">
-        <v>1003.794195683415</v>
+        <v>1003.825142947556</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -9289,25 +9327,25 @@
         <v>2</v>
       </c>
       <c r="C183" t="n">
-        <v>314822845.6500002</v>
+        <v>314817883.7000002</v>
       </c>
       <c r="D183" t="n">
-        <v>135701698163.8829</v>
+        <v>135703989984.5905</v>
       </c>
       <c r="E183" t="n">
-        <v>431.0414572478243</v>
+        <v>431.05553086656</v>
       </c>
       <c r="F183" t="n">
-        <v>-0.2805497954557936</v>
+        <v>-0.2805263052144076</v>
       </c>
       <c r="G183" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H183" t="n">
         <v>1</v>
       </c>
       <c r="I183" t="n">
-        <v>950.2739966485533</v>
+        <v>950.3050233484184</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -9318,25 +9356,25 @@
         <v>3</v>
       </c>
       <c r="C184" t="n">
-        <v>305889024.1199999</v>
+        <v>305883690.5099999</v>
       </c>
       <c r="D184" t="n">
-        <v>119008612475.4975</v>
+        <v>119008943688.6314</v>
       </c>
       <c r="E184" t="n">
-        <v>389.0581324971324</v>
+        <v>389.0659992044944</v>
       </c>
       <c r="F184" t="n">
-        <v>-0.3506240564611915</v>
+        <v>-0.3506109261598586</v>
       </c>
       <c r="G184" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H184" t="n">
         <v>1</v>
       </c>
       <c r="I184" t="n">
-        <v>857.7175589031782</v>
+        <v>857.7349018462281</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -9347,25 +9385,25 @@
         <v>4</v>
       </c>
       <c r="C185" t="n">
-        <v>294568958.4599999</v>
+        <v>294564171.7499999</v>
       </c>
       <c r="D185" t="n">
-        <v>116651004035.7489</v>
+        <v>116651079506.2584</v>
       </c>
       <c r="E185" t="n">
-        <v>396.0057592137263</v>
+        <v>396.0124505748159</v>
       </c>
       <c r="F185" t="n">
-        <v>-0.3390277903055757</v>
+        <v>-0.339016621771729</v>
       </c>
       <c r="G185" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H185" t="n">
         <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>873.034296762581</v>
+        <v>873.0490485372392</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -9376,25 +9414,25 @@
         <v>5</v>
       </c>
       <c r="C186" t="n">
-        <v>318633901.01</v>
+        <v>318628108.24</v>
       </c>
       <c r="D186" t="n">
-        <v>132227910211.5602</v>
+        <v>132229576165.5433</v>
       </c>
       <c r="E186" t="n">
-        <v>414.9838099223797</v>
+        <v>414.9965829943168</v>
       </c>
       <c r="F186" t="n">
-        <v>-0.3073515739356479</v>
+        <v>-0.3073302544336298</v>
       </c>
       <c r="G186" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H186" t="n">
         <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>914.8733073548784</v>
+        <v>914.9014668692706</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -9405,25 +9443,25 @@
         <v>6</v>
       </c>
       <c r="C187" t="n">
-        <v>369680268.84</v>
+        <v>369674791.36</v>
       </c>
       <c r="D187" t="n">
-        <v>175605675027.0827</v>
+        <v>175607497287.1752</v>
       </c>
       <c r="E187" t="n">
-        <v>475.0204158261039</v>
+        <v>475.032383574577</v>
       </c>
       <c r="F187" t="n">
-        <v>-0.2071446270833396</v>
+        <v>-0.2071246517446753</v>
       </c>
       <c r="G187" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H187" t="n">
         <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>1047.230008730229</v>
+        <v>1047.256392828512</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -9434,25 +9472,25 @@
         <v>7</v>
       </c>
       <c r="C188" t="n">
-        <v>413857711.4400001</v>
+        <v>413851849.05</v>
       </c>
       <c r="D188" t="n">
-        <v>205938145023.9666</v>
+        <v>205941688850.2787</v>
       </c>
       <c r="E188" t="n">
-        <v>497.6061562497257</v>
+        <v>497.6217680868633</v>
       </c>
       <c r="F188" t="n">
-        <v>-0.1694468249477676</v>
+        <v>-0.1694207672699433</v>
       </c>
       <c r="G188" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H188" t="n">
         <v>3</v>
       </c>
       <c r="I188" t="n">
-        <v>1097.022532068145</v>
+        <v>1097.056949924299</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -9463,25 +9501,25 @@
         <v>8</v>
       </c>
       <c r="C189" t="n">
-        <v>411613836.8800002</v>
+        <v>411608078.5400001</v>
       </c>
       <c r="D189" t="n">
-        <v>206280800802.4796</v>
+        <v>206283438625.2462</v>
       </c>
       <c r="E189" t="n">
-        <v>501.1512789902097</v>
+        <v>501.164698605884</v>
       </c>
       <c r="F189" t="n">
-        <v>-0.1635296695607648</v>
+        <v>-0.1635072709142323</v>
       </c>
       <c r="G189" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H189" t="n">
         <v>3</v>
       </c>
       <c r="I189" t="n">
-        <v>1104.838109661816</v>
+        <v>1104.867694546532</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -9492,25 +9530,25 @@
         <v>9</v>
       </c>
       <c r="C190" t="n">
-        <v>353194778.05</v>
+        <v>353189594.74</v>
       </c>
       <c r="D190" t="n">
-        <v>170857769996.929</v>
+        <v>170860406168.6195</v>
       </c>
       <c r="E190" t="n">
-        <v>483.7494227412999</v>
+        <v>483.7639860098316</v>
       </c>
       <c r="F190" t="n">
-        <v>-0.1925750637501429</v>
+        <v>-0.1925507562355227</v>
       </c>
       <c r="G190" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H190" t="n">
         <v>3</v>
       </c>
       <c r="I190" t="n">
-        <v>1066.47397737547</v>
+        <v>1066.506083557275</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -9521,25 +9559,25 @@
         <v>10</v>
       </c>
       <c r="C191" t="n">
-        <v>314473312.79</v>
+        <v>314467826.69</v>
       </c>
       <c r="D191" t="n">
-        <v>144982807292.8506</v>
+        <v>144983068924.9181</v>
       </c>
       <c r="E191" t="n">
-        <v>461.0337392593554</v>
+        <v>461.0426142825773</v>
       </c>
       <c r="F191" t="n">
-        <v>-0.2304897535152396</v>
+        <v>-0.2304749402364588</v>
       </c>
       <c r="G191" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H191" t="n">
         <v>4</v>
       </c>
       <c r="I191" t="n">
-        <v>1016.394981571175</v>
+        <v>1016.41454744737</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -9550,25 +9588,25 @@
         <v>11</v>
       </c>
       <c r="C192" t="n">
-        <v>298296665.97</v>
+        <v>298291101.07</v>
       </c>
       <c r="D192" t="n">
-        <v>128477773821.7922</v>
+        <v>128477789334.6505</v>
       </c>
       <c r="E192" t="n">
-        <v>430.7046926052916</v>
+        <v>430.7127798106879</v>
       </c>
       <c r="F192" t="n">
-        <v>-0.2811118884676824</v>
+        <v>-0.2810983901336389</v>
       </c>
       <c r="G192" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H192" t="n">
         <v>4</v>
       </c>
       <c r="I192" t="n">
-        <v>949.531565317626</v>
+        <v>949.5493943706427</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -9579,25 +9617,25 @@
         <v>12</v>
       </c>
       <c r="C193" t="n">
-        <v>346486389.33</v>
+        <v>346480679.27</v>
       </c>
       <c r="D193" t="n">
-        <v>160241160564.6026</v>
+        <v>160241208101.0809</v>
       </c>
       <c r="E193" t="n">
-        <v>462.4746180490974</v>
+        <v>462.482376906825</v>
       </c>
       <c r="F193" t="n">
-        <v>-0.2280847863767602</v>
+        <v>-0.2280718360869788</v>
       </c>
       <c r="G193" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H193" t="n">
         <v>4</v>
       </c>
       <c r="I193" t="n">
-        <v>1019.57154295104</v>
+        <v>1019.588648128786</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -9608,25 +9646,25 @@
         <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>345564690.4</v>
+        <v>345557608.2</v>
       </c>
       <c r="D194" t="n">
-        <v>156071809461.3849</v>
+        <v>156071843735.73</v>
       </c>
       <c r="E194" t="n">
-        <v>451.6428147815906</v>
+        <v>451.6521703825418</v>
       </c>
       <c r="F194" t="n">
-        <v>-0.2461641217756053</v>
+        <v>-0.2461485063657537</v>
       </c>
       <c r="G194" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H194" t="n">
         <v>1</v>
       </c>
       <c r="I194" t="n">
-        <v>995.6917494674948</v>
+        <v>995.7123748253516</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -9637,25 +9675,25 @@
         <v>2</v>
       </c>
       <c r="C195" t="n">
-        <v>292424145.15</v>
+        <v>292417787.5000001</v>
       </c>
       <c r="D195" t="n">
-        <v>122191938572.0087</v>
+        <v>122192068911.7704</v>
       </c>
       <c r="E195" t="n">
-        <v>417.8585817847902</v>
+        <v>417.8681124580028</v>
       </c>
       <c r="F195" t="n">
-        <v>-0.3025532995013631</v>
+        <v>-0.3025373918788431</v>
       </c>
       <c r="G195" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H195" t="n">
         <v>1</v>
       </c>
       <c r="I195" t="n">
-        <v>921.2110294027484</v>
+        <v>921.2320407249132</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -9666,25 +9704,25 @@
         <v>3</v>
       </c>
       <c r="C196" t="n">
-        <v>321293833.43</v>
+        <v>321286820.5700001</v>
       </c>
       <c r="D196" t="n">
-        <v>130994208893.2835</v>
+        <v>130993969883.6809</v>
       </c>
       <c r="E196" t="n">
-        <v>407.7084439960878</v>
+        <v>407.7165993030229</v>
       </c>
       <c r="F196" t="n">
-        <v>-0.3194948687760681</v>
+        <v>-0.3194812567739186</v>
       </c>
       <c r="G196" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H196" t="n">
         <v>1</v>
       </c>
       <c r="I196" t="n">
-        <v>898.8340356337752</v>
+        <v>898.8520148234442</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -9695,25 +9733,25 @@
         <v>4</v>
       </c>
       <c r="C197" t="n">
-        <v>297545922.2499999</v>
+        <v>297539580.84</v>
       </c>
       <c r="D197" t="n">
-        <v>119954170209.6826</v>
+        <v>119954003822.9368</v>
       </c>
       <c r="E197" t="n">
-        <v>403.1450651469402</v>
+        <v>403.1530980997156</v>
       </c>
       <c r="F197" t="n">
-        <v>-0.3271115928549875</v>
+        <v>-0.3270981850738559</v>
       </c>
       <c r="G197" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H197" t="n">
         <v>2</v>
       </c>
       <c r="I197" t="n">
-        <v>888.7736106229441</v>
+        <v>888.7913200706329</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -9724,25 +9762,25 @@
         <v>5</v>
       </c>
       <c r="C198" t="n">
-        <v>325858747.93</v>
+        <v>325851226.8</v>
       </c>
       <c r="D198" t="n">
-        <v>136841179100.748</v>
+        <v>136840864759.51</v>
       </c>
       <c r="E198" t="n">
-        <v>419.9401733727394</v>
+        <v>419.9489015381236</v>
       </c>
       <c r="F198" t="n">
-        <v>-0.2990789202542029</v>
+        <v>-0.2990643520954669</v>
       </c>
       <c r="G198" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H198" t="n">
         <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>925.8001062175412</v>
+        <v>925.8193483309473</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -9753,25 +9791,25 @@
         <v>6</v>
       </c>
       <c r="C199" t="n">
-        <v>360996056.4500001</v>
+        <v>360988359.67</v>
       </c>
       <c r="D199" t="n">
-        <v>160849074261.6726</v>
+        <v>160847750364.4022</v>
       </c>
       <c r="E199" t="n">
-        <v>445.5701700551709</v>
+        <v>445.5760028147232</v>
       </c>
       <c r="F199" t="n">
-        <v>-0.2562999577075886</v>
+        <v>-0.2562902222633932</v>
       </c>
       <c r="G199" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H199" t="n">
         <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>982.30399690363</v>
+        <v>982.3168558053387</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -9782,25 +9820,25 @@
         <v>7</v>
       </c>
       <c r="C200" t="n">
-        <v>406971865.19</v>
+        <v>406964037.56</v>
       </c>
       <c r="D200" t="n">
-        <v>194801574956.5787</v>
+        <v>194801124797.0156</v>
       </c>
       <c r="E200" t="n">
-        <v>478.6610368400604</v>
+        <v>478.6691373639997</v>
       </c>
       <c r="F200" t="n">
-        <v>-0.2010680757699633</v>
+        <v>-0.2010545552059733</v>
       </c>
       <c r="G200" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H200" t="n">
         <v>3</v>
       </c>
       <c r="I200" t="n">
-        <v>1055.256121817597</v>
+        <v>1055.273980232674</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -9811,25 +9849,25 @@
         <v>8</v>
       </c>
       <c r="C201" t="n">
-        <v>387187231.7</v>
+        <v>387179238.26</v>
       </c>
       <c r="D201" t="n">
-        <v>182333061864.7594</v>
+        <v>182333617724.9478</v>
       </c>
       <c r="E201" t="n">
-        <v>470.9170317011759</v>
+        <v>470.9281896011854</v>
       </c>
       <c r="F201" t="n">
-        <v>-0.2139935751331455</v>
+        <v>-0.2139749515105004</v>
       </c>
       <c r="G201" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H201" t="n">
         <v>3</v>
       </c>
       <c r="I201" t="n">
-        <v>1038.183688088412</v>
+        <v>1038.208286794773</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -9840,25 +9878,25 @@
         <v>9</v>
       </c>
       <c r="C202" t="n">
-        <v>338109423.33</v>
+        <v>338102496.29</v>
       </c>
       <c r="D202" t="n">
-        <v>152285402360.9947</v>
+        <v>152286019219.3292</v>
       </c>
       <c r="E202" t="n">
-        <v>450.402715372892</v>
+        <v>450.4137676898698</v>
       </c>
       <c r="F202" t="n">
-        <v>-0.2482339685577221</v>
+        <v>-0.2482155211634479</v>
       </c>
       <c r="G202" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H202" t="n">
         <v>3</v>
       </c>
       <c r="I202" t="n">
-        <v>992.9578263110776</v>
+        <v>992.9821922490872</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -9869,25 +9907,25 @@
         <v>10</v>
       </c>
       <c r="C203" t="n">
-        <v>320630010.1</v>
+        <v>320622637.97</v>
       </c>
       <c r="D203" t="n">
-        <v>137530808556.17</v>
+        <v>137530692901.0069</v>
       </c>
       <c r="E203" t="n">
-        <v>428.9392889744664</v>
+        <v>428.9487909268447</v>
       </c>
       <c r="F203" t="n">
-        <v>-0.2840585191964526</v>
+        <v>-0.2840426595118047</v>
       </c>
       <c r="G203" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H203" t="n">
         <v>4</v>
       </c>
       <c r="I203" t="n">
-        <v>945.6395564731083</v>
+        <v>945.6605044773216</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -9898,25 +9936,25 @@
         <v>11</v>
       </c>
       <c r="C204" t="n">
-        <v>309587425.1</v>
+        <v>309579799.11</v>
       </c>
       <c r="D204" t="n">
-        <v>132144974396.9284</v>
+        <v>132146479785.8586</v>
       </c>
       <c r="E204" t="n">
-        <v>426.8421895826169</v>
+        <v>426.8575668236811</v>
       </c>
       <c r="F204" t="n">
-        <v>-0.2875587824798243</v>
+        <v>-0.2875331163657118</v>
       </c>
       <c r="G204" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H204" t="n">
         <v>4</v>
       </c>
       <c r="I204" t="n">
-        <v>941.0162911538373</v>
+        <v>941.0501918194873</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -9927,25 +9965,25 @@
         <v>12</v>
       </c>
       <c r="C205" t="n">
-        <v>351861637.07</v>
+        <v>351853694.35</v>
       </c>
       <c r="D205" t="n">
-        <v>154380348745.2773</v>
+        <v>154380441789.769</v>
       </c>
       <c r="E205" t="n">
-        <v>438.7529997041555</v>
+        <v>438.7631685236814</v>
       </c>
       <c r="F205" t="n">
-        <v>-0.2676784794738392</v>
+        <v>-0.2676615067229242</v>
       </c>
       <c r="G205" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H205" t="n">
         <v>4</v>
       </c>
       <c r="I205" t="n">
-        <v>967.2748631477813</v>
+        <v>967.2972813273082</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -9959,22 +9997,22 @@
         <v>374838323.87</v>
       </c>
       <c r="D206" t="n">
-        <v>170317037713.1364</v>
+        <v>170316644847.7302</v>
       </c>
       <c r="E206" t="n">
-        <v>454.3746646679731</v>
+        <v>454.3736165750189</v>
       </c>
       <c r="F206" t="n">
-        <v>-0.2416043980495138</v>
+        <v>-0.2416061474188089</v>
       </c>
       <c r="G206" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H206" t="n">
         <v>1</v>
       </c>
       <c r="I206" t="n">
-        <v>1001.714385727014</v>
+        <v>1001.712075101287</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -9988,22 +10026,22 @@
         <v>308647892.4299998</v>
       </c>
       <c r="D207" t="n">
-        <v>123389159235.4574</v>
+        <v>123389308973.5496</v>
       </c>
       <c r="E207" t="n">
-        <v>399.7732116814684</v>
+        <v>399.7736968235862</v>
       </c>
       <c r="F207" t="n">
-        <v>-0.3327395449339264</v>
+        <v>-0.3327387351844463</v>
       </c>
       <c r="G207" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H207" t="n">
         <v>1</v>
       </c>
       <c r="I207" t="n">
-        <v>881.3400224729652</v>
+        <v>881.3410920172781</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -10017,22 +10055,22 @@
         <v>323965391.02</v>
       </c>
       <c r="D208" t="n">
-        <v>125948587003.3804</v>
+        <v>125948241239.9111</v>
       </c>
       <c r="E208" t="n">
-        <v>388.7717345573033</v>
+        <v>388.7706672720964</v>
       </c>
       <c r="F208" t="n">
-        <v>-0.3511020825371674</v>
+        <v>-0.3511038639402029</v>
       </c>
       <c r="G208" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H208" t="n">
         <v>1</v>
       </c>
       <c r="I208" t="n">
-        <v>857.0861660050308</v>
+        <v>857.0838130680638</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -10046,22 +10084,22 @@
         <v>303479515.33</v>
       </c>
       <c r="D209" t="n">
-        <v>116144118683.1379</v>
+        <v>116143443274.4025</v>
       </c>
       <c r="E209" t="n">
-        <v>382.7082646973526</v>
+        <v>382.7060391476817</v>
       </c>
       <c r="F209" t="n">
-        <v>-0.3612226047227656</v>
+        <v>-0.3612263193820842</v>
       </c>
       <c r="G209" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H209" t="n">
         <v>2</v>
       </c>
       <c r="I209" t="n">
-        <v>843.7186403517834</v>
+        <v>843.7137339049792</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -10075,22 +10113,22 @@
         <v>341946769.52</v>
       </c>
       <c r="D210" t="n">
-        <v>138397083280.6672</v>
+        <v>138396225946.5283</v>
       </c>
       <c r="E210" t="n">
-        <v>404.732828664938</v>
+        <v>404.7303214497357</v>
       </c>
       <c r="F210" t="n">
-        <v>-0.3244614607886079</v>
+        <v>-0.324465645575152</v>
       </c>
       <c r="G210" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H210" t="n">
         <v>2</v>
       </c>
       <c r="I210" t="n">
-        <v>892.2739940747224</v>
+        <v>892.2684666680873</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -10104,22 +10142,22 @@
         <v>374930071.58</v>
       </c>
       <c r="D211" t="n">
-        <v>160826697322.8159</v>
+        <v>160825270646.0549</v>
       </c>
       <c r="E211" t="n">
-        <v>428.9511818699232</v>
+        <v>428.9473766889866</v>
       </c>
       <c r="F211" t="n">
-        <v>-0.284038668794768</v>
+        <v>-0.2840450200126317</v>
       </c>
       <c r="G211" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H211" t="n">
         <v>2</v>
       </c>
       <c r="I211" t="n">
-        <v>945.6657755504327</v>
+        <v>945.6573866485396</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -10133,22 +10171,22 @@
         <v>414418886.95</v>
       </c>
       <c r="D212" t="n">
-        <v>190432602324.1596</v>
+        <v>190432812699.3843</v>
       </c>
       <c r="E212" t="n">
-        <v>459.517189782751</v>
+        <v>459.5176974218364</v>
       </c>
       <c r="F212" t="n">
-        <v>-0.2330210224055012</v>
+        <v>-0.2330201751063896</v>
       </c>
       <c r="G212" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H212" t="n">
         <v>3</v>
       </c>
       <c r="I212" t="n">
-        <v>1013.051596595053</v>
+        <v>1013.05271573618</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -10162,22 +10200,22 @@
         <v>411030574.1700001</v>
       </c>
       <c r="D213" t="n">
-        <v>187702200838.1439</v>
+        <v>187704403612.3229</v>
       </c>
       <c r="E213" t="n">
-        <v>456.6623814230209</v>
+        <v>456.6677405722363</v>
       </c>
       <c r="F213" t="n">
-        <v>-0.237785975808026</v>
+        <v>-0.2377770308656444</v>
       </c>
       <c r="G213" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H213" t="n">
         <v>3</v>
       </c>
       <c r="I213" t="n">
-        <v>1006.757886085192</v>
+        <v>1006.769700865552</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -10191,22 +10229,22 @@
         <v>358919294.5599999</v>
       </c>
       <c r="D214" t="n">
-        <v>160447033886.2697</v>
+        <v>160450685009.8521</v>
       </c>
       <c r="E214" t="n">
-        <v>447.0281657133036</v>
+        <v>447.0383382608312</v>
       </c>
       <c r="F214" t="n">
-        <v>-0.2538664208474321</v>
+        <v>-0.253849441874119</v>
       </c>
       <c r="G214" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H214" t="n">
         <v>3</v>
       </c>
       <c r="I214" t="n">
-        <v>985.5182941315492</v>
+        <v>985.5407205298284</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -10220,22 +10258,22 @@
         <v>327291940.5099999</v>
       </c>
       <c r="D215" t="n">
-        <v>140862592745.6425</v>
+        <v>140864293442.9271</v>
       </c>
       <c r="E215" t="n">
-        <v>430.3882109841891</v>
+        <v>430.3934072541671</v>
       </c>
       <c r="F215" t="n">
-        <v>-0.2816401271398753</v>
+        <v>-0.2816314540588162</v>
       </c>
       <c r="G215" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H215" t="n">
         <v>4</v>
       </c>
       <c r="I215" t="n">
-        <v>948.8338499357433</v>
+        <v>948.8453056325368</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -10249,22 +10287,22 @@
         <v>324233265.98</v>
       </c>
       <c r="D216" t="n">
-        <v>138153951422.7566</v>
+        <v>138153598396.9325</v>
       </c>
       <c r="E216" t="n">
-        <v>426.0943151690009</v>
+        <v>426.0932263670143</v>
       </c>
       <c r="F216" t="n">
-        <v>-0.2888070577693636</v>
+        <v>-0.2888088750860017</v>
       </c>
       <c r="G216" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H216" t="n">
         <v>4</v>
       </c>
       <c r="I216" t="n">
-        <v>939.3675272215794</v>
+        <v>939.3651268487197</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -10278,22 +10316,22 @@
         <v>343900260.12</v>
       </c>
       <c r="D217" t="n">
-        <v>145883217662.519</v>
+        <v>145885726123.4689</v>
       </c>
       <c r="E217" t="n">
-        <v>424.2021149144078</v>
+        <v>424.2094090669306</v>
       </c>
       <c r="F217" t="n">
-        <v>-0.2919653244217122</v>
+        <v>-0.2919531497702113</v>
       </c>
       <c r="G217" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H217" t="n">
         <v>4</v>
       </c>
       <c r="I217" t="n">
-        <v>935.1959825403037</v>
+        <v>935.2120632289552</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -10307,22 +10345,22 @@
         <v>361391164.43</v>
       </c>
       <c r="D218" t="n">
-        <v>151704716763.4358</v>
+        <v>151707986304.2682</v>
       </c>
       <c r="E218" t="n">
-        <v>419.7798167055642</v>
+        <v>419.7888638023231</v>
       </c>
       <c r="F218" t="n">
-        <v>-0.2993465711612313</v>
+        <v>-0.2993314706749456</v>
       </c>
       <c r="G218" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H218" t="n">
         <v>1</v>
       </c>
       <c r="I218" t="n">
-        <v>925.4465839090867</v>
+        <v>925.4665291386017</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -10336,22 +10374,22 @@
         <v>317065785.15</v>
       </c>
       <c r="D219" t="n">
-        <v>126201198620.6871</v>
+        <v>126202411576.5193</v>
       </c>
       <c r="E219" t="n">
-        <v>398.0284361523991</v>
+        <v>398.0322617175942</v>
       </c>
       <c r="F219" t="n">
-        <v>-0.3356517453503028</v>
+        <v>-0.3356453601091252</v>
       </c>
       <c r="G219" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H219" t="n">
         <v>1</v>
       </c>
       <c r="I219" t="n">
-        <v>877.4934903415791</v>
+        <v>877.501924182608</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -10365,22 +10403,22 @@
         <v>329547443.5000001</v>
       </c>
       <c r="D220" t="n">
-        <v>127277123119.6031</v>
+        <v>127276623359.7166</v>
       </c>
       <c r="E220" t="n">
-        <v>386.2179046750914</v>
+        <v>386.2163881714851</v>
       </c>
       <c r="F220" t="n">
-        <v>-0.3553646735251893</v>
+        <v>-0.3553672047175177</v>
       </c>
       <c r="G220" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H220" t="n">
         <v>1</v>
       </c>
       <c r="I220" t="n">
-        <v>851.4559926467067</v>
+        <v>851.4526493628558</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -10394,22 +10432,22 @@
         <v>299884009.2</v>
       </c>
       <c r="D221" t="n">
-        <v>104733686778.1619</v>
+        <v>104745732909.26</v>
       </c>
       <c r="E221" t="n">
-        <v>349.2473208476831</v>
+        <v>349.287490148908</v>
       </c>
       <c r="F221" t="n">
-        <v>-0.4170721813518787</v>
+        <v>-0.4170051348729456</v>
       </c>
       <c r="G221" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H221" t="n">
         <v>2</v>
       </c>
       <c r="I221" t="n">
-        <v>769.9506435408018</v>
+        <v>770.0392007822826</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -10423,22 +10461,22 @@
         <v>333948459.15</v>
       </c>
       <c r="D222" t="n">
-        <v>124344032632.5488</v>
+        <v>124355322540.5685</v>
       </c>
       <c r="E222" t="n">
-        <v>372.344980866335</v>
+        <v>372.3787882030971</v>
       </c>
       <c r="F222" t="n">
-        <v>-0.3785199355168393</v>
+        <v>-0.3784635077766773</v>
       </c>
       <c r="G222" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H222" t="n">
         <v>2</v>
       </c>
       <c r="I222" t="n">
-        <v>820.871744817922</v>
+        <v>820.9462764725481</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -10452,22 +10490,22 @@
         <v>356565746.0500001</v>
       </c>
       <c r="D223" t="n">
-        <v>139795777645.5117</v>
+        <v>139796465986.2386</v>
       </c>
       <c r="E223" t="n">
-        <v>392.0617142677203</v>
+        <v>392.0636447412294</v>
       </c>
       <c r="F223" t="n">
-        <v>-0.3456107857354191</v>
+        <v>-0.3456075635869748</v>
       </c>
       <c r="G223" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H223" t="n">
         <v>2</v>
       </c>
       <c r="I223" t="n">
-        <v>864.3392552746164</v>
+        <v>864.3435111965143</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -10481,22 +10519,22 @@
         <v>413742056.3300002</v>
       </c>
       <c r="D224" t="n">
-        <v>178876290872.8297</v>
+        <v>178878126862.9389</v>
       </c>
       <c r="E224" t="n">
-        <v>432.3377044613474</v>
+        <v>432.3421419848746</v>
       </c>
       <c r="F224" t="n">
-        <v>-0.2783862325148561</v>
+        <v>-0.2783788258555764</v>
       </c>
       <c r="G224" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H224" t="n">
         <v>3</v>
       </c>
       <c r="I224" t="n">
-        <v>953.1317032554864</v>
+        <v>953.1414862198544</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -10510,22 +10548,22 @@
         <v>404986271.24</v>
       </c>
       <c r="D225" t="n">
-        <v>173139508129.842</v>
+        <v>173142862804.0533</v>
       </c>
       <c r="E225" t="n">
-        <v>427.5194504735134</v>
+        <v>427.5277339005071</v>
       </c>
       <c r="F225" t="n">
-        <v>-0.2864283680422055</v>
+        <v>-0.2864145421951906</v>
       </c>
       <c r="G225" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H225" t="n">
         <v>3</v>
       </c>
       <c r="I225" t="n">
-        <v>942.5093805139073</v>
+        <v>942.5276421570579</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -10539,22 +10577,22 @@
         <v>363673987.68</v>
       </c>
       <c r="D226" t="n">
-        <v>152684865189.8102</v>
+        <v>152689603105.9</v>
       </c>
       <c r="E226" t="n">
-        <v>419.8399400623588</v>
+        <v>419.8529679836572</v>
       </c>
       <c r="F226" t="n">
-        <v>-0.2992462194186867</v>
+        <v>-0.2992244745482448</v>
       </c>
       <c r="G226" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H226" t="n">
         <v>3</v>
       </c>
       <c r="I226" t="n">
-        <v>925.5791318614763</v>
+        <v>925.6078532167708</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -10568,22 +10606,22 @@
         <v>323136595.41</v>
       </c>
       <c r="D227" t="n">
-        <v>124384999437.0709</v>
+        <v>124387079396.4285</v>
       </c>
       <c r="E227" t="n">
-        <v>384.9300921155326</v>
+        <v>384.936528896099</v>
       </c>
       <c r="F227" t="n">
-        <v>-0.3575141582065584</v>
+        <v>-0.3575034145924182</v>
       </c>
       <c r="G227" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H227" t="n">
         <v>4</v>
       </c>
       <c r="I227" t="n">
-        <v>848.6168810779033</v>
+        <v>848.6310716043399</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -10597,22 +10635,22 @@
         <v>318034322.98</v>
       </c>
       <c r="D228" t="n">
-        <v>125236531445.6418</v>
+        <v>125237452904.8931</v>
       </c>
       <c r="E228" t="n">
-        <v>393.7830680417393</v>
+        <v>393.7859653996176</v>
       </c>
       <c r="F228" t="n">
-        <v>-0.3427376785110743</v>
+        <v>-0.3427328425383781</v>
       </c>
       <c r="G228" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H228" t="n">
         <v>4</v>
       </c>
       <c r="I228" t="n">
-        <v>868.1341518048184</v>
+        <v>868.1405393199971</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -10626,22 +10664,22 @@
         <v>340405491.67</v>
       </c>
       <c r="D229" t="n">
-        <v>127430252029.6028</v>
+        <v>127428826306.8913</v>
       </c>
       <c r="E229" t="n">
-        <v>374.3484025608427</v>
+        <v>374.3442142538196</v>
       </c>
       <c r="F229" t="n">
-        <v>-0.3751760294408325</v>
+        <v>-0.3751830201334765</v>
       </c>
       <c r="G229" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H229" t="n">
         <v>4</v>
       </c>
       <c r="I229" t="n">
-        <v>825.2884882856339</v>
+        <v>825.2792547439708</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -10652,25 +10690,25 @@
         <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>342874144.05</v>
+        <v>344137138.27</v>
       </c>
       <c r="D230" t="n">
-        <v>122286035933.623</v>
+        <v>122432645467.4161</v>
       </c>
       <c r="E230" t="n">
-        <v>356.6499196737053</v>
+        <v>355.7670238175777</v>
       </c>
       <c r="F230" t="n">
-        <v>-0.404716522400776</v>
+        <v>-0.4061901616380271</v>
       </c>
       <c r="G230" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H230" t="n">
         <v>1</v>
       </c>
       <c r="I230" t="n">
-        <v>786.2704129126507</v>
+        <v>784.3239807082318</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -10681,25 +10719,25 @@
         <v>2</v>
       </c>
       <c r="C231" t="n">
-        <v>320542732.65</v>
+        <v>322145540.79</v>
       </c>
       <c r="D231" t="n">
-        <v>110075497606.2341</v>
+        <v>110287054509.4471</v>
       </c>
       <c r="E231" t="n">
-        <v>343.403504101356</v>
+        <v>342.3516409353032</v>
       </c>
       <c r="F231" t="n">
-        <v>-0.4268260810818683</v>
+        <v>-0.4285817432281525</v>
       </c>
       <c r="G231" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H231" t="n">
         <v>1</v>
       </c>
       <c r="I231" t="n">
-        <v>757.0673651418496</v>
+        <v>754.7484276059696</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -10710,25 +10748,25 @@
         <v>3</v>
       </c>
       <c r="C232" t="n">
-        <v>310837045.06</v>
+        <v>312983973.38</v>
       </c>
       <c r="D232" t="n">
-        <v>104351152028.447</v>
+        <v>104924269728.4561</v>
       </c>
       <c r="E232" t="n">
-        <v>335.7101532357714</v>
+        <v>335.2384743389575</v>
       </c>
       <c r="F232" t="n">
-        <v>-0.4396670335257833</v>
+        <v>-0.4404543115777802</v>
       </c>
       <c r="G232" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H232" t="n">
         <v>1</v>
       </c>
       <c r="I232" t="n">
-        <v>740.1066038235817</v>
+        <v>739.0667405276657</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -10739,25 +10777,25 @@
         <v>4</v>
       </c>
       <c r="C233" t="n">
-        <v>279802888.0699999</v>
+        <v>283375147.85</v>
       </c>
       <c r="D233" t="n">
-        <v>87486749309.2744</v>
+        <v>87914889739.14557</v>
       </c>
       <c r="E233" t="n">
-        <v>312.6727887361453</v>
+        <v>310.24206041414</v>
       </c>
       <c r="F233" t="n">
-        <v>-0.4781186402627339</v>
+        <v>-0.4821757627484085</v>
       </c>
       <c r="G233" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H233" t="n">
         <v>2</v>
       </c>
       <c r="I233" t="n">
-        <v>689.318430047706</v>
+        <v>683.9596463890132</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -10768,25 +10806,25 @@
         <v>5</v>
       </c>
       <c r="C234" t="n">
-        <v>308288878.02</v>
+        <v>308826404.6</v>
       </c>
       <c r="D234" t="n">
-        <v>98043892288.36937</v>
+        <v>98151191825.49631</v>
       </c>
       <c r="E234" t="n">
-        <v>318.0260440080126</v>
+        <v>317.8199479174208</v>
       </c>
       <c r="F234" t="n">
-        <v>-0.4691835354472637</v>
+        <v>-0.4695275299100675</v>
       </c>
       <c r="G234" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H234" t="n">
         <v>2</v>
       </c>
       <c r="I234" t="n">
-        <v>701.1202166200648</v>
+        <v>700.6658571787457</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -10797,25 +10835,25 @@
         <v>6</v>
       </c>
       <c r="C235" t="n">
-        <v>356765788.48</v>
+        <v>355984508.1600001</v>
       </c>
       <c r="D235" t="n">
-        <v>129489735373.0206</v>
+        <v>130171986216.4953</v>
       </c>
       <c r="E235" t="n">
-        <v>362.9544635563609</v>
+        <v>365.6675592129656</v>
       </c>
       <c r="F235" t="n">
-        <v>-0.3941936241744768</v>
+        <v>-0.3896652030858067</v>
       </c>
       <c r="G235" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H235" t="n">
         <v>2</v>
       </c>
       <c r="I235" t="n">
-        <v>800.1694103563533</v>
+        <v>806.150701040904</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -10826,25 +10864,25 @@
         <v>7</v>
       </c>
       <c r="C236" t="n">
-        <v>418415349.29</v>
+        <v>413934276.52</v>
       </c>
       <c r="D236" t="n">
-        <v>172439942070.2788</v>
+        <v>173838822662.2438</v>
       </c>
       <c r="E236" t="n">
-        <v>412.126233807838</v>
+        <v>419.9672086200005</v>
       </c>
       <c r="F236" t="n">
-        <v>-0.3121211469907187</v>
+        <v>-0.2990337957914745</v>
       </c>
       <c r="G236" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H236" t="n">
         <v>3</v>
       </c>
       <c r="I236" t="n">
-        <v>908.5734950527597</v>
+        <v>925.8597081236533</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -10855,25 +10893,25 @@
         <v>8</v>
       </c>
       <c r="C237" t="n">
-        <v>403364118.94</v>
+        <v>402414129.9300001</v>
       </c>
       <c r="D237" t="n">
-        <v>168480019897.0266</v>
+        <v>169679681529.652</v>
       </c>
       <c r="E237" t="n">
-        <v>417.6871763898459</v>
+        <v>421.6543826608866</v>
       </c>
       <c r="F237" t="n">
-        <v>-0.3028393918119264</v>
+        <v>-0.2962177378731307</v>
       </c>
       <c r="G237" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H237" t="n">
         <v>3</v>
       </c>
       <c r="I237" t="n">
-        <v>920.8331490690545</v>
+        <v>929.5792520141907</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -10884,25 +10922,25 @@
         <v>9</v>
       </c>
       <c r="C238" t="n">
-        <v>337730785.7099999</v>
+        <v>336922518.2300001</v>
       </c>
       <c r="D238" t="n">
-        <v>131365473955.8737</v>
+        <v>130577420285.9452</v>
       </c>
       <c r="E238" t="n">
-        <v>388.9650559385888</v>
+        <v>387.5591960190876</v>
       </c>
       <c r="F238" t="n">
-        <v>-0.3507794103093109</v>
+        <v>-0.3531259275401679</v>
       </c>
       <c r="G238" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H238" t="n">
         <v>3</v>
       </c>
       <c r="I238" t="n">
-        <v>857.512362322213</v>
+        <v>854.4130035436805</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -10913,25 +10951,25 @@
         <v>10</v>
       </c>
       <c r="C239" t="n">
-        <v>317001803.61</v>
+        <v>316786009.82</v>
       </c>
       <c r="D239" t="n">
-        <v>117300334594.4263</v>
+        <v>117562389848.7009</v>
       </c>
       <c r="E239" t="n">
-        <v>370.0304959107997</v>
+        <v>371.1097908506147</v>
       </c>
       <c r="F239" t="n">
-        <v>-0.3823830364939618</v>
+        <v>-0.3805815880435708</v>
       </c>
       <c r="G239" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H239" t="n">
         <v>4</v>
       </c>
       <c r="I239" t="n">
-        <v>815.7692312849492</v>
+        <v>818.1486449092653</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -10942,25 +10980,25 @@
         <v>11</v>
       </c>
       <c r="C240" t="n">
-        <v>305147333.9999999</v>
+        <v>303889691.58</v>
       </c>
       <c r="D240" t="n">
-        <v>108030814786.0767</v>
+        <v>107906394245.5259</v>
       </c>
       <c r="E240" t="n">
-        <v>354.0283749818922</v>
+        <v>355.0840888497831</v>
       </c>
       <c r="F240" t="n">
-        <v>-0.4090921360059943</v>
+        <v>-0.4073300466630253</v>
       </c>
       <c r="G240" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H240" t="n">
         <v>4</v>
       </c>
       <c r="I240" t="n">
-        <v>780.4909554850798</v>
+        <v>782.8183822782319</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -10971,25 +11009,25 @@
         <v>12</v>
       </c>
       <c r="C241" t="n">
-        <v>347321288.4</v>
+        <v>346787122.9400001</v>
       </c>
       <c r="D241" t="n">
-        <v>132262482607.2273</v>
+        <v>132505973053.1815</v>
       </c>
       <c r="E241" t="n">
-        <v>380.8073015521708</v>
+        <v>382.0960015176433</v>
       </c>
       <c r="F241" t="n">
-        <v>-0.3643954974936011</v>
+        <v>-0.3622445316452689</v>
       </c>
       <c r="G241" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H241" t="n">
         <v>4</v>
       </c>
       <c r="I241" t="n">
-        <v>839.5277770019158</v>
+        <v>842.3688449457967</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -11000,25 +11038,25 @@
         <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>353310194.9999999</v>
+        <v>353330047.02</v>
       </c>
       <c r="D242" t="n">
-        <v>134205106923.1703</v>
+        <v>134327533299.054</v>
       </c>
       <c r="E242" t="n">
-        <v>379.8506491531339</v>
+        <v>380.1758000260037</v>
       </c>
       <c r="F242" t="n">
-        <v>-0.3659922435898104</v>
+        <v>-0.3654495350914502</v>
       </c>
       <c r="G242" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H242" t="n">
         <v>1</v>
       </c>
       <c r="I242" t="n">
-        <v>837.418741122999</v>
+        <v>838.1355687373277</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -11029,25 +11067,25 @@
         <v>2</v>
       </c>
       <c r="C243" t="n">
-        <v>329568117.91</v>
+        <v>330216000.5899999</v>
       </c>
       <c r="D243" t="n">
-        <v>135402637059.9386</v>
+        <v>135396523897.2034</v>
       </c>
       <c r="E243" t="n">
-        <v>410.8487129113473</v>
+        <v>410.0241165034076</v>
       </c>
       <c r="F243" t="n">
-        <v>-0.3142534538833278</v>
+        <v>-0.31562978565927</v>
       </c>
       <c r="G243" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H243" t="n">
         <v>1</v>
       </c>
       <c r="I243" t="n">
-        <v>905.7570724843563</v>
+        <v>903.9391672434123</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -11058,25 +11096,25 @@
         <v>3</v>
       </c>
       <c r="C244" t="n">
-        <v>314540628.6800001</v>
+        <v>315930468.2500001</v>
       </c>
       <c r="D244" t="n">
-        <v>107934201980.9696</v>
+        <v>108227047027.4878</v>
       </c>
       <c r="E244" t="n">
-        <v>343.1486814085858</v>
+        <v>342.5660324152282</v>
       </c>
       <c r="F244" t="n">
-        <v>-0.4272514049929522</v>
+        <v>-0.4282239029520235</v>
       </c>
       <c r="G244" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H244" t="n">
         <v>1</v>
       </c>
       <c r="I244" t="n">
-        <v>756.5055830333682</v>
+        <v>755.2210750626123</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -11087,25 +11125,25 @@
         <v>4</v>
       </c>
       <c r="C245" t="n">
-        <v>296853784.52</v>
+        <v>296952650.89</v>
       </c>
       <c r="D245" t="n">
-        <v>99786583231.6086</v>
+        <v>100031412325.0486</v>
       </c>
       <c r="E245" t="n">
-        <v>336.1472497073241</v>
+        <v>336.8598058486544</v>
       </c>
       <c r="F245" t="n">
-        <v>-0.4389374769121992</v>
+        <v>-0.4377481512614775</v>
       </c>
       <c r="G245" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H245" t="n">
         <v>2</v>
       </c>
       <c r="I245" t="n">
-        <v>741.0702267047667</v>
+        <v>742.6411279739433</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -11116,25 +11154,25 @@
         <v>5</v>
       </c>
       <c r="C246" t="n">
-        <v>322319029.37</v>
+        <v>323736556.7600001</v>
       </c>
       <c r="D246" t="n">
-        <v>113855858220.3395</v>
+        <v>114111620501.325</v>
       </c>
       <c r="E246" t="n">
-        <v>353.2396409944533</v>
+        <v>352.4829622065848</v>
       </c>
       <c r="F246" t="n">
-        <v>-0.4104086099067114</v>
+        <v>-0.4116715805550158</v>
       </c>
       <c r="G246" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H246" t="n">
         <v>2</v>
       </c>
       <c r="I246" t="n">
-        <v>778.7521125363721</v>
+        <v>777.0839384806368</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -11145,25 +11183,112 @@
         <v>6</v>
       </c>
       <c r="C247" t="n">
-        <v>378968470.1699998</v>
+        <v>378629891.78</v>
       </c>
       <c r="D247" t="n">
-        <v>151888514663.7077</v>
+        <v>152197760231.9024</v>
       </c>
       <c r="E247" t="n">
-        <v>400.7945953803827</v>
+        <v>401.9697428441169</v>
       </c>
       <c r="F247" t="n">
-        <v>-0.3310347559890441</v>
+        <v>-0.3290733203337561</v>
       </c>
       <c r="G247" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H247" t="n">
         <v>2</v>
       </c>
       <c r="I247" t="n">
-        <v>883.5917649755918</v>
+        <v>886.1824950741403</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B248" t="n">
+        <v>7</v>
+      </c>
+      <c r="C248" t="n">
+        <v>409596484.39</v>
+      </c>
+      <c r="D248" t="n">
+        <v>175666658241.1893</v>
+      </c>
+      <c r="E248" t="n">
+        <v>428.8773584148421</v>
+      </c>
+      <c r="F248" t="n">
+        <v>-0.2841618873366628</v>
+      </c>
+      <c r="G248" t="s">
+        <v>339</v>
+      </c>
+      <c r="H248" t="n">
+        <v>3</v>
+      </c>
+      <c r="I248" t="n">
+        <v>945.5030243613608</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B249" t="n">
+        <v>8</v>
+      </c>
+      <c r="C249" t="n">
+        <v>417740947.91</v>
+      </c>
+      <c r="D249" t="n">
+        <v>177999182805.6885</v>
+      </c>
+      <c r="E249" t="n">
+        <v>426.0994372139871</v>
+      </c>
+      <c r="F249" t="n">
+        <v>-0.2887985085770503</v>
+      </c>
+      <c r="G249" t="s">
+        <v>340</v>
+      </c>
+      <c r="H249" t="n">
+        <v>3</v>
+      </c>
+      <c r="I249" t="n">
+        <v>939.378819281956</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B250" t="n">
+        <v>9</v>
+      </c>
+      <c r="C250" t="n">
+        <v>352310703.79</v>
+      </c>
+      <c r="D250" t="n">
+        <v>139606021770.1631</v>
+      </c>
+      <c r="E250" t="n">
+        <v>396.2582466792646</v>
+      </c>
+      <c r="F250" t="n">
+        <v>-0.3386063641163497</v>
+      </c>
+      <c r="G250" t="s">
+        <v>341</v>
+      </c>
+      <c r="H250" t="n">
+        <v>3</v>
+      </c>
+      <c r="I250" t="n">
+        <v>873.5909306291068</v>
       </c>
     </row>
   </sheetData>

--- a/web_files/US Power Sector CO2 Emissions Intensity.xlsx
+++ b/web_files/US Power Sector CO2 Emissions Intensity.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="346">
   <si>
     <t>year</t>
   </si>
@@ -292,6 +292,9 @@
     <t>2021 Q3</t>
   </si>
   <si>
+    <t>2021 Q4</t>
+  </si>
+  <si>
     <t>month</t>
   </si>
   <si>
@@ -1043,6 +1046,15 @@
   </si>
   <si>
     <t>2021-09-01</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
+    <t>2021-12-01</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1587,16 +1599,16 @@
         <v>3950295430.150001</v>
       </c>
       <c r="C10" t="n">
-        <v>2174215294433.942</v>
+        <v>2174218033133.833</v>
       </c>
       <c r="D10" t="n">
-        <v>550.3930865118569</v>
+        <v>550.3937798017487</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.08134029334675713</v>
+        <v>-0.08133913617835499</v>
       </c>
       <c r="F10" t="n">
-        <v>1213.39659852404</v>
+        <v>1213.398126950935</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1607,16 +1619,16 @@
         <v>4124851633.65</v>
       </c>
       <c r="C11" t="n">
-        <v>2303207948255.988</v>
+        <v>2303214458603.484</v>
       </c>
       <c r="D11" t="n">
-        <v>558.3735253570622</v>
+        <v>558.3751036798906</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.06802016308319772</v>
+        <v>-0.06801752870856258</v>
       </c>
       <c r="F11" t="n">
-        <v>1230.99027400218</v>
+        <v>1230.993753572687</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1627,16 +1639,16 @@
         <v>4099904141.69</v>
       </c>
       <c r="C12" t="n">
-        <v>2210236694681.122</v>
+        <v>2210241071971.476</v>
       </c>
       <c r="D12" t="n">
-        <v>539.094724729357</v>
+        <v>539.0957923861126</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.100198360381271</v>
+        <v>-0.1001965783580844</v>
       </c>
       <c r="F12" t="n">
-        <v>1188.488230138341</v>
+        <v>1188.490583894424</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1647,16 +1659,16 @@
         <v>4047592450.85</v>
       </c>
       <c r="C13" t="n">
-        <v>2078784351444.274</v>
+        <v>2078787487159.941</v>
       </c>
       <c r="D13" t="n">
-        <v>513.5853909915575</v>
+        <v>513.5861657028718</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1427759247126169</v>
+        <v>-0.1427746316439243</v>
       </c>
       <c r="F13" t="n">
-        <v>1132.250352979987</v>
+        <v>1132.252060908551</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1667,16 +1679,16 @@
         <v>4065838573.14</v>
       </c>
       <c r="C14" t="n">
-        <v>2097520146084.8</v>
+        <v>2097521721095.332</v>
       </c>
       <c r="D14" t="n">
-        <v>515.8886926651663</v>
+        <v>515.8890800417194</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1389314897230327</v>
+        <v>-0.1389308431538092</v>
       </c>
       <c r="F14" t="n">
-        <v>1137.328211849626</v>
+        <v>1137.329065859974</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1687,16 +1699,16 @@
         <v>4104591433.59</v>
       </c>
       <c r="C15" t="n">
-        <v>2094336942609.711</v>
+        <v>2094338887344.273</v>
       </c>
       <c r="D15" t="n">
-        <v>510.2424873449439</v>
+        <v>510.2429611398621</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1483555567222241</v>
+        <v>-0.1483547659123262</v>
       </c>
       <c r="F15" t="n">
-        <v>1124.880587600663</v>
+        <v>1124.88163212894</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1707,16 +1719,16 @@
         <v>4091446794.71</v>
       </c>
       <c r="C16" t="n">
-        <v>1969867185933.869</v>
+        <v>1969870089556.31</v>
       </c>
       <c r="D16" t="n">
-        <v>481.4598074404369</v>
+        <v>481.4605171215316</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1963966548496421</v>
+        <v>-0.1963954703227244</v>
       </c>
       <c r="F16" t="n">
-        <v>1061.426291483187</v>
+        <v>1061.427856046129</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1727,16 +1739,16 @@
         <v>4095143764.57</v>
       </c>
       <c r="C17" t="n">
-        <v>1857033270288.884</v>
+        <v>1857036321741.607</v>
       </c>
       <c r="D17" t="n">
-        <v>453.4720578934002</v>
+        <v>453.4728030327406</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2431109367308177</v>
+        <v>-0.243109693020632</v>
       </c>
       <c r="F17" t="n">
-        <v>999.7244988317904</v>
+        <v>999.7261415659801</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1747,16 +1759,16 @@
         <v>4057943287.12</v>
       </c>
       <c r="C18" t="n">
-        <v>1780378877695.958</v>
+        <v>1780391293737.833</v>
       </c>
       <c r="D18" t="n">
-        <v>438.739221256965</v>
+        <v>438.7422809453335</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2677014770451466</v>
+        <v>-0.2676963701270405</v>
       </c>
       <c r="F18" t="n">
-        <v>967.2444871831053</v>
+        <v>967.251232572082</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1767,16 +1779,16 @@
         <v>4207602186.04</v>
       </c>
       <c r="C19" t="n">
-        <v>1798510654213.064</v>
+        <v>1798546125563.933</v>
       </c>
       <c r="D19" t="n">
-        <v>427.4431314300982</v>
+        <v>427.4515617306114</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.2865557519642676</v>
+        <v>-0.2865416809710334</v>
       </c>
       <c r="F19" t="n">
-        <v>942.3411275507947</v>
+        <v>942.359712991306</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1787,16 +1799,16 @@
         <v>4162381332.79</v>
       </c>
       <c r="C20" t="n">
-        <v>1655848494057.677</v>
+        <v>1655852066247.118</v>
       </c>
       <c r="D20" t="n">
-        <v>397.812781114838</v>
+        <v>397.813639322954</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.3360116946272816</v>
+        <v>-0.336010262194289</v>
       </c>
       <c r="F20" t="n">
-        <v>877.0180572457721</v>
+        <v>877.0199492513846</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1807,16 +1819,36 @@
         <v>4048186462.070001</v>
       </c>
       <c r="C21" t="n">
-        <v>1485952719111.706</v>
+        <v>1485996948166.935</v>
       </c>
       <c r="D21" t="n">
-        <v>367.066273511492</v>
+        <v>367.0771991582337</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.3873306125928203</v>
+        <v>-0.3873123766235166</v>
       </c>
       <c r="F21" t="n">
-        <v>809.2343065834352</v>
+        <v>809.2583932642418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4161810469.8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1582529152562.849</v>
+      </c>
+      <c r="D22" t="n">
+        <v>380.2501733431649</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.3653253987761503</v>
+      </c>
+      <c r="F22" t="n">
+        <v>838.2995321523413</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +1862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2733,19 +2765,19 @@
         <v>948492688.3200001</v>
       </c>
       <c r="D35" t="n">
-        <v>505196840616.2029</v>
+        <v>505197637305.8065</v>
       </c>
       <c r="E35" t="n">
-        <v>532.6312441174675</v>
+        <v>532.6320840708097</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.1109865394997771</v>
+        <v>-0.1109851375357811</v>
       </c>
       <c r="G35" t="s">
         <v>41</v>
       </c>
       <c r="H35" t="n">
-        <v>1174.238840781369</v>
+        <v>1174.240692542507</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2759,19 +2791,19 @@
         <v>1081146520.84</v>
       </c>
       <c r="D36" t="n">
-        <v>599605311609.6808</v>
+        <v>599606169352.8146</v>
       </c>
       <c r="E36" t="n">
-        <v>554.6013422341828</v>
+        <v>554.6021355985578</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.07431630437935502</v>
+        <v>-0.07431498017688616</v>
       </c>
       <c r="G36" t="s">
         <v>42</v>
       </c>
       <c r="H36" t="n">
-        <v>1222.674119089479</v>
+        <v>1222.67586814058</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2785,19 +2817,19 @@
         <v>954181900.63</v>
       </c>
       <c r="D37" t="n">
-        <v>533073959692.372</v>
+        <v>533075043959.5254</v>
       </c>
       <c r="E37" t="n">
-        <v>558.6712128373102</v>
+        <v>558.6723491690229</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.06752329366390304</v>
+        <v>-0.06752139701551949</v>
       </c>
       <c r="G37" t="s">
         <v>43</v>
       </c>
       <c r="H37" t="n">
-        <v>1231.646555821134</v>
+        <v>1231.649060978028</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2811,19 +2843,19 @@
         <v>992855548.61</v>
       </c>
       <c r="D38" t="n">
-        <v>558648967997.1271</v>
+        <v>558649633349.0657</v>
       </c>
       <c r="E38" t="n">
-        <v>562.6689288076568</v>
+        <v>562.669598947376</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.06085071606327132</v>
+        <v>-0.06084959753476334</v>
       </c>
       <c r="G38" t="s">
         <v>44</v>
       </c>
       <c r="H38" t="n">
-        <v>1240.45992044936</v>
+        <v>1240.461397839385</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2837,19 +2869,19 @@
         <v>991392351.59</v>
       </c>
       <c r="D39" t="n">
-        <v>544223876473.429</v>
+        <v>544225866677.9034</v>
       </c>
       <c r="E39" t="n">
-        <v>548.9490367770137</v>
+        <v>548.9510442612063</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.08375055310167359</v>
+        <v>-0.08374720241489225</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
       </c>
       <c r="H39" t="n">
-        <v>1210.213046478604</v>
+        <v>1210.217472178256</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2863,19 +2895,19 @@
         <v>1164563077.98</v>
       </c>
       <c r="D40" t="n">
-        <v>663786961622.1467</v>
+        <v>663789875390.541</v>
       </c>
       <c r="E40" t="n">
-        <v>569.9879844838654</v>
+        <v>569.990486510977</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.04863449877192338</v>
+        <v>-0.04863032264480852</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
       </c>
       <c r="H40" t="n">
-        <v>1256.595510593129</v>
+        <v>1256.6010265621</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2889,19 +2921,19 @@
         <v>976040655.47</v>
       </c>
       <c r="D41" t="n">
-        <v>536548142163.285</v>
+        <v>536549083185.9744</v>
       </c>
       <c r="E41" t="n">
-        <v>549.7190502837375</v>
+        <v>549.7200144061683</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.08246532550790245</v>
+        <v>-0.08246371629359515</v>
       </c>
       <c r="G41" t="s">
         <v>47</v>
       </c>
       <c r="H41" t="n">
-        <v>1211.910618255527</v>
+        <v>1211.912743759839</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2915,19 +2947,19 @@
         <v>994692505.47</v>
       </c>
       <c r="D42" t="n">
-        <v>539069198680.9526</v>
+        <v>539070373970.3749</v>
       </c>
       <c r="E42" t="n">
-        <v>541.9455718390461</v>
+        <v>541.9467533995945</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.09544001869115636</v>
+        <v>-0.09543804655143773</v>
       </c>
       <c r="G42" t="s">
         <v>48</v>
       </c>
       <c r="H42" t="n">
-        <v>1194.773207676361</v>
+        <v>1194.775812544746</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2941,19 +2973,19 @@
         <v>993701780.35</v>
       </c>
       <c r="D43" t="n">
-        <v>532514055265.7051</v>
+        <v>532514717318.2131</v>
       </c>
       <c r="E43" t="n">
-        <v>535.8892031753671</v>
+        <v>535.8898694240556</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.1055486882880434</v>
+        <v>-0.1055475762540449</v>
       </c>
       <c r="G43" t="s">
         <v>49</v>
       </c>
       <c r="H43" t="n">
-        <v>1181.421337320415</v>
+        <v>1181.422806132273</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2967,19 +2999,19 @@
         <v>1163009564.64</v>
       </c>
       <c r="D44" t="n">
-        <v>648467045950.8199</v>
+        <v>648468828481.6658</v>
       </c>
       <c r="E44" t="n">
-        <v>557.5767093124017</v>
+        <v>557.5782420004379</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.06935012672515345</v>
+        <v>-0.06934756851943412</v>
       </c>
       <c r="G44" t="s">
         <v>50</v>
       </c>
       <c r="H44" t="n">
-        <v>1229.233613350121</v>
+        <v>1229.236992314165</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2993,19 +3025,19 @@
         <v>948500291.23</v>
       </c>
       <c r="D45" t="n">
-        <v>490186394783.644</v>
+        <v>490187152201.2219</v>
       </c>
       <c r="E45" t="n">
-        <v>516.8015226942927</v>
+        <v>516.802321236565</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.1374078874334472</v>
+        <v>-0.1374065545885629</v>
       </c>
       <c r="G45" t="s">
         <v>51</v>
       </c>
       <c r="H45" t="n">
-        <v>1139.340636931837</v>
+        <v>1139.342397398132</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3019,19 +3051,19 @@
         <v>957980708.89</v>
       </c>
       <c r="D46" t="n">
-        <v>471398295388.22</v>
+        <v>471398812418.1818</v>
       </c>
       <c r="E46" t="n">
-        <v>492.0749353443905</v>
+        <v>492.0754750525045</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.1786789717513051</v>
+        <v>-0.1786780709258589</v>
       </c>
       <c r="G46" t="s">
         <v>52</v>
       </c>
       <c r="H46" t="n">
-        <v>1084.828402460243</v>
+        <v>1084.829592300752</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3045,19 +3077,19 @@
         <v>992527143.42</v>
       </c>
       <c r="D47" t="n">
-        <v>492486940521.8501</v>
+        <v>492488018650.0847</v>
       </c>
       <c r="E47" t="n">
-        <v>496.1949341001027</v>
+        <v>496.1960203456948</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.1718022922633392</v>
+        <v>-0.1718004792135727</v>
       </c>
       <c r="G47" t="s">
         <v>53</v>
       </c>
       <c r="H47" t="n">
-        <v>1093.911351717086</v>
+        <v>1093.913746454119</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3071,19 +3103,19 @@
         <v>1144880676.62</v>
       </c>
       <c r="D48" t="n">
-        <v>617578278928.7739</v>
+        <v>617579310513.8975</v>
       </c>
       <c r="E48" t="n">
-        <v>539.4258908727794</v>
+        <v>539.4267919143854</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.09964561181006716</v>
+        <v>-0.0996441078838048</v>
       </c>
       <c r="G48" t="s">
         <v>54</v>
       </c>
       <c r="H48" t="n">
-        <v>1189.218319018129</v>
+        <v>1189.220305454454</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3097,19 +3129,19 @@
         <v>952203921.92</v>
       </c>
       <c r="D49" t="n">
-        <v>497320836605.4297</v>
+        <v>497321345577.7768</v>
       </c>
       <c r="E49" t="n">
-        <v>522.2839616146973</v>
+        <v>522.2844961350196</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.1282571625174015</v>
+        <v>-0.1282562703508856</v>
       </c>
       <c r="G49" t="s">
         <v>55</v>
       </c>
       <c r="H49" t="n">
-        <v>1151.427221775762</v>
+        <v>1151.428400179264</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3123,19 +3155,19 @@
         <v>984050548.64</v>
       </c>
       <c r="D50" t="n">
-        <v>504516496843.3358</v>
+        <v>504516918201.5991</v>
       </c>
       <c r="E50" t="n">
-        <v>512.6936797511055</v>
+        <v>512.6941079387265</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.1442642776855159</v>
+        <v>-0.1442635629986423</v>
       </c>
       <c r="G50" t="s">
         <v>56</v>
       </c>
       <c r="H50" t="n">
-        <v>1130.284486379287</v>
+        <v>1130.285430361716</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3149,19 +3181,19 @@
         <v>978286626.61</v>
       </c>
       <c r="D51" t="n">
-        <v>491417510435.5548</v>
+        <v>491417830400.5058</v>
       </c>
       <c r="E51" t="n">
-        <v>502.3246736372504</v>
+        <v>502.3250007039221</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.1615711595273804</v>
+        <v>-0.1615706136212272</v>
       </c>
       <c r="G51" t="s">
         <v>57</v>
       </c>
       <c r="H51" t="n">
-        <v>1107.424975500682</v>
+        <v>1107.425696551867</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3175,19 +3207,19 @@
         <v>1121047131.97</v>
       </c>
       <c r="D52" t="n">
-        <v>597924899985.3579</v>
+        <v>597925508628.2739</v>
       </c>
       <c r="E52" t="n">
-        <v>533.3628559707684</v>
+        <v>533.3633988943426</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.1097654080084699</v>
+        <v>-0.1097645018161071</v>
       </c>
       <c r="G52" t="s">
         <v>58</v>
       </c>
       <c r="H52" t="n">
-        <v>1175.851752273156</v>
+        <v>1175.852949202468</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3201,19 +3233,19 @@
         <v>982454265.92</v>
       </c>
       <c r="D53" t="n">
-        <v>503661238820.5513</v>
+        <v>503661463864.9528</v>
       </c>
       <c r="E53" t="n">
-        <v>512.6561676119424</v>
+        <v>512.6563966754309</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.1443268891019819</v>
+        <v>-0.1443265067726933</v>
       </c>
       <c r="G53" t="s">
         <v>59</v>
       </c>
       <c r="H53" t="n">
-        <v>1130.201787117288</v>
+        <v>1130.202292110655</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3227,19 +3259,19 @@
         <v>1035558409.64</v>
       </c>
       <c r="D54" t="n">
-        <v>548092678999.1687</v>
+        <v>548093057895.7448</v>
       </c>
       <c r="E54" t="n">
-        <v>529.2725875208786</v>
+        <v>529.2729534071218</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.1165924647182889</v>
+        <v>-0.1165918540184871</v>
       </c>
       <c r="G54" t="s">
         <v>60</v>
       </c>
       <c r="H54" t="n">
-        <v>1166.834346448529</v>
+        <v>1166.835153081341</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3253,19 +3285,19 @@
         <v>983304469.48</v>
       </c>
       <c r="D55" t="n">
-        <v>486385242864.6228</v>
+        <v>486385539934.9534</v>
       </c>
       <c r="E55" t="n">
-        <v>494.6435798485056</v>
+        <v>494.6438819627945</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.1743916537153872</v>
+        <v>-0.1743911494571928</v>
       </c>
       <c r="G55" t="s">
         <v>61</v>
       </c>
       <c r="H55" t="n">
-        <v>1090.491236134016</v>
+        <v>1090.491902175177</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3279,19 +3311,19 @@
         <v>1113290726.65</v>
       </c>
       <c r="D56" t="n">
-        <v>583494198776.7098</v>
+        <v>583494987860.4768</v>
       </c>
       <c r="E56" t="n">
-        <v>524.1166433969145</v>
+        <v>524.1173521819138</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.1251982379965464</v>
+        <v>-0.1251970549652992</v>
       </c>
       <c r="G56" t="s">
         <v>62</v>
       </c>
       <c r="H56" t="n">
-        <v>1155.467552032838</v>
+        <v>1155.469114620247</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3305,19 +3337,19 @@
         <v>972437827.8200001</v>
       </c>
       <c r="D57" t="n">
-        <v>476364821969.2092</v>
+        <v>476365301653.0985</v>
       </c>
       <c r="E57" t="n">
-        <v>489.8666098141394</v>
+        <v>489.8671030938901</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.1823648823005677</v>
+        <v>-0.1823640589685853</v>
       </c>
       <c r="G57" t="s">
         <v>63</v>
       </c>
       <c r="H57" t="n">
-        <v>1079.959927996252</v>
+        <v>1079.96101548079</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3331,19 +3363,19 @@
         <v>1021743631.31</v>
       </c>
       <c r="D58" t="n">
-        <v>498767983842.6959</v>
+        <v>498768244926.8238</v>
       </c>
       <c r="E58" t="n">
-        <v>488.1537487081906</v>
+        <v>488.1540042362114</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.1852238144341472</v>
+        <v>-0.1852233879329749</v>
       </c>
       <c r="G58" t="s">
         <v>64</v>
       </c>
       <c r="H58" t="n">
-        <v>1076.183754402077</v>
+        <v>1076.184317739152</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3357,19 +3389,19 @@
         <v>982624564.37</v>
       </c>
       <c r="D59" t="n">
-        <v>465730054368.658</v>
+        <v>465730526600.0248</v>
       </c>
       <c r="E59" t="n">
-        <v>473.9654098381472</v>
+        <v>473.9658904198301</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.2089055349057035</v>
+        <v>-0.2089047327680338</v>
       </c>
       <c r="G59" t="s">
         <v>65</v>
       </c>
       <c r="H59" t="n">
-        <v>1044.904142529179</v>
+        <v>1044.905202019558</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3383,19 +3415,19 @@
         <v>1146861408.84</v>
       </c>
       <c r="D60" t="n">
-        <v>582939652224.3123</v>
+        <v>582940708120.1714</v>
       </c>
       <c r="E60" t="n">
-        <v>508.291278903464</v>
+        <v>508.2921995865135</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1516123137898487</v>
+        <v>-0.1516107770801029</v>
       </c>
       <c r="G60" t="s">
         <v>66</v>
       </c>
       <c r="H60" t="n">
-        <v>1120.578953470577</v>
+        <v>1120.580983208428</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3409,19 +3441,19 @@
         <v>940217190.1899998</v>
       </c>
       <c r="D61" t="n">
-        <v>422429495498.2031</v>
+        <v>422430609909.2897</v>
       </c>
       <c r="E61" t="n">
-        <v>449.2892705065712</v>
+        <v>449.2904557764197</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.2500924165639486</v>
+        <v>-0.2500904382330467</v>
       </c>
       <c r="G61" t="s">
         <v>67</v>
       </c>
       <c r="H61" t="n">
-        <v>990.503125758787</v>
+        <v>990.5057388046948</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3435,19 +3467,19 @@
         <v>974387563.86</v>
       </c>
       <c r="D62" t="n">
-        <v>415757517325.113</v>
+        <v>415758100472.5101</v>
       </c>
       <c r="E62" t="n">
-        <v>426.6859848642824</v>
+        <v>426.6865833401032</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.2878195033795588</v>
+        <v>-0.2878185044650821</v>
       </c>
       <c r="G62" t="s">
         <v>68</v>
       </c>
       <c r="H62" t="n">
-        <v>940.6719222317972</v>
+        <v>940.6732416315916</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3461,19 +3493,19 @@
         <v>982867071.35</v>
       </c>
       <c r="D63" t="n">
-        <v>424488152958.9769</v>
+        <v>424488622428.8736</v>
       </c>
       <c r="E63" t="n">
-        <v>431.8876533079175</v>
+        <v>431.8881309614174</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.2791374117551499</v>
+        <v>-0.2791366145049029</v>
       </c>
       <c r="G63" t="s">
         <v>69</v>
       </c>
       <c r="H63" t="n">
-        <v>952.1395204826347</v>
+        <v>952.1405735175407</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3487,19 +3519,19 @@
         <v>1178649522.33</v>
       </c>
       <c r="D64" t="n">
-        <v>583085533644.1443</v>
+        <v>583086833395.7867</v>
       </c>
       <c r="E64" t="n">
-        <v>494.7064607394726</v>
+        <v>494.7075634859785</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.1742866993795399</v>
+        <v>-0.1742848587881398</v>
       </c>
       <c r="G64" t="s">
         <v>70</v>
       </c>
       <c r="H64" t="n">
-        <v>1090.629863346241</v>
+        <v>1090.632294461188</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3513,19 +3545,19 @@
         <v>959239607.03</v>
       </c>
       <c r="D65" t="n">
-        <v>433702066360.6495</v>
+        <v>433702765444.4368</v>
       </c>
       <c r="E65" t="n">
-        <v>452.1311079965504</v>
+        <v>452.1318367860855</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2453491128072721</v>
+        <v>-0.2453478963865049</v>
       </c>
       <c r="G65" t="s">
         <v>71</v>
       </c>
       <c r="H65" t="n">
-        <v>996.7682406891953</v>
+        <v>996.769847378604</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3539,19 +3571,19 @@
         <v>959262216.27</v>
       </c>
       <c r="D66" t="n">
-        <v>409257882531.1814</v>
+        <v>409258205720.2666</v>
       </c>
       <c r="E66" t="n">
-        <v>426.6381762877535</v>
+        <v>426.6385132019774</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.287899300553553</v>
+        <v>-0.2878987382108751</v>
       </c>
       <c r="G66" t="s">
         <v>72</v>
       </c>
       <c r="H66" t="n">
-        <v>940.5665234439813</v>
+        <v>940.5672662050797</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3565,19 +3597,19 @@
         <v>984379167.3099999</v>
       </c>
       <c r="D67" t="n">
-        <v>417642618946.849</v>
+        <v>417646782473.7512</v>
       </c>
       <c r="E67" t="n">
-        <v>424.2700707372095</v>
+        <v>424.2743003339344</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.2918518995299935</v>
+        <v>-0.2918448399208127</v>
       </c>
       <c r="G67" t="s">
         <v>73</v>
       </c>
       <c r="H67" t="n">
-        <v>935.3457979472521</v>
+        <v>935.3551225161916</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3591,19 +3623,19 @@
         <v>1132245772.11</v>
       </c>
       <c r="D68" t="n">
-        <v>529420761741.2925</v>
+        <v>529425176086.6206</v>
       </c>
       <c r="E68" t="n">
-        <v>467.5846664939971</v>
+        <v>467.5885652458729</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.219555617460184</v>
+        <v>-0.2195491100633025</v>
       </c>
       <c r="G68" t="s">
         <v>74</v>
       </c>
       <c r="H68" t="n">
-        <v>1030.837155752666</v>
+        <v>1030.845750941052</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3617,19 +3649,19 @@
         <v>982056131.4299999</v>
       </c>
       <c r="D69" t="n">
-        <v>424057614476.6345</v>
+        <v>424061129457.1947</v>
       </c>
       <c r="E69" t="n">
-        <v>431.8058824796013</v>
+        <v>431.8094616849519</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.2792738952375819</v>
+        <v>-0.2792679211949968</v>
       </c>
       <c r="G69" t="s">
         <v>75</v>
       </c>
       <c r="H69" t="n">
-        <v>951.9592485145292</v>
+        <v>951.967139230645</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3643,19 +3675,19 @@
         <v>1007451607.32</v>
       </c>
       <c r="D70" t="n">
-        <v>419654195061.1908</v>
+        <v>419663572098.7316</v>
       </c>
       <c r="E70" t="n">
-        <v>416.5502263454077</v>
+        <v>416.5595340257694</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.3047370722514144</v>
+        <v>-0.3047215368256974</v>
       </c>
       <c r="G70" t="s">
         <v>76</v>
       </c>
       <c r="H70" t="n">
-        <v>918.326629001086</v>
+        <v>918.3471487132114</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3669,19 +3701,19 @@
         <v>1020356356.43</v>
       </c>
       <c r="D71" t="n">
-        <v>415364939866.9857</v>
+        <v>415374542447.8795</v>
       </c>
       <c r="E71" t="n">
-        <v>407.0783087197646</v>
+        <v>407.0877197268439</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.3205466259697633</v>
+        <v>-0.3205309180816835</v>
       </c>
       <c r="G71" t="s">
         <v>77</v>
       </c>
       <c r="H71" t="n">
-        <v>897.4448394035928</v>
+        <v>897.4655869098001</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3695,19 +3727,19 @@
         <v>1184368755.68</v>
       </c>
       <c r="D72" t="n">
-        <v>538587901321.5594</v>
+        <v>538602938036.7822</v>
       </c>
       <c r="E72" t="n">
-        <v>454.7467997096323</v>
+        <v>454.7594956838809</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.2409832683940295</v>
+        <v>-0.240962077575568</v>
       </c>
       <c r="G72" t="s">
         <v>78</v>
       </c>
       <c r="H72" t="n">
-        <v>1002.534794639856</v>
+        <v>1002.562784184684</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3721,19 +3753,19 @@
         <v>995425466.61</v>
       </c>
       <c r="D73" t="n">
-        <v>424903617963.3284</v>
+        <v>424905072980.5394</v>
       </c>
       <c r="E73" t="n">
-        <v>426.8562862977288</v>
+        <v>426.8577480015528</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.2875352536883355</v>
+        <v>-0.2875328139621851</v>
       </c>
       <c r="G73" t="s">
         <v>79</v>
       </c>
       <c r="H73" t="n">
-        <v>941.047368771973</v>
+        <v>941.0505912442234</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3747,19 +3779,19 @@
         <v>1008004393.08</v>
       </c>
       <c r="D74" t="n">
-        <v>405187021240.504</v>
+        <v>405188235922.7155</v>
       </c>
       <c r="E74" t="n">
-        <v>401.9694993614443</v>
+        <v>401.9707043980688</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.3290737267300683</v>
+        <v>-0.3290717154064903</v>
       </c>
       <c r="G74" t="s">
         <v>80</v>
       </c>
       <c r="H74" t="n">
-        <v>886.1819582922401</v>
+        <v>886.1846149159828</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3773,19 +3805,19 @@
         <v>990398214.4000002</v>
       </c>
       <c r="D75" t="n">
-        <v>368897521436.0672</v>
+        <v>368898254282.5474</v>
       </c>
       <c r="E75" t="n">
-        <v>372.4739363141436</v>
+        <v>372.4746762654779</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.3783046963055223</v>
+        <v>-0.3783034612546245</v>
       </c>
       <c r="G75" t="s">
         <v>81</v>
       </c>
       <c r="H75" t="n">
-        <v>821.1560399981612</v>
+        <v>821.1576712948726</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3799,19 +3831,19 @@
         <v>1182402315.25</v>
       </c>
       <c r="D76" t="n">
-        <v>504710592772.8922</v>
+        <v>504711101345.1709</v>
       </c>
       <c r="E76" t="n">
-        <v>426.8518306023269</v>
+        <v>426.8522607201237</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.2875426906782454</v>
+        <v>-0.2875419727697202</v>
       </c>
       <c r="G76" t="s">
         <v>82</v>
       </c>
       <c r="H76" t="n">
-        <v>941.0375457458897</v>
+        <v>941.0384939835848</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3825,19 +3857,19 @@
         <v>981576410.0599999</v>
       </c>
       <c r="D77" t="n">
-        <v>377053358608.2129</v>
+        <v>377054474696.684</v>
       </c>
       <c r="E77" t="n">
-        <v>384.1304199488301</v>
+        <v>384.1315569856005</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.3588488889945802</v>
+        <v>-0.3588469911693866</v>
       </c>
       <c r="G77" t="s">
         <v>83</v>
       </c>
       <c r="H77" t="n">
-        <v>846.8539238191909</v>
+        <v>846.8564305304549</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3851,19 +3883,19 @@
         <v>979266652.4400001</v>
       </c>
       <c r="D78" t="n">
-        <v>337643969705.3193</v>
+        <v>337650305599.3838</v>
       </c>
       <c r="E78" t="n">
-        <v>344.7926760949382</v>
+        <v>344.7991461345833</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.4245074176258954</v>
+        <v>-0.4244966184991111</v>
       </c>
       <c r="G78" t="s">
         <v>84</v>
       </c>
       <c r="H78" t="n">
-        <v>760.1299337189007</v>
+        <v>760.1441975683025</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3877,19 +3909,19 @@
         <v>948186060.61</v>
       </c>
       <c r="D79" t="n">
-        <v>316238067781.1371</v>
+        <v>316251988259.1104</v>
       </c>
       <c r="E79" t="n">
-        <v>333.5190010889746</v>
+        <v>333.5336822560488</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.4433242800242196</v>
+        <v>-0.4432997757254407</v>
       </c>
       <c r="G79" t="s">
         <v>85</v>
       </c>
       <c r="H79" t="n">
-        <v>735.2759898007532</v>
+        <v>735.3083559016852</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3903,19 +3935,19 @@
         <v>1153270924.68</v>
       </c>
       <c r="D80" t="n">
-        <v>474095924477.841</v>
+        <v>474113890928.8159</v>
       </c>
       <c r="E80" t="n">
-        <v>411.0880750846894</v>
+        <v>411.1036537753425</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3138539350860624</v>
+        <v>-0.3138279327329512</v>
       </c>
       <c r="G80" t="s">
         <v>86</v>
       </c>
       <c r="H80" t="n">
-        <v>906.2847703317063</v>
+        <v>906.3191151131202</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3929,19 +3961,19 @@
         <v>967462824.34</v>
       </c>
       <c r="D81" t="n">
-        <v>357974757147.4083</v>
+        <v>357980763379.6246</v>
       </c>
       <c r="E81" t="n">
-        <v>370.0139665744961</v>
+        <v>370.0201748049987</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3824106255673205</v>
+        <v>-0.3824002634255129</v>
       </c>
       <c r="G81" t="s">
         <v>87</v>
       </c>
       <c r="H81" t="n">
-        <v>815.7327907101339</v>
+        <v>815.7464773751002</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3952,22 +3984,22 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>999476515.86</v>
+        <v>998046306.48</v>
       </c>
       <c r="D82" t="n">
-        <v>377951104223.7452</v>
+        <v>378151680384.553</v>
       </c>
       <c r="E82" t="n">
-        <v>378.1490592588231</v>
+        <v>378.8919190716237</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.3688323629725925</v>
+        <v>-0.3675924575405734</v>
       </c>
       <c r="G82" t="s">
         <v>88</v>
       </c>
       <c r="H82" t="n">
-        <v>833.6674160420015</v>
+        <v>835.3051247853017</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3978,22 +4010,22 @@
         <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>999319099.4299999</v>
+        <v>999407397.9299998</v>
       </c>
       <c r="D83" t="n">
-        <v>366340793058.276</v>
+        <v>366473523165.7525</v>
       </c>
       <c r="E83" t="n">
-        <v>366.5904046737749</v>
+        <v>366.6908249076428</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3881248840645664</v>
+        <v>-0.3879572729065633</v>
       </c>
       <c r="G83" t="s">
         <v>89</v>
       </c>
       <c r="H83" t="n">
-        <v>808.1852061438042</v>
+        <v>808.4065925913893</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4004,22 +4036,48 @@
         <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>1179648136.09</v>
+        <v>1180122415.04</v>
       </c>
       <c r="D84" t="n">
-        <v>493271862817.041</v>
+        <v>493351446620.6653</v>
       </c>
       <c r="E84" t="n">
-        <v>418.1516909372774</v>
+        <v>418.0510770180933</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.3020640717573379</v>
+        <v>-0.3022320061950116</v>
       </c>
       <c r="G84" t="s">
         <v>90</v>
       </c>
       <c r="H84" t="n">
-        <v>921.8572178403217</v>
+        <v>921.6354043940885</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4</v>
+      </c>
+      <c r="C85" t="n">
+        <v>984234350.35</v>
+      </c>
+      <c r="D85" t="n">
+        <v>344552502391.8779</v>
+      </c>
+      <c r="E85" t="n">
+        <v>350.0716087274873</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.4156963645394658</v>
+      </c>
+      <c r="G85" t="s">
+        <v>91</v>
+      </c>
+      <c r="H85" t="n">
+        <v>771.7678686006186</v>
       </c>
     </row>
   </sheetData>
@@ -4033,7 +4091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I250"/>
+  <dimension ref="A1:I253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4046,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4061,7 +4119,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -4090,7 +4148,7 @@
         <v>0.07726515958654644</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -4119,7 +4177,7 @@
         <v>0.06148124887439917</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -4148,7 +4206,7 @@
         <v>0.04746077038960551</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -4177,7 +4235,7 @@
         <v>0.04727244615802906</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
@@ -4206,7 +4264,7 @@
         <v>0.04871093696407162</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
@@ -4235,7 +4293,7 @@
         <v>0.04304157536165719</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
@@ -4264,7 +4322,7 @@
         <v>0.07078023556064666</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
@@ -4293,7 +4351,7 @@
         <v>0.07532787659744344</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
@@ -4322,7 +4380,7 @@
         <v>0.05259835799380738</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
@@ -4351,7 +4409,7 @@
         <v>0.03553213710629145</v>
       </c>
       <c r="G11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -4380,7 +4438,7 @@
         <v>0.02646669802403197</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -4409,7 +4467,7 @@
         <v>0.01912175729454257</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
@@ -4438,7 +4496,7 @@
         <v>0.01111774538231211</v>
       </c>
       <c r="G14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -4467,7 +4525,7 @@
         <v>0.005018273091192093</v>
       </c>
       <c r="G15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -4496,7 +4554,7 @@
         <v>0.01544195713902331</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -4525,7 +4583,7 @@
         <v>0.003355439027818183</v>
       </c>
       <c r="G17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" t="n">
         <v>2</v>
@@ -4554,7 +4612,7 @@
         <v>0.00536957613039397</v>
       </c>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H18" t="n">
         <v>2</v>
@@ -4583,7 +4641,7 @@
         <v>0.0145689414097139</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
@@ -4612,7 +4670,7 @@
         <v>0.03912865348530959</v>
       </c>
       <c r="G20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
@@ -4641,7 +4699,7 @@
         <v>0.04573043199637251</v>
       </c>
       <c r="G21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
@@ -4670,7 +4728,7 @@
         <v>0.05004182162970362</v>
       </c>
       <c r="G22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
@@ -4699,7 +4757,7 @@
         <v>0.0547357353567896</v>
       </c>
       <c r="G23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H23" t="n">
         <v>4</v>
@@ -4728,7 +4786,7 @@
         <v>0.03397983951034167</v>
       </c>
       <c r="G24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H24" t="n">
         <v>4</v>
@@ -4757,7 +4815,7 @@
         <v>0.03489294255166995</v>
       </c>
       <c r="G25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H25" t="n">
         <v>4</v>
@@ -4786,7 +4844,7 @@
         <v>0.05407231572896915</v>
       </c>
       <c r="G26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -4815,7 +4873,7 @@
         <v>0.0446998960634503</v>
       </c>
       <c r="G27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -4844,7 +4902,7 @@
         <v>0.02564607186253928</v>
       </c>
       <c r="G28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -4873,7 +4931,7 @@
         <v>-0.005255460204990879</v>
       </c>
       <c r="G29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H29" t="n">
         <v>2</v>
@@ -4902,7 +4960,7 @@
         <v>-0.005159282455205773</v>
       </c>
       <c r="G30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H30" t="n">
         <v>2</v>
@@ -4931,7 +4989,7 @@
         <v>0.01662217479072057</v>
       </c>
       <c r="G31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H31" t="n">
         <v>2</v>
@@ -4960,7 +5018,7 @@
         <v>0.03768728145702852</v>
       </c>
       <c r="G32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
@@ -4989,7 +5047,7 @@
         <v>0.04140058597533856</v>
       </c>
       <c r="G33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H33" t="n">
         <v>3</v>
@@ -5018,7 +5076,7 @@
         <v>0.04146258828233757</v>
       </c>
       <c r="G34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H34" t="n">
         <v>3</v>
@@ -5047,7 +5105,7 @@
         <v>0.05070299868862761</v>
       </c>
       <c r="G35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H35" t="n">
         <v>4</v>
@@ -5076,7 +5134,7 @@
         <v>0.04234991120899041</v>
       </c>
       <c r="G36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H36" t="n">
         <v>4</v>
@@ -5105,7 +5163,7 @@
         <v>0.03310887154716038</v>
       </c>
       <c r="G37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H37" t="n">
         <v>4</v>
@@ -5134,7 +5192,7 @@
         <v>0.03014022625659499</v>
       </c>
       <c r="G38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -5163,7 +5221,7 @@
         <v>0.01239560014339367</v>
       </c>
       <c r="G39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -5192,7 +5250,7 @@
         <v>-0.01037094285092945</v>
       </c>
       <c r="G40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -5221,7 +5279,7 @@
         <v>-0.02234624922534889</v>
       </c>
       <c r="G41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H41" t="n">
         <v>2</v>
@@ -5250,7 +5308,7 @@
         <v>-0.01332959283944984</v>
       </c>
       <c r="G42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H42" t="n">
         <v>2</v>
@@ -5279,7 +5337,7 @@
         <v>-0.007522138257441214</v>
       </c>
       <c r="G43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H43" t="n">
         <v>2</v>
@@ -5308,7 +5366,7 @@
         <v>0.002774173076043244</v>
       </c>
       <c r="G44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H44" t="n">
         <v>3</v>
@@ -5337,7 +5395,7 @@
         <v>0.005812723595943646</v>
       </c>
       <c r="G45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H45" t="n">
         <v>3</v>
@@ -5366,7 +5424,7 @@
         <v>-0.0001281622510707689</v>
       </c>
       <c r="G46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H46" t="n">
         <v>3</v>
@@ -5395,7 +5453,7 @@
         <v>0.005798551352125575</v>
       </c>
       <c r="G47" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H47" t="n">
         <v>4</v>
@@ -5424,7 +5482,7 @@
         <v>0.0142697616731208</v>
       </c>
       <c r="G48" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H48" t="n">
         <v>4</v>
@@ -5453,7 +5511,7 @@
         <v>0.006630546904983436</v>
       </c>
       <c r="G49" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H49" t="n">
         <v>4</v>
@@ -5482,7 +5540,7 @@
         <v>0.01135874913719794</v>
       </c>
       <c r="G50" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -5511,7 +5569,7 @@
         <v>0.00158584139446698</v>
       </c>
       <c r="G51" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -5540,7 +5598,7 @@
         <v>0.0004943352228414668</v>
       </c>
       <c r="G52" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -5569,7 +5627,7 @@
         <v>-0.03023291224285088</v>
       </c>
       <c r="G53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H53" t="n">
         <v>2</v>
@@ -5598,7 +5656,7 @@
         <v>-0.03619156271650293</v>
       </c>
       <c r="G54" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H54" t="n">
         <v>2</v>
@@ -5627,7 +5685,7 @@
         <v>-0.007018965988378289</v>
       </c>
       <c r="G55" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
@@ -5656,7 +5714,7 @@
         <v>-0.0008959033638951873</v>
       </c>
       <c r="G56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H56" t="n">
         <v>3</v>
@@ -5685,7 +5743,7 @@
         <v>0.007925452227224232</v>
       </c>
       <c r="G57" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H57" t="n">
         <v>3</v>
@@ -5714,7 +5772,7 @@
         <v>0.01721030590351288</v>
       </c>
       <c r="G58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H58" t="n">
         <v>3</v>
@@ -5743,7 +5801,7 @@
         <v>0.02231843704751483</v>
       </c>
       <c r="G59" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H59" t="n">
         <v>4</v>
@@ -5772,7 +5830,7 @@
         <v>0.002897748801680964</v>
       </c>
       <c r="G60" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H60" t="n">
         <v>4</v>
@@ -5801,7 +5859,7 @@
         <v>0.00389971424966281</v>
       </c>
       <c r="G61" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H61" t="n">
         <v>4</v>
@@ -5830,7 +5888,7 @@
         <v>-0.02748121131636642</v>
       </c>
       <c r="G62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -5859,7 +5917,7 @@
         <v>-0.01857254232013877</v>
       </c>
       <c r="G63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -5888,7 +5946,7 @@
         <v>-0.02435619078134472</v>
       </c>
       <c r="G64" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -5917,7 +5975,7 @@
         <v>-0.06369815302300276</v>
       </c>
       <c r="G65" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H65" t="n">
         <v>2</v>
@@ -5946,7 +6004,7 @@
         <v>-0.05404582225952413</v>
       </c>
       <c r="G66" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H66" t="n">
         <v>2</v>
@@ -5975,7 +6033,7 @@
         <v>-0.04243926553323214</v>
       </c>
       <c r="G67" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H67" t="n">
         <v>2</v>
@@ -6004,7 +6062,7 @@
         <v>-0.01354297585931169</v>
       </c>
       <c r="G68" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H68" t="n">
         <v>3</v>
@@ -6033,7 +6091,7 @@
         <v>-0.004118886890496862</v>
       </c>
       <c r="G69" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H69" t="n">
         <v>3</v>
@@ -6062,7 +6120,7 @@
         <v>-0.01455882450582037</v>
       </c>
       <c r="G70" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H70" t="n">
         <v>3</v>
@@ -6091,7 +6149,7 @@
         <v>0.00439522235340898</v>
       </c>
       <c r="G71" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H71" t="n">
         <v>4</v>
@@ -6120,7 +6178,7 @@
         <v>-0.003746313420402704</v>
       </c>
       <c r="G72" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H72" t="n">
         <v>4</v>
@@ -6149,7 +6207,7 @@
         <v>-0.01605853233048685</v>
       </c>
       <c r="G73" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H73" t="n">
         <v>4</v>
@@ -6178,7 +6236,7 @@
         <v>-0.03511432398711213</v>
       </c>
       <c r="G74" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
@@ -6207,7 +6265,7 @@
         <v>-0.008437620703637254</v>
       </c>
       <c r="G75" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -6236,7 +6294,7 @@
         <v>-0.03117857292861368</v>
       </c>
       <c r="G76" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
@@ -6265,7 +6323,7 @@
         <v>-0.03928361585166878</v>
       </c>
       <c r="G77" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H77" t="n">
         <v>2</v>
@@ -6294,7 +6352,7 @@
         <v>-0.03788195719455209</v>
       </c>
       <c r="G78" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H78" t="n">
         <v>2</v>
@@ -6323,7 +6381,7 @@
         <v>-0.0177532915761511</v>
       </c>
       <c r="G79" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H79" t="n">
         <v>2</v>
@@ -6352,7 +6410,7 @@
         <v>-0.01310236048309173</v>
       </c>
       <c r="G80" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H80" t="n">
         <v>3</v>
@@ -6381,7 +6439,7 @@
         <v>-0.008678539752206496</v>
       </c>
       <c r="G81" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H81" t="n">
         <v>3</v>
@@ -6410,7 +6468,7 @@
         <v>-0.004141764801333879</v>
       </c>
       <c r="G82" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H82" t="n">
         <v>3</v>
@@ -6439,7 +6497,7 @@
         <v>1.642574651693381e-05</v>
       </c>
       <c r="G83" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H83" t="n">
         <v>4</v>
@@ -6468,7 +6526,7 @@
         <v>-0.01470502580322882</v>
       </c>
       <c r="G84" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H84" t="n">
         <v>4</v>
@@ -6497,7 +6555,7 @@
         <v>-0.01552034206631986</v>
       </c>
       <c r="G85" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H85" t="n">
         <v>4</v>
@@ -6526,7 +6584,7 @@
         <v>-0.01703554138701916</v>
       </c>
       <c r="G86" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -6555,7 +6613,7 @@
         <v>-0.01289961080171436</v>
       </c>
       <c r="G87" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -6584,7 +6642,7 @@
         <v>-0.03539719528073028</v>
       </c>
       <c r="G88" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H88" t="n">
         <v>1</v>
@@ -6613,7 +6671,7 @@
         <v>-0.04508011761521417</v>
       </c>
       <c r="G89" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H89" t="n">
         <v>2</v>
@@ -6642,7 +6700,7 @@
         <v>-0.04957830570333151</v>
       </c>
       <c r="G90" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H90" t="n">
         <v>2</v>
@@ -6671,7 +6729,7 @@
         <v>-0.04880070678863985</v>
       </c>
       <c r="G91" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H91" t="n">
         <v>2</v>
@@ -6700,7 +6758,7 @@
         <v>-0.0274894180589785</v>
       </c>
       <c r="G92" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H92" t="n">
         <v>3</v>
@@ -6729,7 +6787,7 @@
         <v>-0.02085837505734224</v>
       </c>
       <c r="G93" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H93" t="n">
         <v>3</v>
@@ -6758,7 +6816,7 @@
         <v>-0.01669978454361145</v>
       </c>
       <c r="G94" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H94" t="n">
         <v>3</v>
@@ -6787,7 +6845,7 @@
         <v>-0.02999219344874965</v>
       </c>
       <c r="G95" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H95" t="n">
         <v>4</v>
@@ -6816,7 +6874,7 @@
         <v>-0.03080314982097817</v>
       </c>
       <c r="G96" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H96" t="n">
         <v>4</v>
@@ -6845,7 +6903,7 @@
         <v>-0.04600766838125035</v>
       </c>
       <c r="G97" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H97" t="n">
         <v>4</v>
@@ -6874,7 +6932,7 @@
         <v>-0.05120162818415125</v>
       </c>
       <c r="G98" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -6903,7 +6961,7 @@
         <v>-0.06946387564298999</v>
       </c>
       <c r="G99" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -6932,7 +6990,7 @@
         <v>-0.1036546461764051</v>
       </c>
       <c r="G100" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -6961,7 +7019,7 @@
         <v>-0.1132003468526878</v>
       </c>
       <c r="G101" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H101" t="n">
         <v>2</v>
@@ -6990,7 +7048,7 @@
         <v>-0.1231526853843904</v>
       </c>
       <c r="G102" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H102" t="n">
         <v>2</v>
@@ -7010,22 +7068,22 @@
         <v>347650324.62</v>
       </c>
       <c r="D103" t="n">
-        <v>187822576661.0665</v>
+        <v>187823373350.6701</v>
       </c>
       <c r="E103" t="n">
-        <v>540.2629117817348</v>
+        <v>540.2652034223494</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.09824854233094853</v>
+        <v>-0.09824471735940328</v>
       </c>
       <c r="G103" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H103" t="n">
         <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>1191.063615314012</v>
+        <v>1191.068667464911</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -7039,22 +7097,22 @@
         <v>372536168.71</v>
       </c>
       <c r="D104" t="n">
-        <v>205753414804.8144</v>
+        <v>205753676346.1634</v>
       </c>
       <c r="E104" t="n">
-        <v>552.3045333216563</v>
+        <v>552.3052353779157</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.07814990231786137</v>
+        <v>-0.07814873051753744</v>
       </c>
       <c r="G104" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H104" t="n">
         <v>3</v>
       </c>
       <c r="I104" t="n">
-        <v>1217.610574160924</v>
+        <v>1217.612121914153</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -7068,22 +7126,22 @@
         <v>381209740.05</v>
       </c>
       <c r="D105" t="n">
-        <v>214336681012.8004</v>
+        <v>214337176403.6855</v>
       </c>
       <c r="E105" t="n">
-        <v>562.2539470914037</v>
+        <v>562.2552466145612</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.06154336099479781</v>
+        <v>-0.06154119196398707</v>
       </c>
       <c r="G105" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H105" t="n">
         <v>3</v>
       </c>
       <c r="I105" t="n">
-        <v>1239.545051757709</v>
+        <v>1239.547916686461</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -7097,22 +7155,22 @@
         <v>327400612.08</v>
       </c>
       <c r="D106" t="n">
-        <v>179515215792.0659</v>
+        <v>179515316602.9657</v>
       </c>
       <c r="E106" t="n">
-        <v>548.3044599446308</v>
+        <v>548.3047678576158</v>
       </c>
       <c r="F106" t="n">
-        <v>-0.08482641466001017</v>
+        <v>-0.08482590072322678</v>
       </c>
       <c r="G106" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H106" t="n">
         <v>3</v>
       </c>
       <c r="I106" t="n">
-        <v>1208.792012393933</v>
+        <v>1208.7926912189</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -7126,22 +7184,22 @@
         <v>307040340.8</v>
       </c>
       <c r="D107" t="n">
-        <v>172462395153.9958</v>
+        <v>172462812254.8413</v>
       </c>
       <c r="E107" t="n">
-        <v>561.6929511758666</v>
+        <v>561.6943096320368</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.06247971785652189</v>
+        <v>-0.06247745046076886</v>
       </c>
       <c r="G107" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H107" t="n">
         <v>4</v>
       </c>
       <c r="I107" t="n">
-        <v>1238.308280162315</v>
+        <v>1238.311275014788</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -7155,22 +7213,22 @@
         <v>296634670.27</v>
       </c>
       <c r="D108" t="n">
-        <v>164145208019.9584</v>
+        <v>164145545243.191</v>
       </c>
       <c r="E108" t="n">
-        <v>553.3581353472664</v>
+        <v>553.3592721774028</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.07639133784549447</v>
+        <v>-0.07638944036519341</v>
       </c>
       <c r="G108" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H108" t="n">
         <v>4</v>
       </c>
       <c r="I108" t="n">
-        <v>1219.933345186584</v>
+        <v>1219.935851442302</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -7184,22 +7242,22 @@
         <v>350506889.56</v>
       </c>
       <c r="D109" t="n">
-        <v>196466356518.4177</v>
+        <v>196466686461.493</v>
       </c>
       <c r="E109" t="n">
-        <v>560.520669836324</v>
+        <v>560.5216111675367</v>
       </c>
       <c r="F109" t="n">
-        <v>-0.06443636967118098</v>
+        <v>-0.0644347984976382</v>
       </c>
       <c r="G109" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H109" t="n">
         <v>4</v>
       </c>
       <c r="I109" t="n">
-        <v>1235.72386872116</v>
+        <v>1235.725943979952</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -7213,22 +7271,22 @@
         <v>360956613.17</v>
       </c>
       <c r="D110" t="n">
-        <v>205687844037.3969</v>
+        <v>205688081787.8271</v>
       </c>
       <c r="E110" t="n">
-        <v>569.8409075567314</v>
+        <v>569.8415662243431</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.0488799844984841</v>
+        <v>-0.04887888511804193</v>
       </c>
       <c r="G110" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>1256.27126479957</v>
+        <v>1256.272716898186</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -7242,22 +7300,22 @@
         <v>319734233.4299999</v>
       </c>
       <c r="D111" t="n">
-        <v>180402628264.474</v>
+        <v>180402904184.7005</v>
       </c>
       <c r="E111" t="n">
-        <v>564.2268152808539</v>
+        <v>564.2276782482739</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.05825045169669583</v>
+        <v>-0.05824901131996075</v>
       </c>
       <c r="G111" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>1243.894436968171</v>
+        <v>1243.896339466145</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -7271,22 +7329,22 @@
         <v>312164702.0099999</v>
       </c>
       <c r="D112" t="n">
-        <v>172558495695.2563</v>
+        <v>172558647376.5381</v>
       </c>
       <c r="E112" t="n">
-        <v>552.7802938133873</v>
+        <v>552.7807797148389</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.07735581168612655</v>
+        <v>-0.07735500066924438</v>
       </c>
       <c r="G112" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>1218.659435740994</v>
+        <v>1218.660506959334</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -7300,22 +7358,22 @@
         <v>287798345.54</v>
       </c>
       <c r="D113" t="n">
-        <v>155008454056.1107</v>
+        <v>155008611498.0153</v>
       </c>
       <c r="E113" t="n">
-        <v>538.6009212987872</v>
+        <v>538.6014683551101</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.1010225664365227</v>
+        <v>-0.1010216533461995</v>
       </c>
       <c r="G113" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H113" t="n">
         <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>1187.399591095306</v>
+        <v>1187.400797135676</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -7329,22 +7387,22 @@
         <v>327910094.61</v>
       </c>
       <c r="D114" t="n">
-        <v>178817816297.0411</v>
+        <v>178818851349.4247</v>
       </c>
       <c r="E114" t="n">
-        <v>545.3257439656385</v>
+        <v>545.3289004783551</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.08979818195601069</v>
+        <v>-0.08979291342863048</v>
       </c>
       <c r="G114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H114" t="n">
         <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>1202.225135146647</v>
+        <v>1202.232093994581</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -7358,22 +7416,22 @@
         <v>375683911.44</v>
       </c>
       <c r="D115" t="n">
-        <v>210397606120.2772</v>
+        <v>210398403830.4635</v>
       </c>
       <c r="E115" t="n">
-        <v>560.0389042847779</v>
+        <v>560.041027639444</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.06524048333304372</v>
+        <v>-0.06523693924714864</v>
       </c>
       <c r="G115" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H115" t="n">
         <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>1234.661768386221</v>
+        <v>1234.666449533918</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -7387,22 +7445,22 @@
         <v>409674502.5</v>
       </c>
       <c r="D116" t="n">
-        <v>235446271241.7267</v>
+        <v>235447374921.7256</v>
       </c>
       <c r="E116" t="n">
-        <v>574.7154626537363</v>
+        <v>574.7181566949619</v>
       </c>
       <c r="F116" t="n">
-        <v>-0.04074387693241805</v>
+        <v>-0.04073938031503192</v>
       </c>
       <c r="G116" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H116" t="n">
         <v>3</v>
       </c>
       <c r="I116" t="n">
-        <v>1267.017708966427</v>
+        <v>1267.023648249713</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -7416,22 +7474,22 @@
         <v>408858106.39</v>
       </c>
       <c r="D117" t="n">
-        <v>235953672054.434</v>
+        <v>235954627016.9233</v>
       </c>
       <c r="E117" t="n">
-        <v>577.1040572920998</v>
+        <v>577.1063929740258</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.03675707967139325</v>
+        <v>-0.03675318119060648</v>
       </c>
       <c r="G117" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H117" t="n">
         <v>3</v>
       </c>
       <c r="I117" t="n">
-        <v>1272.283604706163</v>
+        <v>1272.288753950537</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -7445,22 +7503,22 @@
         <v>346030469.09</v>
       </c>
       <c r="D118" t="n">
-        <v>192387018325.9861</v>
+        <v>192387873451.8921</v>
       </c>
       <c r="E118" t="n">
-        <v>555.9828844897113</v>
+        <v>555.9853557342473</v>
       </c>
       <c r="F118" t="n">
-        <v>-0.07201037569984288</v>
+        <v>-0.07200625095184729</v>
       </c>
       <c r="G118" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H118" t="n">
         <v>3</v>
       </c>
       <c r="I118" t="n">
-        <v>1225.719867146017</v>
+        <v>1225.725315251721</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -7474,22 +7532,22 @@
         <v>307917314.77</v>
       </c>
       <c r="D119" t="n">
-        <v>168249249187.4954</v>
+        <v>168249685477.1116</v>
       </c>
       <c r="E119" t="n">
-        <v>546.4104846236718</v>
+        <v>546.4119015287799</v>
       </c>
       <c r="F119" t="n">
-        <v>-0.08798764407113459</v>
+        <v>-0.08798527911840713</v>
       </c>
       <c r="G119" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H119" t="n">
         <v>4</v>
       </c>
       <c r="I119" t="n">
-        <v>1204.616554401347</v>
+        <v>1204.619678110349</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -7503,22 +7561,22 @@
         <v>306009629.3000001</v>
       </c>
       <c r="D120" t="n">
-        <v>166291694530.127</v>
+        <v>166291905970.3867</v>
       </c>
       <c r="E120" t="n">
-        <v>543.4198097312195</v>
+        <v>543.4205006907166</v>
       </c>
       <c r="F120" t="n">
-        <v>-0.09297937195930114</v>
+        <v>-0.09297821868055464</v>
       </c>
       <c r="G120" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H120" t="n">
         <v>4</v>
       </c>
       <c r="I120" t="n">
-        <v>1198.023312533446</v>
+        <v>1198.024835822754</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -7532,22 +7590,22 @@
         <v>362113711.3999999</v>
       </c>
       <c r="D121" t="n">
-        <v>202007198445.6627</v>
+        <v>202007491738.4761</v>
       </c>
       <c r="E121" t="n">
-        <v>557.8557013614997</v>
+        <v>557.8565113082216</v>
       </c>
       <c r="F121" t="n">
-        <v>-0.06888446180263902</v>
+        <v>-0.06888310992261693</v>
       </c>
       <c r="G121" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H121" t="n">
         <v>4</v>
       </c>
       <c r="I121" t="n">
-        <v>1229.848679221562</v>
+        <v>1229.850464830105</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -7561,22 +7619,22 @@
         <v>362865132.9</v>
       </c>
       <c r="D122" t="n">
-        <v>203970032594.0529</v>
+        <v>203970802561.6239</v>
       </c>
       <c r="E122" t="n">
-        <v>562.1097595239712</v>
+        <v>562.11188143512</v>
       </c>
       <c r="F122" t="n">
-        <v>-0.06178402409839879</v>
+        <v>-0.06178048242187467</v>
       </c>
       <c r="G122" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H122" t="n">
         <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>1239.227175846547</v>
+        <v>1239.231853811865</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -7590,22 +7648,22 @@
         <v>313122356.86</v>
       </c>
       <c r="D123" t="n">
-        <v>168821743140.7057</v>
+        <v>168822260561.6639</v>
       </c>
       <c r="E123" t="n">
-        <v>539.1558266029132</v>
+        <v>539.157479059044</v>
       </c>
       <c r="F123" t="n">
-        <v>-0.1000963753988781</v>
+        <v>-0.1000936172885355</v>
       </c>
       <c r="G123" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H123" t="n">
         <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>1188.622935328782</v>
+        <v>1188.626578333569</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -7619,22 +7677,22 @@
         <v>318705015.71</v>
       </c>
       <c r="D124" t="n">
-        <v>166277422946.1941</v>
+        <v>166277310847.087</v>
       </c>
       <c r="E124" t="n">
-        <v>521.7282902679361</v>
+        <v>521.727938534824</v>
       </c>
       <c r="F124" t="n">
-        <v>-0.129184632154868</v>
+        <v>-0.1291852192317147</v>
       </c>
       <c r="G124" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H124" t="n">
         <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>1150.202188724693</v>
+        <v>1150.201413293873</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -7648,22 +7706,22 @@
         <v>302394150.64</v>
       </c>
       <c r="D125" t="n">
-        <v>156726815855.7531</v>
+        <v>156726924850.3661</v>
       </c>
       <c r="E125" t="n">
-        <v>518.2865327389756</v>
+        <v>518.2868931778688</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.1349292609291222</v>
+        <v>-0.1349286593214785</v>
       </c>
       <c r="G125" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H125" t="n">
         <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>1142.614490076345</v>
+        <v>1142.61528469993</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -7677,22 +7735,22 @@
         <v>323619082.25</v>
       </c>
       <c r="D126" t="n">
-        <v>173340771072.8734</v>
+        <v>173340967052.8914</v>
       </c>
       <c r="E126" t="n">
-        <v>535.6321075620795</v>
+        <v>535.6327131506516</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.1059778059250063</v>
+        <v>-0.1059767951386544</v>
       </c>
       <c r="G126" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H126" t="n">
         <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>1180.854544331361</v>
+        <v>1180.855879411927</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -7706,22 +7764,22 @@
         <v>367688547.46</v>
       </c>
       <c r="D127" t="n">
-        <v>202446468337.0787</v>
+        <v>202446825414.9557</v>
       </c>
       <c r="E127" t="n">
-        <v>550.5922600406867</v>
+        <v>550.5932311829195</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.081007853314257</v>
+        <v>-0.08100623238321605</v>
       </c>
       <c r="G127" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H127" t="n">
         <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>1213.835696485698</v>
+        <v>1213.837837465865</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -7735,22 +7793,22 @@
         <v>418612133.8499998</v>
       </c>
       <c r="D128" t="n">
-        <v>235295300529.2916</v>
+        <v>235296073857.9819</v>
       </c>
       <c r="E128" t="n">
-        <v>562.0842816123536</v>
+        <v>562.0861289756472</v>
       </c>
       <c r="F128" t="n">
-        <v>-0.06182654921614888</v>
+        <v>-0.06182346578675463</v>
       </c>
       <c r="G128" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H128" t="n">
         <v>3</v>
       </c>
       <c r="I128" t="n">
-        <v>1239.171007242595</v>
+        <v>1239.175079939712</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -7764,22 +7822,22 @@
         <v>406478445.41</v>
       </c>
       <c r="D129" t="n">
-        <v>229004952678.6902</v>
+        <v>229005348976.8833</v>
       </c>
       <c r="E129" t="n">
-        <v>563.3876906995678</v>
+        <v>563.3886656545685</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.05965103240997342</v>
+        <v>-0.05964940511505106</v>
       </c>
       <c r="G129" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H129" t="n">
         <v>3</v>
       </c>
       <c r="I129" t="n">
-        <v>1242.044502916267</v>
+        <v>1242.046652302062</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -7793,22 +7851,22 @@
         <v>337918985.3799999</v>
       </c>
       <c r="D130" t="n">
-        <v>184166792742.8381</v>
+        <v>184167405646.8005</v>
       </c>
       <c r="E130" t="n">
-        <v>545.0027986315629</v>
+        <v>545.0046123916321</v>
       </c>
       <c r="F130" t="n">
-        <v>-0.0903372091951556</v>
+        <v>-0.09033418185281776</v>
       </c>
       <c r="G130" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H130" t="n">
         <v>3</v>
       </c>
       <c r="I130" t="n">
-        <v>1201.513169863144</v>
+        <v>1201.517168478593</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -7822,22 +7880,22 @@
         <v>308690960.48</v>
       </c>
       <c r="D131" t="n">
-        <v>162576384333.1169</v>
+        <v>162576625042.7836</v>
       </c>
       <c r="E131" t="n">
-        <v>526.6638973824116</v>
+        <v>526.6646771579724</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.1209466228210752</v>
+        <v>-0.1209453212996621</v>
       </c>
       <c r="G131" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H131" t="n">
         <v>4</v>
       </c>
       <c r="I131" t="n">
-        <v>1161.083228169265</v>
+        <v>1161.084947262465</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -7851,22 +7909,22 @@
         <v>304077507.2000002</v>
       </c>
       <c r="D132" t="n">
-        <v>155600242336.1722</v>
+        <v>155600527394.4702</v>
       </c>
       <c r="E132" t="n">
-        <v>511.7124372958954</v>
+        <v>511.7133747486542</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.1459020669822017</v>
+        <v>-0.1459005022821765</v>
       </c>
       <c r="G132" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H132" t="n">
         <v>4</v>
       </c>
       <c r="I132" t="n">
-        <v>1128.121239262531</v>
+        <v>1128.123305970883</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -7880,22 +7938,22 @@
         <v>335731823.55</v>
       </c>
       <c r="D133" t="n">
-        <v>172009768114.3549</v>
+        <v>172009999763.9681</v>
       </c>
       <c r="E133" t="n">
-        <v>512.3427570718145</v>
+        <v>512.3434470558938</v>
       </c>
       <c r="F133" t="n">
-        <v>-0.1448500018406984</v>
+        <v>-0.1448488501900193</v>
       </c>
       <c r="G133" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H133" t="n">
         <v>4</v>
       </c>
       <c r="I133" t="n">
-        <v>1129.510842240522</v>
+        <v>1129.512363379424</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -7909,22 +7967,22 @@
         <v>339519951.19</v>
       </c>
       <c r="D134" t="n">
-        <v>169734438812.2214</v>
+        <v>169734536722.8517</v>
       </c>
       <c r="E134" t="n">
-        <v>499.9247856195517</v>
+        <v>499.9250739991594</v>
       </c>
       <c r="F134" t="n">
-        <v>-0.1655768065392497</v>
+        <v>-0.1655763252055769</v>
       </c>
       <c r="G134" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H134" t="n">
         <v>1</v>
       </c>
       <c r="I134" t="n">
-        <v>1102.134182376863</v>
+        <v>1102.134818138547</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -7938,22 +7996,22 @@
         <v>309384961.71</v>
       </c>
       <c r="D135" t="n">
-        <v>154054695430.4365</v>
+        <v>154054858254.668</v>
       </c>
       <c r="E135" t="n">
-        <v>497.9385377329318</v>
+        <v>497.9390640165321</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.1688920478560091</v>
+        <v>-0.1688911694373849</v>
       </c>
       <c r="G135" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H135" t="n">
         <v>1</v>
       </c>
       <c r="I135" t="n">
-        <v>1097.755300286022</v>
+        <v>1097.756460530847</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -7967,22 +8025,22 @@
         <v>309075795.9899999</v>
       </c>
       <c r="D136" t="n">
-        <v>147609161145.5621</v>
+        <v>147609417440.662</v>
       </c>
       <c r="E136" t="n">
-        <v>477.5824023125317</v>
+        <v>477.5832315431063</v>
       </c>
       <c r="F136" t="n">
-        <v>-0.20286842192788</v>
+        <v>-0.2028670378612283</v>
       </c>
       <c r="G136" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H136" t="n">
         <v>1</v>
       </c>
       <c r="I136" t="n">
-        <v>1052.878164138207</v>
+        <v>1052.879992259932</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -7996,22 +8054,22 @@
         <v>295221056.51</v>
       </c>
       <c r="D137" t="n">
-        <v>139128285205.2409</v>
+        <v>139128595180.2739</v>
       </c>
       <c r="E137" t="n">
-        <v>471.2681637616462</v>
+        <v>471.2692137376764</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.2134075015003669</v>
+        <v>-0.2134057489880342</v>
       </c>
       <c r="G137" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H137" t="n">
         <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>1038.957793828925</v>
+        <v>1038.960108606082</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -8025,22 +8083,22 @@
         <v>336496354.22</v>
       </c>
       <c r="D138" t="n">
-        <v>166326484667.5091</v>
+        <v>166326891834.682</v>
       </c>
       <c r="E138" t="n">
-        <v>494.2891136311255</v>
+        <v>494.2903236506929</v>
       </c>
       <c r="F138" t="n">
-        <v>-0.1749832923810191</v>
+        <v>-0.1749812727404239</v>
       </c>
       <c r="G138" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H138" t="n">
         <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>1089.709779911179</v>
+        <v>1089.712447520318</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -8054,22 +8112,22 @@
         <v>360809732.69</v>
       </c>
       <c r="D139" t="n">
-        <v>187032170649.1002</v>
+        <v>187032531635.1288</v>
       </c>
       <c r="E139" t="n">
-        <v>518.3678645658772</v>
+        <v>518.3688650544891</v>
       </c>
       <c r="F139" t="n">
-        <v>-0.1347935101828394</v>
+        <v>-0.1347918402698311</v>
       </c>
       <c r="G139" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H139" t="n">
         <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>1142.793794221933</v>
+        <v>1142.795999899127</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -8083,22 +8141,22 @@
         <v>414625850.72</v>
       </c>
       <c r="D140" t="n">
-        <v>227083594101.9289</v>
+        <v>227083891019.8524</v>
       </c>
       <c r="E140" t="n">
-        <v>547.6831550845105</v>
+        <v>547.6838711950065</v>
       </c>
       <c r="F140" t="n">
-        <v>-0.08586343302838688</v>
+        <v>-0.08586223777017178</v>
       </c>
       <c r="G140" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H140" t="n">
         <v>3</v>
       </c>
       <c r="I140" t="n">
-        <v>1207.422283699312</v>
+        <v>1207.423862436512</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -8112,22 +8170,22 @@
         <v>395684385.83</v>
       </c>
       <c r="D141" t="n">
-        <v>214345970118.8399</v>
+        <v>214346496985.4053</v>
       </c>
       <c r="E141" t="n">
-        <v>541.7094477185926</v>
+        <v>541.7107792509561</v>
       </c>
       <c r="F141" t="n">
-        <v>-0.09583413286254644</v>
+        <v>-0.09583191040525134</v>
       </c>
       <c r="G141" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H141" t="n">
         <v>3</v>
       </c>
       <c r="I141" t="n">
-        <v>1194.25264844041</v>
+        <v>1194.255583936658</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -8141,22 +8199,22 @@
         <v>334570440.0700001</v>
       </c>
       <c r="D142" t="n">
-        <v>176148714708.0052</v>
+        <v>176148922508.6397</v>
       </c>
       <c r="E142" t="n">
-        <v>526.4921631186266</v>
+        <v>526.4927842154411</v>
       </c>
       <c r="F142" t="n">
-        <v>-0.1212332640457878</v>
+        <v>-0.1212322273746679</v>
       </c>
       <c r="G142" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H142" t="n">
         <v>3</v>
       </c>
       <c r="I142" t="n">
-        <v>1160.704622811324</v>
+        <v>1160.705992081362</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -8170,22 +8228,22 @@
         <v>311632557.66</v>
       </c>
       <c r="D143" t="n">
-        <v>162602697950.1775</v>
+        <v>162602893398.5852</v>
       </c>
       <c r="E143" t="n">
-        <v>521.7769900909445</v>
+        <v>521.7776172667734</v>
       </c>
       <c r="F143" t="n">
-        <v>-0.1291033474036325</v>
+        <v>-0.129102300586045</v>
       </c>
       <c r="G143" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H143" t="n">
         <v>4</v>
       </c>
       <c r="I143" t="n">
-        <v>1150.309552354496</v>
+        <v>1150.310935026329</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -8199,22 +8257,22 @@
         <v>305948951.2600001</v>
       </c>
       <c r="D144" t="n">
-        <v>164243674018.5031</v>
+        <v>164243839159.6844</v>
       </c>
       <c r="E144" t="n">
-        <v>536.8335905127074</v>
+        <v>536.8341302798174</v>
       </c>
       <c r="F144" t="n">
-        <v>-0.103972413775247</v>
+        <v>-0.1039715128513308</v>
       </c>
       <c r="G144" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H144" t="n">
         <v>4</v>
       </c>
       <c r="I144" t="n">
-        <v>1183.503333644315</v>
+        <v>1183.504523614885</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -8228,22 +8286,22 @@
         <v>334622413</v>
       </c>
       <c r="D145" t="n">
-        <v>170474464636.749</v>
+        <v>170474613019.5073</v>
       </c>
       <c r="E145" t="n">
-        <v>509.4532165624811</v>
+        <v>509.4536599958928</v>
       </c>
       <c r="F145" t="n">
-        <v>-0.1496729265861562</v>
+        <v>-0.1496721864525716</v>
       </c>
       <c r="G145" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H145" t="n">
         <v>4</v>
       </c>
       <c r="I145" t="n">
-        <v>1123.140561233646</v>
+        <v>1123.141538826946</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -8257,22 +8315,22 @@
         <v>348951748.99</v>
       </c>
       <c r="D146" t="n">
-        <v>177999708560.7287</v>
+        <v>177999928676.3955</v>
       </c>
       <c r="E146" t="n">
-        <v>510.0983418937661</v>
+        <v>510.0989726848927</v>
       </c>
       <c r="F146" t="n">
-        <v>-0.1485961495296913</v>
+        <v>-0.1485950966778196</v>
       </c>
       <c r="G146" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H146" t="n">
         <v>1</v>
       </c>
       <c r="I146" t="n">
-        <v>1124.562804538997</v>
+        <v>1124.564195181114</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -8286,22 +8344,22 @@
         <v>309705590.7599999</v>
       </c>
       <c r="D147" t="n">
-        <v>158588287421.831</v>
+        <v>158588364354.7224</v>
       </c>
       <c r="E147" t="n">
-        <v>512.0614291549092</v>
+        <v>512.0616775614399</v>
       </c>
       <c r="F147" t="n">
-        <v>-0.1453195655542535</v>
+        <v>-0.1453191509395424</v>
       </c>
       <c r="G147" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H147" t="n">
         <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>1128.890626714913</v>
+        <v>1128.89117435195</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -8315,22 +8373,22 @@
         <v>325393208.8899999</v>
       </c>
       <c r="D148" t="n">
-        <v>167928500860.7761</v>
+        <v>167928625170.4811</v>
       </c>
       <c r="E148" t="n">
-        <v>516.0786896371421</v>
+        <v>516.0790716663355</v>
       </c>
       <c r="F148" t="n">
-        <v>-0.1386143662583348</v>
+        <v>-0.1386137286143759</v>
       </c>
       <c r="G148" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H148" t="n">
         <v>1</v>
       </c>
       <c r="I148" t="n">
-        <v>1137.747079174044</v>
+        <v>1137.747921395603</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -8344,22 +8402,22 @@
         <v>299325789.0400001</v>
       </c>
       <c r="D149" t="n">
-        <v>146673998520.0559</v>
+        <v>146674043081.8756</v>
       </c>
       <c r="E149" t="n">
-        <v>490.0145723843906</v>
+        <v>490.0147212583644</v>
       </c>
       <c r="F149" t="n">
-        <v>-0.1821179183493233</v>
+        <v>-0.1821176698641508</v>
       </c>
       <c r="G149" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H149" t="n">
         <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>1080.286126278628</v>
+        <v>1080.28645448619</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -8373,22 +8431,22 @@
         <v>322147299.96</v>
       </c>
       <c r="D150" t="n">
-        <v>159156313454.5765</v>
+        <v>159156379042.2159</v>
       </c>
       <c r="E150" t="n">
-        <v>494.0482613833437</v>
+        <v>494.0484649785296</v>
       </c>
       <c r="F150" t="n">
-        <v>-0.1753852982577576</v>
+        <v>-0.1753849584375484</v>
       </c>
       <c r="G150" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H150" t="n">
         <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>1089.178797045719</v>
+        <v>1089.179245891666</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -8402,22 +8460,22 @@
         <v>356813537.61</v>
       </c>
       <c r="D151" t="n">
-        <v>185587198460.9224</v>
+        <v>185587408276.4142</v>
       </c>
       <c r="E151" t="n">
-        <v>520.123759047984</v>
+        <v>520.1243470735764</v>
       </c>
       <c r="F151" t="n">
-        <v>-0.1318627511501101</v>
+        <v>-0.1318617696780832</v>
       </c>
       <c r="G151" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H151" t="n">
         <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>1146.664839197186</v>
+        <v>1146.666135558406</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -8431,22 +8489,22 @@
         <v>394834714.98</v>
       </c>
       <c r="D152" t="n">
-        <v>210500407732.055</v>
+        <v>210500689335.7936</v>
       </c>
       <c r="E152" t="n">
-        <v>533.1355115081958</v>
+        <v>533.1362247274949</v>
       </c>
       <c r="F152" t="n">
-        <v>-0.1101448680751284</v>
+        <v>-0.1101436776426027</v>
       </c>
       <c r="G152" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H152" t="n">
         <v>3</v>
       </c>
       <c r="I152" t="n">
-        <v>1175.350548670968</v>
+        <v>1175.352121034235</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -8460,22 +8518,22 @@
         <v>385278253.21</v>
       </c>
       <c r="D153" t="n">
-        <v>206347388234.6623</v>
+        <v>206347605443.7094</v>
       </c>
       <c r="E153" t="n">
-        <v>535.5801593145993</v>
+        <v>535.5807230864846</v>
       </c>
       <c r="F153" t="n">
-        <v>-0.1060645126133002</v>
+        <v>-0.1060635716230746</v>
       </c>
       <c r="G153" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H153" t="n">
         <v>3</v>
       </c>
       <c r="I153" t="n">
-        <v>1180.740019224965</v>
+        <v>1180.741262116464</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -8489,22 +8547,22 @@
         <v>340934163.78</v>
       </c>
       <c r="D154" t="n">
-        <v>181077104018.6407</v>
+        <v>181077213848.7708</v>
       </c>
       <c r="E154" t="n">
-        <v>531.1204427594039</v>
+        <v>531.1207649040928</v>
       </c>
       <c r="F154" t="n">
-        <v>-0.1135082142199412</v>
+        <v>-0.1135076765290571</v>
       </c>
       <c r="G154" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H154" t="n">
         <v>3</v>
       </c>
       <c r="I154" t="n">
-        <v>1170.908128107382</v>
+        <v>1170.908838307563</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -8518,22 +8576,22 @@
         <v>314919872.74</v>
       </c>
       <c r="D155" t="n">
-        <v>161903855884.8929</v>
+        <v>161903933886.4478</v>
       </c>
       <c r="E155" t="n">
-        <v>514.1112705153473</v>
+        <v>514.1115182023359</v>
       </c>
       <c r="F155" t="n">
-        <v>-0.1418981805314145</v>
+        <v>-0.1418977671176893</v>
       </c>
       <c r="G155" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H155" t="n">
         <v>4</v>
       </c>
       <c r="I155" t="n">
-        <v>1133.409706978135</v>
+        <v>1133.41025302887</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -8547,22 +8605,22 @@
         <v>314531737.97</v>
       </c>
       <c r="D156" t="n">
-        <v>158505443693.3833</v>
+        <v>158505502155.0869</v>
       </c>
       <c r="E156" t="n">
-        <v>503.9410163069189</v>
+        <v>503.9412021759317</v>
       </c>
       <c r="F156" t="n">
-        <v>-0.1588733260713331</v>
+        <v>-0.1588730158378348</v>
       </c>
       <c r="G156" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H156" t="n">
         <v>4</v>
       </c>
       <c r="I156" t="n">
-        <v>1110.988364550233</v>
+        <v>1110.988774317059</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -8576,22 +8634,22 @@
         <v>353002655.21</v>
       </c>
       <c r="D157" t="n">
-        <v>183251939242.2751</v>
+        <v>183252027823.4179</v>
       </c>
       <c r="E157" t="n">
-        <v>519.1234018714651</v>
+        <v>519.1236528076595</v>
       </c>
       <c r="F157" t="n">
-        <v>-0.1335324447797183</v>
+        <v>-0.1335320259427519</v>
       </c>
       <c r="G157" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H157" t="n">
         <v>4</v>
       </c>
       <c r="I157" t="n">
-        <v>1144.459451765832</v>
+        <v>1144.460004979766</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -8605,22 +8663,22 @@
         <v>377861589.5399998</v>
       </c>
       <c r="D158" t="n">
-        <v>200032256825.3429</v>
+        <v>200032386521.9106</v>
       </c>
       <c r="E158" t="n">
-        <v>529.3797050630565</v>
+        <v>529.3800483013516</v>
       </c>
       <c r="F158" t="n">
-        <v>-0.1164136750999487</v>
+        <v>-0.1164131022017796</v>
       </c>
       <c r="G158" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H158" t="n">
         <v>1</v>
       </c>
       <c r="I158" t="n">
-        <v>1167.070497782014</v>
+        <v>1167.07125448516</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -8634,22 +8692,22 @@
         <v>324985289.5199999</v>
       </c>
       <c r="D159" t="n">
-        <v>176727486831.2576</v>
+        <v>176727567180.6065</v>
       </c>
       <c r="E159" t="n">
-        <v>543.8014966532251</v>
+        <v>543.8017438931817</v>
       </c>
       <c r="F159" t="n">
-        <v>-0.09234229928452396</v>
+        <v>-0.0923418866169386</v>
       </c>
       <c r="G159" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H159" t="n">
         <v>1</v>
       </c>
       <c r="I159" t="n">
-        <v>1198.8647795217</v>
+        <v>1198.865324586909</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -8663,22 +8721,22 @@
         <v>332711530.58</v>
       </c>
       <c r="D160" t="n">
-        <v>171332935342.5682</v>
+        <v>171333104193.2277</v>
       </c>
       <c r="E160" t="n">
-        <v>514.9594155750832</v>
+        <v>514.9599230737538</v>
       </c>
       <c r="F160" t="n">
-        <v>-0.1404825437604039</v>
+        <v>-0.1404816966956581</v>
       </c>
       <c r="G160" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H160" t="n">
         <v>1</v>
       </c>
       <c r="I160" t="n">
-        <v>1135.279527576829</v>
+        <v>1135.280646408398</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -8692,22 +8750,22 @@
         <v>298601618.17</v>
       </c>
       <c r="D161" t="n">
-        <v>143487497788.6957</v>
+        <v>143487509069.5375</v>
       </c>
       <c r="E161" t="n">
-        <v>480.5315479134658</v>
+        <v>480.5315856923692</v>
       </c>
       <c r="F161" t="n">
-        <v>-0.1979460104750002</v>
+        <v>-0.197945947418328</v>
       </c>
       <c r="G161" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H161" t="n">
         <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>1059.379850530027</v>
+        <v>1059.379933817397</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -8721,22 +8779,22 @@
         <v>325778684.8</v>
       </c>
       <c r="D162" t="n">
-        <v>159671732517.4369</v>
+        <v>159671913180.5483</v>
       </c>
       <c r="E162" t="n">
-        <v>490.1233259489077</v>
+        <v>490.1238805067099</v>
       </c>
       <c r="F162" t="n">
-        <v>-0.1819363980502405</v>
+        <v>-0.1819354724392175</v>
       </c>
       <c r="G162" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H162" t="n">
         <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>1080.525884386962</v>
+        <v>1080.527106965093</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -8750,22 +8808,22 @@
         <v>358924166.51</v>
       </c>
       <c r="D163" t="n">
-        <v>183226012558.4901</v>
+        <v>183226117684.8676</v>
       </c>
       <c r="E163" t="n">
-        <v>510.4866979008094</v>
+        <v>510.4869907938136</v>
       </c>
       <c r="F163" t="n">
-        <v>-0.147947945501969</v>
+        <v>-0.1479474566349976</v>
       </c>
       <c r="G163" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H163" t="n">
         <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>1125.418974192125</v>
+        <v>1125.419619904042</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -8779,22 +8837,22 @@
         <v>386910613.85</v>
       </c>
       <c r="D164" t="n">
-        <v>203172379920.1956</v>
+        <v>203172701290.3755</v>
       </c>
       <c r="E164" t="n">
-        <v>525.1145164990556</v>
+        <v>525.115347104804</v>
       </c>
       <c r="F164" t="n">
-        <v>-0.1235326905291902</v>
+        <v>-0.1235313041672395</v>
       </c>
       <c r="G164" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H164" t="n">
         <v>3</v>
       </c>
       <c r="I164" t="n">
-        <v>1157.667463073818</v>
+        <v>1157.669294227251</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -8808,22 +8866,22 @@
         <v>385462867.6000001</v>
       </c>
       <c r="D165" t="n">
-        <v>205242936446.5303</v>
+        <v>205243149230.3304</v>
       </c>
       <c r="E165" t="n">
-        <v>532.4583862628075</v>
+        <v>532.4589382843328</v>
       </c>
       <c r="F165" t="n">
-        <v>-0.1112750561071732</v>
+        <v>-0.1112741347294435</v>
       </c>
       <c r="G165" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H165" t="n">
         <v>3</v>
       </c>
       <c r="I165" t="n">
-        <v>1173.857758354985</v>
+        <v>1173.85897534164</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -8837,22 +8895,22 @@
         <v>340917245.2</v>
       </c>
       <c r="D166" t="n">
-        <v>175078882409.984</v>
+        <v>175079137339.7709</v>
       </c>
       <c r="E166" t="n">
-        <v>513.5524379450898</v>
+        <v>513.5531857212451</v>
       </c>
       <c r="F166" t="n">
-        <v>-0.1428309265590121</v>
+        <v>-0.1428296784477253</v>
       </c>
       <c r="G166" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H166" t="n">
         <v>3</v>
       </c>
       <c r="I166" t="n">
-        <v>1132.177704693745</v>
+        <v>1132.179353241057</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -8866,22 +8924,22 @@
         <v>315460977.88</v>
       </c>
       <c r="D167" t="n">
-        <v>154941566540.2584</v>
+        <v>154941725886.3438</v>
       </c>
       <c r="E167" t="n">
-        <v>491.159215892615</v>
+        <v>491.1597210139978</v>
       </c>
       <c r="F167" t="n">
-        <v>-0.1802073967689159</v>
+        <v>-0.1802065536720951</v>
       </c>
       <c r="G167" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H167" t="n">
         <v>4</v>
       </c>
       <c r="I167" t="n">
-        <v>1082.809607356859</v>
+        <v>1082.810720947459</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -8895,22 +8953,22 @@
         <v>318272469.29</v>
       </c>
       <c r="D168" t="n">
-        <v>156260369449.2323</v>
+        <v>156260482729.3857</v>
       </c>
       <c r="E168" t="n">
-        <v>490.9641408753224</v>
+        <v>490.9644967972585</v>
       </c>
       <c r="F168" t="n">
-        <v>-0.1805329959861901</v>
+        <v>-0.180532401917788</v>
       </c>
       <c r="G168" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H168" t="n">
         <v>4</v>
       </c>
       <c r="I168" t="n">
-        <v>1082.379544973736</v>
+        <v>1082.380329639236</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -8924,22 +8982,22 @@
         <v>338704380.65</v>
       </c>
       <c r="D169" t="n">
-        <v>165162885979.7187</v>
+        <v>165163093037.369</v>
       </c>
       <c r="E169" t="n">
-        <v>487.6313842258498</v>
+        <v>487.6319955484725</v>
       </c>
       <c r="F169" t="n">
-        <v>-0.1860956916685698</v>
+        <v>-0.1860946713115287</v>
       </c>
       <c r="G169" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H169" t="n">
         <v>4</v>
       </c>
       <c r="I169" t="n">
-        <v>1075.032149664308</v>
+        <v>1075.033497386162</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -8953,22 +9011,22 @@
         <v>361185053.4499999</v>
       </c>
       <c r="D170" t="n">
-        <v>177381397294.9471</v>
+        <v>177381526458.9975</v>
       </c>
       <c r="E170" t="n">
-        <v>491.1094620350966</v>
+        <v>491.1098196469334</v>
       </c>
       <c r="F170" t="n">
-        <v>-0.1802904408064825</v>
+        <v>-0.1802898439174715</v>
       </c>
       <c r="G170" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H170" t="n">
         <v>1</v>
       </c>
       <c r="I170" t="n">
-        <v>1082.699920002574</v>
+        <v>1082.70070839363</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -8982,22 +9040,22 @@
         <v>335253888.05</v>
       </c>
       <c r="D171" t="n">
-        <v>169388544375.1641</v>
+        <v>169388667804.9001</v>
       </c>
       <c r="E171" t="n">
-        <v>505.2545262350586</v>
+        <v>505.2548944030063</v>
       </c>
       <c r="F171" t="n">
-        <v>-0.1566809499771525</v>
+        <v>-0.1566803354689635</v>
       </c>
       <c r="G171" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H171" t="n">
         <v>1</v>
       </c>
       <c r="I171" t="n">
-        <v>1113.88412853781</v>
+        <v>1113.884940200868</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -9011,22 +9069,22 @@
         <v>325304689.81</v>
       </c>
       <c r="D172" t="n">
-        <v>151998042172.5847</v>
+        <v>151998050662.9263</v>
       </c>
       <c r="E172" t="n">
-        <v>467.2482350665212</v>
+        <v>467.2482611661807</v>
       </c>
       <c r="F172" t="n">
-        <v>-0.2201171543036653</v>
+        <v>-0.22011711074079</v>
       </c>
       <c r="G172" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H172" t="n">
         <v>1</v>
       </c>
       <c r="I172" t="n">
-        <v>1030.095459027653</v>
+        <v>1030.095516566962</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -9040,22 +9098,22 @@
         <v>295376328.1800001</v>
       </c>
       <c r="D173" t="n">
-        <v>130322853803.3778</v>
+        <v>130322897279.2974</v>
       </c>
       <c r="E173" t="n">
-        <v>441.2095397298056</v>
+        <v>441.2096869180377</v>
       </c>
       <c r="F173" t="n">
-        <v>-0.2635782747389874</v>
+        <v>-0.2635780290674819</v>
       </c>
       <c r="G173" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H173" t="n">
         <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>972.6905512883293</v>
+        <v>972.6908757795061</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -9069,22 +9127,22 @@
         <v>323458048.41</v>
       </c>
       <c r="D174" t="n">
-        <v>152479011005.2403</v>
+        <v>152479221160.9263</v>
       </c>
       <c r="E174" t="n">
-        <v>471.4027421941443</v>
+        <v>471.4033919095775</v>
       </c>
       <c r="F174" t="n">
-        <v>-0.2131828769795464</v>
+        <v>-0.2131817925411625</v>
       </c>
       <c r="G174" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H174" t="n">
         <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>1039.254485441211</v>
+        <v>1039.255917803855</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -9098,22 +9156,22 @@
         <v>363790187.78</v>
       </c>
       <c r="D175" t="n">
-        <v>182928189560.0399</v>
+        <v>182928408159.8011</v>
       </c>
       <c r="E175" t="n">
-        <v>502.839811805657</v>
+        <v>502.8404127008118</v>
       </c>
       <c r="F175" t="n">
-        <v>-0.1607113437152425</v>
+        <v>-0.1607103407626615</v>
       </c>
       <c r="G175" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H175" t="n">
         <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>1108.560649106751</v>
+        <v>1108.56197384021</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -9127,22 +9185,22 @@
         <v>401877547.1200001</v>
       </c>
       <c r="D176" t="n">
-        <v>206002286083.7047</v>
+        <v>206002663787.3329</v>
       </c>
       <c r="E176" t="n">
-        <v>512.599640263537</v>
+        <v>512.6005801110875</v>
       </c>
       <c r="F176" t="n">
-        <v>-0.1444212387560319</v>
+        <v>-0.1444196700588657</v>
       </c>
       <c r="G176" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H176" t="n">
         <v>3</v>
       </c>
       <c r="I176" t="n">
-        <v>1130.077166924994</v>
+        <v>1130.079238912904</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -9156,22 +9214,22 @@
         <v>393557109.73</v>
       </c>
       <c r="D177" t="n">
-        <v>201054430789.6165</v>
+        <v>201054852886.3281</v>
       </c>
       <c r="E177" t="n">
-        <v>510.8646898223997</v>
+        <v>510.8657623394528</v>
       </c>
       <c r="F177" t="n">
-        <v>-0.1473170401430263</v>
+        <v>-0.1473152500075293</v>
       </c>
       <c r="G177" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H177" t="n">
         <v>3</v>
       </c>
       <c r="I177" t="n">
-        <v>1126.252295182462</v>
+        <v>1126.254659653558</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -9185,22 +9243,22 @@
         <v>351426751.99</v>
       </c>
       <c r="D178" t="n">
-        <v>175882935350.9911</v>
+        <v>175883191446.5103</v>
       </c>
       <c r="E178" t="n">
-        <v>500.4824884703027</v>
+        <v>500.4832172011628</v>
       </c>
       <c r="F178" t="n">
-        <v>-0.1646459461236192</v>
+        <v>-0.1646447298007863</v>
       </c>
       <c r="G178" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H178" t="n">
         <v>3</v>
       </c>
       <c r="I178" t="n">
-        <v>1103.363694081629</v>
+        <v>1103.365300641684</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -9214,22 +9272,22 @@
         <v>313285700.0299999</v>
       </c>
       <c r="D179" t="n">
-        <v>147844560612.5472</v>
+        <v>147845056229.3213</v>
       </c>
       <c r="E179" t="n">
-        <v>471.9160836207645</v>
+        <v>471.9176656169233</v>
       </c>
       <c r="F179" t="n">
-        <v>-0.2123260601045734</v>
+        <v>-0.2123234195987917</v>
       </c>
       <c r="G179" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H179" t="n">
         <v>4</v>
       </c>
       <c r="I179" t="n">
-        <v>1040.386197950337</v>
+        <v>1040.389685619069</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -9243,22 +9301,22 @@
         <v>301612897.17</v>
       </c>
       <c r="D180" t="n">
-        <v>135019774979.998</v>
+        <v>135020055058.7591</v>
       </c>
       <c r="E180" t="n">
-        <v>447.6591559806407</v>
+        <v>447.6600845840386</v>
       </c>
       <c r="F180" t="n">
-        <v>-0.2528132365904012</v>
+        <v>-0.2528116866608218</v>
       </c>
       <c r="G180" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H180" t="n">
         <v>4</v>
       </c>
       <c r="I180" t="n">
-        <v>986.9093752749203</v>
+        <v>986.9114224739716</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -9272,22 +9330,22 @@
         <v>325318592.9899999</v>
       </c>
       <c r="D181" t="n">
-        <v>139565159905.6579</v>
+        <v>139565498621.2094</v>
       </c>
       <c r="E181" t="n">
-        <v>429.0107080044701</v>
+        <v>429.0117491855116</v>
       </c>
       <c r="F181" t="n">
-        <v>-0.2839393138743644</v>
+        <v>-0.2839375760417253</v>
       </c>
       <c r="G181" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H181" t="n">
         <v>4</v>
       </c>
       <c r="I181" t="n">
-        <v>945.7970068666548</v>
+        <v>945.7993022543789</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -9301,22 +9359,22 @@
         <v>353685989.65</v>
       </c>
       <c r="D182" t="n">
-        <v>161044583651.8911</v>
+        <v>161044624361.8045</v>
       </c>
       <c r="E182" t="n">
-        <v>455.3320978624496</v>
+        <v>455.3322129643043</v>
       </c>
       <c r="F182" t="n">
-        <v>-0.240006348729614</v>
+        <v>-0.2400061566133997</v>
       </c>
       <c r="G182" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H182" t="n">
         <v>1</v>
       </c>
       <c r="I182" t="n">
-        <v>1003.825142947556</v>
+        <v>1003.825396701105</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -9330,22 +9388,22 @@
         <v>314817883.7000002</v>
       </c>
       <c r="D183" t="n">
-        <v>135703989984.5905</v>
+        <v>135704222249.2749</v>
       </c>
       <c r="E183" t="n">
-        <v>431.05553086656</v>
+        <v>431.0562686413065</v>
       </c>
       <c r="F183" t="n">
-        <v>-0.2805263052144076</v>
+        <v>-0.2805250737964466</v>
       </c>
       <c r="G183" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H183" t="n">
         <v>1</v>
       </c>
       <c r="I183" t="n">
-        <v>950.3050233484184</v>
+        <v>950.3066498466246</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -9359,22 +9417,22 @@
         <v>305883690.5099999</v>
       </c>
       <c r="D184" t="n">
-        <v>119008943688.6314</v>
+        <v>119009253861.4306</v>
       </c>
       <c r="E184" t="n">
-        <v>389.0659992044944</v>
+        <v>389.0670132265192</v>
       </c>
       <c r="F184" t="n">
-        <v>-0.3506109261598586</v>
+        <v>-0.3506092336582653</v>
       </c>
       <c r="G184" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H184" t="n">
         <v>1</v>
       </c>
       <c r="I184" t="n">
-        <v>857.7349018462281</v>
+        <v>857.7371373591843</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -9388,22 +9446,22 @@
         <v>294564171.7499999</v>
       </c>
       <c r="D185" t="n">
-        <v>116651079506.2584</v>
+        <v>116651199847.0305</v>
       </c>
       <c r="E185" t="n">
-        <v>396.0124505748159</v>
+        <v>396.0128591132043</v>
       </c>
       <c r="F185" t="n">
-        <v>-0.339016621771729</v>
+        <v>-0.3390159398813397</v>
       </c>
       <c r="G185" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H185" t="n">
         <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>873.0490485372392</v>
+        <v>873.0499492009703</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -9417,22 +9475,22 @@
         <v>318628108.24</v>
       </c>
       <c r="D186" t="n">
-        <v>132229576165.5433</v>
+        <v>132229736252.7986</v>
       </c>
       <c r="E186" t="n">
-        <v>414.9965829943168</v>
+        <v>414.9970854209737</v>
       </c>
       <c r="F186" t="n">
-        <v>-0.3073302544336298</v>
+        <v>-0.3073294158345691</v>
       </c>
       <c r="G186" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H186" t="n">
         <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>914.9014668692706</v>
+        <v>914.9025745190787</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -9446,22 +9504,22 @@
         <v>369674791.36</v>
       </c>
       <c r="D187" t="n">
-        <v>175607497287.1752</v>
+        <v>175607686329.0446</v>
       </c>
       <c r="E187" t="n">
-        <v>475.032383574577</v>
+        <v>475.0328949480159</v>
       </c>
       <c r="F187" t="n">
-        <v>-0.2071246517446753</v>
+        <v>-0.2071237982125636</v>
       </c>
       <c r="G187" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H187" t="n">
         <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>1047.256392828512</v>
+        <v>1047.257520202396</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -9475,22 +9533,22 @@
         <v>413851849.05</v>
       </c>
       <c r="D188" t="n">
-        <v>205941688850.2787</v>
+        <v>205942315232.2841</v>
       </c>
       <c r="E188" t="n">
-        <v>497.6217680868633</v>
+        <v>497.6232816285011</v>
       </c>
       <c r="F188" t="n">
-        <v>-0.1694207672699433</v>
+        <v>-0.1694182410214291</v>
       </c>
       <c r="G188" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H188" t="n">
         <v>3</v>
       </c>
       <c r="I188" t="n">
-        <v>1097.056949924299</v>
+        <v>1097.060286678194</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -9504,22 +9562,22 @@
         <v>411608078.5400001</v>
       </c>
       <c r="D189" t="n">
-        <v>206283438625.2462</v>
+        <v>206283839761.4553</v>
       </c>
       <c r="E189" t="n">
-        <v>501.164698605884</v>
+        <v>501.1656731645236</v>
       </c>
       <c r="F189" t="n">
-        <v>-0.1635072709142323</v>
+        <v>-0.1635056442808753</v>
       </c>
       <c r="G189" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H189" t="n">
         <v>3</v>
       </c>
       <c r="I189" t="n">
-        <v>1104.867694546532</v>
+        <v>1104.869843058509</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -9533,22 +9591,22 @@
         <v>353189594.74</v>
       </c>
       <c r="D190" t="n">
-        <v>170860406168.6195</v>
+        <v>170860678402.0474</v>
       </c>
       <c r="E190" t="n">
-        <v>483.7639860098316</v>
+        <v>483.7647567953587</v>
       </c>
       <c r="F190" t="n">
-        <v>-0.1925507562355227</v>
+        <v>-0.1925494697193519</v>
       </c>
       <c r="G190" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H190" t="n">
         <v>3</v>
       </c>
       <c r="I190" t="n">
-        <v>1066.506083557275</v>
+        <v>1066.507782831048</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -9562,22 +9620,22 @@
         <v>314467826.69</v>
       </c>
       <c r="D191" t="n">
-        <v>144983068924.9181</v>
+        <v>144983408799.8515</v>
       </c>
       <c r="E191" t="n">
-        <v>461.0426142825773</v>
+        <v>461.0436950765557</v>
       </c>
       <c r="F191" t="n">
-        <v>-0.2304749402364588</v>
+        <v>-0.2304731362859669</v>
       </c>
       <c r="G191" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H191" t="n">
         <v>4</v>
       </c>
       <c r="I191" t="n">
-        <v>1016.41454744737</v>
+        <v>1016.416930165775</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -9591,22 +9649,22 @@
         <v>298291101.07</v>
       </c>
       <c r="D192" t="n">
-        <v>128477789334.6505</v>
+        <v>128477965301.2668</v>
       </c>
       <c r="E192" t="n">
-        <v>430.7127798106879</v>
+        <v>430.71336972643</v>
       </c>
       <c r="F192" t="n">
-        <v>-0.2810983901336389</v>
+        <v>-0.2810974055067678</v>
       </c>
       <c r="G192" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H192" t="n">
         <v>4</v>
       </c>
       <c r="I192" t="n">
-        <v>949.5493943706427</v>
+        <v>949.5506948988876</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -9620,22 +9678,22 @@
         <v>346480679.27</v>
       </c>
       <c r="D193" t="n">
-        <v>160241208101.0809</v>
+        <v>160241391343.3185</v>
       </c>
       <c r="E193" t="n">
-        <v>462.482376906825</v>
+        <v>462.482905773941</v>
       </c>
       <c r="F193" t="n">
-        <v>-0.2280718360869788</v>
+        <v>-0.2280709533562151</v>
       </c>
       <c r="G193" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H193" t="n">
         <v>4</v>
       </c>
       <c r="I193" t="n">
-        <v>1019.588648128786</v>
+        <v>1019.58981406923</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -9649,22 +9707,22 @@
         <v>345557608.2</v>
       </c>
       <c r="D194" t="n">
-        <v>156071843735.73</v>
+        <v>156071929042.8433</v>
       </c>
       <c r="E194" t="n">
-        <v>451.6521703825418</v>
+        <v>451.6524172505349</v>
       </c>
       <c r="F194" t="n">
-        <v>-0.2461485063657537</v>
+        <v>-0.2461480943190116</v>
       </c>
       <c r="G194" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H194" t="n">
         <v>1</v>
       </c>
       <c r="I194" t="n">
-        <v>995.7123748253516</v>
+        <v>995.7129190705292</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -9678,22 +9736,22 @@
         <v>292417787.5000001</v>
       </c>
       <c r="D195" t="n">
-        <v>122192068911.7704</v>
+        <v>122192161356.6129</v>
       </c>
       <c r="E195" t="n">
-        <v>417.8681124580028</v>
+        <v>417.8684285976033</v>
       </c>
       <c r="F195" t="n">
-        <v>-0.3025373918788431</v>
+        <v>-0.3025368642110368</v>
       </c>
       <c r="G195" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H195" t="n">
         <v>1</v>
       </c>
       <c r="I195" t="n">
-        <v>921.2320407249132</v>
+        <v>921.2327376862764</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -9707,22 +9765,22 @@
         <v>321286820.5700001</v>
       </c>
       <c r="D196" t="n">
-        <v>130993969883.6809</v>
+        <v>130994115320.8105</v>
       </c>
       <c r="E196" t="n">
-        <v>407.7165993030229</v>
+        <v>407.7170519737216</v>
       </c>
       <c r="F196" t="n">
-        <v>-0.3194812567739186</v>
+        <v>-0.319480501222402</v>
       </c>
       <c r="G196" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H196" t="n">
         <v>1</v>
       </c>
       <c r="I196" t="n">
-        <v>898.8520148234442</v>
+        <v>898.8530127812667</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -9736,22 +9794,22 @@
         <v>297539580.84</v>
       </c>
       <c r="D197" t="n">
-        <v>119954003822.9368</v>
+        <v>119955426383.8008</v>
       </c>
       <c r="E197" t="n">
-        <v>403.1530980997156</v>
+        <v>403.1578791808074</v>
       </c>
       <c r="F197" t="n">
-        <v>-0.3270981850738559</v>
+        <v>-0.3270902049835153</v>
       </c>
       <c r="G197" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H197" t="n">
         <v>2</v>
       </c>
       <c r="I197" t="n">
-        <v>888.7913200706329</v>
+        <v>888.8018604420079</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -9765,22 +9823,22 @@
         <v>325851226.8</v>
       </c>
       <c r="D198" t="n">
-        <v>136840864759.51</v>
+        <v>136842186668.2315</v>
       </c>
       <c r="E198" t="n">
-        <v>419.9489015381236</v>
+        <v>419.9529583242051</v>
       </c>
       <c r="F198" t="n">
-        <v>-0.2990643520954669</v>
+        <v>-0.2990575809240933</v>
       </c>
       <c r="G198" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H198" t="n">
         <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>925.8193483309473</v>
+        <v>925.8282919215427</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -9794,22 +9852,22 @@
         <v>360988359.67</v>
       </c>
       <c r="D199" t="n">
-        <v>160847750364.4022</v>
+        <v>160849169421.7189</v>
       </c>
       <c r="E199" t="n">
-        <v>445.5760028147232</v>
+        <v>445.5799338481726</v>
       </c>
       <c r="F199" t="n">
-        <v>-0.2562902222633932</v>
+        <v>-0.2562836609854194</v>
       </c>
       <c r="G199" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H199" t="n">
         <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>982.3168558053387</v>
+        <v>982.3255221616812</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -9823,22 +9881,22 @@
         <v>406964037.56</v>
       </c>
       <c r="D200" t="n">
-        <v>194801124797.0156</v>
+        <v>194803021631.3192</v>
       </c>
       <c r="E200" t="n">
-        <v>478.6691373639997</v>
+        <v>478.6737983023838</v>
       </c>
       <c r="F200" t="n">
-        <v>-0.2010545552059733</v>
+        <v>-0.2010467756455217</v>
       </c>
       <c r="G200" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H200" t="n">
         <v>3</v>
       </c>
       <c r="I200" t="n">
-        <v>1055.273980232674</v>
+        <v>1055.284255737435</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -9852,22 +9910,22 @@
         <v>387179238.26</v>
       </c>
       <c r="D201" t="n">
-        <v>182333617724.9478</v>
+        <v>182334425836.9139</v>
       </c>
       <c r="E201" t="n">
-        <v>470.9281896011854</v>
+        <v>470.9302767791285</v>
       </c>
       <c r="F201" t="n">
-        <v>-0.2139749515105004</v>
+        <v>-0.213971467807082</v>
       </c>
       <c r="G201" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H201" t="n">
         <v>3</v>
       </c>
       <c r="I201" t="n">
-        <v>1038.208286794773</v>
+        <v>1038.212888187267</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -9881,22 +9939,22 @@
         <v>338102496.29</v>
       </c>
       <c r="D202" t="n">
-        <v>152286019219.3292</v>
+        <v>152287728618.3875</v>
       </c>
       <c r="E202" t="n">
-        <v>450.4137676898698</v>
+        <v>450.4188235503769</v>
       </c>
       <c r="F202" t="n">
-        <v>-0.2482155211634479</v>
+        <v>-0.2482070824394809</v>
       </c>
       <c r="G202" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H202" t="n">
         <v>3</v>
       </c>
       <c r="I202" t="n">
-        <v>992.9821922490872</v>
+        <v>992.9933383991612</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -9910,22 +9968,22 @@
         <v>320622637.97</v>
       </c>
       <c r="D203" t="n">
-        <v>137530692901.0069</v>
+        <v>137531850346.2142</v>
       </c>
       <c r="E203" t="n">
-        <v>428.9487909268447</v>
+        <v>428.952400918998</v>
       </c>
       <c r="F203" t="n">
-        <v>-0.2840426595118047</v>
+        <v>-0.2840366340830449</v>
       </c>
       <c r="G203" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H203" t="n">
         <v>4</v>
       </c>
       <c r="I203" t="n">
-        <v>945.6605044773216</v>
+        <v>945.6684630660229</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -9939,22 +9997,22 @@
         <v>309579799.11</v>
       </c>
       <c r="D204" t="n">
-        <v>132146479785.8586</v>
+        <v>132146569212.4975</v>
       </c>
       <c r="E204" t="n">
-        <v>426.8575668236811</v>
+        <v>426.8578556882621</v>
       </c>
       <c r="F204" t="n">
-        <v>-0.2875331163657118</v>
+        <v>-0.2875326342225712</v>
       </c>
       <c r="G204" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H204" t="n">
         <v>4</v>
       </c>
       <c r="I204" t="n">
-        <v>941.0501918194873</v>
+        <v>941.0508286503427</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -9968,22 +10026,22 @@
         <v>351853694.35</v>
       </c>
       <c r="D205" t="n">
-        <v>154380441789.769</v>
+        <v>154382709898.4829</v>
       </c>
       <c r="E205" t="n">
-        <v>438.7631685236814</v>
+        <v>438.7696146936389</v>
       </c>
       <c r="F205" t="n">
-        <v>-0.2676615067229242</v>
+        <v>-0.2676507474369752</v>
       </c>
       <c r="G205" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H205" t="n">
         <v>4</v>
       </c>
       <c r="I205" t="n">
-        <v>967.2972813273082</v>
+        <v>967.3114925535964</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -9997,22 +10055,22 @@
         <v>374838323.87</v>
       </c>
       <c r="D206" t="n">
-        <v>170316644847.7302</v>
+        <v>170319168142.9643</v>
       </c>
       <c r="E206" t="n">
-        <v>454.3736165750189</v>
+        <v>454.380348264586</v>
       </c>
       <c r="F206" t="n">
-        <v>-0.2416061474188089</v>
+        <v>-0.2415949115728028</v>
       </c>
       <c r="G206" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H206" t="n">
         <v>1</v>
       </c>
       <c r="I206" t="n">
-        <v>1001.712075101287</v>
+        <v>1001.726915784106</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -10026,22 +10084,22 @@
         <v>308647892.4299998</v>
       </c>
       <c r="D207" t="n">
-        <v>123389308973.5496</v>
+        <v>123391845273.2764</v>
       </c>
       <c r="E207" t="n">
-        <v>399.7736968235862</v>
+        <v>399.7819142771604</v>
       </c>
       <c r="F207" t="n">
-        <v>-0.3327387351844463</v>
+        <v>-0.332725019453499</v>
       </c>
       <c r="G207" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H207" t="n">
         <v>1</v>
       </c>
       <c r="I207" t="n">
-        <v>881.3410920172781</v>
+        <v>881.3592082154277</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -10055,22 +10113,22 @@
         <v>323965391.02</v>
       </c>
       <c r="D208" t="n">
-        <v>125948241239.9111</v>
+        <v>125952558682.491</v>
       </c>
       <c r="E208" t="n">
-        <v>388.7706672720964</v>
+        <v>388.7839941357048</v>
       </c>
       <c r="F208" t="n">
-        <v>-0.3511038639402029</v>
+        <v>-0.3510816201059087</v>
       </c>
       <c r="G208" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H208" t="n">
         <v>1</v>
       </c>
       <c r="I208" t="n">
-        <v>857.0838130680638</v>
+        <v>857.1131934715747</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -10084,22 +10142,22 @@
         <v>303479515.33</v>
       </c>
       <c r="D209" t="n">
-        <v>116143443274.4025</v>
+        <v>116148529852.6651</v>
       </c>
       <c r="E209" t="n">
-        <v>382.7060391476817</v>
+        <v>382.7228000096368</v>
       </c>
       <c r="F209" t="n">
-        <v>-0.3612263193820842</v>
+        <v>-0.3611983438698474</v>
       </c>
       <c r="G209" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H209" t="n">
         <v>2</v>
       </c>
       <c r="I209" t="n">
-        <v>843.7137339049792</v>
+        <v>843.750684901245</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -10113,22 +10171,22 @@
         <v>341946769.52</v>
       </c>
       <c r="D210" t="n">
-        <v>138396225946.5283</v>
+        <v>138397264896.1772</v>
       </c>
       <c r="E210" t="n">
-        <v>404.7303214497357</v>
+        <v>404.7333597871073</v>
       </c>
       <c r="F210" t="n">
-        <v>-0.324465645575152</v>
+        <v>-0.3244605742939404</v>
       </c>
       <c r="G210" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H210" t="n">
         <v>2</v>
       </c>
       <c r="I210" t="n">
-        <v>892.2684666680873</v>
+        <v>892.2751649866568</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -10142,22 +10200,22 @@
         <v>374930071.58</v>
       </c>
       <c r="D211" t="n">
-        <v>160825270646.0549</v>
+        <v>160828747699.0372</v>
       </c>
       <c r="E211" t="n">
-        <v>428.9473766889866</v>
+        <v>428.9566505596248</v>
       </c>
       <c r="F211" t="n">
-        <v>-0.2840450200126317</v>
+        <v>-0.2840295410186381</v>
       </c>
       <c r="G211" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H211" t="n">
         <v>2</v>
       </c>
       <c r="I211" t="n">
-        <v>945.6573866485396</v>
+        <v>945.6778318237492</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -10171,22 +10229,22 @@
         <v>414418886.95</v>
       </c>
       <c r="D212" t="n">
-        <v>190432812699.3843</v>
+        <v>190438510127.7431</v>
       </c>
       <c r="E212" t="n">
-        <v>459.5176974218364</v>
+        <v>459.5314454158063</v>
       </c>
       <c r="F212" t="n">
-        <v>-0.2330201751063896</v>
+        <v>-0.2329972283644755</v>
       </c>
       <c r="G212" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H212" t="n">
         <v>3</v>
       </c>
       <c r="I212" t="n">
-        <v>1013.05271573618</v>
+        <v>1013.083024563686</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -10200,22 +10258,22 @@
         <v>411030574.1700001</v>
       </c>
       <c r="D213" t="n">
-        <v>187704403612.3229</v>
+        <v>187709262785.6896</v>
       </c>
       <c r="E213" t="n">
-        <v>456.6677405722363</v>
+        <v>456.6795624990517</v>
       </c>
       <c r="F213" t="n">
-        <v>-0.2377770308656444</v>
+        <v>-0.2377572989175397</v>
       </c>
       <c r="G213" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H213" t="n">
         <v>3</v>
       </c>
       <c r="I213" t="n">
-        <v>1006.769700865552</v>
+        <v>1006.795763485409</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -10229,22 +10287,22 @@
         <v>358919294.5599999</v>
       </c>
       <c r="D214" t="n">
-        <v>160450685009.8521</v>
+        <v>160455165123.3495</v>
       </c>
       <c r="E214" t="n">
-        <v>447.0383382608312</v>
+        <v>447.0508204916981</v>
       </c>
       <c r="F214" t="n">
-        <v>-0.253849441874119</v>
+        <v>-0.2538286078141943</v>
       </c>
       <c r="G214" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H214" t="n">
         <v>3</v>
       </c>
       <c r="I214" t="n">
-        <v>985.5407205298284</v>
+        <v>985.5682388559976</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -10258,22 +10316,22 @@
         <v>327291940.5099999</v>
       </c>
       <c r="D215" t="n">
-        <v>140864293442.9271</v>
+        <v>140865236978.5179</v>
       </c>
       <c r="E215" t="n">
-        <v>430.3934072541671</v>
+        <v>430.3962901103396</v>
       </c>
       <c r="F215" t="n">
-        <v>-0.2816314540588162</v>
+        <v>-0.2816266422908803</v>
       </c>
       <c r="G215" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H215" t="n">
         <v>4</v>
       </c>
       <c r="I215" t="n">
-        <v>948.8453056325368</v>
+        <v>948.851661177255</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -10287,22 +10345,22 @@
         <v>324233265.98</v>
       </c>
       <c r="D216" t="n">
-        <v>138153598396.9325</v>
+        <v>138154083564.7531</v>
       </c>
       <c r="E216" t="n">
-        <v>426.0932263670143</v>
+        <v>426.0947227212492</v>
       </c>
       <c r="F216" t="n">
-        <v>-0.2888088750860017</v>
+        <v>-0.288806377524938</v>
       </c>
       <c r="G216" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H216" t="n">
         <v>4</v>
       </c>
       <c r="I216" t="n">
-        <v>939.3651268487197</v>
+        <v>939.368425711266</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -10316,22 +10374,22 @@
         <v>343900260.12</v>
       </c>
       <c r="D217" t="n">
-        <v>145885726123.4689</v>
+        <v>145885752437.2683</v>
       </c>
       <c r="E217" t="n">
-        <v>424.2094090669306</v>
+        <v>424.2094855827186</v>
       </c>
       <c r="F217" t="n">
-        <v>-0.2919531497702113</v>
+        <v>-0.2919530220579033</v>
       </c>
       <c r="G217" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H217" t="n">
         <v>4</v>
       </c>
       <c r="I217" t="n">
-        <v>935.2120632289552</v>
+        <v>935.2122319156613</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -10345,22 +10403,22 @@
         <v>361391164.43</v>
       </c>
       <c r="D218" t="n">
-        <v>151707986304.2682</v>
+        <v>151708832013.597</v>
       </c>
       <c r="E218" t="n">
-        <v>419.7888638023231</v>
+        <v>419.7912039517566</v>
       </c>
       <c r="F218" t="n">
-        <v>-0.2993314706749456</v>
+        <v>-0.2993275647374531</v>
       </c>
       <c r="G218" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H218" t="n">
         <v>1</v>
       </c>
       <c r="I218" t="n">
-        <v>925.4665291386017</v>
+        <v>925.4716882320427</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -10374,22 +10432,22 @@
         <v>317065785.15</v>
       </c>
       <c r="D219" t="n">
-        <v>126202411576.5193</v>
+        <v>126202565031.3472</v>
       </c>
       <c r="E219" t="n">
-        <v>398.0322617175942</v>
+        <v>398.0327457017863</v>
       </c>
       <c r="F219" t="n">
-        <v>-0.3356453601091252</v>
+        <v>-0.3356445522923357</v>
       </c>
       <c r="G219" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H219" t="n">
         <v>1</v>
       </c>
       <c r="I219" t="n">
-        <v>877.501924182608</v>
+        <v>877.5029911741583</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -10403,22 +10461,22 @@
         <v>329547443.5000001</v>
       </c>
       <c r="D220" t="n">
-        <v>127276623359.7166</v>
+        <v>127276838877.7714</v>
       </c>
       <c r="E220" t="n">
-        <v>386.2163881714851</v>
+        <v>386.2170421533595</v>
       </c>
       <c r="F220" t="n">
-        <v>-0.3553672047175177</v>
+        <v>-0.3553661131580275</v>
       </c>
       <c r="G220" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H220" t="n">
         <v>1</v>
       </c>
       <c r="I220" t="n">
-        <v>851.4526493628558</v>
+        <v>851.4540911312964</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -10432,22 +10490,22 @@
         <v>299884009.2</v>
       </c>
       <c r="D221" t="n">
-        <v>104745732909.26</v>
+        <v>104746368380.349</v>
       </c>
       <c r="E221" t="n">
-        <v>349.287490148908</v>
+        <v>349.2896092051747</v>
       </c>
       <c r="F221" t="n">
-        <v>-0.4170051348729456</v>
+        <v>-0.4170015979614981</v>
       </c>
       <c r="G221" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H221" t="n">
         <v>2</v>
       </c>
       <c r="I221" t="n">
-        <v>770.0392007822826</v>
+        <v>770.043872453728</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -10461,22 +10519,22 @@
         <v>333948459.15</v>
       </c>
       <c r="D222" t="n">
-        <v>124355322540.5685</v>
+        <v>124355526003.953</v>
       </c>
       <c r="E222" t="n">
-        <v>372.3787882030971</v>
+        <v>372.3793974689253</v>
       </c>
       <c r="F222" t="n">
-        <v>-0.3784635077766773</v>
+        <v>-0.3784624908526269</v>
       </c>
       <c r="G222" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H222" t="n">
         <v>2</v>
       </c>
       <c r="I222" t="n">
-        <v>820.9462764725481</v>
+        <v>820.9476196599927</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -10490,22 +10548,22 @@
         <v>356565746.0500001</v>
       </c>
       <c r="D223" t="n">
-        <v>139796465986.2386</v>
+        <v>139796359898.2454</v>
       </c>
       <c r="E223" t="n">
-        <v>392.0636447412294</v>
+        <v>392.0633472140709</v>
       </c>
       <c r="F223" t="n">
-        <v>-0.3456075635869748</v>
+        <v>-0.3456080601888014</v>
       </c>
       <c r="G223" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H223" t="n">
         <v>2</v>
       </c>
       <c r="I223" t="n">
-        <v>864.3435111965143</v>
+        <v>864.3428552681407</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -10519,22 +10577,22 @@
         <v>413742056.3300002</v>
       </c>
       <c r="D224" t="n">
-        <v>178878126862.9389</v>
+        <v>178877742417.1139</v>
       </c>
       <c r="E224" t="n">
-        <v>432.3421419848746</v>
+        <v>432.3412127928354</v>
       </c>
       <c r="F224" t="n">
-        <v>-0.2783788258555764</v>
+        <v>-0.2783803767676555</v>
       </c>
       <c r="G224" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H224" t="n">
         <v>3</v>
       </c>
       <c r="I224" t="n">
-        <v>953.1414862198544</v>
+        <v>953.1394377230847</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -10548,22 +10606,22 @@
         <v>404986271.24</v>
       </c>
       <c r="D225" t="n">
-        <v>173142862804.0533</v>
+        <v>173142180545.8207</v>
       </c>
       <c r="E225" t="n">
-        <v>427.5277339005071</v>
+        <v>427.526049255172</v>
       </c>
       <c r="F225" t="n">
-        <v>-0.2864145421951906</v>
+        <v>-0.2864173540324525</v>
       </c>
       <c r="G225" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H225" t="n">
         <v>3</v>
       </c>
       <c r="I225" t="n">
-        <v>942.5276421570579</v>
+        <v>942.5239281879523</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -10577,22 +10635,22 @@
         <v>363673987.68</v>
       </c>
       <c r="D226" t="n">
-        <v>152689603105.9</v>
+        <v>152691178382.2364</v>
       </c>
       <c r="E226" t="n">
-        <v>419.8529679836572</v>
+        <v>419.8572995454123</v>
       </c>
       <c r="F226" t="n">
-        <v>-0.2992244745482448</v>
+        <v>-0.2992172447494904</v>
       </c>
       <c r="G226" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H226" t="n">
         <v>3</v>
       </c>
       <c r="I226" t="n">
-        <v>925.6078532167708</v>
+        <v>925.6174025778161</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -10606,22 +10664,22 @@
         <v>323136595.41</v>
       </c>
       <c r="D227" t="n">
-        <v>124387079396.4285</v>
+        <v>124386774020.822</v>
       </c>
       <c r="E227" t="n">
-        <v>384.936528896099</v>
+        <v>384.9355838604365</v>
       </c>
       <c r="F227" t="n">
-        <v>-0.3575034145924182</v>
+        <v>-0.3575049919490488</v>
       </c>
       <c r="G227" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H227" t="n">
         <v>4</v>
       </c>
       <c r="I227" t="n">
-        <v>848.6310716043399</v>
+        <v>848.6289881787184</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -10635,22 +10693,22 @@
         <v>318034322.98</v>
       </c>
       <c r="D228" t="n">
-        <v>125237452904.8931</v>
+        <v>125238373019.6966</v>
       </c>
       <c r="E228" t="n">
-        <v>393.7859653996176</v>
+        <v>393.7888585301291</v>
       </c>
       <c r="F228" t="n">
-        <v>-0.3427328425383781</v>
+        <v>-0.3427280136215691</v>
       </c>
       <c r="G228" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H228" t="n">
         <v>4</v>
       </c>
       <c r="I228" t="n">
-        <v>868.1405393199971</v>
+        <v>868.1469175155228</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -10664,22 +10722,22 @@
         <v>340405491.67</v>
       </c>
       <c r="D229" t="n">
-        <v>127428826306.8913</v>
+        <v>127429327656.1654</v>
       </c>
       <c r="E229" t="n">
-        <v>374.3442142538196</v>
+        <v>374.3456870540135</v>
       </c>
       <c r="F229" t="n">
-        <v>-0.3751830201334765</v>
+        <v>-0.3751805618864032</v>
       </c>
       <c r="G229" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H229" t="n">
         <v>4</v>
       </c>
       <c r="I229" t="n">
-        <v>825.2792547439708</v>
+        <v>825.2825016792783</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -10693,22 +10751,22 @@
         <v>344137138.27</v>
       </c>
       <c r="D230" t="n">
-        <v>122432645467.4161</v>
+        <v>122432707772.8613</v>
       </c>
       <c r="E230" t="n">
-        <v>355.7670238175777</v>
+        <v>355.7672048658816</v>
       </c>
       <c r="F230" t="n">
-        <v>-0.4061901616380271</v>
+        <v>-0.4061898594507615</v>
       </c>
       <c r="G230" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H230" t="n">
         <v>1</v>
       </c>
       <c r="I230" t="n">
-        <v>784.3239807082318</v>
+        <v>784.3243798473227</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -10722,22 +10780,22 @@
         <v>322145540.79</v>
       </c>
       <c r="D231" t="n">
-        <v>110287054509.4471</v>
+        <v>110289192101.4983</v>
       </c>
       <c r="E231" t="n">
-        <v>342.3516409353032</v>
+        <v>342.3582764207607</v>
       </c>
       <c r="F231" t="n">
-        <v>-0.4285817432281525</v>
+        <v>-0.4285706679561818</v>
       </c>
       <c r="G231" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H231" t="n">
         <v>1</v>
       </c>
       <c r="I231" t="n">
-        <v>754.7484276059696</v>
+        <v>754.7630561972093</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -10751,22 +10809,22 @@
         <v>312983973.38</v>
       </c>
       <c r="D232" t="n">
-        <v>104924269728.4561</v>
+        <v>104928405725.0242</v>
       </c>
       <c r="E232" t="n">
-        <v>335.2384743389575</v>
+        <v>335.2516890621379</v>
       </c>
       <c r="F232" t="n">
-        <v>-0.4404543115777802</v>
+        <v>-0.4404322549167903</v>
       </c>
       <c r="G232" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H232" t="n">
         <v>1</v>
       </c>
       <c r="I232" t="n">
-        <v>739.0667405276657</v>
+        <v>739.0958737063893</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -10780,22 +10838,22 @@
         <v>283375147.85</v>
       </c>
       <c r="D233" t="n">
-        <v>87914889739.14557</v>
+        <v>87920424893.02678</v>
       </c>
       <c r="E233" t="n">
-        <v>310.24206041414</v>
+        <v>310.2615933686818</v>
       </c>
       <c r="F233" t="n">
-        <v>-0.4821757627484085</v>
+        <v>-0.4821431603434563</v>
       </c>
       <c r="G233" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H233" t="n">
         <v>2</v>
       </c>
       <c r="I233" t="n">
-        <v>683.9596463890132</v>
+        <v>684.0027087405958</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -10809,22 +10867,22 @@
         <v>308826404.6</v>
       </c>
       <c r="D234" t="n">
-        <v>98151191825.49631</v>
+        <v>98157512696.58211</v>
       </c>
       <c r="E234" t="n">
-        <v>317.8199479174208</v>
+        <v>317.8404153094301</v>
       </c>
       <c r="F234" t="n">
-        <v>-0.4695275299100675</v>
+        <v>-0.4694933678379048</v>
       </c>
       <c r="G234" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H234" t="n">
         <v>2</v>
       </c>
       <c r="I234" t="n">
-        <v>700.6658571787457</v>
+        <v>700.7109795911697</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -10838,22 +10896,22 @@
         <v>355984508.1600001</v>
       </c>
       <c r="D235" t="n">
-        <v>130171986216.4953</v>
+        <v>130174050669.5015</v>
       </c>
       <c r="E235" t="n">
-        <v>365.6675592129656</v>
+        <v>365.6733584906277</v>
       </c>
       <c r="F235" t="n">
-        <v>-0.3896652030858067</v>
+        <v>-0.3896555235261493</v>
       </c>
       <c r="G235" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H235" t="n">
         <v>2</v>
       </c>
       <c r="I235" t="n">
-        <v>806.150701040904</v>
+        <v>806.163486128438</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -10867,22 +10925,22 @@
         <v>413934276.52</v>
       </c>
       <c r="D236" t="n">
-        <v>173838822662.2438</v>
+        <v>173845553676.9756</v>
       </c>
       <c r="E236" t="n">
-        <v>419.9672086200005</v>
+        <v>419.9834696911743</v>
       </c>
       <c r="F236" t="n">
-        <v>-0.2990337957914745</v>
+        <v>-0.2990066544787646</v>
       </c>
       <c r="G236" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H236" t="n">
         <v>3</v>
       </c>
       <c r="I236" t="n">
-        <v>925.8597081236533</v>
+        <v>925.8955572811631</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -10896,22 +10954,22 @@
         <v>402414129.9300001</v>
       </c>
       <c r="D237" t="n">
-        <v>169679681529.652</v>
+        <v>169684842457.144</v>
       </c>
       <c r="E237" t="n">
-        <v>421.6543826608866</v>
+        <v>421.6672075770812</v>
       </c>
       <c r="F237" t="n">
-        <v>-0.2962177378731307</v>
+        <v>-0.2961963318379933</v>
       </c>
       <c r="G237" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H237" t="n">
         <v>3</v>
       </c>
       <c r="I237" t="n">
-        <v>929.5792520141907</v>
+        <v>929.6075258244335</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -10925,22 +10983,22 @@
         <v>336922518.2300001</v>
       </c>
       <c r="D238" t="n">
-        <v>130577420285.9452</v>
+        <v>130583494794.6964</v>
       </c>
       <c r="E238" t="n">
-        <v>387.5591960190876</v>
+        <v>387.5772254128576</v>
       </c>
       <c r="F238" t="n">
-        <v>-0.3531259275401679</v>
+        <v>-0.3530958347246913</v>
       </c>
       <c r="G238" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H238" t="n">
         <v>3</v>
       </c>
       <c r="I238" t="n">
-        <v>854.4130035436805</v>
+        <v>854.452751145186</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -10954,22 +11012,22 @@
         <v>316786009.82</v>
       </c>
       <c r="D239" t="n">
-        <v>117562389848.7009</v>
+        <v>117566943678.2126</v>
       </c>
       <c r="E239" t="n">
-        <v>371.1097908506147</v>
+        <v>371.1241659472744</v>
       </c>
       <c r="F239" t="n">
-        <v>-0.3805815880435708</v>
+        <v>-0.3805575946061455</v>
       </c>
       <c r="G239" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H239" t="n">
         <v>4</v>
       </c>
       <c r="I239" t="n">
-        <v>818.1486449092653</v>
+        <v>818.1803362473612</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -10983,22 +11041,22 @@
         <v>303889691.58</v>
       </c>
       <c r="D240" t="n">
-        <v>107906394245.5259</v>
+        <v>107907532580.8874</v>
       </c>
       <c r="E240" t="n">
-        <v>355.0840888497831</v>
+        <v>355.0878347332174</v>
       </c>
       <c r="F240" t="n">
-        <v>-0.4073300466630253</v>
+        <v>-0.4073237944184727</v>
       </c>
       <c r="G240" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H240" t="n">
         <v>4</v>
       </c>
       <c r="I240" t="n">
-        <v>782.8183822782319</v>
+        <v>782.8266404528509</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -11012,22 +11070,22 @@
         <v>346787122.9400001</v>
       </c>
       <c r="D241" t="n">
-        <v>132505973053.1815</v>
+        <v>132506287120.5246</v>
       </c>
       <c r="E241" t="n">
-        <v>382.0960015176433</v>
+        <v>382.0969071664473</v>
       </c>
       <c r="F241" t="n">
-        <v>-0.3622445316452689</v>
+        <v>-0.3622430200291442</v>
       </c>
       <c r="G241" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H241" t="n">
         <v>4</v>
       </c>
       <c r="I241" t="n">
-        <v>842.3688449457967</v>
+        <v>842.3708415391498</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -11038,25 +11096,25 @@
         <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>353330047.02</v>
+        <v>353404784.29</v>
       </c>
       <c r="D242" t="n">
-        <v>134327533299.054</v>
+        <v>134312095704.0103</v>
       </c>
       <c r="E242" t="n">
-        <v>380.1758000260037</v>
+        <v>380.0517188069398</v>
       </c>
       <c r="F242" t="n">
-        <v>-0.3654495350914502</v>
+        <v>-0.3656566387399151</v>
       </c>
       <c r="G242" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H242" t="n">
         <v>1</v>
       </c>
       <c r="I242" t="n">
-        <v>838.1355687373277</v>
+        <v>837.8620192817795</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -11067,25 +11125,25 @@
         <v>2</v>
       </c>
       <c r="C243" t="n">
-        <v>330216000.5899999</v>
+        <v>328596978.2899998</v>
       </c>
       <c r="D243" t="n">
-        <v>135396523897.2034</v>
+        <v>135401479273.7457</v>
       </c>
       <c r="E243" t="n">
-        <v>410.0241165034076</v>
+        <v>412.0594169135922</v>
       </c>
       <c r="F243" t="n">
-        <v>-0.31562978565927</v>
+        <v>-0.3122326708996696</v>
       </c>
       <c r="G243" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H243" t="n">
         <v>1</v>
       </c>
       <c r="I243" t="n">
-        <v>903.9391672434123</v>
+        <v>908.4261905277057</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -11096,25 +11154,25 @@
         <v>3</v>
       </c>
       <c r="C244" t="n">
-        <v>315930468.2500001</v>
+        <v>316044543.9</v>
       </c>
       <c r="D244" t="n">
-        <v>108227047027.4878</v>
+        <v>108438105406.797</v>
       </c>
       <c r="E244" t="n">
-        <v>342.5660324152282</v>
+        <v>343.1101960143569</v>
       </c>
       <c r="F244" t="n">
-        <v>-0.4282239029520235</v>
+        <v>-0.4273156408669834</v>
       </c>
       <c r="G244" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H244" t="n">
         <v>1</v>
       </c>
       <c r="I244" t="n">
-        <v>755.2210750626123</v>
+        <v>756.4207381332512</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -11125,25 +11183,25 @@
         <v>4</v>
       </c>
       <c r="C245" t="n">
-        <v>296952650.89</v>
+        <v>296970402.71</v>
       </c>
       <c r="D245" t="n">
-        <v>100031412325.0486</v>
+        <v>100055369811.7876</v>
       </c>
       <c r="E245" t="n">
-        <v>336.8598058486544</v>
+        <v>336.9203425618628</v>
       </c>
       <c r="F245" t="n">
-        <v>-0.4377481512614775</v>
+        <v>-0.4376471095867895</v>
       </c>
       <c r="G245" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H245" t="n">
         <v>2</v>
       </c>
       <c r="I245" t="n">
-        <v>742.6411279739433</v>
+        <v>742.7745872118828</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -11154,25 +11212,25 @@
         <v>5</v>
       </c>
       <c r="C246" t="n">
-        <v>323736556.7600001</v>
+        <v>323743440.59</v>
       </c>
       <c r="D246" t="n">
-        <v>114111620501.325</v>
+        <v>114194375619.9005</v>
       </c>
       <c r="E246" t="n">
-        <v>352.4829622065848</v>
+        <v>352.7310867265423</v>
       </c>
       <c r="F246" t="n">
-        <v>-0.4116715805550158</v>
+        <v>-0.4112574365472081</v>
       </c>
       <c r="G246" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H246" t="n">
         <v>2</v>
       </c>
       <c r="I246" t="n">
-        <v>777.0839384806368</v>
+        <v>777.6309537973352</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -11183,25 +11241,25 @@
         <v>6</v>
       </c>
       <c r="C247" t="n">
-        <v>378629891.78</v>
+        <v>378693554.63</v>
       </c>
       <c r="D247" t="n">
-        <v>152197760231.9024</v>
+        <v>152223777734.0644</v>
       </c>
       <c r="E247" t="n">
-        <v>401.9697428441169</v>
+        <v>401.9708703064504</v>
       </c>
       <c r="F247" t="n">
-        <v>-0.3290733203337561</v>
+        <v>-0.3290714384892311</v>
       </c>
       <c r="G247" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H247" t="n">
         <v>2</v>
       </c>
       <c r="I247" t="n">
-        <v>886.1824950741403</v>
+        <v>886.1849806776004</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -11212,25 +11270,25 @@
         <v>7</v>
       </c>
       <c r="C248" t="n">
-        <v>409596484.39</v>
+        <v>409661624.4900001</v>
       </c>
       <c r="D248" t="n">
-        <v>175666658241.1893</v>
+        <v>175695565327.2632</v>
       </c>
       <c r="E248" t="n">
-        <v>428.8773584148421</v>
+        <v>428.8797261544617</v>
       </c>
       <c r="F248" t="n">
-        <v>-0.2841618873366628</v>
+        <v>-0.2841579353484607</v>
       </c>
       <c r="G248" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H248" t="n">
         <v>3</v>
       </c>
       <c r="I248" t="n">
-        <v>945.5030243613608</v>
+        <v>945.5082442801263</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -11241,25 +11299,25 @@
         <v>8</v>
       </c>
       <c r="C249" t="n">
-        <v>417740947.91</v>
+        <v>418043252.32</v>
       </c>
       <c r="D249" t="n">
-        <v>177999182805.6885</v>
+        <v>178033417691.8737</v>
       </c>
       <c r="E249" t="n">
-        <v>426.0994372139871</v>
+        <v>425.8732002103797</v>
       </c>
       <c r="F249" t="n">
-        <v>-0.2887985085770503</v>
+        <v>-0.2891761201867549</v>
       </c>
       <c r="G249" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H249" t="n">
         <v>3</v>
       </c>
       <c r="I249" t="n">
-        <v>939.378819281956</v>
+        <v>938.8800571838033</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -11270,25 +11328,112 @@
         <v>9</v>
       </c>
       <c r="C250" t="n">
-        <v>352310703.79</v>
+        <v>352417538.2300001</v>
       </c>
       <c r="D250" t="n">
-        <v>139606021770.1631</v>
+        <v>139622463601.5286</v>
       </c>
       <c r="E250" t="n">
-        <v>396.2582466792646</v>
+        <v>396.1847764523173</v>
       </c>
       <c r="F250" t="n">
-        <v>-0.3386063641163497</v>
+        <v>-0.3387289930860609</v>
       </c>
       <c r="G250" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H250" t="n">
         <v>3</v>
       </c>
       <c r="I250" t="n">
-        <v>873.5909306291068</v>
+        <v>873.4289581667787</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B251" t="n">
+        <v>10</v>
+      </c>
+      <c r="C251" t="n">
+        <v>323249770.21</v>
+      </c>
+      <c r="D251" t="n">
+        <v>119717336999.8478</v>
+      </c>
+      <c r="E251" t="n">
+        <v>370.3555208162193</v>
+      </c>
+      <c r="F251" t="n">
+        <v>-0.3818405382475538</v>
+      </c>
+      <c r="G251" t="s">
+        <v>343</v>
+      </c>
+      <c r="H251" t="n">
+        <v>4</v>
+      </c>
+      <c r="I251" t="n">
+        <v>816.4857811914371</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B252" t="n">
+        <v>11</v>
+      </c>
+      <c r="C252" t="n">
+        <v>318605733</v>
+      </c>
+      <c r="D252" t="n">
+        <v>110400410902.9549</v>
+      </c>
+      <c r="E252" t="n">
+        <v>346.5110620057642</v>
+      </c>
+      <c r="F252" t="n">
+        <v>-0.4216392640544888</v>
+      </c>
+      <c r="G252" t="s">
+        <v>344</v>
+      </c>
+      <c r="H252" t="n">
+        <v>4</v>
+      </c>
+      <c r="I252" t="n">
+        <v>763.9182872979077</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B253" t="n">
+        <v>12</v>
+      </c>
+      <c r="C253" t="n">
+        <v>342378847.14</v>
+      </c>
+      <c r="D253" t="n">
+        <v>114434754489.0752</v>
+      </c>
+      <c r="E253" t="n">
+        <v>334.2343005269901</v>
+      </c>
+      <c r="F253" t="n">
+        <v>-0.4421303755439488</v>
+      </c>
+      <c r="G253" t="s">
+        <v>345</v>
+      </c>
+      <c r="H253" t="n">
+        <v>4</v>
+      </c>
+      <c r="I253" t="n">
+        <v>736.8529389418023</v>
       </c>
     </row>
   </sheetData>

--- a/web_files/US Power Sector CO2 Emissions Intensity.xlsx
+++ b/web_files/US Power Sector CO2 Emissions Intensity.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="350">
   <si>
     <t>year</t>
   </si>
@@ -295,6 +295,9 @@
     <t>2021 Q4</t>
   </si>
   <si>
+    <t>2022 Q1</t>
+  </si>
+  <si>
     <t>month</t>
   </si>
   <si>
@@ -1055,6 +1058,15 @@
   </si>
   <si>
     <t>2021-12-01</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2022-02-01</t>
+  </si>
+  <si>
+    <t>2022-03-01</t>
   </si>
 </sst>
 </file>
@@ -1759,16 +1771,16 @@
         <v>4057943287.12</v>
       </c>
       <c r="C18" t="n">
-        <v>1780391293737.833</v>
+        <v>1780391257722.601</v>
       </c>
       <c r="D18" t="n">
-        <v>438.7422809453335</v>
+        <v>438.7422720700906</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2676963701270405</v>
+        <v>-0.2676963849406859</v>
       </c>
       <c r="F18" t="n">
-        <v>967.251232572082</v>
+        <v>967.2512130057218</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1819,16 +1831,16 @@
         <v>4048186462.070001</v>
       </c>
       <c r="C21" t="n">
-        <v>1485996948166.935</v>
+        <v>1485996493545.837</v>
       </c>
       <c r="D21" t="n">
-        <v>367.0771991582337</v>
+        <v>367.0770868558232</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.3873123766235166</v>
+        <v>-0.3873125640671853</v>
       </c>
       <c r="F21" t="n">
-        <v>809.2583932642418</v>
+        <v>809.2581456823477</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1839,16 +1851,16 @@
         <v>4161810469.8</v>
       </c>
       <c r="C22" t="n">
-        <v>1582529152562.849</v>
+        <v>1582527750597.799</v>
       </c>
       <c r="D22" t="n">
-        <v>380.2501733431649</v>
+        <v>380.249836478942</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.3653253987761503</v>
+        <v>-0.3653259610353716</v>
       </c>
       <c r="F22" t="n">
-        <v>838.2995321523413</v>
+        <v>838.2987895014755</v>
       </c>
     </row>
   </sheetData>
@@ -1862,7 +1874,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3571,19 +3583,19 @@
         <v>959262216.27</v>
       </c>
       <c r="D66" t="n">
-        <v>409258205720.2666</v>
+        <v>409258169705.0341</v>
       </c>
       <c r="E66" t="n">
-        <v>426.6385132019774</v>
+        <v>426.6384756572562</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.2878987382108751</v>
+        <v>-0.2878988008766742</v>
       </c>
       <c r="G66" t="s">
         <v>72</v>
       </c>
       <c r="H66" t="n">
-        <v>940.5672662050797</v>
+        <v>940.5671834339872</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3883,19 +3895,19 @@
         <v>979266652.4400001</v>
       </c>
       <c r="D78" t="n">
-        <v>337650305599.3838</v>
+        <v>337650305690.1022</v>
       </c>
       <c r="E78" t="n">
-        <v>344.7991461345833</v>
+        <v>344.7991462272225</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.4244966184991111</v>
+        <v>-0.4244966183444873</v>
       </c>
       <c r="G78" t="s">
         <v>84</v>
       </c>
       <c r="H78" t="n">
-        <v>760.1441975683025</v>
+        <v>760.144197772535</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3909,19 +3921,19 @@
         <v>948186060.61</v>
       </c>
       <c r="D79" t="n">
-        <v>316251988259.1104</v>
+        <v>316251979608.1971</v>
       </c>
       <c r="E79" t="n">
-        <v>333.5336822560488</v>
+        <v>333.5336731324035</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.4432997757254407</v>
+        <v>-0.4432997909536939</v>
       </c>
       <c r="G79" t="s">
         <v>85</v>
       </c>
       <c r="H79" t="n">
-        <v>735.3083559016852</v>
+        <v>735.3083357876967</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3935,19 +3947,19 @@
         <v>1153270924.68</v>
       </c>
       <c r="D80" t="n">
-        <v>474113890928.8159</v>
+        <v>474113451992.9419</v>
       </c>
       <c r="E80" t="n">
-        <v>411.1036537753425</v>
+        <v>411.1032731745101</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3138279327329512</v>
+        <v>-0.3138285679928366</v>
       </c>
       <c r="G80" t="s">
         <v>86</v>
       </c>
       <c r="H80" t="n">
-        <v>906.3191151131202</v>
+        <v>906.318276040525</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3961,19 +3973,19 @@
         <v>967462824.34</v>
       </c>
       <c r="D81" t="n">
-        <v>357980763379.6246</v>
+        <v>357980756254.5959</v>
       </c>
       <c r="E81" t="n">
-        <v>370.0201748049987</v>
+        <v>370.0201674403451</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3824002634255129</v>
+        <v>-0.3824002757178376</v>
       </c>
       <c r="G81" t="s">
         <v>87</v>
       </c>
       <c r="H81" t="n">
-        <v>815.7464773751002</v>
+        <v>815.7464611389847</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3987,19 +3999,19 @@
         <v>998046306.48</v>
       </c>
       <c r="D82" t="n">
-        <v>378151680384.553</v>
+        <v>378151325881.2662</v>
       </c>
       <c r="E82" t="n">
-        <v>378.8919190716237</v>
+        <v>378.8915638743903</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.3675924575405734</v>
+        <v>-0.367593050399376</v>
       </c>
       <c r="G82" t="s">
         <v>88</v>
       </c>
       <c r="H82" t="n">
-        <v>835.3051247853017</v>
+        <v>835.3043417174807</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4013,19 +4025,19 @@
         <v>999407397.9299998</v>
       </c>
       <c r="D83" t="n">
-        <v>366473523165.7525</v>
+        <v>366473270099.3229</v>
       </c>
       <c r="E83" t="n">
-        <v>366.6908249076428</v>
+        <v>366.6905716911566</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3879572729065633</v>
+        <v>-0.387957695549559</v>
       </c>
       <c r="G83" t="s">
         <v>89</v>
       </c>
       <c r="H83" t="n">
-        <v>808.4065925913893</v>
+        <v>808.4060343503239</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4039,19 +4051,19 @@
         <v>1180122415.04</v>
       </c>
       <c r="D84" t="n">
-        <v>493351446620.6653</v>
+        <v>493350652225.3319</v>
       </c>
       <c r="E84" t="n">
-        <v>418.0510770180933</v>
+        <v>418.0504038715423</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.3022320061950116</v>
+        <v>-0.302233129742215</v>
       </c>
       <c r="G84" t="s">
         <v>90</v>
       </c>
       <c r="H84" t="n">
-        <v>921.6354043940885</v>
+        <v>921.633920375202</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4078,6 +4090,32 @@
       </c>
       <c r="H85" t="n">
         <v>771.7678686006186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1043787867.81</v>
+      </c>
+      <c r="D86" t="n">
+        <v>376073364670.4669</v>
+      </c>
+      <c r="E86" t="n">
+        <v>360.2967387037338</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.3986296259944723</v>
+      </c>
+      <c r="G86" t="s">
+        <v>92</v>
+      </c>
+      <c r="H86" t="n">
+        <v>794.3101901462513</v>
       </c>
     </row>
   </sheetData>
@@ -4091,7 +4129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I253"/>
+  <dimension ref="A1:I256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4104,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4119,7 +4157,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -4148,7 +4186,7 @@
         <v>0.07726515958654644</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -4177,7 +4215,7 @@
         <v>0.06148124887439917</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -4206,7 +4244,7 @@
         <v>0.04746077038960551</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -4235,7 +4273,7 @@
         <v>0.04727244615802906</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
@@ -4264,7 +4302,7 @@
         <v>0.04871093696407162</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
@@ -4293,7 +4331,7 @@
         <v>0.04304157536165719</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
@@ -4322,7 +4360,7 @@
         <v>0.07078023556064666</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
@@ -4351,7 +4389,7 @@
         <v>0.07532787659744344</v>
       </c>
       <c r="G9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
@@ -4380,7 +4418,7 @@
         <v>0.05259835799380738</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
@@ -4409,7 +4447,7 @@
         <v>0.03553213710629145</v>
       </c>
       <c r="G11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -4438,7 +4476,7 @@
         <v>0.02646669802403197</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -4467,7 +4505,7 @@
         <v>0.01912175729454257</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
@@ -4496,7 +4534,7 @@
         <v>0.01111774538231211</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -4525,7 +4563,7 @@
         <v>0.005018273091192093</v>
       </c>
       <c r="G15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -4554,7 +4592,7 @@
         <v>0.01544195713902331</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -4583,7 +4621,7 @@
         <v>0.003355439027818183</v>
       </c>
       <c r="G17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H17" t="n">
         <v>2</v>
@@ -4612,7 +4650,7 @@
         <v>0.00536957613039397</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H18" t="n">
         <v>2</v>
@@ -4641,7 +4679,7 @@
         <v>0.0145689414097139</v>
       </c>
       <c r="G19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
@@ -4670,7 +4708,7 @@
         <v>0.03912865348530959</v>
       </c>
       <c r="G20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
@@ -4699,7 +4737,7 @@
         <v>0.04573043199637251</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
@@ -4728,7 +4766,7 @@
         <v>0.05004182162970362</v>
       </c>
       <c r="G22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
@@ -4757,7 +4795,7 @@
         <v>0.0547357353567896</v>
       </c>
       <c r="G23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H23" t="n">
         <v>4</v>
@@ -4786,7 +4824,7 @@
         <v>0.03397983951034167</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H24" t="n">
         <v>4</v>
@@ -4815,7 +4853,7 @@
         <v>0.03489294255166995</v>
       </c>
       <c r="G25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H25" t="n">
         <v>4</v>
@@ -4844,7 +4882,7 @@
         <v>0.05407231572896915</v>
       </c>
       <c r="G26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -4873,7 +4911,7 @@
         <v>0.0446998960634503</v>
       </c>
       <c r="G27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -4902,7 +4940,7 @@
         <v>0.02564607186253928</v>
       </c>
       <c r="G28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -4931,7 +4969,7 @@
         <v>-0.005255460204990879</v>
       </c>
       <c r="G29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H29" t="n">
         <v>2</v>
@@ -4960,7 +4998,7 @@
         <v>-0.005159282455205773</v>
       </c>
       <c r="G30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H30" t="n">
         <v>2</v>
@@ -4989,7 +5027,7 @@
         <v>0.01662217479072057</v>
       </c>
       <c r="G31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H31" t="n">
         <v>2</v>
@@ -5018,7 +5056,7 @@
         <v>0.03768728145702852</v>
       </c>
       <c r="G32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
@@ -5047,7 +5085,7 @@
         <v>0.04140058597533856</v>
       </c>
       <c r="G33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H33" t="n">
         <v>3</v>
@@ -5076,7 +5114,7 @@
         <v>0.04146258828233757</v>
       </c>
       <c r="G34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H34" t="n">
         <v>3</v>
@@ -5105,7 +5143,7 @@
         <v>0.05070299868862761</v>
       </c>
       <c r="G35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H35" t="n">
         <v>4</v>
@@ -5134,7 +5172,7 @@
         <v>0.04234991120899041</v>
       </c>
       <c r="G36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H36" t="n">
         <v>4</v>
@@ -5163,7 +5201,7 @@
         <v>0.03310887154716038</v>
       </c>
       <c r="G37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H37" t="n">
         <v>4</v>
@@ -5192,7 +5230,7 @@
         <v>0.03014022625659499</v>
       </c>
       <c r="G38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -5221,7 +5259,7 @@
         <v>0.01239560014339367</v>
       </c>
       <c r="G39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -5250,7 +5288,7 @@
         <v>-0.01037094285092945</v>
       </c>
       <c r="G40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -5279,7 +5317,7 @@
         <v>-0.02234624922534889</v>
       </c>
       <c r="G41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H41" t="n">
         <v>2</v>
@@ -5308,7 +5346,7 @@
         <v>-0.01332959283944984</v>
       </c>
       <c r="G42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H42" t="n">
         <v>2</v>
@@ -5337,7 +5375,7 @@
         <v>-0.007522138257441214</v>
       </c>
       <c r="G43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H43" t="n">
         <v>2</v>
@@ -5366,7 +5404,7 @@
         <v>0.002774173076043244</v>
       </c>
       <c r="G44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H44" t="n">
         <v>3</v>
@@ -5395,7 +5433,7 @@
         <v>0.005812723595943646</v>
       </c>
       <c r="G45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H45" t="n">
         <v>3</v>
@@ -5424,7 +5462,7 @@
         <v>-0.0001281622510707689</v>
       </c>
       <c r="G46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H46" t="n">
         <v>3</v>
@@ -5453,7 +5491,7 @@
         <v>0.005798551352125575</v>
       </c>
       <c r="G47" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H47" t="n">
         <v>4</v>
@@ -5482,7 +5520,7 @@
         <v>0.0142697616731208</v>
       </c>
       <c r="G48" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H48" t="n">
         <v>4</v>
@@ -5511,7 +5549,7 @@
         <v>0.006630546904983436</v>
       </c>
       <c r="G49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H49" t="n">
         <v>4</v>
@@ -5540,7 +5578,7 @@
         <v>0.01135874913719794</v>
       </c>
       <c r="G50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -5569,7 +5607,7 @@
         <v>0.00158584139446698</v>
       </c>
       <c r="G51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -5598,7 +5636,7 @@
         <v>0.0004943352228414668</v>
       </c>
       <c r="G52" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -5627,7 +5665,7 @@
         <v>-0.03023291224285088</v>
       </c>
       <c r="G53" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H53" t="n">
         <v>2</v>
@@ -5656,7 +5694,7 @@
         <v>-0.03619156271650293</v>
       </c>
       <c r="G54" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H54" t="n">
         <v>2</v>
@@ -5685,7 +5723,7 @@
         <v>-0.007018965988378289</v>
       </c>
       <c r="G55" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
@@ -5714,7 +5752,7 @@
         <v>-0.0008959033638951873</v>
       </c>
       <c r="G56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H56" t="n">
         <v>3</v>
@@ -5743,7 +5781,7 @@
         <v>0.007925452227224232</v>
       </c>
       <c r="G57" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H57" t="n">
         <v>3</v>
@@ -5772,7 +5810,7 @@
         <v>0.01721030590351288</v>
       </c>
       <c r="G58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H58" t="n">
         <v>3</v>
@@ -5801,7 +5839,7 @@
         <v>0.02231843704751483</v>
       </c>
       <c r="G59" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H59" t="n">
         <v>4</v>
@@ -5830,7 +5868,7 @@
         <v>0.002897748801680964</v>
       </c>
       <c r="G60" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H60" t="n">
         <v>4</v>
@@ -5859,7 +5897,7 @@
         <v>0.00389971424966281</v>
       </c>
       <c r="G61" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H61" t="n">
         <v>4</v>
@@ -5888,7 +5926,7 @@
         <v>-0.02748121131636642</v>
       </c>
       <c r="G62" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -5917,7 +5955,7 @@
         <v>-0.01857254232013877</v>
       </c>
       <c r="G63" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -5946,7 +5984,7 @@
         <v>-0.02435619078134472</v>
       </c>
       <c r="G64" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -5975,7 +6013,7 @@
         <v>-0.06369815302300276</v>
       </c>
       <c r="G65" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H65" t="n">
         <v>2</v>
@@ -6004,7 +6042,7 @@
         <v>-0.05404582225952413</v>
       </c>
       <c r="G66" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H66" t="n">
         <v>2</v>
@@ -6033,7 +6071,7 @@
         <v>-0.04243926553323214</v>
       </c>
       <c r="G67" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H67" t="n">
         <v>2</v>
@@ -6062,7 +6100,7 @@
         <v>-0.01354297585931169</v>
       </c>
       <c r="G68" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H68" t="n">
         <v>3</v>
@@ -6091,7 +6129,7 @@
         <v>-0.004118886890496862</v>
       </c>
       <c r="G69" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H69" t="n">
         <v>3</v>
@@ -6120,7 +6158,7 @@
         <v>-0.01455882450582037</v>
       </c>
       <c r="G70" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H70" t="n">
         <v>3</v>
@@ -6149,7 +6187,7 @@
         <v>0.00439522235340898</v>
       </c>
       <c r="G71" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H71" t="n">
         <v>4</v>
@@ -6178,7 +6216,7 @@
         <v>-0.003746313420402704</v>
       </c>
       <c r="G72" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H72" t="n">
         <v>4</v>
@@ -6207,7 +6245,7 @@
         <v>-0.01605853233048685</v>
       </c>
       <c r="G73" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H73" t="n">
         <v>4</v>
@@ -6236,7 +6274,7 @@
         <v>-0.03511432398711213</v>
       </c>
       <c r="G74" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
@@ -6265,7 +6303,7 @@
         <v>-0.008437620703637254</v>
       </c>
       <c r="G75" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -6294,7 +6332,7 @@
         <v>-0.03117857292861368</v>
       </c>
       <c r="G76" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
@@ -6323,7 +6361,7 @@
         <v>-0.03928361585166878</v>
       </c>
       <c r="G77" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H77" t="n">
         <v>2</v>
@@ -6352,7 +6390,7 @@
         <v>-0.03788195719455209</v>
       </c>
       <c r="G78" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H78" t="n">
         <v>2</v>
@@ -6381,7 +6419,7 @@
         <v>-0.0177532915761511</v>
       </c>
       <c r="G79" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H79" t="n">
         <v>2</v>
@@ -6410,7 +6448,7 @@
         <v>-0.01310236048309173</v>
       </c>
       <c r="G80" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H80" t="n">
         <v>3</v>
@@ -6439,7 +6477,7 @@
         <v>-0.008678539752206496</v>
       </c>
       <c r="G81" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H81" t="n">
         <v>3</v>
@@ -6468,7 +6506,7 @@
         <v>-0.004141764801333879</v>
       </c>
       <c r="G82" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H82" t="n">
         <v>3</v>
@@ -6497,7 +6535,7 @@
         <v>1.642574651693381e-05</v>
       </c>
       <c r="G83" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H83" t="n">
         <v>4</v>
@@ -6526,7 +6564,7 @@
         <v>-0.01470502580322882</v>
       </c>
       <c r="G84" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H84" t="n">
         <v>4</v>
@@ -6555,7 +6593,7 @@
         <v>-0.01552034206631986</v>
       </c>
       <c r="G85" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H85" t="n">
         <v>4</v>
@@ -6584,7 +6622,7 @@
         <v>-0.01703554138701916</v>
       </c>
       <c r="G86" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -6613,7 +6651,7 @@
         <v>-0.01289961080171436</v>
       </c>
       <c r="G87" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -6642,7 +6680,7 @@
         <v>-0.03539719528073028</v>
       </c>
       <c r="G88" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H88" t="n">
         <v>1</v>
@@ -6671,7 +6709,7 @@
         <v>-0.04508011761521417</v>
       </c>
       <c r="G89" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H89" t="n">
         <v>2</v>
@@ -6700,7 +6738,7 @@
         <v>-0.04957830570333151</v>
       </c>
       <c r="G90" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H90" t="n">
         <v>2</v>
@@ -6729,7 +6767,7 @@
         <v>-0.04880070678863985</v>
       </c>
       <c r="G91" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H91" t="n">
         <v>2</v>
@@ -6758,7 +6796,7 @@
         <v>-0.0274894180589785</v>
       </c>
       <c r="G92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H92" t="n">
         <v>3</v>
@@ -6787,7 +6825,7 @@
         <v>-0.02085837505734224</v>
       </c>
       <c r="G93" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H93" t="n">
         <v>3</v>
@@ -6816,7 +6854,7 @@
         <v>-0.01669978454361145</v>
       </c>
       <c r="G94" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H94" t="n">
         <v>3</v>
@@ -6845,7 +6883,7 @@
         <v>-0.02999219344874965</v>
       </c>
       <c r="G95" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H95" t="n">
         <v>4</v>
@@ -6874,7 +6912,7 @@
         <v>-0.03080314982097817</v>
       </c>
       <c r="G96" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H96" t="n">
         <v>4</v>
@@ -6903,7 +6941,7 @@
         <v>-0.04600766838125035</v>
       </c>
       <c r="G97" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H97" t="n">
         <v>4</v>
@@ -6932,7 +6970,7 @@
         <v>-0.05120162818415125</v>
       </c>
       <c r="G98" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -6961,7 +6999,7 @@
         <v>-0.06946387564298999</v>
       </c>
       <c r="G99" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -6990,7 +7028,7 @@
         <v>-0.1036546461764051</v>
       </c>
       <c r="G100" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -7019,7 +7057,7 @@
         <v>-0.1132003468526878</v>
       </c>
       <c r="G101" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H101" t="n">
         <v>2</v>
@@ -7048,7 +7086,7 @@
         <v>-0.1231526853843904</v>
       </c>
       <c r="G102" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H102" t="n">
         <v>2</v>
@@ -7077,7 +7115,7 @@
         <v>-0.09824471735940328</v>
       </c>
       <c r="G103" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H103" t="n">
         <v>2</v>
@@ -7106,7 +7144,7 @@
         <v>-0.07814873051753744</v>
       </c>
       <c r="G104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H104" t="n">
         <v>3</v>
@@ -7135,7 +7173,7 @@
         <v>-0.06154119196398707</v>
       </c>
       <c r="G105" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H105" t="n">
         <v>3</v>
@@ -7164,7 +7202,7 @@
         <v>-0.08482590072322678</v>
       </c>
       <c r="G106" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H106" t="n">
         <v>3</v>
@@ -7193,7 +7231,7 @@
         <v>-0.06247745046076886</v>
       </c>
       <c r="G107" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H107" t="n">
         <v>4</v>
@@ -7222,7 +7260,7 @@
         <v>-0.07638944036519341</v>
       </c>
       <c r="G108" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H108" t="n">
         <v>4</v>
@@ -7251,7 +7289,7 @@
         <v>-0.0644347984976382</v>
       </c>
       <c r="G109" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H109" t="n">
         <v>4</v>
@@ -7280,7 +7318,7 @@
         <v>-0.04887888511804193</v>
       </c>
       <c r="G110" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -7309,7 +7347,7 @@
         <v>-0.05824901131996075</v>
       </c>
       <c r="G111" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -7338,7 +7376,7 @@
         <v>-0.07735500066924438</v>
       </c>
       <c r="G112" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -7367,7 +7405,7 @@
         <v>-0.1010216533461995</v>
       </c>
       <c r="G113" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H113" t="n">
         <v>2</v>
@@ -7396,7 +7434,7 @@
         <v>-0.08979291342863048</v>
       </c>
       <c r="G114" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H114" t="n">
         <v>2</v>
@@ -7425,7 +7463,7 @@
         <v>-0.06523693924714864</v>
       </c>
       <c r="G115" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H115" t="n">
         <v>2</v>
@@ -7454,7 +7492,7 @@
         <v>-0.04073938031503192</v>
       </c>
       <c r="G116" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H116" t="n">
         <v>3</v>
@@ -7483,7 +7521,7 @@
         <v>-0.03675318119060648</v>
       </c>
       <c r="G117" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H117" t="n">
         <v>3</v>
@@ -7512,7 +7550,7 @@
         <v>-0.07200625095184729</v>
       </c>
       <c r="G118" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H118" t="n">
         <v>3</v>
@@ -7541,7 +7579,7 @@
         <v>-0.08798527911840713</v>
       </c>
       <c r="G119" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H119" t="n">
         <v>4</v>
@@ -7570,7 +7608,7 @@
         <v>-0.09297821868055464</v>
       </c>
       <c r="G120" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H120" t="n">
         <v>4</v>
@@ -7599,7 +7637,7 @@
         <v>-0.06888310992261693</v>
       </c>
       <c r="G121" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H121" t="n">
         <v>4</v>
@@ -7628,7 +7666,7 @@
         <v>-0.06178048242187467</v>
       </c>
       <c r="G122" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H122" t="n">
         <v>1</v>
@@ -7657,7 +7695,7 @@
         <v>-0.1000936172885355</v>
       </c>
       <c r="G123" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H123" t="n">
         <v>1</v>
@@ -7686,7 +7724,7 @@
         <v>-0.1291852192317147</v>
       </c>
       <c r="G124" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H124" t="n">
         <v>1</v>
@@ -7715,7 +7753,7 @@
         <v>-0.1349286593214785</v>
       </c>
       <c r="G125" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H125" t="n">
         <v>2</v>
@@ -7744,7 +7782,7 @@
         <v>-0.1059767951386544</v>
       </c>
       <c r="G126" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H126" t="n">
         <v>2</v>
@@ -7773,7 +7811,7 @@
         <v>-0.08100623238321605</v>
       </c>
       <c r="G127" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H127" t="n">
         <v>2</v>
@@ -7802,7 +7840,7 @@
         <v>-0.06182346578675463</v>
       </c>
       <c r="G128" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H128" t="n">
         <v>3</v>
@@ -7831,7 +7869,7 @@
         <v>-0.05964940511505106</v>
       </c>
       <c r="G129" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H129" t="n">
         <v>3</v>
@@ -7860,7 +7898,7 @@
         <v>-0.09033418185281776</v>
       </c>
       <c r="G130" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H130" t="n">
         <v>3</v>
@@ -7889,7 +7927,7 @@
         <v>-0.1209453212996621</v>
       </c>
       <c r="G131" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H131" t="n">
         <v>4</v>
@@ -7918,7 +7956,7 @@
         <v>-0.1459005022821765</v>
       </c>
       <c r="G132" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H132" t="n">
         <v>4</v>
@@ -7947,7 +7985,7 @@
         <v>-0.1448488501900193</v>
       </c>
       <c r="G133" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H133" t="n">
         <v>4</v>
@@ -7976,7 +8014,7 @@
         <v>-0.1655763252055769</v>
       </c>
       <c r="G134" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H134" t="n">
         <v>1</v>
@@ -8005,7 +8043,7 @@
         <v>-0.1688911694373849</v>
       </c>
       <c r="G135" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H135" t="n">
         <v>1</v>
@@ -8034,7 +8072,7 @@
         <v>-0.2028670378612283</v>
       </c>
       <c r="G136" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H136" t="n">
         <v>1</v>
@@ -8063,7 +8101,7 @@
         <v>-0.2134057489880342</v>
       </c>
       <c r="G137" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H137" t="n">
         <v>2</v>
@@ -8092,7 +8130,7 @@
         <v>-0.1749812727404239</v>
       </c>
       <c r="G138" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H138" t="n">
         <v>2</v>
@@ -8121,7 +8159,7 @@
         <v>-0.1347918402698311</v>
       </c>
       <c r="G139" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H139" t="n">
         <v>2</v>
@@ -8150,7 +8188,7 @@
         <v>-0.08586223777017178</v>
       </c>
       <c r="G140" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H140" t="n">
         <v>3</v>
@@ -8179,7 +8217,7 @@
         <v>-0.09583191040525134</v>
       </c>
       <c r="G141" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H141" t="n">
         <v>3</v>
@@ -8208,7 +8246,7 @@
         <v>-0.1212322273746679</v>
       </c>
       <c r="G142" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H142" t="n">
         <v>3</v>
@@ -8237,7 +8275,7 @@
         <v>-0.129102300586045</v>
       </c>
       <c r="G143" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H143" t="n">
         <v>4</v>
@@ -8266,7 +8304,7 @@
         <v>-0.1039715128513308</v>
       </c>
       <c r="G144" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H144" t="n">
         <v>4</v>
@@ -8295,7 +8333,7 @@
         <v>-0.1496721864525716</v>
       </c>
       <c r="G145" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H145" t="n">
         <v>4</v>
@@ -8324,7 +8362,7 @@
         <v>-0.1485950966778196</v>
       </c>
       <c r="G146" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H146" t="n">
         <v>1</v>
@@ -8353,7 +8391,7 @@
         <v>-0.1453191509395424</v>
       </c>
       <c r="G147" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H147" t="n">
         <v>1</v>
@@ -8382,7 +8420,7 @@
         <v>-0.1386137286143759</v>
       </c>
       <c r="G148" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H148" t="n">
         <v>1</v>
@@ -8411,7 +8449,7 @@
         <v>-0.1821176698641508</v>
       </c>
       <c r="G149" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H149" t="n">
         <v>2</v>
@@ -8440,7 +8478,7 @@
         <v>-0.1753849584375484</v>
       </c>
       <c r="G150" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H150" t="n">
         <v>2</v>
@@ -8469,7 +8507,7 @@
         <v>-0.1318617696780832</v>
       </c>
       <c r="G151" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H151" t="n">
         <v>2</v>
@@ -8498,7 +8536,7 @@
         <v>-0.1101436776426027</v>
       </c>
       <c r="G152" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H152" t="n">
         <v>3</v>
@@ -8527,7 +8565,7 @@
         <v>-0.1060635716230746</v>
       </c>
       <c r="G153" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H153" t="n">
         <v>3</v>
@@ -8556,7 +8594,7 @@
         <v>-0.1135076765290571</v>
       </c>
       <c r="G154" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H154" t="n">
         <v>3</v>
@@ -8585,7 +8623,7 @@
         <v>-0.1418977671176893</v>
       </c>
       <c r="G155" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H155" t="n">
         <v>4</v>
@@ -8614,7 +8652,7 @@
         <v>-0.1588730158378348</v>
       </c>
       <c r="G156" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H156" t="n">
         <v>4</v>
@@ -8643,7 +8681,7 @@
         <v>-0.1335320259427519</v>
       </c>
       <c r="G157" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H157" t="n">
         <v>4</v>
@@ -8672,7 +8710,7 @@
         <v>-0.1164131022017796</v>
       </c>
       <c r="G158" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H158" t="n">
         <v>1</v>
@@ -8701,7 +8739,7 @@
         <v>-0.0923418866169386</v>
       </c>
       <c r="G159" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H159" t="n">
         <v>1</v>
@@ -8730,7 +8768,7 @@
         <v>-0.1404816966956581</v>
       </c>
       <c r="G160" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H160" t="n">
         <v>1</v>
@@ -8759,7 +8797,7 @@
         <v>-0.197945947418328</v>
       </c>
       <c r="G161" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H161" t="n">
         <v>2</v>
@@ -8788,7 +8826,7 @@
         <v>-0.1819354724392175</v>
       </c>
       <c r="G162" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H162" t="n">
         <v>2</v>
@@ -8817,7 +8855,7 @@
         <v>-0.1479474566349976</v>
       </c>
       <c r="G163" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H163" t="n">
         <v>2</v>
@@ -8846,7 +8884,7 @@
         <v>-0.1235313041672395</v>
       </c>
       <c r="G164" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H164" t="n">
         <v>3</v>
@@ -8875,7 +8913,7 @@
         <v>-0.1112741347294435</v>
       </c>
       <c r="G165" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H165" t="n">
         <v>3</v>
@@ -8904,7 +8942,7 @@
         <v>-0.1428296784477253</v>
       </c>
       <c r="G166" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H166" t="n">
         <v>3</v>
@@ -8933,7 +8971,7 @@
         <v>-0.1802065536720951</v>
       </c>
       <c r="G167" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H167" t="n">
         <v>4</v>
@@ -8962,7 +9000,7 @@
         <v>-0.180532401917788</v>
       </c>
       <c r="G168" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H168" t="n">
         <v>4</v>
@@ -8991,7 +9029,7 @@
         <v>-0.1860946713115287</v>
       </c>
       <c r="G169" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H169" t="n">
         <v>4</v>
@@ -9020,7 +9058,7 @@
         <v>-0.1802898439174715</v>
       </c>
       <c r="G170" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H170" t="n">
         <v>1</v>
@@ -9049,7 +9087,7 @@
         <v>-0.1566803354689635</v>
       </c>
       <c r="G171" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H171" t="n">
         <v>1</v>
@@ -9078,7 +9116,7 @@
         <v>-0.22011711074079</v>
       </c>
       <c r="G172" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H172" t="n">
         <v>1</v>
@@ -9107,7 +9145,7 @@
         <v>-0.2635780290674819</v>
       </c>
       <c r="G173" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H173" t="n">
         <v>2</v>
@@ -9136,7 +9174,7 @@
         <v>-0.2131817925411625</v>
       </c>
       <c r="G174" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H174" t="n">
         <v>2</v>
@@ -9165,7 +9203,7 @@
         <v>-0.1607103407626615</v>
       </c>
       <c r="G175" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H175" t="n">
         <v>2</v>
@@ -9194,7 +9232,7 @@
         <v>-0.1444196700588657</v>
       </c>
       <c r="G176" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H176" t="n">
         <v>3</v>
@@ -9223,7 +9261,7 @@
         <v>-0.1473152500075293</v>
       </c>
       <c r="G177" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H177" t="n">
         <v>3</v>
@@ -9252,7 +9290,7 @@
         <v>-0.1646447298007863</v>
       </c>
       <c r="G178" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H178" t="n">
         <v>3</v>
@@ -9281,7 +9319,7 @@
         <v>-0.2123234195987917</v>
       </c>
       <c r="G179" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H179" t="n">
         <v>4</v>
@@ -9310,7 +9348,7 @@
         <v>-0.2528116866608218</v>
       </c>
       <c r="G180" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H180" t="n">
         <v>4</v>
@@ -9339,7 +9377,7 @@
         <v>-0.2839375760417253</v>
       </c>
       <c r="G181" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H181" t="n">
         <v>4</v>
@@ -9368,7 +9406,7 @@
         <v>-0.2400061566133997</v>
       </c>
       <c r="G182" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H182" t="n">
         <v>1</v>
@@ -9397,7 +9435,7 @@
         <v>-0.2805250737964466</v>
       </c>
       <c r="G183" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H183" t="n">
         <v>1</v>
@@ -9426,7 +9464,7 @@
         <v>-0.3506092336582653</v>
       </c>
       <c r="G184" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H184" t="n">
         <v>1</v>
@@ -9455,7 +9493,7 @@
         <v>-0.3390159398813397</v>
       </c>
       <c r="G185" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H185" t="n">
         <v>2</v>
@@ -9484,7 +9522,7 @@
         <v>-0.3073294158345691</v>
       </c>
       <c r="G186" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H186" t="n">
         <v>2</v>
@@ -9513,7 +9551,7 @@
         <v>-0.2071237982125636</v>
       </c>
       <c r="G187" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H187" t="n">
         <v>2</v>
@@ -9542,7 +9580,7 @@
         <v>-0.1694182410214291</v>
       </c>
       <c r="G188" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H188" t="n">
         <v>3</v>
@@ -9571,7 +9609,7 @@
         <v>-0.1635056442808753</v>
       </c>
       <c r="G189" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H189" t="n">
         <v>3</v>
@@ -9600,7 +9638,7 @@
         <v>-0.1925494697193519</v>
       </c>
       <c r="G190" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H190" t="n">
         <v>3</v>
@@ -9629,7 +9667,7 @@
         <v>-0.2304731362859669</v>
       </c>
       <c r="G191" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H191" t="n">
         <v>4</v>
@@ -9658,7 +9696,7 @@
         <v>-0.2810974055067678</v>
       </c>
       <c r="G192" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H192" t="n">
         <v>4</v>
@@ -9687,7 +9725,7 @@
         <v>-0.2280709533562151</v>
       </c>
       <c r="G193" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H193" t="n">
         <v>4</v>
@@ -9716,7 +9754,7 @@
         <v>-0.2461480943190116</v>
       </c>
       <c r="G194" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H194" t="n">
         <v>1</v>
@@ -9745,7 +9783,7 @@
         <v>-0.3025368642110368</v>
       </c>
       <c r="G195" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H195" t="n">
         <v>1</v>
@@ -9765,22 +9803,22 @@
         <v>321286820.5700001</v>
       </c>
       <c r="D196" t="n">
-        <v>130994115320.8105</v>
+        <v>130994079305.5779</v>
       </c>
       <c r="E196" t="n">
-        <v>407.7170519737216</v>
+        <v>407.7169398768963</v>
       </c>
       <c r="F196" t="n">
-        <v>-0.319480501222402</v>
+        <v>-0.3194806883229291</v>
       </c>
       <c r="G196" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H196" t="n">
         <v>1</v>
       </c>
       <c r="I196" t="n">
-        <v>898.8530127812667</v>
+        <v>898.8527656526056</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -9803,7 +9841,7 @@
         <v>-0.3270902049835153</v>
       </c>
       <c r="G197" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H197" t="n">
         <v>2</v>
@@ -9832,7 +9870,7 @@
         <v>-0.2990575809240933</v>
       </c>
       <c r="G198" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H198" t="n">
         <v>2</v>
@@ -9861,7 +9899,7 @@
         <v>-0.2562836609854194</v>
       </c>
       <c r="G199" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H199" t="n">
         <v>2</v>
@@ -9890,7 +9928,7 @@
         <v>-0.2010467756455217</v>
       </c>
       <c r="G200" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H200" t="n">
         <v>3</v>
@@ -9919,7 +9957,7 @@
         <v>-0.213971467807082</v>
       </c>
       <c r="G201" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H201" t="n">
         <v>3</v>
@@ -9948,7 +9986,7 @@
         <v>-0.2482070824394809</v>
       </c>
       <c r="G202" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H202" t="n">
         <v>3</v>
@@ -9977,7 +10015,7 @@
         <v>-0.2840366340830449</v>
       </c>
       <c r="G203" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H203" t="n">
         <v>4</v>
@@ -10006,7 +10044,7 @@
         <v>-0.2875326342225712</v>
       </c>
       <c r="G204" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H204" t="n">
         <v>4</v>
@@ -10035,7 +10073,7 @@
         <v>-0.2676507474369752</v>
       </c>
       <c r="G205" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H205" t="n">
         <v>4</v>
@@ -10064,7 +10102,7 @@
         <v>-0.2415949115728028</v>
       </c>
       <c r="G206" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H206" t="n">
         <v>1</v>
@@ -10093,7 +10131,7 @@
         <v>-0.332725019453499</v>
       </c>
       <c r="G207" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H207" t="n">
         <v>1</v>
@@ -10122,7 +10160,7 @@
         <v>-0.3510816201059087</v>
       </c>
       <c r="G208" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H208" t="n">
         <v>1</v>
@@ -10151,7 +10189,7 @@
         <v>-0.3611983438698474</v>
       </c>
       <c r="G209" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H209" t="n">
         <v>2</v>
@@ -10180,7 +10218,7 @@
         <v>-0.3244605742939404</v>
       </c>
       <c r="G210" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H210" t="n">
         <v>2</v>
@@ -10209,7 +10247,7 @@
         <v>-0.2840295410186381</v>
       </c>
       <c r="G211" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H211" t="n">
         <v>2</v>
@@ -10238,7 +10276,7 @@
         <v>-0.2329972283644755</v>
       </c>
       <c r="G212" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H212" t="n">
         <v>3</v>
@@ -10267,7 +10305,7 @@
         <v>-0.2377572989175397</v>
       </c>
       <c r="G213" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H213" t="n">
         <v>3</v>
@@ -10296,7 +10334,7 @@
         <v>-0.2538286078141943</v>
       </c>
       <c r="G214" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H214" t="n">
         <v>3</v>
@@ -10325,7 +10363,7 @@
         <v>-0.2816266422908803</v>
       </c>
       <c r="G215" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H215" t="n">
         <v>4</v>
@@ -10354,7 +10392,7 @@
         <v>-0.288806377524938</v>
       </c>
       <c r="G216" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H216" t="n">
         <v>4</v>
@@ -10383,7 +10421,7 @@
         <v>-0.2919530220579033</v>
       </c>
       <c r="G217" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H217" t="n">
         <v>4</v>
@@ -10412,7 +10450,7 @@
         <v>-0.2993275647374531</v>
       </c>
       <c r="G218" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H218" t="n">
         <v>1</v>
@@ -10441,7 +10479,7 @@
         <v>-0.3356445522923357</v>
       </c>
       <c r="G219" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H219" t="n">
         <v>1</v>
@@ -10470,7 +10508,7 @@
         <v>-0.3553661131580275</v>
       </c>
       <c r="G220" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H220" t="n">
         <v>1</v>
@@ -10499,7 +10537,7 @@
         <v>-0.4170015979614981</v>
       </c>
       <c r="G221" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H221" t="n">
         <v>2</v>
@@ -10528,7 +10566,7 @@
         <v>-0.3784624908526269</v>
       </c>
       <c r="G222" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H222" t="n">
         <v>2</v>
@@ -10557,7 +10595,7 @@
         <v>-0.3456080601888014</v>
       </c>
       <c r="G223" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H223" t="n">
         <v>2</v>
@@ -10586,7 +10624,7 @@
         <v>-0.2783803767676555</v>
       </c>
       <c r="G224" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H224" t="n">
         <v>3</v>
@@ -10615,7 +10653,7 @@
         <v>-0.2864173540324525</v>
       </c>
       <c r="G225" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H225" t="n">
         <v>3</v>
@@ -10644,7 +10682,7 @@
         <v>-0.2992172447494904</v>
       </c>
       <c r="G226" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H226" t="n">
         <v>3</v>
@@ -10673,7 +10711,7 @@
         <v>-0.3575049919490488</v>
       </c>
       <c r="G227" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H227" t="n">
         <v>4</v>
@@ -10702,7 +10740,7 @@
         <v>-0.3427280136215691</v>
       </c>
       <c r="G228" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H228" t="n">
         <v>4</v>
@@ -10731,7 +10769,7 @@
         <v>-0.3751805618864032</v>
       </c>
       <c r="G229" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H229" t="n">
         <v>4</v>
@@ -10751,22 +10789,22 @@
         <v>344137138.27</v>
       </c>
       <c r="D230" t="n">
-        <v>122432707772.8613</v>
+        <v>122432707863.5797</v>
       </c>
       <c r="E230" t="n">
-        <v>355.7672048658816</v>
+        <v>355.767205129493</v>
       </c>
       <c r="F230" t="n">
-        <v>-0.4061898594507615</v>
+        <v>-0.4061898590107684</v>
       </c>
       <c r="G230" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H230" t="n">
         <v>1</v>
       </c>
       <c r="I230" t="n">
-        <v>784.3243798473227</v>
+        <v>784.3243804284803</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -10789,7 +10827,7 @@
         <v>-0.4285706679561818</v>
       </c>
       <c r="G231" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H231" t="n">
         <v>1</v>
@@ -10818,7 +10856,7 @@
         <v>-0.4404322549167903</v>
       </c>
       <c r="G232" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H232" t="n">
         <v>1</v>
@@ -10838,22 +10876,22 @@
         <v>283375147.85</v>
       </c>
       <c r="D233" t="n">
-        <v>87920424893.02678</v>
+        <v>87920425078.99965</v>
       </c>
       <c r="E233" t="n">
-        <v>310.2615933686818</v>
+        <v>310.2615940249597</v>
       </c>
       <c r="F233" t="n">
-        <v>-0.4821431603434563</v>
+        <v>-0.4821431592480644</v>
       </c>
       <c r="G233" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H233" t="n">
         <v>2</v>
       </c>
       <c r="I233" t="n">
-        <v>684.0027087405958</v>
+        <v>684.0027101874263</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -10876,7 +10914,7 @@
         <v>-0.4694933678379048</v>
       </c>
       <c r="G234" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H234" t="n">
         <v>2</v>
@@ -10896,22 +10934,22 @@
         <v>355984508.1600001</v>
       </c>
       <c r="D235" t="n">
-        <v>130174050669.5015</v>
+        <v>130174041832.6154</v>
       </c>
       <c r="E235" t="n">
-        <v>365.6733584906277</v>
+        <v>365.6733336668336</v>
       </c>
       <c r="F235" t="n">
-        <v>-0.3896555235261493</v>
+        <v>-0.3896555649594812</v>
       </c>
       <c r="G235" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H235" t="n">
         <v>2</v>
       </c>
       <c r="I235" t="n">
-        <v>806.163486128438</v>
+        <v>806.1634314019012</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -10925,22 +10963,22 @@
         <v>413934276.52</v>
       </c>
       <c r="D236" t="n">
-        <v>173845553676.9756</v>
+        <v>173845407859.7357</v>
       </c>
       <c r="E236" t="n">
-        <v>419.9834696911743</v>
+        <v>419.9831174196949</v>
       </c>
       <c r="F236" t="n">
-        <v>-0.2990066544787646</v>
+        <v>-0.2990072424541986</v>
       </c>
       <c r="G236" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H236" t="n">
         <v>3</v>
       </c>
       <c r="I236" t="n">
-        <v>925.8955572811631</v>
+        <v>925.8947806634596</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -10954,22 +10992,22 @@
         <v>402414129.9300001</v>
       </c>
       <c r="D237" t="n">
-        <v>169684842457.144</v>
+        <v>169684665325.7025</v>
       </c>
       <c r="E237" t="n">
-        <v>421.6672075770812</v>
+        <v>421.666767405059</v>
       </c>
       <c r="F237" t="n">
-        <v>-0.2961963318379933</v>
+        <v>-0.2961970665280009</v>
       </c>
       <c r="G237" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H237" t="n">
         <v>3</v>
       </c>
       <c r="I237" t="n">
-        <v>929.6075258244335</v>
+        <v>929.6065554211932</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -10983,22 +11021,22 @@
         <v>336922518.2300001</v>
       </c>
       <c r="D238" t="n">
-        <v>130583494794.6964</v>
+        <v>130583378807.5038</v>
       </c>
       <c r="E238" t="n">
-        <v>387.5772254128576</v>
+        <v>387.5768811580621</v>
       </c>
       <c r="F238" t="n">
-        <v>-0.3530958347246913</v>
+        <v>-0.3530964093194986</v>
       </c>
       <c r="G238" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H238" t="n">
         <v>3</v>
       </c>
       <c r="I238" t="n">
-        <v>854.452751145186</v>
+        <v>854.4519922010637</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -11012,22 +11050,22 @@
         <v>316786009.82</v>
       </c>
       <c r="D239" t="n">
-        <v>117566943678.2126</v>
+        <v>117566941546.3286</v>
       </c>
       <c r="E239" t="n">
-        <v>371.1241659472744</v>
+        <v>371.1241592175453</v>
       </c>
       <c r="F239" t="n">
-        <v>-0.3805575946061455</v>
+        <v>-0.3805576058387193</v>
       </c>
       <c r="G239" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H239" t="n">
         <v>4</v>
       </c>
       <c r="I239" t="n">
-        <v>818.1803362473612</v>
+        <v>818.1803214110004</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -11041,22 +11079,22 @@
         <v>303889691.58</v>
       </c>
       <c r="D240" t="n">
-        <v>107907532580.8874</v>
+        <v>107907524948.7426</v>
       </c>
       <c r="E240" t="n">
-        <v>355.0878347332174</v>
+        <v>355.0878096183645</v>
       </c>
       <c r="F240" t="n">
-        <v>-0.4073237944184727</v>
+        <v>-0.4073238363376099</v>
       </c>
       <c r="G240" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H240" t="n">
         <v>4</v>
       </c>
       <c r="I240" t="n">
-        <v>782.8266404528509</v>
+        <v>782.8265850846465</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -11070,22 +11108,22 @@
         <v>346787122.9400001</v>
       </c>
       <c r="D241" t="n">
-        <v>132506287120.5246</v>
+        <v>132506289759.5249</v>
       </c>
       <c r="E241" t="n">
-        <v>382.0969071664473</v>
+        <v>382.096914776304</v>
       </c>
       <c r="F241" t="n">
-        <v>-0.3622430200291442</v>
+        <v>-0.3622430073275517</v>
       </c>
       <c r="G241" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H241" t="n">
         <v>4</v>
       </c>
       <c r="I241" t="n">
-        <v>842.3708415391498</v>
+        <v>842.3708583158399</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -11099,22 +11137,22 @@
         <v>353404784.29</v>
       </c>
       <c r="D242" t="n">
-        <v>134312095704.0103</v>
+        <v>134312094293.338</v>
       </c>
       <c r="E242" t="n">
-        <v>380.0517188069398</v>
+        <v>380.0517148152784</v>
       </c>
       <c r="F242" t="n">
-        <v>-0.3656566387399151</v>
+        <v>-0.3656566454023869</v>
       </c>
       <c r="G242" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H242" t="n">
         <v>1</v>
       </c>
       <c r="I242" t="n">
-        <v>837.8620192817795</v>
+        <v>837.8620104817628</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -11128,22 +11166,22 @@
         <v>328596978.2899998</v>
       </c>
       <c r="D243" t="n">
-        <v>135401479273.7457</v>
+        <v>135401470283.5453</v>
       </c>
       <c r="E243" t="n">
-        <v>412.0594169135922</v>
+        <v>412.0593895542403</v>
       </c>
       <c r="F243" t="n">
-        <v>-0.3122326708996696</v>
+        <v>-0.3122327165650945</v>
       </c>
       <c r="G243" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H243" t="n">
         <v>1</v>
       </c>
       <c r="I243" t="n">
-        <v>908.4261905277057</v>
+        <v>908.4261302112784</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -11157,22 +11195,22 @@
         <v>316044543.9</v>
       </c>
       <c r="D244" t="n">
-        <v>108438105406.797</v>
+        <v>108437761304.3829</v>
       </c>
       <c r="E244" t="n">
-        <v>343.1101960143569</v>
+        <v>343.1091072361425</v>
       </c>
       <c r="F244" t="n">
-        <v>-0.4273156408669834</v>
+        <v>-0.4273174581439433</v>
       </c>
       <c r="G244" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H244" t="n">
         <v>1</v>
       </c>
       <c r="I244" t="n">
-        <v>756.4207381332512</v>
+        <v>756.4183378127997</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -11195,7 +11233,7 @@
         <v>-0.4376471095867895</v>
       </c>
       <c r="G245" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H245" t="n">
         <v>2</v>
@@ -11215,22 +11253,22 @@
         <v>323743440.59</v>
       </c>
       <c r="D246" t="n">
-        <v>114194375619.9005</v>
+        <v>114194375438.4635</v>
       </c>
       <c r="E246" t="n">
-        <v>352.7310867265423</v>
+        <v>352.731086166108</v>
       </c>
       <c r="F246" t="n">
-        <v>-0.4112574365472081</v>
+        <v>-0.4112574374826276</v>
       </c>
       <c r="G246" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H246" t="n">
         <v>2</v>
       </c>
       <c r="I246" t="n">
-        <v>777.6309537973352</v>
+        <v>777.6309525618018</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -11244,22 +11282,22 @@
         <v>378693554.63</v>
       </c>
       <c r="D247" t="n">
-        <v>152223777734.0644</v>
+        <v>152223524849.0717</v>
       </c>
       <c r="E247" t="n">
-        <v>401.9708703064504</v>
+        <v>401.9702025237814</v>
       </c>
       <c r="F247" t="n">
-        <v>-0.3290714384892311</v>
+        <v>-0.3290725530835924</v>
       </c>
       <c r="G247" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H247" t="n">
         <v>2</v>
       </c>
       <c r="I247" t="n">
-        <v>886.1849806776004</v>
+        <v>886.1835084839283</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -11273,22 +11311,22 @@
         <v>409661624.4900001</v>
       </c>
       <c r="D248" t="n">
-        <v>175695565327.2632</v>
+        <v>175694771113.3667</v>
       </c>
       <c r="E248" t="n">
-        <v>428.8797261544617</v>
+        <v>428.8777874473703</v>
       </c>
       <c r="F248" t="n">
-        <v>-0.2841579353484607</v>
+        <v>-0.2841611712395567</v>
       </c>
       <c r="G248" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H248" t="n">
         <v>3</v>
       </c>
       <c r="I248" t="n">
-        <v>945.5082442801263</v>
+        <v>945.5039702064727</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -11302,22 +11340,22 @@
         <v>418043252.32</v>
       </c>
       <c r="D249" t="n">
-        <v>178033417691.8737</v>
+        <v>178033417510.4367</v>
       </c>
       <c r="E249" t="n">
-        <v>425.8732002103797</v>
+        <v>425.8731997763649</v>
       </c>
       <c r="F249" t="n">
-        <v>-0.2891761201867549</v>
+        <v>-0.2891761209111679</v>
       </c>
       <c r="G249" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H249" t="n">
         <v>3</v>
       </c>
       <c r="I249" t="n">
-        <v>938.8800571838033</v>
+        <v>938.880056226974</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -11340,7 +11378,7 @@
         <v>-0.3387289930860609</v>
       </c>
       <c r="G250" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H250" t="n">
         <v>3</v>
@@ -11369,7 +11407,7 @@
         <v>-0.3818405382475538</v>
       </c>
       <c r="G251" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H251" t="n">
         <v>4</v>
@@ -11398,7 +11436,7 @@
         <v>-0.4216392640544888</v>
       </c>
       <c r="G252" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H252" t="n">
         <v>4</v>
@@ -11427,13 +11465,100 @@
         <v>-0.4421303755439488</v>
       </c>
       <c r="G253" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H253" t="n">
         <v>4</v>
       </c>
       <c r="I253" t="n">
         <v>736.8529389418023</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+      <c r="C254" t="n">
+        <v>381939888.07</v>
+      </c>
+      <c r="D254" t="n">
+        <v>146989415733.8505</v>
+      </c>
+      <c r="E254" t="n">
+        <v>384.8496067708722</v>
+      </c>
+      <c r="F254" t="n">
+        <v>-0.3576484960914765</v>
+      </c>
+      <c r="G254" t="s">
+        <v>347</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>848.439443087065</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2</v>
+      </c>
+      <c r="C255" t="n">
+        <v>331184147.67</v>
+      </c>
+      <c r="D255" t="n">
+        <v>120401375001.6178</v>
+      </c>
+      <c r="E255" t="n">
+        <v>363.5481222416137</v>
+      </c>
+      <c r="F255" t="n">
+        <v>-0.393202749966549</v>
+      </c>
+      <c r="G255" t="s">
+        <v>348</v>
+      </c>
+      <c r="H255" t="n">
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>801.4781902938615</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B256" t="n">
+        <v>3</v>
+      </c>
+      <c r="C256" t="n">
+        <v>330663832.07</v>
+      </c>
+      <c r="D256" t="n">
+        <v>108682573934.9987</v>
+      </c>
+      <c r="E256" t="n">
+        <v>328.6799564821807</v>
+      </c>
+      <c r="F256" t="n">
+        <v>-0.451401117121016</v>
+      </c>
+      <c r="G256" t="s">
+        <v>349</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>724.6078320606157</v>
       </c>
     </row>
   </sheetData>

--- a/web_files/US Power Sector CO2 Emissions Intensity.xlsx
+++ b/web_files/US Power Sector CO2 Emissions Intensity.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="354">
   <si>
     <t>year</t>
   </si>
@@ -298,6 +298,9 @@
     <t>2022 Q1</t>
   </si>
   <si>
+    <t>2022 Q2</t>
+  </si>
+  <si>
     <t>month</t>
   </si>
   <si>
@@ -1067,6 +1070,15 @@
   </si>
   <si>
     <t>2022-03-01</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>2022-06-01</t>
   </si>
 </sst>
 </file>
@@ -1708,19 +1720,19 @@
         <v>2014</v>
       </c>
       <c r="B15" t="n">
-        <v>4104591433.59</v>
+        <v>4104617591.610001</v>
       </c>
       <c r="C15" t="n">
         <v>2094338887344.273</v>
       </c>
       <c r="D15" t="n">
-        <v>510.2429611398621</v>
+        <v>510.2397094494708</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1483547659123262</v>
+        <v>-0.1483601933005224</v>
       </c>
       <c r="F15" t="n">
-        <v>1124.88163212894</v>
+        <v>1124.874463452303</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1728,19 +1740,19 @@
         <v>2015</v>
       </c>
       <c r="B16" t="n">
-        <v>4091446794.71</v>
+        <v>4092632687.45</v>
       </c>
       <c r="C16" t="n">
         <v>1969870089556.31</v>
       </c>
       <c r="D16" t="n">
-        <v>481.4605171215316</v>
+        <v>481.3210077701056</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1963954703227244</v>
+        <v>-0.1966283250278383</v>
       </c>
       <c r="F16" t="n">
-        <v>1061.427856046129</v>
+        <v>1061.120293729975</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1748,19 +1760,19 @@
         <v>2016</v>
       </c>
       <c r="B17" t="n">
-        <v>4095143764.57</v>
+        <v>4096107752.55</v>
       </c>
       <c r="C17" t="n">
         <v>1857036321741.607</v>
       </c>
       <c r="D17" t="n">
-        <v>453.4728030327406</v>
+        <v>453.3660816382391</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.243109693020632</v>
+        <v>-0.243287821429889</v>
       </c>
       <c r="F17" t="n">
-        <v>999.7261415659801</v>
+        <v>999.490863579662</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1768,19 +1780,19 @@
         <v>2017</v>
       </c>
       <c r="B18" t="n">
-        <v>4057943287.12</v>
+        <v>4059203324.12</v>
       </c>
       <c r="C18" t="n">
         <v>1780391257722.601</v>
       </c>
       <c r="D18" t="n">
-        <v>438.7422720700906</v>
+        <v>438.6060799525419</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2676963849406859</v>
+        <v>-0.2679237028591369</v>
       </c>
       <c r="F18" t="n">
-        <v>967.2512130057218</v>
+        <v>966.950963863374</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1788,19 +1800,19 @@
         <v>2018</v>
       </c>
       <c r="B19" t="n">
-        <v>4207602186.04</v>
+        <v>4210312545.04</v>
       </c>
       <c r="C19" t="n">
-        <v>1798546125563.933</v>
+        <v>1798555258561.984</v>
       </c>
       <c r="D19" t="n">
-        <v>427.4515617306114</v>
+        <v>427.1785620002937</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.2865416809710334</v>
+        <v>-0.2869973441294489</v>
       </c>
       <c r="F19" t="n">
-        <v>942.359712991306</v>
+        <v>941.7578577858476</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1808,19 +1820,19 @@
         <v>2019</v>
       </c>
       <c r="B20" t="n">
-        <v>4162381332.79</v>
+        <v>4165099998.79</v>
       </c>
       <c r="C20" t="n">
-        <v>1655852066247.118</v>
+        <v>1655921684920.948</v>
       </c>
       <c r="D20" t="n">
-        <v>397.813639322954</v>
+        <v>397.5706910763269</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.336010262194289</v>
+        <v>-0.3364157664973916</v>
       </c>
       <c r="F20" t="n">
-        <v>877.0199492513846</v>
+        <v>876.4843455468701</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1828,19 +1840,19 @@
         <v>2020</v>
       </c>
       <c r="B21" t="n">
-        <v>4048186462.070001</v>
+        <v>4050817841</v>
       </c>
       <c r="C21" t="n">
-        <v>1485996493545.837</v>
+        <v>1486043631177.049</v>
       </c>
       <c r="D21" t="n">
-        <v>367.0770868558232</v>
+        <v>366.850273082188</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.3873125640671853</v>
+        <v>-0.3876911383622825</v>
       </c>
       <c r="F21" t="n">
-        <v>809.2581456823477</v>
+        <v>808.7581120369917</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1874,7 +1886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3268,22 +3280,22 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>1035558409.64</v>
+        <v>1035566275.52</v>
       </c>
       <c r="D54" t="n">
         <v>548093057895.7448</v>
       </c>
       <c r="E54" t="n">
-        <v>529.2729534071218</v>
+        <v>529.2689331936047</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.1165918540184871</v>
+        <v>-0.1165985641466861</v>
       </c>
       <c r="G54" t="s">
         <v>60</v>
       </c>
       <c r="H54" t="n">
-        <v>1166.835153081341</v>
+        <v>1166.826290118621</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3294,22 +3306,22 @@
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>983304469.48</v>
+        <v>983310493.75</v>
       </c>
       <c r="D55" t="n">
         <v>486385539934.9534</v>
       </c>
       <c r="E55" t="n">
-        <v>494.6438819627945</v>
+        <v>494.6408515178661</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.1743911494571928</v>
+        <v>-0.1743962075651471</v>
       </c>
       <c r="G55" t="s">
         <v>61</v>
       </c>
       <c r="H55" t="n">
-        <v>1090.491902175177</v>
+        <v>1090.485221256288</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3320,22 +3332,22 @@
         <v>3</v>
       </c>
       <c r="C56" t="n">
-        <v>1113290726.65</v>
+        <v>1113296580.37</v>
       </c>
       <c r="D56" t="n">
         <v>583494987860.4768</v>
       </c>
       <c r="E56" t="n">
-        <v>524.1173521819138</v>
+        <v>524.1145963697779</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.1251970549652992</v>
+        <v>-0.125201654684355</v>
       </c>
       <c r="G56" t="s">
         <v>62</v>
       </c>
       <c r="H56" t="n">
-        <v>1155.469114620247</v>
+        <v>1155.463039156813</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3346,22 +3358,22 @@
         <v>4</v>
       </c>
       <c r="C57" t="n">
-        <v>972437827.8200001</v>
+        <v>972444241.97</v>
       </c>
       <c r="D57" t="n">
         <v>476365301653.0985</v>
       </c>
       <c r="E57" t="n">
-        <v>489.8671030938901</v>
+        <v>489.8638719769337</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.1823640589685853</v>
+        <v>-0.1823694520177135</v>
       </c>
       <c r="G57" t="s">
         <v>63</v>
       </c>
       <c r="H57" t="n">
-        <v>1079.96101548079</v>
+        <v>1079.953892160348</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3372,22 +3384,22 @@
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>1021743631.31</v>
+        <v>1021999795.92</v>
       </c>
       <c r="D58" t="n">
         <v>498768244926.8238</v>
       </c>
       <c r="E58" t="n">
-        <v>488.1540042362114</v>
+        <v>488.0316482625465</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.1852233879329749</v>
+        <v>-0.185427611978714</v>
       </c>
       <c r="G58" t="s">
         <v>64</v>
       </c>
       <c r="H58" t="n">
-        <v>1076.184317739152</v>
+        <v>1075.91457175961</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3398,22 +3410,22 @@
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>982624564.37</v>
+        <v>982872498.7</v>
       </c>
       <c r="D59" t="n">
         <v>465730526600.0248</v>
       </c>
       <c r="E59" t="n">
-        <v>473.9658904198301</v>
+        <v>473.846330237162</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.2089047327680338</v>
+        <v>-0.2091042903661013</v>
       </c>
       <c r="G59" t="s">
         <v>65</v>
       </c>
       <c r="H59" t="n">
-        <v>1044.905202019558</v>
+        <v>1044.641619640847</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3424,22 +3436,22 @@
         <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>1146861408.84</v>
+        <v>1147190538.94</v>
       </c>
       <c r="D60" t="n">
         <v>582940708120.1714</v>
       </c>
       <c r="E60" t="n">
-        <v>508.2921995865135</v>
+        <v>508.1463700518368</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1516107770801029</v>
+        <v>-0.1518541807870725</v>
       </c>
       <c r="G60" t="s">
         <v>66</v>
       </c>
       <c r="H60" t="n">
-        <v>1120.580983208428</v>
+        <v>1120.259487416279</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3450,22 +3462,22 @@
         <v>4</v>
       </c>
       <c r="C61" t="n">
-        <v>940217190.1899998</v>
+        <v>940569853.8899996</v>
       </c>
       <c r="D61" t="n">
         <v>422430609909.2897</v>
       </c>
       <c r="E61" t="n">
-        <v>449.2904557764197</v>
+        <v>449.1219957371641</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.2500904382330467</v>
+        <v>-0.2503716144578898</v>
       </c>
       <c r="G61" t="s">
         <v>67</v>
       </c>
       <c r="H61" t="n">
-        <v>990.5057388046948</v>
+        <v>990.1343518021524</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3476,22 +3488,22 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>974387563.86</v>
+        <v>974566606.95</v>
       </c>
       <c r="D62" t="n">
         <v>415758100472.5101</v>
       </c>
       <c r="E62" t="n">
-        <v>426.6865833401032</v>
+        <v>426.6081943579671</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.2878185044650821</v>
+        <v>-0.2879493433166208</v>
       </c>
       <c r="G62" t="s">
         <v>68</v>
       </c>
       <c r="H62" t="n">
-        <v>940.6732416315916</v>
+        <v>940.5004252815744</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3502,22 +3514,22 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>982867071.35</v>
+        <v>983181057.72</v>
       </c>
       <c r="D63" t="n">
         <v>424488622428.8736</v>
       </c>
       <c r="E63" t="n">
-        <v>431.8881309614174</v>
+        <v>431.7502041925665</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.2791366145049029</v>
+        <v>-0.2793668277254489</v>
       </c>
       <c r="G63" t="s">
         <v>69</v>
       </c>
       <c r="H63" t="n">
-        <v>952.1405735175407</v>
+        <v>951.8365001629325</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3528,22 +3540,22 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>1178649522.33</v>
+        <v>1179058899.65</v>
       </c>
       <c r="D64" t="n">
         <v>583086833395.7867</v>
       </c>
       <c r="E64" t="n">
-        <v>494.7075634859785</v>
+        <v>494.5357976339217</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.1742848587881398</v>
+        <v>-0.1745715527367569</v>
       </c>
       <c r="G64" t="s">
         <v>70</v>
       </c>
       <c r="H64" t="n">
-        <v>1090.632294461188</v>
+        <v>1090.253619463744</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3554,22 +3566,22 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>959239607.03</v>
+        <v>959301188.23</v>
       </c>
       <c r="D65" t="n">
         <v>433702765444.4368</v>
       </c>
       <c r="E65" t="n">
-        <v>452.1318367860855</v>
+        <v>452.1028127200164</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2453478963865049</v>
+        <v>-0.2453963403816684</v>
       </c>
       <c r="G65" t="s">
         <v>71</v>
       </c>
       <c r="H65" t="n">
-        <v>996.769847378604</v>
+        <v>996.705860922548</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3580,22 +3592,22 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>959262216.27</v>
+        <v>959561096.27</v>
       </c>
       <c r="D66" t="n">
         <v>409258169705.0341</v>
       </c>
       <c r="E66" t="n">
-        <v>426.6384756572562</v>
+        <v>426.5055881234659</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.2878988008766742</v>
+        <v>-0.2881206031227442</v>
       </c>
       <c r="G66" t="s">
         <v>72</v>
       </c>
       <c r="H66" t="n">
-        <v>940.5671834339872</v>
+        <v>940.2742195769928</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3606,22 +3618,22 @@
         <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>984379167.3099999</v>
+        <v>984657033.3099999</v>
       </c>
       <c r="D67" t="n">
         <v>417646782473.7512</v>
       </c>
       <c r="E67" t="n">
-        <v>424.2743003339344</v>
+        <v>424.1545719424758</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.2918448399208127</v>
+        <v>-0.2920446782757464</v>
       </c>
       <c r="G67" t="s">
         <v>73</v>
       </c>
       <c r="H67" t="n">
-        <v>935.3551225161916</v>
+        <v>935.0911693043823</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3632,22 +3644,22 @@
         <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>1132245772.11</v>
+        <v>1132560679.11</v>
       </c>
       <c r="D68" t="n">
         <v>529425176086.6206</v>
       </c>
       <c r="E68" t="n">
-        <v>467.5885652458729</v>
+        <v>467.4585528632857</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.2195491100633025</v>
+        <v>-0.2197661134017819</v>
       </c>
       <c r="G68" t="s">
         <v>74</v>
       </c>
       <c r="H68" t="n">
-        <v>1030.845750941052</v>
+        <v>1030.5591256424</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3658,22 +3670,22 @@
         <v>4</v>
       </c>
       <c r="C69" t="n">
-        <v>982056131.4299999</v>
+        <v>982424515.4299999</v>
       </c>
       <c r="D69" t="n">
         <v>424061129457.1947</v>
       </c>
       <c r="E69" t="n">
-        <v>431.8094616849519</v>
+        <v>431.6475442101384</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.2792679211949968</v>
+        <v>-0.2795381772421011</v>
       </c>
       <c r="G69" t="s">
         <v>75</v>
       </c>
       <c r="H69" t="n">
-        <v>951.967139230645</v>
+        <v>951.6101759656709</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3684,22 +3696,22 @@
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>1007451607.32</v>
+        <v>1007982360.32</v>
       </c>
       <c r="D70" t="n">
-        <v>419663572098.7316</v>
+        <v>419663571939.5216</v>
       </c>
       <c r="E70" t="n">
-        <v>416.5595340257694</v>
+        <v>416.3401944913925</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.3047215368256974</v>
+        <v>-0.3050876358869795</v>
       </c>
       <c r="G70" t="s">
         <v>76</v>
       </c>
       <c r="H70" t="n">
-        <v>918.3471487132114</v>
+        <v>917.863592775724</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3710,22 +3722,22 @@
         <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>1020356356.43</v>
+        <v>1021196840.43</v>
       </c>
       <c r="D71" t="n">
-        <v>415374542447.8795</v>
+        <v>415374542341.7395</v>
       </c>
       <c r="E71" t="n">
-        <v>407.0877197268439</v>
+        <v>406.7526708825654</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.3205309180816835</v>
+        <v>-0.3210901472590521</v>
       </c>
       <c r="G71" t="s">
         <v>77</v>
       </c>
       <c r="H71" t="n">
-        <v>897.4655869098001</v>
+        <v>896.7269382277037</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3736,22 +3748,22 @@
         <v>3</v>
       </c>
       <c r="C72" t="n">
-        <v>1184368755.68</v>
+        <v>1185319172.68</v>
       </c>
       <c r="D72" t="n">
-        <v>538602938036.7822</v>
+        <v>538602938461.3422</v>
       </c>
       <c r="E72" t="n">
-        <v>454.7594956838809</v>
+        <v>454.3948591024339</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.240962077575568</v>
+        <v>-0.241570691570104</v>
       </c>
       <c r="G72" t="s">
         <v>78</v>
       </c>
       <c r="H72" t="n">
-        <v>1002.562784184684</v>
+        <v>1001.758906377226</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3762,22 +3774,22 @@
         <v>4</v>
       </c>
       <c r="C73" t="n">
-        <v>995425466.61</v>
+        <v>995814171.61</v>
       </c>
       <c r="D73" t="n">
-        <v>424905072980.5394</v>
+        <v>424914205819.3811</v>
       </c>
       <c r="E73" t="n">
-        <v>426.8577480015528</v>
+        <v>426.7003000493492</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.2875328139621851</v>
+        <v>-0.2877956099404216</v>
       </c>
       <c r="G73" t="s">
         <v>79</v>
       </c>
       <c r="H73" t="n">
-        <v>941.0505912442234</v>
+        <v>940.7034814887953</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3788,22 +3800,22 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>1008004393.08</v>
+        <v>1008725287.08</v>
       </c>
       <c r="D74" t="n">
-        <v>405188235922.7155</v>
+        <v>405188235816.5756</v>
       </c>
       <c r="E74" t="n">
-        <v>401.9707043980688</v>
+        <v>401.6834325522772</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.3290717154064903</v>
+        <v>-0.3295512001166949</v>
       </c>
       <c r="G74" t="s">
         <v>80</v>
       </c>
       <c r="H74" t="n">
-        <v>886.1846149159828</v>
+        <v>885.5512954047502</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3814,22 +3826,22 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>990398214.4000002</v>
+        <v>991177312.4000002</v>
       </c>
       <c r="D75" t="n">
-        <v>368898254282.5474</v>
+        <v>368898254441.7575</v>
       </c>
       <c r="E75" t="n">
-        <v>372.4746762654779</v>
+        <v>372.1818990676056</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.3783034612546245</v>
+        <v>-0.3787921349340427</v>
       </c>
       <c r="G75" t="s">
         <v>81</v>
       </c>
       <c r="H75" t="n">
-        <v>821.1576712948726</v>
+        <v>820.5122146844432</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3840,22 +3852,22 @@
         <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>1182402315.25</v>
+        <v>1183272458.25</v>
       </c>
       <c r="D76" t="n">
-        <v>504711101345.1709</v>
+        <v>504780719912.8614</v>
       </c>
       <c r="E76" t="n">
-        <v>426.8522607201237</v>
+        <v>426.5972020166906</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.2875419727697202</v>
+        <v>-0.2879676906056039</v>
       </c>
       <c r="G76" t="s">
         <v>82</v>
       </c>
       <c r="H76" t="n">
-        <v>941.0384939835848</v>
+        <v>940.4761915659959</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3866,22 +3878,22 @@
         <v>4</v>
       </c>
       <c r="C77" t="n">
-        <v>981576410.0599999</v>
+        <v>981924941.0599999</v>
       </c>
       <c r="D77" t="n">
-        <v>377054474696.684</v>
+        <v>377054474749.7541</v>
       </c>
       <c r="E77" t="n">
-        <v>384.1315569856005</v>
+        <v>383.9952108179666</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.3588469911693866</v>
+        <v>-0.3590745662124448</v>
       </c>
       <c r="G77" t="s">
         <v>83</v>
       </c>
       <c r="H77" t="n">
-        <v>846.8564305304549</v>
+        <v>846.5558417692891</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3892,22 +3904,22 @@
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>979266652.4400001</v>
+        <v>979866521.71</v>
       </c>
       <c r="D78" t="n">
-        <v>337650305690.1022</v>
+        <v>337649404228.1722</v>
       </c>
       <c r="E78" t="n">
-        <v>344.7991462272225</v>
+        <v>344.5871419700391</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.4244966183444873</v>
+        <v>-0.4248504741131846</v>
       </c>
       <c r="G78" t="s">
         <v>84</v>
       </c>
       <c r="H78" t="n">
-        <v>760.144197772535</v>
+        <v>759.6768131871482</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3918,22 +3930,22 @@
         <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>948186060.61</v>
+        <v>948914857.4299999</v>
       </c>
       <c r="D79" t="n">
-        <v>316251979608.1971</v>
+        <v>316300174674.9991</v>
       </c>
       <c r="E79" t="n">
-        <v>333.5336731324035</v>
+        <v>333.3282983171459</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.4432997909536939</v>
+        <v>-0.443642581537664</v>
       </c>
       <c r="G79" t="s">
         <v>85</v>
       </c>
       <c r="H79" t="n">
-        <v>735.3083357876967</v>
+        <v>734.85556646998</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3944,22 +3956,22 @@
         <v>3</v>
       </c>
       <c r="C80" t="n">
-        <v>1153270924.68</v>
+        <v>1154071368.98</v>
       </c>
       <c r="D80" t="n">
-        <v>474113451992.9419</v>
+        <v>474113229287.4018</v>
       </c>
       <c r="E80" t="n">
-        <v>411.1032731745101</v>
+        <v>410.8179459528886</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3138285679928366</v>
+        <v>-0.3143048069357642</v>
       </c>
       <c r="G80" t="s">
         <v>86</v>
       </c>
       <c r="H80" t="n">
-        <v>906.318276040525</v>
+        <v>905.6892436477382</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3970,22 +3982,22 @@
         <v>4</v>
       </c>
       <c r="C81" t="n">
-        <v>967462824.34</v>
+        <v>967965092.88</v>
       </c>
       <c r="D81" t="n">
-        <v>357980756254.5959</v>
+        <v>357980822986.476</v>
       </c>
       <c r="E81" t="n">
-        <v>370.0201674403451</v>
+        <v>369.8282361829502</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3824002757178376</v>
+        <v>-0.3827206276934291</v>
       </c>
       <c r="G81" t="s">
         <v>87</v>
       </c>
       <c r="H81" t="n">
-        <v>815.7464611389847</v>
+        <v>815.3233294889319</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4103,19 +4115,45 @@
         <v>1043787867.81</v>
       </c>
       <c r="D86" t="n">
-        <v>376073364670.4669</v>
+        <v>376098475488.8421</v>
       </c>
       <c r="E86" t="n">
-        <v>360.2967387037338</v>
+        <v>360.3207961000203</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.3986296259944723</v>
+        <v>-0.3985894718552632</v>
       </c>
       <c r="G86" t="s">
         <v>92</v>
       </c>
       <c r="H86" t="n">
-        <v>794.3101901462513</v>
+        <v>794.3632270821049</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1044206743.81</v>
+      </c>
+      <c r="D87" t="n">
+        <v>362131056785.5443</v>
+      </c>
+      <c r="E87" t="n">
+        <v>346.8001513419035</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.4211567457757484</v>
+      </c>
+      <c r="G87" t="s">
+        <v>93</v>
+      </c>
+      <c r="H87" t="n">
+        <v>764.5556136483606</v>
       </c>
     </row>
   </sheetData>
@@ -4129,7 +4167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I256"/>
+  <dimension ref="A1:I259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4142,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4157,7 +4195,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -4186,7 +4224,7 @@
         <v>0.07726515958654644</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -4215,7 +4253,7 @@
         <v>0.06148124887439917</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -4244,7 +4282,7 @@
         <v>0.04746077038960551</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -4273,7 +4311,7 @@
         <v>0.04727244615802906</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
@@ -4302,7 +4340,7 @@
         <v>0.04871093696407162</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
@@ -4331,7 +4369,7 @@
         <v>0.04304157536165719</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
@@ -4360,7 +4398,7 @@
         <v>0.07078023556064666</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
@@ -4389,7 +4427,7 @@
         <v>0.07532787659744344</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
@@ -4418,7 +4456,7 @@
         <v>0.05259835799380738</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
@@ -4447,7 +4485,7 @@
         <v>0.03553213710629145</v>
       </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -4476,7 +4514,7 @@
         <v>0.02646669802403197</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -4505,7 +4543,7 @@
         <v>0.01912175729454257</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
@@ -4534,7 +4572,7 @@
         <v>0.01111774538231211</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -4563,7 +4601,7 @@
         <v>0.005018273091192093</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -4592,7 +4630,7 @@
         <v>0.01544195713902331</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -4621,7 +4659,7 @@
         <v>0.003355439027818183</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H17" t="n">
         <v>2</v>
@@ -4650,7 +4688,7 @@
         <v>0.00536957613039397</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H18" t="n">
         <v>2</v>
@@ -4679,7 +4717,7 @@
         <v>0.0145689414097139</v>
       </c>
       <c r="G19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
@@ -4708,7 +4746,7 @@
         <v>0.03912865348530959</v>
       </c>
       <c r="G20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
@@ -4737,7 +4775,7 @@
         <v>0.04573043199637251</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
@@ -4766,7 +4804,7 @@
         <v>0.05004182162970362</v>
       </c>
       <c r="G22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
@@ -4795,7 +4833,7 @@
         <v>0.0547357353567896</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H23" t="n">
         <v>4</v>
@@ -4824,7 +4862,7 @@
         <v>0.03397983951034167</v>
       </c>
       <c r="G24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H24" t="n">
         <v>4</v>
@@ -4853,7 +4891,7 @@
         <v>0.03489294255166995</v>
       </c>
       <c r="G25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H25" t="n">
         <v>4</v>
@@ -4882,7 +4920,7 @@
         <v>0.05407231572896915</v>
       </c>
       <c r="G26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -4911,7 +4949,7 @@
         <v>0.0446998960634503</v>
       </c>
       <c r="G27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -4940,7 +4978,7 @@
         <v>0.02564607186253928</v>
       </c>
       <c r="G28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -4969,7 +5007,7 @@
         <v>-0.005255460204990879</v>
       </c>
       <c r="G29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H29" t="n">
         <v>2</v>
@@ -4998,7 +5036,7 @@
         <v>-0.005159282455205773</v>
       </c>
       <c r="G30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H30" t="n">
         <v>2</v>
@@ -5027,7 +5065,7 @@
         <v>0.01662217479072057</v>
       </c>
       <c r="G31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H31" t="n">
         <v>2</v>
@@ -5056,7 +5094,7 @@
         <v>0.03768728145702852</v>
       </c>
       <c r="G32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
@@ -5085,7 +5123,7 @@
         <v>0.04140058597533856</v>
       </c>
       <c r="G33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H33" t="n">
         <v>3</v>
@@ -5114,7 +5152,7 @@
         <v>0.04146258828233757</v>
       </c>
       <c r="G34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H34" t="n">
         <v>3</v>
@@ -5143,7 +5181,7 @@
         <v>0.05070299868862761</v>
       </c>
       <c r="G35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H35" t="n">
         <v>4</v>
@@ -5172,7 +5210,7 @@
         <v>0.04234991120899041</v>
       </c>
       <c r="G36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H36" t="n">
         <v>4</v>
@@ -5201,7 +5239,7 @@
         <v>0.03310887154716038</v>
       </c>
       <c r="G37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H37" t="n">
         <v>4</v>
@@ -5230,7 +5268,7 @@
         <v>0.03014022625659499</v>
       </c>
       <c r="G38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -5259,7 +5297,7 @@
         <v>0.01239560014339367</v>
       </c>
       <c r="G39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -5288,7 +5326,7 @@
         <v>-0.01037094285092945</v>
       </c>
       <c r="G40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -5317,7 +5355,7 @@
         <v>-0.02234624922534889</v>
       </c>
       <c r="G41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H41" t="n">
         <v>2</v>
@@ -5346,7 +5384,7 @@
         <v>-0.01332959283944984</v>
       </c>
       <c r="G42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H42" t="n">
         <v>2</v>
@@ -5375,7 +5413,7 @@
         <v>-0.007522138257441214</v>
       </c>
       <c r="G43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H43" t="n">
         <v>2</v>
@@ -5404,7 +5442,7 @@
         <v>0.002774173076043244</v>
       </c>
       <c r="G44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H44" t="n">
         <v>3</v>
@@ -5433,7 +5471,7 @@
         <v>0.005812723595943646</v>
       </c>
       <c r="G45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H45" t="n">
         <v>3</v>
@@ -5462,7 +5500,7 @@
         <v>-0.0001281622510707689</v>
       </c>
       <c r="G46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H46" t="n">
         <v>3</v>
@@ -5491,7 +5529,7 @@
         <v>0.005798551352125575</v>
       </c>
       <c r="G47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H47" t="n">
         <v>4</v>
@@ -5520,7 +5558,7 @@
         <v>0.0142697616731208</v>
       </c>
       <c r="G48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H48" t="n">
         <v>4</v>
@@ -5549,7 +5587,7 @@
         <v>0.006630546904983436</v>
       </c>
       <c r="G49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H49" t="n">
         <v>4</v>
@@ -5578,7 +5616,7 @@
         <v>0.01135874913719794</v>
       </c>
       <c r="G50" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -5607,7 +5645,7 @@
         <v>0.00158584139446698</v>
       </c>
       <c r="G51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -5636,7 +5674,7 @@
         <v>0.0004943352228414668</v>
       </c>
       <c r="G52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -5665,7 +5703,7 @@
         <v>-0.03023291224285088</v>
       </c>
       <c r="G53" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H53" t="n">
         <v>2</v>
@@ -5694,7 +5732,7 @@
         <v>-0.03619156271650293</v>
       </c>
       <c r="G54" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H54" t="n">
         <v>2</v>
@@ -5723,7 +5761,7 @@
         <v>-0.007018965988378289</v>
       </c>
       <c r="G55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
@@ -5752,7 +5790,7 @@
         <v>-0.0008959033638951873</v>
       </c>
       <c r="G56" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H56" t="n">
         <v>3</v>
@@ -5781,7 +5819,7 @@
         <v>0.007925452227224232</v>
       </c>
       <c r="G57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H57" t="n">
         <v>3</v>
@@ -5810,7 +5848,7 @@
         <v>0.01721030590351288</v>
       </c>
       <c r="G58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H58" t="n">
         <v>3</v>
@@ -5839,7 +5877,7 @@
         <v>0.02231843704751483</v>
       </c>
       <c r="G59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H59" t="n">
         <v>4</v>
@@ -5868,7 +5906,7 @@
         <v>0.002897748801680964</v>
       </c>
       <c r="G60" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H60" t="n">
         <v>4</v>
@@ -5897,7 +5935,7 @@
         <v>0.00389971424966281</v>
       </c>
       <c r="G61" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H61" t="n">
         <v>4</v>
@@ -5926,7 +5964,7 @@
         <v>-0.02748121131636642</v>
       </c>
       <c r="G62" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -5955,7 +5993,7 @@
         <v>-0.01857254232013877</v>
       </c>
       <c r="G63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -5984,7 +6022,7 @@
         <v>-0.02435619078134472</v>
       </c>
       <c r="G64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -6013,7 +6051,7 @@
         <v>-0.06369815302300276</v>
       </c>
       <c r="G65" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H65" t="n">
         <v>2</v>
@@ -6042,7 +6080,7 @@
         <v>-0.05404582225952413</v>
       </c>
       <c r="G66" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H66" t="n">
         <v>2</v>
@@ -6071,7 +6109,7 @@
         <v>-0.04243926553323214</v>
       </c>
       <c r="G67" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H67" t="n">
         <v>2</v>
@@ -6100,7 +6138,7 @@
         <v>-0.01354297585931169</v>
       </c>
       <c r="G68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H68" t="n">
         <v>3</v>
@@ -6129,7 +6167,7 @@
         <v>-0.004118886890496862</v>
       </c>
       <c r="G69" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H69" t="n">
         <v>3</v>
@@ -6158,7 +6196,7 @@
         <v>-0.01455882450582037</v>
       </c>
       <c r="G70" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H70" t="n">
         <v>3</v>
@@ -6187,7 +6225,7 @@
         <v>0.00439522235340898</v>
       </c>
       <c r="G71" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H71" t="n">
         <v>4</v>
@@ -6216,7 +6254,7 @@
         <v>-0.003746313420402704</v>
       </c>
       <c r="G72" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H72" t="n">
         <v>4</v>
@@ -6245,7 +6283,7 @@
         <v>-0.01605853233048685</v>
       </c>
       <c r="G73" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H73" t="n">
         <v>4</v>
@@ -6274,7 +6312,7 @@
         <v>-0.03511432398711213</v>
       </c>
       <c r="G74" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
@@ -6303,7 +6341,7 @@
         <v>-0.008437620703637254</v>
       </c>
       <c r="G75" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -6332,7 +6370,7 @@
         <v>-0.03117857292861368</v>
       </c>
       <c r="G76" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
@@ -6361,7 +6399,7 @@
         <v>-0.03928361585166878</v>
       </c>
       <c r="G77" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H77" t="n">
         <v>2</v>
@@ -6390,7 +6428,7 @@
         <v>-0.03788195719455209</v>
       </c>
       <c r="G78" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H78" t="n">
         <v>2</v>
@@ -6419,7 +6457,7 @@
         <v>-0.0177532915761511</v>
       </c>
       <c r="G79" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H79" t="n">
         <v>2</v>
@@ -6448,7 +6486,7 @@
         <v>-0.01310236048309173</v>
       </c>
       <c r="G80" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H80" t="n">
         <v>3</v>
@@ -6477,7 +6515,7 @@
         <v>-0.008678539752206496</v>
       </c>
       <c r="G81" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H81" t="n">
         <v>3</v>
@@ -6506,7 +6544,7 @@
         <v>-0.004141764801333879</v>
       </c>
       <c r="G82" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H82" t="n">
         <v>3</v>
@@ -6535,7 +6573,7 @@
         <v>1.642574651693381e-05</v>
       </c>
       <c r="G83" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H83" t="n">
         <v>4</v>
@@ -6564,7 +6602,7 @@
         <v>-0.01470502580322882</v>
       </c>
       <c r="G84" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H84" t="n">
         <v>4</v>
@@ -6593,7 +6631,7 @@
         <v>-0.01552034206631986</v>
       </c>
       <c r="G85" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H85" t="n">
         <v>4</v>
@@ -6622,7 +6660,7 @@
         <v>-0.01703554138701916</v>
       </c>
       <c r="G86" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -6651,7 +6689,7 @@
         <v>-0.01289961080171436</v>
       </c>
       <c r="G87" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -6680,7 +6718,7 @@
         <v>-0.03539719528073028</v>
       </c>
       <c r="G88" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H88" t="n">
         <v>1</v>
@@ -6709,7 +6747,7 @@
         <v>-0.04508011761521417</v>
       </c>
       <c r="G89" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H89" t="n">
         <v>2</v>
@@ -6738,7 +6776,7 @@
         <v>-0.04957830570333151</v>
       </c>
       <c r="G90" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H90" t="n">
         <v>2</v>
@@ -6767,7 +6805,7 @@
         <v>-0.04880070678863985</v>
       </c>
       <c r="G91" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H91" t="n">
         <v>2</v>
@@ -6796,7 +6834,7 @@
         <v>-0.0274894180589785</v>
       </c>
       <c r="G92" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H92" t="n">
         <v>3</v>
@@ -6825,7 +6863,7 @@
         <v>-0.02085837505734224</v>
       </c>
       <c r="G93" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H93" t="n">
         <v>3</v>
@@ -6854,7 +6892,7 @@
         <v>-0.01669978454361145</v>
       </c>
       <c r="G94" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H94" t="n">
         <v>3</v>
@@ -6883,7 +6921,7 @@
         <v>-0.02999219344874965</v>
       </c>
       <c r="G95" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H95" t="n">
         <v>4</v>
@@ -6912,7 +6950,7 @@
         <v>-0.03080314982097817</v>
       </c>
       <c r="G96" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H96" t="n">
         <v>4</v>
@@ -6941,7 +6979,7 @@
         <v>-0.04600766838125035</v>
       </c>
       <c r="G97" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H97" t="n">
         <v>4</v>
@@ -6970,7 +7008,7 @@
         <v>-0.05120162818415125</v>
       </c>
       <c r="G98" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -6999,7 +7037,7 @@
         <v>-0.06946387564298999</v>
       </c>
       <c r="G99" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -7028,7 +7066,7 @@
         <v>-0.1036546461764051</v>
       </c>
       <c r="G100" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -7057,7 +7095,7 @@
         <v>-0.1132003468526878</v>
       </c>
       <c r="G101" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H101" t="n">
         <v>2</v>
@@ -7086,7 +7124,7 @@
         <v>-0.1231526853843904</v>
       </c>
       <c r="G102" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H102" t="n">
         <v>2</v>
@@ -7115,7 +7153,7 @@
         <v>-0.09824471735940328</v>
       </c>
       <c r="G103" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H103" t="n">
         <v>2</v>
@@ -7144,7 +7182,7 @@
         <v>-0.07814873051753744</v>
       </c>
       <c r="G104" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H104" t="n">
         <v>3</v>
@@ -7173,7 +7211,7 @@
         <v>-0.06154119196398707</v>
       </c>
       <c r="G105" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H105" t="n">
         <v>3</v>
@@ -7202,7 +7240,7 @@
         <v>-0.08482590072322678</v>
       </c>
       <c r="G106" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H106" t="n">
         <v>3</v>
@@ -7231,7 +7269,7 @@
         <v>-0.06247745046076886</v>
       </c>
       <c r="G107" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H107" t="n">
         <v>4</v>
@@ -7260,7 +7298,7 @@
         <v>-0.07638944036519341</v>
       </c>
       <c r="G108" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H108" t="n">
         <v>4</v>
@@ -7289,7 +7327,7 @@
         <v>-0.0644347984976382</v>
       </c>
       <c r="G109" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H109" t="n">
         <v>4</v>
@@ -7318,7 +7356,7 @@
         <v>-0.04887888511804193</v>
       </c>
       <c r="G110" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -7347,7 +7385,7 @@
         <v>-0.05824901131996075</v>
       </c>
       <c r="G111" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -7376,7 +7414,7 @@
         <v>-0.07735500066924438</v>
       </c>
       <c r="G112" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -7405,7 +7443,7 @@
         <v>-0.1010216533461995</v>
       </c>
       <c r="G113" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H113" t="n">
         <v>2</v>
@@ -7434,7 +7472,7 @@
         <v>-0.08979291342863048</v>
       </c>
       <c r="G114" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H114" t="n">
         <v>2</v>
@@ -7463,7 +7501,7 @@
         <v>-0.06523693924714864</v>
       </c>
       <c r="G115" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H115" t="n">
         <v>2</v>
@@ -7492,7 +7530,7 @@
         <v>-0.04073938031503192</v>
       </c>
       <c r="G116" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H116" t="n">
         <v>3</v>
@@ -7521,7 +7559,7 @@
         <v>-0.03675318119060648</v>
       </c>
       <c r="G117" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H117" t="n">
         <v>3</v>
@@ -7550,7 +7588,7 @@
         <v>-0.07200625095184729</v>
       </c>
       <c r="G118" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H118" t="n">
         <v>3</v>
@@ -7579,7 +7617,7 @@
         <v>-0.08798527911840713</v>
       </c>
       <c r="G119" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H119" t="n">
         <v>4</v>
@@ -7608,7 +7646,7 @@
         <v>-0.09297821868055464</v>
       </c>
       <c r="G120" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H120" t="n">
         <v>4</v>
@@ -7637,7 +7675,7 @@
         <v>-0.06888310992261693</v>
       </c>
       <c r="G121" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H121" t="n">
         <v>4</v>
@@ -7666,7 +7704,7 @@
         <v>-0.06178048242187467</v>
       </c>
       <c r="G122" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H122" t="n">
         <v>1</v>
@@ -7695,7 +7733,7 @@
         <v>-0.1000936172885355</v>
       </c>
       <c r="G123" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H123" t="n">
         <v>1</v>
@@ -7724,7 +7762,7 @@
         <v>-0.1291852192317147</v>
       </c>
       <c r="G124" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H124" t="n">
         <v>1</v>
@@ -7753,7 +7791,7 @@
         <v>-0.1349286593214785</v>
       </c>
       <c r="G125" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H125" t="n">
         <v>2</v>
@@ -7782,7 +7820,7 @@
         <v>-0.1059767951386544</v>
       </c>
       <c r="G126" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H126" t="n">
         <v>2</v>
@@ -7811,7 +7849,7 @@
         <v>-0.08100623238321605</v>
       </c>
       <c r="G127" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H127" t="n">
         <v>2</v>
@@ -7840,7 +7878,7 @@
         <v>-0.06182346578675463</v>
       </c>
       <c r="G128" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H128" t="n">
         <v>3</v>
@@ -7869,7 +7907,7 @@
         <v>-0.05964940511505106</v>
       </c>
       <c r="G129" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H129" t="n">
         <v>3</v>
@@ -7898,7 +7936,7 @@
         <v>-0.09033418185281776</v>
       </c>
       <c r="G130" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H130" t="n">
         <v>3</v>
@@ -7927,7 +7965,7 @@
         <v>-0.1209453212996621</v>
       </c>
       <c r="G131" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H131" t="n">
         <v>4</v>
@@ -7956,7 +7994,7 @@
         <v>-0.1459005022821765</v>
       </c>
       <c r="G132" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H132" t="n">
         <v>4</v>
@@ -7985,7 +8023,7 @@
         <v>-0.1448488501900193</v>
       </c>
       <c r="G133" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H133" t="n">
         <v>4</v>
@@ -8014,7 +8052,7 @@
         <v>-0.1655763252055769</v>
       </c>
       <c r="G134" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H134" t="n">
         <v>1</v>
@@ -8043,7 +8081,7 @@
         <v>-0.1688911694373849</v>
       </c>
       <c r="G135" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H135" t="n">
         <v>1</v>
@@ -8072,7 +8110,7 @@
         <v>-0.2028670378612283</v>
       </c>
       <c r="G136" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H136" t="n">
         <v>1</v>
@@ -8101,7 +8139,7 @@
         <v>-0.2134057489880342</v>
       </c>
       <c r="G137" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H137" t="n">
         <v>2</v>
@@ -8130,7 +8168,7 @@
         <v>-0.1749812727404239</v>
       </c>
       <c r="G138" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H138" t="n">
         <v>2</v>
@@ -8159,7 +8197,7 @@
         <v>-0.1347918402698311</v>
       </c>
       <c r="G139" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H139" t="n">
         <v>2</v>
@@ -8188,7 +8226,7 @@
         <v>-0.08586223777017178</v>
       </c>
       <c r="G140" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H140" t="n">
         <v>3</v>
@@ -8217,7 +8255,7 @@
         <v>-0.09583191040525134</v>
       </c>
       <c r="G141" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H141" t="n">
         <v>3</v>
@@ -8246,7 +8284,7 @@
         <v>-0.1212322273746679</v>
       </c>
       <c r="G142" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H142" t="n">
         <v>3</v>
@@ -8275,7 +8313,7 @@
         <v>-0.129102300586045</v>
       </c>
       <c r="G143" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H143" t="n">
         <v>4</v>
@@ -8304,7 +8342,7 @@
         <v>-0.1039715128513308</v>
       </c>
       <c r="G144" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H144" t="n">
         <v>4</v>
@@ -8333,7 +8371,7 @@
         <v>-0.1496721864525716</v>
       </c>
       <c r="G145" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H145" t="n">
         <v>4</v>
@@ -8362,7 +8400,7 @@
         <v>-0.1485950966778196</v>
       </c>
       <c r="G146" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H146" t="n">
         <v>1</v>
@@ -8391,7 +8429,7 @@
         <v>-0.1453191509395424</v>
       </c>
       <c r="G147" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H147" t="n">
         <v>1</v>
@@ -8420,7 +8458,7 @@
         <v>-0.1386137286143759</v>
       </c>
       <c r="G148" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H148" t="n">
         <v>1</v>
@@ -8449,7 +8487,7 @@
         <v>-0.1821176698641508</v>
       </c>
       <c r="G149" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H149" t="n">
         <v>2</v>
@@ -8478,7 +8516,7 @@
         <v>-0.1753849584375484</v>
       </c>
       <c r="G150" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H150" t="n">
         <v>2</v>
@@ -8507,7 +8545,7 @@
         <v>-0.1318617696780832</v>
       </c>
       <c r="G151" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H151" t="n">
         <v>2</v>
@@ -8536,7 +8574,7 @@
         <v>-0.1101436776426027</v>
       </c>
       <c r="G152" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H152" t="n">
         <v>3</v>
@@ -8565,7 +8603,7 @@
         <v>-0.1060635716230746</v>
       </c>
       <c r="G153" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H153" t="n">
         <v>3</v>
@@ -8594,7 +8632,7 @@
         <v>-0.1135076765290571</v>
       </c>
       <c r="G154" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H154" t="n">
         <v>3</v>
@@ -8623,7 +8661,7 @@
         <v>-0.1418977671176893</v>
       </c>
       <c r="G155" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H155" t="n">
         <v>4</v>
@@ -8652,7 +8690,7 @@
         <v>-0.1588730158378348</v>
       </c>
       <c r="G156" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H156" t="n">
         <v>4</v>
@@ -8681,7 +8719,7 @@
         <v>-0.1335320259427519</v>
       </c>
       <c r="G157" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H157" t="n">
         <v>4</v>
@@ -8698,25 +8736,25 @@
         <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>377861589.5399998</v>
+        <v>377863137.12</v>
       </c>
       <c r="D158" t="n">
         <v>200032386521.9106</v>
       </c>
       <c r="E158" t="n">
-        <v>529.3800483013516</v>
+        <v>529.3778801671922</v>
       </c>
       <c r="F158" t="n">
-        <v>-0.1164131022017796</v>
+        <v>-0.1164167210290136</v>
       </c>
       <c r="G158" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H158" t="n">
         <v>1</v>
       </c>
       <c r="I158" t="n">
-        <v>1167.07125448516</v>
+        <v>1167.066474616592</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -8727,25 +8765,25 @@
         <v>2</v>
       </c>
       <c r="C159" t="n">
-        <v>324985289.5199999</v>
+        <v>324988185.0299999</v>
       </c>
       <c r="D159" t="n">
         <v>176727567180.6065</v>
       </c>
       <c r="E159" t="n">
-        <v>543.8017438931817</v>
+        <v>543.7968988450846</v>
       </c>
       <c r="F159" t="n">
-        <v>-0.0923418866169386</v>
+        <v>-0.09234997347444583</v>
       </c>
       <c r="G159" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H159" t="n">
         <v>1</v>
       </c>
       <c r="I159" t="n">
-        <v>1198.865324586909</v>
+        <v>1198.854643193873</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -8756,25 +8794,25 @@
         <v>3</v>
       </c>
       <c r="C160" t="n">
-        <v>332711530.58</v>
+        <v>332714953.37</v>
       </c>
       <c r="D160" t="n">
         <v>171333104193.2277</v>
       </c>
       <c r="E160" t="n">
-        <v>514.9599230737538</v>
+        <v>514.9546254468896</v>
       </c>
       <c r="F160" t="n">
-        <v>-0.1404816966956581</v>
+        <v>-0.1404905389512391</v>
       </c>
       <c r="G160" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H160" t="n">
         <v>1</v>
       </c>
       <c r="I160" t="n">
-        <v>1135.280646408398</v>
+        <v>1135.268967260213</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -8785,25 +8823,25 @@
         <v>4</v>
       </c>
       <c r="C161" t="n">
-        <v>298601618.17</v>
+        <v>298604587.72</v>
       </c>
       <c r="D161" t="n">
         <v>143487509069.5375</v>
       </c>
       <c r="E161" t="n">
-        <v>480.5315856923692</v>
+        <v>480.5268069226217</v>
       </c>
       <c r="F161" t="n">
-        <v>-0.197945947418328</v>
+        <v>-0.19795392365081</v>
       </c>
       <c r="G161" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H161" t="n">
         <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>1059.379933817397</v>
+        <v>1059.369398541612</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -8814,25 +8852,25 @@
         <v>5</v>
       </c>
       <c r="C162" t="n">
-        <v>325778684.8</v>
+        <v>325779791.02</v>
       </c>
       <c r="D162" t="n">
         <v>159671913180.5483</v>
       </c>
       <c r="E162" t="n">
-        <v>490.1238805067099</v>
+        <v>490.1222162388392</v>
       </c>
       <c r="F162" t="n">
-        <v>-0.1819354724392175</v>
+        <v>-0.1819382502645052</v>
       </c>
       <c r="G162" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H162" t="n">
         <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>1080.527106965093</v>
+        <v>1080.523437920145</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -8843,25 +8881,25 @@
         <v>6</v>
       </c>
       <c r="C163" t="n">
-        <v>358924166.51</v>
+        <v>358926115.01</v>
       </c>
       <c r="D163" t="n">
         <v>183226117684.8676</v>
       </c>
       <c r="E163" t="n">
-        <v>510.4869907938136</v>
+        <v>510.4842195162165</v>
       </c>
       <c r="F163" t="n">
-        <v>-0.1479474566349976</v>
+        <v>-0.1479520821674159</v>
       </c>
       <c r="G163" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H163" t="n">
         <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>1125.419619904042</v>
+        <v>1125.413510345451</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -8872,25 +8910,25 @@
         <v>7</v>
       </c>
       <c r="C164" t="n">
-        <v>386910613.85</v>
+        <v>386912790.47</v>
       </c>
       <c r="D164" t="n">
         <v>203172701290.3755</v>
       </c>
       <c r="E164" t="n">
-        <v>525.115347104804</v>
+        <v>525.1123930112848</v>
       </c>
       <c r="F164" t="n">
-        <v>-0.1235313041672395</v>
+        <v>-0.1235362348372501</v>
       </c>
       <c r="G164" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H164" t="n">
         <v>3</v>
       </c>
       <c r="I164" t="n">
-        <v>1157.669294227251</v>
+        <v>1157.662781632679</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -8901,25 +8939,25 @@
         <v>8</v>
       </c>
       <c r="C165" t="n">
-        <v>385462867.6000001</v>
+        <v>385464449.9800001</v>
       </c>
       <c r="D165" t="n">
         <v>205243149230.3304</v>
       </c>
       <c r="E165" t="n">
-        <v>532.4589382843328</v>
+        <v>532.4567524734888</v>
       </c>
       <c r="F165" t="n">
-        <v>-0.1112741347294435</v>
+        <v>-0.111277783060787</v>
       </c>
       <c r="G165" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H165" t="n">
         <v>3</v>
       </c>
       <c r="I165" t="n">
-        <v>1173.85897534164</v>
+        <v>1173.854156503053</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -8930,25 +8968,25 @@
         <v>9</v>
       </c>
       <c r="C166" t="n">
-        <v>340917245.2</v>
+        <v>340919339.9200001</v>
       </c>
       <c r="D166" t="n">
         <v>175079137339.7709</v>
       </c>
       <c r="E166" t="n">
-        <v>513.5531857212451</v>
+        <v>513.5500302823972</v>
       </c>
       <c r="F166" t="n">
-        <v>-0.1428296784477253</v>
+        <v>-0.1428349451827144</v>
       </c>
       <c r="G166" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H166" t="n">
         <v>3</v>
       </c>
       <c r="I166" t="n">
-        <v>1132.179353241057</v>
+        <v>1132.172396760573</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -8959,25 +8997,25 @@
         <v>10</v>
       </c>
       <c r="C167" t="n">
-        <v>315460977.88</v>
+        <v>315462658.99</v>
       </c>
       <c r="D167" t="n">
         <v>154941725886.3438</v>
       </c>
       <c r="E167" t="n">
-        <v>491.1597210139978</v>
+        <v>491.1571036090687</v>
       </c>
       <c r="F167" t="n">
-        <v>-0.1802065536720951</v>
+        <v>-0.180210922376033</v>
       </c>
       <c r="G167" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H167" t="n">
         <v>4</v>
       </c>
       <c r="I167" t="n">
-        <v>1082.810720947459</v>
+        <v>1082.804950616553</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -8988,25 +9026,25 @@
         <v>11</v>
       </c>
       <c r="C168" t="n">
-        <v>318272469.29</v>
+        <v>318274812.83</v>
       </c>
       <c r="D168" t="n">
         <v>156260482729.3857</v>
       </c>
       <c r="E168" t="n">
-        <v>490.9644967972585</v>
+        <v>490.9608816983236</v>
       </c>
       <c r="F168" t="n">
-        <v>-0.180532401917788</v>
+        <v>-0.1805384358702637</v>
       </c>
       <c r="G168" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H168" t="n">
         <v>4</v>
       </c>
       <c r="I168" t="n">
-        <v>1082.380329639236</v>
+        <v>1082.372359792125</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -9017,25 +9055,25 @@
         <v>12</v>
       </c>
       <c r="C169" t="n">
-        <v>338704380.65</v>
+        <v>338706770.15</v>
       </c>
       <c r="D169" t="n">
         <v>165163093037.369</v>
       </c>
       <c r="E169" t="n">
-        <v>487.6319955484725</v>
+        <v>487.6285554145393</v>
       </c>
       <c r="F169" t="n">
-        <v>-0.1860946713115287</v>
+        <v>-0.1861004132303632</v>
       </c>
       <c r="G169" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H169" t="n">
         <v>4</v>
       </c>
       <c r="I169" t="n">
-        <v>1075.033497386162</v>
+        <v>1075.025913266894</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -9046,25 +9084,25 @@
         <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>361185053.4499999</v>
+        <v>361188713.3299999</v>
       </c>
       <c r="D170" t="n">
         <v>177381526458.9975</v>
       </c>
       <c r="E170" t="n">
-        <v>491.1098196469334</v>
+        <v>491.1048432926333</v>
       </c>
       <c r="F170" t="n">
-        <v>-0.1802898439174715</v>
+        <v>-0.1802981499378297</v>
       </c>
       <c r="G170" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H170" t="n">
         <v>1</v>
       </c>
       <c r="I170" t="n">
-        <v>1082.70070839363</v>
+        <v>1082.689737522939</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -9075,25 +9113,25 @@
         <v>2</v>
       </c>
       <c r="C171" t="n">
-        <v>335253888.05</v>
+        <v>335378955.67</v>
       </c>
       <c r="D171" t="n">
         <v>169388667804.9001</v>
       </c>
       <c r="E171" t="n">
-        <v>505.2548944030063</v>
+        <v>505.066477610396</v>
       </c>
       <c r="F171" t="n">
-        <v>-0.1566803354689635</v>
+        <v>-0.1569948214602845</v>
       </c>
       <c r="G171" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H171" t="n">
         <v>1</v>
       </c>
       <c r="I171" t="n">
-        <v>1113.884940200868</v>
+        <v>1113.469556539879</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -9104,25 +9142,25 @@
         <v>3</v>
       </c>
       <c r="C172" t="n">
-        <v>325304689.81</v>
+        <v>325432126.92</v>
       </c>
       <c r="D172" t="n">
         <v>151998050662.9263</v>
       </c>
       <c r="E172" t="n">
-        <v>467.2482611661807</v>
+        <v>467.0652897778943</v>
       </c>
       <c r="F172" t="n">
-        <v>-0.22011711074079</v>
+        <v>-0.2204225078215462</v>
       </c>
       <c r="G172" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H172" t="n">
         <v>1</v>
       </c>
       <c r="I172" t="n">
-        <v>1030.095516566962</v>
+        <v>1029.692137844346</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -9133,25 +9171,25 @@
         <v>4</v>
       </c>
       <c r="C173" t="n">
-        <v>295376328.1800001</v>
+        <v>295425884.1700001</v>
       </c>
       <c r="D173" t="n">
         <v>130322897279.2974</v>
       </c>
       <c r="E173" t="n">
-        <v>441.2096869180377</v>
+        <v>441.1356765350469</v>
       </c>
       <c r="F173" t="n">
-        <v>-0.2635780290674819</v>
+        <v>-0.2637015596102773</v>
       </c>
       <c r="G173" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H173" t="n">
         <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>972.6908757795061</v>
+        <v>972.5277124891644</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -9162,25 +9200,25 @@
         <v>5</v>
       </c>
       <c r="C174" t="n">
-        <v>323458048.41</v>
+        <v>323566387.24</v>
       </c>
       <c r="D174" t="n">
         <v>152479221160.9263</v>
       </c>
       <c r="E174" t="n">
-        <v>471.4033919095775</v>
+        <v>471.245553228084</v>
       </c>
       <c r="F174" t="n">
-        <v>-0.2131817925411625</v>
+        <v>-0.2134452406846669</v>
       </c>
       <c r="G174" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H174" t="n">
         <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>1039.255917803855</v>
+        <v>1038.907946646634</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -9191,25 +9229,25 @@
         <v>6</v>
       </c>
       <c r="C175" t="n">
-        <v>363790187.78</v>
+        <v>363880227.29</v>
       </c>
       <c r="D175" t="n">
         <v>182928408159.8011</v>
       </c>
       <c r="E175" t="n">
-        <v>502.8404127008118</v>
+        <v>502.7159885057821</v>
       </c>
       <c r="F175" t="n">
-        <v>-0.1607103407626615</v>
+        <v>-0.1609180168714421</v>
       </c>
       <c r="G175" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H175" t="n">
         <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>1108.56197384021</v>
+        <v>1108.287668259847</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -9220,25 +9258,25 @@
         <v>7</v>
       </c>
       <c r="C176" t="n">
-        <v>401877547.1200001</v>
+        <v>401999686.7300001</v>
       </c>
       <c r="D176" t="n">
         <v>206002663787.3329</v>
       </c>
       <c r="E176" t="n">
-        <v>512.6005801110875</v>
+        <v>512.4448366192211</v>
       </c>
       <c r="F176" t="n">
-        <v>-0.1444196700588657</v>
+        <v>-0.1446796211266707</v>
       </c>
       <c r="G176" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H176" t="n">
         <v>3</v>
       </c>
       <c r="I176" t="n">
-        <v>1130.079238912904</v>
+        <v>1129.735886810735</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -9249,25 +9287,25 @@
         <v>8</v>
       </c>
       <c r="C177" t="n">
-        <v>393557109.73</v>
+        <v>393689215.4</v>
       </c>
       <c r="D177" t="n">
         <v>201054852886.3281</v>
       </c>
       <c r="E177" t="n">
-        <v>510.8657623394528</v>
+        <v>510.6943371106836</v>
       </c>
       <c r="F177" t="n">
-        <v>-0.1473152500075293</v>
+        <v>-0.1476013754226796</v>
       </c>
       <c r="G177" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H177" t="n">
         <v>3</v>
       </c>
       <c r="I177" t="n">
-        <v>1126.254659653558</v>
+        <v>1125.876735594213</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -9278,25 +9316,25 @@
         <v>9</v>
       </c>
       <c r="C178" t="n">
-        <v>351426751.99</v>
+        <v>351501636.81</v>
       </c>
       <c r="D178" t="n">
         <v>175883191446.5103</v>
       </c>
       <c r="E178" t="n">
-        <v>500.4832172011628</v>
+        <v>500.3765929590305</v>
       </c>
       <c r="F178" t="n">
-        <v>-0.1646447298007863</v>
+        <v>-0.1648226960532699</v>
       </c>
       <c r="G178" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H178" t="n">
         <v>3</v>
       </c>
       <c r="I178" t="n">
-        <v>1103.365300641684</v>
+        <v>1103.130236837479</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -9307,25 +9345,25 @@
         <v>10</v>
       </c>
       <c r="C179" t="n">
-        <v>313285700.0299999</v>
+        <v>313390389.7799999</v>
       </c>
       <c r="D179" t="n">
         <v>147845056229.3213</v>
       </c>
       <c r="E179" t="n">
-        <v>471.9176656169233</v>
+        <v>471.7600189754015</v>
       </c>
       <c r="F179" t="n">
-        <v>-0.2123234195987917</v>
+        <v>-0.212586547208866</v>
       </c>
       <c r="G179" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H179" t="n">
         <v>4</v>
       </c>
       <c r="I179" t="n">
-        <v>1040.389685619069</v>
+        <v>1040.04213783317</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -9336,25 +9374,25 @@
         <v>11</v>
       </c>
       <c r="C180" t="n">
-        <v>301612897.17</v>
+        <v>301745472.0399998</v>
       </c>
       <c r="D180" t="n">
         <v>135020055058.7591</v>
       </c>
       <c r="E180" t="n">
-        <v>447.6600845840386</v>
+        <v>447.4634006798306</v>
       </c>
       <c r="F180" t="n">
-        <v>-0.2528116866608218</v>
+        <v>-0.2531399712671714</v>
       </c>
       <c r="G180" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H180" t="n">
         <v>4</v>
       </c>
       <c r="I180" t="n">
-        <v>986.9114224739716</v>
+        <v>986.4778131387548</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -9365,25 +9403,25 @@
         <v>12</v>
       </c>
       <c r="C181" t="n">
-        <v>325318592.9899999</v>
+        <v>325433992.0699999</v>
       </c>
       <c r="D181" t="n">
         <v>139565498621.2094</v>
       </c>
       <c r="E181" t="n">
-        <v>429.0117491855116</v>
+        <v>428.859621373508</v>
       </c>
       <c r="F181" t="n">
-        <v>-0.2839375760417253</v>
+        <v>-0.2841914921874289</v>
       </c>
       <c r="G181" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H181" t="n">
         <v>4</v>
       </c>
       <c r="I181" t="n">
-        <v>945.7993022543789</v>
+        <v>945.4639212800356</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -9394,25 +9432,25 @@
         <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>353685989.65</v>
+        <v>353685896.4200001</v>
       </c>
       <c r="D182" t="n">
         <v>161044624361.8045</v>
       </c>
       <c r="E182" t="n">
-        <v>455.3322129643043</v>
+        <v>455.3323329878129</v>
       </c>
       <c r="F182" t="n">
-        <v>-0.2400061566133997</v>
+        <v>-0.2400059562824656</v>
       </c>
       <c r="G182" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H182" t="n">
         <v>1</v>
       </c>
       <c r="I182" t="n">
-        <v>1003.825396701105</v>
+        <v>1003.825661304932</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -9423,25 +9461,25 @@
         <v>2</v>
       </c>
       <c r="C183" t="n">
-        <v>314817883.7000002</v>
+        <v>314953845.3700001</v>
       </c>
       <c r="D183" t="n">
         <v>135704222249.2749</v>
       </c>
       <c r="E183" t="n">
-        <v>431.0562686413065</v>
+        <v>430.8701869947099</v>
       </c>
       <c r="F183" t="n">
-        <v>-0.2805250737964466</v>
+        <v>-0.2808356622014709</v>
       </c>
       <c r="G183" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H183" t="n">
         <v>1</v>
       </c>
       <c r="I183" t="n">
-        <v>950.3066498466246</v>
+        <v>949.8964142485376</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -9452,25 +9490,25 @@
         <v>3</v>
       </c>
       <c r="C184" t="n">
-        <v>305883690.5099999</v>
+        <v>305926865.1599998</v>
       </c>
       <c r="D184" t="n">
         <v>119009253861.4306</v>
       </c>
       <c r="E184" t="n">
-        <v>389.0670132265192</v>
+        <v>389.012105227139</v>
       </c>
       <c r="F184" t="n">
-        <v>-0.3506092336582653</v>
+        <v>-0.350700880460959</v>
       </c>
       <c r="G184" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H184" t="n">
         <v>1</v>
       </c>
       <c r="I184" t="n">
-        <v>857.7371373591843</v>
+        <v>857.6160871837508</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -9481,25 +9519,25 @@
         <v>4</v>
       </c>
       <c r="C185" t="n">
-        <v>294564171.7499999</v>
+        <v>294662005.9399999</v>
       </c>
       <c r="D185" t="n">
         <v>116651199847.0305</v>
       </c>
       <c r="E185" t="n">
-        <v>396.0128591132043</v>
+        <v>395.8813742372449</v>
       </c>
       <c r="F185" t="n">
-        <v>-0.3390159398813397</v>
+        <v>-0.3392354009547764</v>
       </c>
       <c r="G185" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H185" t="n">
         <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>873.0499492009703</v>
+        <v>872.7600776434305</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -9510,25 +9548,25 @@
         <v>5</v>
       </c>
       <c r="C186" t="n">
-        <v>318628108.24</v>
+        <v>318716436.77</v>
       </c>
       <c r="D186" t="n">
         <v>132229736252.7986</v>
       </c>
       <c r="E186" t="n">
-        <v>414.9970854209737</v>
+        <v>414.8820738361274</v>
       </c>
       <c r="F186" t="n">
-        <v>-0.3073294158345691</v>
+        <v>-0.3075213813795332</v>
       </c>
       <c r="G186" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H186" t="n">
         <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>914.9025745190787</v>
+        <v>914.6490199791265</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -9539,25 +9577,25 @@
         <v>6</v>
       </c>
       <c r="C187" t="n">
-        <v>369674791.36</v>
+        <v>369802615.01</v>
       </c>
       <c r="D187" t="n">
         <v>175607686329.0446</v>
       </c>
       <c r="E187" t="n">
-        <v>475.0328949480159</v>
+        <v>474.8686980601688</v>
       </c>
       <c r="F187" t="n">
-        <v>-0.2071237982125636</v>
+        <v>-0.2073978588221888</v>
       </c>
       <c r="G187" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H187" t="n">
         <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>1047.257520202396</v>
+        <v>1046.895531743448</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -9568,25 +9606,25 @@
         <v>7</v>
       </c>
       <c r="C188" t="n">
-        <v>413851849.05</v>
+        <v>414014134.42</v>
       </c>
       <c r="D188" t="n">
         <v>205942315232.2841</v>
       </c>
       <c r="E188" t="n">
-        <v>497.6232816285011</v>
+        <v>497.4282231228469</v>
       </c>
       <c r="F188" t="n">
-        <v>-0.1694182410214291</v>
+        <v>-0.1697438126791695</v>
       </c>
       <c r="G188" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H188" t="n">
         <v>3</v>
       </c>
       <c r="I188" t="n">
-        <v>1097.060286678194</v>
+        <v>1096.630260696629</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -9597,25 +9635,25 @@
         <v>8</v>
       </c>
       <c r="C189" t="n">
-        <v>411608078.5400001</v>
+        <v>411774411.3100001</v>
       </c>
       <c r="D189" t="n">
         <v>206283839761.4553</v>
       </c>
       <c r="E189" t="n">
-        <v>501.1656731645236</v>
+        <v>500.963231554854</v>
       </c>
       <c r="F189" t="n">
-        <v>-0.1635056442808753</v>
+        <v>-0.1638435390588278</v>
       </c>
       <c r="G189" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H189" t="n">
         <v>3</v>
       </c>
       <c r="I189" t="n">
-        <v>1104.869843058509</v>
+        <v>1104.423540285831</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -9626,25 +9664,25 @@
         <v>9</v>
       </c>
       <c r="C190" t="n">
-        <v>353189594.74</v>
+        <v>353270353.92</v>
       </c>
       <c r="D190" t="n">
         <v>170860678402.0474</v>
       </c>
       <c r="E190" t="n">
-        <v>483.7647567953587</v>
+        <v>483.6541660122991</v>
       </c>
       <c r="F190" t="n">
-        <v>-0.1925494697193519</v>
+        <v>-0.1927340565152505</v>
       </c>
       <c r="G190" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H190" t="n">
         <v>3</v>
       </c>
       <c r="I190" t="n">
-        <v>1066.507782831048</v>
+        <v>1066.263974390715</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -9655,25 +9693,25 @@
         <v>10</v>
       </c>
       <c r="C191" t="n">
-        <v>314467826.69</v>
+        <v>314467876.92</v>
       </c>
       <c r="D191" t="n">
         <v>144983408799.8515</v>
       </c>
       <c r="E191" t="n">
-        <v>461.0436950765557</v>
+        <v>461.0436214339788</v>
       </c>
       <c r="F191" t="n">
-        <v>-0.2304731362859669</v>
+        <v>-0.2304732592026054</v>
       </c>
       <c r="G191" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H191" t="n">
         <v>4</v>
       </c>
       <c r="I191" t="n">
-        <v>1016.416930165775</v>
+        <v>1016.41676781335</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -9684,25 +9722,25 @@
         <v>11</v>
       </c>
       <c r="C192" t="n">
-        <v>298291101.07</v>
+        <v>298300155.15</v>
       </c>
       <c r="D192" t="n">
         <v>128477965301.2668</v>
       </c>
       <c r="E192" t="n">
-        <v>430.71336972643</v>
+        <v>430.7002966078304</v>
       </c>
       <c r="F192" t="n">
-        <v>-0.2810974055067678</v>
+        <v>-0.2811192258159106</v>
       </c>
       <c r="G192" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H192" t="n">
         <v>4</v>
       </c>
       <c r="I192" t="n">
-        <v>949.5506948988876</v>
+        <v>949.5218739016228</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -9713,25 +9751,25 @@
         <v>12</v>
       </c>
       <c r="C193" t="n">
-        <v>346480679.27</v>
+        <v>346533156.16</v>
       </c>
       <c r="D193" t="n">
         <v>160241391343.3185</v>
       </c>
       <c r="E193" t="n">
-        <v>462.482905773941</v>
+        <v>462.4128701535632</v>
       </c>
       <c r="F193" t="n">
-        <v>-0.2280709533562151</v>
+        <v>-0.2281878496328006</v>
       </c>
       <c r="G193" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H193" t="n">
         <v>4</v>
       </c>
       <c r="I193" t="n">
-        <v>1019.58981406923</v>
+        <v>1019.435413540545</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -9742,25 +9780,25 @@
         <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>345557608.2</v>
+        <v>345646626.2</v>
       </c>
       <c r="D194" t="n">
         <v>156071929042.8433</v>
       </c>
       <c r="E194" t="n">
-        <v>451.6524172505349</v>
+        <v>451.5360984676183</v>
       </c>
       <c r="F194" t="n">
-        <v>-0.2461480943190116</v>
+        <v>-0.2463422417049637</v>
       </c>
       <c r="G194" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H194" t="n">
         <v>1</v>
       </c>
       <c r="I194" t="n">
-        <v>995.7129190705292</v>
+        <v>995.4564826817116</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -9771,25 +9809,25 @@
         <v>2</v>
       </c>
       <c r="C195" t="n">
-        <v>292417787.5000001</v>
+        <v>292487111.5000001</v>
       </c>
       <c r="D195" t="n">
         <v>122192161356.6129</v>
       </c>
       <c r="E195" t="n">
-        <v>417.8684285976033</v>
+        <v>417.7693872730283</v>
       </c>
       <c r="F195" t="n">
-        <v>-0.3025368642110368</v>
+        <v>-0.3027021738350317</v>
       </c>
       <c r="G195" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H195" t="n">
         <v>1</v>
       </c>
       <c r="I195" t="n">
-        <v>921.2327376862764</v>
+        <v>921.0143911821182</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -9800,25 +9838,25 @@
         <v>3</v>
       </c>
       <c r="C196" t="n">
-        <v>321286820.5700001</v>
+        <v>321427358.5700001</v>
       </c>
       <c r="D196" t="n">
         <v>130994079305.5779</v>
       </c>
       <c r="E196" t="n">
-        <v>407.7169398768963</v>
+        <v>407.5386733984256</v>
       </c>
       <c r="F196" t="n">
-        <v>-0.3194806883229291</v>
+        <v>-0.3197782324506287</v>
       </c>
       <c r="G196" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H196" t="n">
         <v>1</v>
       </c>
       <c r="I196" t="n">
-        <v>898.8527656526056</v>
+        <v>898.459759374169</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -9829,25 +9867,25 @@
         <v>4</v>
       </c>
       <c r="C197" t="n">
-        <v>297539580.84</v>
+        <v>297646849.84</v>
       </c>
       <c r="D197" t="n">
         <v>119955426383.8008</v>
       </c>
       <c r="E197" t="n">
-        <v>403.1578791808074</v>
+        <v>403.0125850425858</v>
       </c>
       <c r="F197" t="n">
-        <v>-0.3270902049835153</v>
+        <v>-0.3273327150616178</v>
       </c>
       <c r="G197" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H197" t="n">
         <v>2</v>
       </c>
       <c r="I197" t="n">
-        <v>888.8018604420079</v>
+        <v>888.4815449848846</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -9858,25 +9896,25 @@
         <v>5</v>
       </c>
       <c r="C198" t="n">
-        <v>325851226.8</v>
+        <v>325906031.8</v>
       </c>
       <c r="D198" t="n">
         <v>136842186668.2315</v>
       </c>
       <c r="E198" t="n">
-        <v>419.9529583242051</v>
+        <v>419.8823382078671</v>
       </c>
       <c r="F198" t="n">
-        <v>-0.2990575809240933</v>
+        <v>-0.2991754527814054</v>
       </c>
       <c r="G198" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H198" t="n">
         <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>925.8282919215427</v>
+        <v>925.6726028130639</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -9887,25 +9925,25 @@
         <v>6</v>
       </c>
       <c r="C199" t="n">
-        <v>360988359.67</v>
+        <v>361104151.67</v>
       </c>
       <c r="D199" t="n">
         <v>160849169421.7189</v>
       </c>
       <c r="E199" t="n">
-        <v>445.5799338481726</v>
+        <v>445.4370537636829</v>
       </c>
       <c r="F199" t="n">
-        <v>-0.2562836609854194</v>
+        <v>-0.2565221417725522</v>
       </c>
       <c r="G199" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H199" t="n">
         <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>982.3255221616812</v>
+        <v>982.0105287274156</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -9916,25 +9954,25 @@
         <v>7</v>
       </c>
       <c r="C200" t="n">
-        <v>406964037.56</v>
+        <v>407076401.56</v>
       </c>
       <c r="D200" t="n">
         <v>194803021631.3192</v>
       </c>
       <c r="E200" t="n">
-        <v>478.6737983023838</v>
+        <v>478.5416715014532</v>
       </c>
       <c r="F200" t="n">
-        <v>-0.2010467756455217</v>
+        <v>-0.2012673081543022</v>
       </c>
       <c r="G200" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H200" t="n">
         <v>3</v>
       </c>
       <c r="I200" t="n">
-        <v>1055.284255737435</v>
+        <v>1054.992968992104</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -9945,25 +9983,25 @@
         <v>8</v>
       </c>
       <c r="C201" t="n">
-        <v>387179238.26</v>
+        <v>387285928.26</v>
       </c>
       <c r="D201" t="n">
         <v>182334425836.9139</v>
       </c>
       <c r="E201" t="n">
-        <v>470.9302767791285</v>
+        <v>470.8005443319536</v>
       </c>
       <c r="F201" t="n">
-        <v>-0.213971467807082</v>
+        <v>-0.2141880039060734</v>
       </c>
       <c r="G201" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H201" t="n">
         <v>3</v>
       </c>
       <c r="I201" t="n">
-        <v>1038.212888187267</v>
+        <v>1037.926880034225</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -9974,25 +10012,25 @@
         <v>9</v>
       </c>
       <c r="C202" t="n">
-        <v>338102496.29</v>
+        <v>338198349.29</v>
       </c>
       <c r="D202" t="n">
         <v>152287728618.3875</v>
       </c>
       <c r="E202" t="n">
-        <v>450.4188235503769</v>
+        <v>450.2911647501954</v>
       </c>
       <c r="F202" t="n">
-        <v>-0.2482070824394809</v>
+        <v>-0.248420157419528</v>
       </c>
       <c r="G202" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H202" t="n">
         <v>3</v>
       </c>
       <c r="I202" t="n">
-        <v>992.9933383991612</v>
+        <v>992.7119018082808</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -10003,25 +10041,25 @@
         <v>10</v>
       </c>
       <c r="C203" t="n">
-        <v>320622637.97</v>
+        <v>320691561.97</v>
       </c>
       <c r="D203" t="n">
         <v>137531850346.2142</v>
       </c>
       <c r="E203" t="n">
-        <v>428.952400918998</v>
+        <v>428.8602091722014</v>
       </c>
       <c r="F203" t="n">
-        <v>-0.2840366340830449</v>
+        <v>-0.2841905110941185</v>
       </c>
       <c r="G203" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H203" t="n">
         <v>4</v>
       </c>
       <c r="I203" t="n">
-        <v>945.6684630660229</v>
+        <v>945.4652171410353</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -10032,25 +10070,25 @@
         <v>11</v>
       </c>
       <c r="C204" t="n">
-        <v>309579799.11</v>
+        <v>309723765.11</v>
       </c>
       <c r="D204" t="n">
         <v>132146569212.4975</v>
       </c>
       <c r="E204" t="n">
-        <v>426.8578556882621</v>
+        <v>426.6594433448303</v>
       </c>
       <c r="F204" t="n">
-        <v>-0.2875326342225712</v>
+        <v>-0.2878638037624517</v>
       </c>
       <c r="G204" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H204" t="n">
         <v>4</v>
       </c>
       <c r="I204" t="n">
-        <v>941.0508286503427</v>
+        <v>940.6134087980126</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -10061,25 +10099,25 @@
         <v>12</v>
       </c>
       <c r="C205" t="n">
-        <v>351853694.35</v>
+        <v>352009188.35</v>
       </c>
       <c r="D205" t="n">
         <v>154382709898.4829</v>
       </c>
       <c r="E205" t="n">
-        <v>438.7696146936389</v>
+        <v>438.5757957686642</v>
       </c>
       <c r="F205" t="n">
-        <v>-0.2676507474369752</v>
+        <v>-0.2679742501137429</v>
       </c>
       <c r="G205" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H205" t="n">
         <v>4</v>
       </c>
       <c r="I205" t="n">
-        <v>967.3114925535964</v>
+        <v>966.8841993515973</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -10090,25 +10128,25 @@
         <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>374838323.87</v>
+        <v>374987396.87</v>
       </c>
       <c r="D206" t="n">
-        <v>170319168142.9643</v>
+        <v>170319168249.1043</v>
       </c>
       <c r="E206" t="n">
-        <v>454.380348264586</v>
+        <v>454.1997135657075</v>
       </c>
       <c r="F206" t="n">
-        <v>-0.2415949115728028</v>
+        <v>-0.2418964084911866</v>
       </c>
       <c r="G206" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H206" t="n">
         <v>1</v>
       </c>
       <c r="I206" t="n">
-        <v>1001.726915784106</v>
+        <v>1001.328688526959</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -10119,25 +10157,25 @@
         <v>2</v>
       </c>
       <c r="C207" t="n">
-        <v>308647892.4299998</v>
+        <v>308811336.4299999</v>
       </c>
       <c r="D207" t="n">
-        <v>123391845273.2764</v>
+        <v>123391845114.0664</v>
       </c>
       <c r="E207" t="n">
-        <v>399.7819142771604</v>
+        <v>399.5703219335549</v>
       </c>
       <c r="F207" t="n">
-        <v>-0.332725019453499</v>
+        <v>-0.3330781876982866</v>
       </c>
       <c r="G207" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H207" t="n">
         <v>1</v>
       </c>
       <c r="I207" t="n">
-        <v>881.3592082154277</v>
+        <v>880.8927317347153</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -10148,25 +10186,25 @@
         <v>3</v>
       </c>
       <c r="C208" t="n">
-        <v>323965391.02</v>
+        <v>324183627.02</v>
       </c>
       <c r="D208" t="n">
-        <v>125952558682.491</v>
+        <v>125952558576.351</v>
       </c>
       <c r="E208" t="n">
-        <v>388.7839941357048</v>
+        <v>388.5222697214766</v>
       </c>
       <c r="F208" t="n">
-        <v>-0.3510816201059087</v>
+        <v>-0.3515184636627975</v>
       </c>
       <c r="G208" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H208" t="n">
         <v>1</v>
       </c>
       <c r="I208" t="n">
-        <v>857.1131934715747</v>
+        <v>856.5361958279673</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -10177,25 +10215,25 @@
         <v>4</v>
       </c>
       <c r="C209" t="n">
-        <v>303479515.33</v>
+        <v>303780020.33</v>
       </c>
       <c r="D209" t="n">
         <v>116148529852.6651</v>
       </c>
       <c r="E209" t="n">
-        <v>382.7228000096368</v>
+        <v>382.344203303731</v>
       </c>
       <c r="F209" t="n">
-        <v>-0.3611983438698474</v>
+        <v>-0.3618302586727593</v>
       </c>
       <c r="G209" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H209" t="n">
         <v>2</v>
       </c>
       <c r="I209" t="n">
-        <v>843.750684901245</v>
+        <v>842.9160306034053</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -10206,25 +10244,25 @@
         <v>5</v>
       </c>
       <c r="C210" t="n">
-        <v>341946769.52</v>
+        <v>342227425.52</v>
       </c>
       <c r="D210" t="n">
         <v>138397264896.1772</v>
       </c>
       <c r="E210" t="n">
-        <v>404.7333597871073</v>
+        <v>404.401443530975</v>
       </c>
       <c r="F210" t="n">
-        <v>-0.3244605742939404</v>
+        <v>-0.3250145748763685</v>
       </c>
       <c r="G210" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H210" t="n">
         <v>2</v>
       </c>
       <c r="I210" t="n">
-        <v>892.2751649866568</v>
+        <v>891.5434224083874</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -10235,25 +10273,25 @@
         <v>6</v>
       </c>
       <c r="C211" t="n">
-        <v>374930071.58</v>
+        <v>375189394.58</v>
       </c>
       <c r="D211" t="n">
-        <v>160828747699.0372</v>
+        <v>160828747592.8972</v>
       </c>
       <c r="E211" t="n">
-        <v>428.9566505596248</v>
+        <v>428.660164482886</v>
       </c>
       <c r="F211" t="n">
-        <v>-0.2840295410186381</v>
+        <v>-0.2845244051783787</v>
       </c>
       <c r="G211" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H211" t="n">
         <v>2</v>
       </c>
       <c r="I211" t="n">
-        <v>945.6778318237492</v>
+        <v>945.0241986189708</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -10264,25 +10302,25 @@
         <v>7</v>
       </c>
       <c r="C212" t="n">
-        <v>414418886.95</v>
+        <v>414745252.95</v>
       </c>
       <c r="D212" t="n">
-        <v>190438510127.7431</v>
+        <v>190438510233.8831</v>
       </c>
       <c r="E212" t="n">
-        <v>459.5314454158063</v>
+        <v>459.169837097187</v>
       </c>
       <c r="F212" t="n">
-        <v>-0.2329972283644755</v>
+        <v>-0.233600787893196</v>
       </c>
       <c r="G212" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H212" t="n">
         <v>3</v>
       </c>
       <c r="I212" t="n">
-        <v>1013.083024563686</v>
+        <v>1012.285822864459</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -10293,25 +10331,25 @@
         <v>8</v>
       </c>
       <c r="C213" t="n">
-        <v>411030574.1700001</v>
+        <v>411354967.1700001</v>
       </c>
       <c r="D213" t="n">
-        <v>187709262785.6896</v>
+        <v>187709262997.9696</v>
       </c>
       <c r="E213" t="n">
-        <v>456.6795624990517</v>
+        <v>456.3194272074884</v>
       </c>
       <c r="F213" t="n">
-        <v>-0.2377572989175397</v>
+        <v>-0.238358399820532</v>
       </c>
       <c r="G213" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H213" t="n">
         <v>3</v>
       </c>
       <c r="I213" t="n">
-        <v>1006.795763485409</v>
+        <v>1006.001809221629</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -10322,25 +10360,25 @@
         <v>9</v>
       </c>
       <c r="C214" t="n">
-        <v>358919294.5599999</v>
+        <v>359218952.5599999</v>
       </c>
       <c r="D214" t="n">
-        <v>160455165123.3495</v>
+        <v>160455165229.4894</v>
       </c>
       <c r="E214" t="n">
-        <v>447.0508204916981</v>
+        <v>446.6778940420433</v>
       </c>
       <c r="F214" t="n">
-        <v>-0.2538286078141943</v>
+        <v>-0.2544510584067595</v>
       </c>
       <c r="G214" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H214" t="n">
         <v>3</v>
       </c>
       <c r="I214" t="n">
-        <v>985.5682388559976</v>
+        <v>984.7460852050888</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -10351,25 +10389,25 @@
         <v>10</v>
       </c>
       <c r="C215" t="n">
-        <v>327291940.5099999</v>
+        <v>327430147.5099999</v>
       </c>
       <c r="D215" t="n">
-        <v>140865236978.5179</v>
+        <v>140865237031.588</v>
       </c>
       <c r="E215" t="n">
-        <v>430.3962901103396</v>
+        <v>430.2146216615128</v>
       </c>
       <c r="F215" t="n">
-        <v>-0.2816266422908803</v>
+        <v>-0.2819298646386847</v>
       </c>
       <c r="G215" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H215" t="n">
         <v>4</v>
       </c>
       <c r="I215" t="n">
-        <v>948.851661177255</v>
+        <v>948.4511549149713</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -10380,25 +10418,25 @@
         <v>11</v>
       </c>
       <c r="C216" t="n">
-        <v>324233265.98</v>
+        <v>324330642.98</v>
       </c>
       <c r="D216" t="n">
-        <v>138154083564.7531</v>
+        <v>138163216244.3849</v>
       </c>
       <c r="E216" t="n">
-        <v>426.0947227212492</v>
+        <v>425.9949506309978</v>
       </c>
       <c r="F216" t="n">
-        <v>-0.288806377524938</v>
+        <v>-0.2889729068680724</v>
       </c>
       <c r="G216" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H216" t="n">
         <v>4</v>
       </c>
       <c r="I216" t="n">
-        <v>939.368425711266</v>
+        <v>939.148468161098</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -10409,25 +10447,25 @@
         <v>12</v>
       </c>
       <c r="C217" t="n">
-        <v>343900260.12</v>
+        <v>344053381.12</v>
       </c>
       <c r="D217" t="n">
-        <v>145885752437.2683</v>
+        <v>145885752543.4083</v>
       </c>
       <c r="E217" t="n">
-        <v>424.2094855827186</v>
+        <v>424.0206914069703</v>
       </c>
       <c r="F217" t="n">
-        <v>-0.2919530220579033</v>
+        <v>-0.2922681379384639</v>
       </c>
       <c r="G217" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H217" t="n">
         <v>4</v>
       </c>
       <c r="I217" t="n">
-        <v>935.2122319156613</v>
+        <v>934.796016275807</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -10438,25 +10476,25 @@
         <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>361391164.43</v>
+        <v>361610765.43</v>
       </c>
       <c r="D218" t="n">
-        <v>151708832013.597</v>
+        <v>151708831801.317</v>
       </c>
       <c r="E218" t="n">
-        <v>419.7912039517566</v>
+        <v>419.5362702239144</v>
       </c>
       <c r="F218" t="n">
-        <v>-0.2993275647374531</v>
+        <v>-0.2997530739768949</v>
       </c>
       <c r="G218" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H218" t="n">
         <v>1</v>
       </c>
       <c r="I218" t="n">
-        <v>925.4716882320427</v>
+        <v>924.9096613356417</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -10467,25 +10505,25 @@
         <v>2</v>
       </c>
       <c r="C219" t="n">
-        <v>317065785.15</v>
+        <v>317321033.15</v>
       </c>
       <c r="D219" t="n">
-        <v>126202565031.3472</v>
+        <v>126202565243.6272</v>
       </c>
       <c r="E219" t="n">
-        <v>398.0327457017863</v>
+        <v>397.7125751508892</v>
       </c>
       <c r="F219" t="n">
-        <v>-0.3356445522923357</v>
+        <v>-0.3361789481479056</v>
       </c>
       <c r="G219" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H219" t="n">
         <v>1</v>
       </c>
       <c r="I219" t="n">
-        <v>877.5029911741583</v>
+        <v>876.7971431776505</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -10496,25 +10534,25 @@
         <v>3</v>
       </c>
       <c r="C220" t="n">
-        <v>329547443.5000001</v>
+        <v>329793488.5000001</v>
       </c>
       <c r="D220" t="n">
-        <v>127276838877.7714</v>
+        <v>127276838771.6314</v>
       </c>
       <c r="E220" t="n">
-        <v>386.2170421533595</v>
+        <v>385.9289015999822</v>
       </c>
       <c r="F220" t="n">
-        <v>-0.3553661131580275</v>
+        <v>-0.355847047825863</v>
       </c>
       <c r="G220" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H220" t="n">
         <v>1</v>
       </c>
       <c r="I220" t="n">
-        <v>851.4540911312964</v>
+        <v>850.8188564673208</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -10525,25 +10563,25 @@
         <v>4</v>
       </c>
       <c r="C221" t="n">
-        <v>299884009.2</v>
+        <v>300174051.2</v>
       </c>
       <c r="D221" t="n">
-        <v>104746368380.349</v>
+        <v>104746368751.839</v>
       </c>
       <c r="E221" t="n">
-        <v>349.2896092051747</v>
+        <v>348.9521107274145</v>
       </c>
       <c r="F221" t="n">
-        <v>-0.4170015979614981</v>
+        <v>-0.4175649158159064</v>
       </c>
       <c r="G221" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H221" t="n">
         <v>2</v>
       </c>
       <c r="I221" t="n">
-        <v>770.043872453728</v>
+        <v>769.299823309658</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -10554,25 +10592,25 @@
         <v>5</v>
       </c>
       <c r="C222" t="n">
-        <v>333948459.15</v>
+        <v>334186234.15</v>
       </c>
       <c r="D222" t="n">
         <v>124355526003.953</v>
       </c>
       <c r="E222" t="n">
-        <v>372.3793974689253</v>
+        <v>372.114447862433</v>
       </c>
       <c r="F222" t="n">
-        <v>-0.3784624908526269</v>
+        <v>-0.3789047175697549</v>
       </c>
       <c r="G222" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H222" t="n">
         <v>2</v>
       </c>
       <c r="I222" t="n">
-        <v>820.9476196599927</v>
+        <v>820.3635117575199</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -10583,25 +10621,25 @@
         <v>6</v>
       </c>
       <c r="C223" t="n">
-        <v>356565746.0500001</v>
+        <v>356817027.0500001</v>
       </c>
       <c r="D223" t="n">
-        <v>139796359898.2454</v>
+        <v>139796359685.9654</v>
       </c>
       <c r="E223" t="n">
-        <v>392.0633472140709</v>
+        <v>391.7872441282799</v>
       </c>
       <c r="F223" t="n">
-        <v>-0.3456080601888014</v>
+        <v>-0.3460689031499773</v>
       </c>
       <c r="G223" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H223" t="n">
         <v>2</v>
       </c>
       <c r="I223" t="n">
-        <v>864.3428552681407</v>
+        <v>863.7341584052058</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -10612,25 +10650,25 @@
         <v>7</v>
       </c>
       <c r="C224" t="n">
-        <v>413742056.3300002</v>
+        <v>414069137.3300002</v>
       </c>
       <c r="D224" t="n">
-        <v>178877742417.1139</v>
+        <v>178947360984.8044</v>
       </c>
       <c r="E224" t="n">
-        <v>432.3412127928354</v>
+        <v>432.167831050371</v>
       </c>
       <c r="F224" t="n">
-        <v>-0.2783803767676555</v>
+        <v>-0.278669767794859</v>
       </c>
       <c r="G224" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H224" t="n">
         <v>3</v>
       </c>
       <c r="I224" t="n">
-        <v>953.1394377230847</v>
+        <v>952.757200333648</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -10641,25 +10679,25 @@
         <v>8</v>
       </c>
       <c r="C225" t="n">
-        <v>404986271.24</v>
+        <v>405288232.24</v>
       </c>
       <c r="D225" t="n">
-        <v>173142180545.8207</v>
+        <v>173142180492.7507</v>
       </c>
       <c r="E225" t="n">
-        <v>427.526049255172</v>
+        <v>427.2075197836508</v>
       </c>
       <c r="F225" t="n">
-        <v>-0.2864173540324525</v>
+        <v>-0.2869490107665923</v>
       </c>
       <c r="G225" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H225" t="n">
         <v>3</v>
       </c>
       <c r="I225" t="n">
-        <v>942.5239281879523</v>
+        <v>941.8216981150366</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -10670,25 +10708,25 @@
         <v>9</v>
       </c>
       <c r="C226" t="n">
-        <v>363673987.68</v>
+        <v>363915088.68</v>
       </c>
       <c r="D226" t="n">
-        <v>152691178382.2364</v>
+        <v>152691178435.3063</v>
       </c>
       <c r="E226" t="n">
-        <v>419.8572995454123</v>
+        <v>419.5791358614747</v>
       </c>
       <c r="F226" t="n">
-        <v>-0.2992172447494904</v>
+        <v>-0.2996815270498136</v>
       </c>
       <c r="G226" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H226" t="n">
         <v>3</v>
       </c>
       <c r="I226" t="n">
-        <v>925.6174025778161</v>
+        <v>925.0041629202072</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -10699,25 +10737,25 @@
         <v>10</v>
       </c>
       <c r="C227" t="n">
-        <v>323136595.41</v>
+        <v>323302355.41</v>
       </c>
       <c r="D227" t="n">
-        <v>124386774020.822</v>
+        <v>124386774286.172</v>
       </c>
       <c r="E227" t="n">
-        <v>384.9355838604365</v>
+        <v>384.7382247754716</v>
       </c>
       <c r="F227" t="n">
-        <v>-0.3575049919490488</v>
+        <v>-0.3578344034978897</v>
       </c>
       <c r="G227" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H227" t="n">
         <v>4</v>
       </c>
       <c r="I227" t="n">
-        <v>848.6289881787184</v>
+        <v>848.1938903400047</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -10728,25 +10766,25 @@
         <v>11</v>
       </c>
       <c r="C228" t="n">
-        <v>318034322.98</v>
+        <v>318082582.98</v>
       </c>
       <c r="D228" t="n">
-        <v>125238373019.6966</v>
+        <v>125238373072.7666</v>
       </c>
       <c r="E228" t="n">
-        <v>393.7888585301291</v>
+        <v>393.7291124193405</v>
       </c>
       <c r="F228" t="n">
-        <v>-0.3427280136215691</v>
+        <v>-0.3428277357037606</v>
       </c>
       <c r="G228" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H228" t="n">
         <v>4</v>
       </c>
       <c r="I228" t="n">
-        <v>868.1469175155228</v>
+        <v>868.015201239678</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -10757,25 +10795,25 @@
         <v>12</v>
       </c>
       <c r="C229" t="n">
-        <v>340405491.67</v>
+        <v>340540002.67</v>
       </c>
       <c r="D229" t="n">
-        <v>127429327656.1654</v>
+        <v>127429327390.8154</v>
       </c>
       <c r="E229" t="n">
-        <v>374.3456870540135</v>
+        <v>374.1978222579058</v>
       </c>
       <c r="F229" t="n">
-        <v>-0.3751805618864032</v>
+        <v>-0.3754273626430725</v>
       </c>
       <c r="G229" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H229" t="n">
         <v>4</v>
       </c>
       <c r="I229" t="n">
-        <v>825.2825016792783</v>
+        <v>824.956518949779</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -10786,25 +10824,25 @@
         <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>344137138.27</v>
+        <v>344306042.0599999</v>
       </c>
       <c r="D230" t="n">
-        <v>122432707863.5797</v>
+        <v>122431940981.0198</v>
       </c>
       <c r="E230" t="n">
-        <v>355.767205129493</v>
+        <v>355.5904515892416</v>
       </c>
       <c r="F230" t="n">
-        <v>-0.4061898590107684</v>
+        <v>-0.4064848778971181</v>
       </c>
       <c r="G230" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H230" t="n">
         <v>1</v>
       </c>
       <c r="I230" t="n">
-        <v>784.3243804284803</v>
+        <v>783.9347095736421</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -10815,25 +10853,25 @@
         <v>2</v>
       </c>
       <c r="C231" t="n">
-        <v>322145540.79</v>
+        <v>322293533.41</v>
       </c>
       <c r="D231" t="n">
-        <v>110289192101.4983</v>
+        <v>110289030979.9282</v>
       </c>
       <c r="E231" t="n">
-        <v>342.3582764207607</v>
+        <v>342.2005704334936</v>
       </c>
       <c r="F231" t="n">
-        <v>-0.4285706679561818</v>
+        <v>-0.4288338946200893</v>
       </c>
       <c r="G231" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H231" t="n">
         <v>1</v>
       </c>
       <c r="I231" t="n">
-        <v>754.7630561972093</v>
+        <v>754.41537757768</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -10844,25 +10882,25 @@
         <v>3</v>
       </c>
       <c r="C232" t="n">
-        <v>312983973.38</v>
+        <v>313266946.24</v>
       </c>
       <c r="D232" t="n">
-        <v>104928405725.0242</v>
+        <v>104928432267.2242</v>
       </c>
       <c r="E232" t="n">
-        <v>335.2516890621379</v>
+        <v>334.9489421933344</v>
       </c>
       <c r="F232" t="n">
-        <v>-0.4404322549167903</v>
+        <v>-0.4409375689487084</v>
       </c>
       <c r="G232" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H232" t="n">
         <v>1</v>
       </c>
       <c r="I232" t="n">
-        <v>739.0958737063893</v>
+        <v>738.4284379594251</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -10873,25 +10911,25 @@
         <v>4</v>
       </c>
       <c r="C233" t="n">
-        <v>283375147.85</v>
+        <v>283638096.84</v>
       </c>
       <c r="D233" t="n">
-        <v>87920425078.99965</v>
+        <v>87968922526.06166</v>
       </c>
       <c r="E233" t="n">
-        <v>310.2615940249597</v>
+        <v>310.1449470509064</v>
       </c>
       <c r="F233" t="n">
-        <v>-0.4821431592480644</v>
+        <v>-0.4823378544170117</v>
       </c>
       <c r="G233" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H233" t="n">
         <v>2</v>
       </c>
       <c r="I233" t="n">
-        <v>684.0027101874263</v>
+        <v>683.7455502684281</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -10902,25 +10940,25 @@
         <v>5</v>
       </c>
       <c r="C234" t="n">
-        <v>308826404.6</v>
+        <v>309069992.93</v>
       </c>
       <c r="D234" t="n">
-        <v>98157512696.58211</v>
+        <v>98157432760.23207</v>
       </c>
       <c r="E234" t="n">
-        <v>317.8404153094301</v>
+        <v>317.5896560830587</v>
       </c>
       <c r="F234" t="n">
-        <v>-0.4694933678379048</v>
+        <v>-0.4699119094275146</v>
       </c>
       <c r="G234" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H234" t="n">
         <v>2</v>
       </c>
       <c r="I234" t="n">
-        <v>700.7109795911697</v>
+        <v>700.1581558007113</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -10931,25 +10969,25 @@
         <v>6</v>
       </c>
       <c r="C235" t="n">
-        <v>355984508.1600001</v>
+        <v>356206767.6600001</v>
       </c>
       <c r="D235" t="n">
-        <v>130174041832.6154</v>
+        <v>130173819388.7053</v>
       </c>
       <c r="E235" t="n">
-        <v>365.6733336668336</v>
+        <v>365.4445429092925</v>
       </c>
       <c r="F235" t="n">
-        <v>-0.3896555649594812</v>
+        <v>-0.3900374390334083</v>
       </c>
       <c r="G235" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H235" t="n">
         <v>2</v>
       </c>
       <c r="I235" t="n">
-        <v>806.1634314019012</v>
+        <v>805.6590392978262</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -10960,25 +10998,25 @@
         <v>7</v>
       </c>
       <c r="C236" t="n">
-        <v>413934276.52</v>
+        <v>414243836.67</v>
       </c>
       <c r="D236" t="n">
-        <v>173845407859.7357</v>
+        <v>173845313179.7057</v>
       </c>
       <c r="E236" t="n">
-        <v>419.9831174196949</v>
+        <v>419.6690398032317</v>
       </c>
       <c r="F236" t="n">
-        <v>-0.2990072424541986</v>
+        <v>-0.299531468608337</v>
       </c>
       <c r="G236" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H236" t="n">
         <v>3</v>
       </c>
       <c r="I236" t="n">
-        <v>925.8947806634596</v>
+        <v>925.2023651502047</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -10989,25 +11027,25 @@
         <v>8</v>
       </c>
       <c r="C237" t="n">
-        <v>402414129.9300001</v>
+        <v>402670025.0300002</v>
       </c>
       <c r="D237" t="n">
-        <v>169684665325.7025</v>
+        <v>169684563714.3225</v>
       </c>
       <c r="E237" t="n">
-        <v>421.666767405059</v>
+        <v>421.3985476114852</v>
       </c>
       <c r="F237" t="n">
-        <v>-0.2961970665280009</v>
+        <v>-0.2966447515061038</v>
       </c>
       <c r="G237" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H237" t="n">
         <v>3</v>
       </c>
       <c r="I237" t="n">
-        <v>929.6065554211932</v>
+        <v>929.0152380642804</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -11018,25 +11056,25 @@
         <v>9</v>
       </c>
       <c r="C238" t="n">
-        <v>336922518.2300001</v>
+        <v>337157507.28</v>
       </c>
       <c r="D238" t="n">
-        <v>130583378807.5038</v>
+        <v>130583352393.3737</v>
       </c>
       <c r="E238" t="n">
-        <v>387.5768811580621</v>
+        <v>387.306672916311</v>
       </c>
       <c r="F238" t="n">
-        <v>-0.3530964093194986</v>
+        <v>-0.3535474132114179</v>
       </c>
       <c r="G238" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H238" t="n">
         <v>3</v>
       </c>
       <c r="I238" t="n">
-        <v>854.4519922010637</v>
+        <v>853.8562911112991</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -11047,25 +11085,25 @@
         <v>10</v>
       </c>
       <c r="C239" t="n">
-        <v>316786009.82</v>
+        <v>316958177.4299999</v>
       </c>
       <c r="D239" t="n">
-        <v>117566941546.3286</v>
+        <v>117567045829.0885</v>
       </c>
       <c r="E239" t="n">
-        <v>371.1241592175453</v>
+        <v>370.922898353216</v>
       </c>
       <c r="F239" t="n">
-        <v>-0.3805576058387193</v>
+        <v>-0.3808935298376149</v>
       </c>
       <c r="G239" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H239" t="n">
         <v>4</v>
       </c>
       <c r="I239" t="n">
-        <v>818.1803214110004</v>
+        <v>817.7366217094998</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -11076,25 +11114,25 @@
         <v>11</v>
       </c>
       <c r="C240" t="n">
-        <v>303889691.58</v>
+        <v>304042474.37</v>
       </c>
       <c r="D240" t="n">
-        <v>107907524948.7426</v>
+        <v>107907529465.1226</v>
       </c>
       <c r="E240" t="n">
-        <v>355.0878096183645</v>
+        <v>354.9093911589672</v>
       </c>
       <c r="F240" t="n">
-        <v>-0.4073238363376099</v>
+        <v>-0.4076216341362892</v>
       </c>
       <c r="G240" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H240" t="n">
         <v>4</v>
       </c>
       <c r="I240" t="n">
-        <v>782.8265850846465</v>
+        <v>782.4332437490591</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -11105,25 +11143,25 @@
         <v>12</v>
       </c>
       <c r="C241" t="n">
-        <v>346787122.9400001</v>
+        <v>346964441.0800002</v>
       </c>
       <c r="D241" t="n">
-        <v>132506289759.5249</v>
+        <v>132506247692.2649</v>
       </c>
       <c r="E241" t="n">
-        <v>382.096914776304</v>
+        <v>381.9015207431955</v>
       </c>
       <c r="F241" t="n">
-        <v>-0.3622430073275517</v>
+        <v>-0.3625691390133162</v>
       </c>
       <c r="G241" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H241" t="n">
         <v>4</v>
       </c>
       <c r="I241" t="n">
-        <v>842.3708583158399</v>
+        <v>841.9400926304488</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -11146,7 +11184,7 @@
         <v>-0.3656566454023869</v>
       </c>
       <c r="G242" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H242" t="n">
         <v>1</v>
@@ -11175,7 +11213,7 @@
         <v>-0.3122327165650945</v>
       </c>
       <c r="G243" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H243" t="n">
         <v>1</v>
@@ -11204,7 +11242,7 @@
         <v>-0.4273174581439433</v>
       </c>
       <c r="G244" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H244" t="n">
         <v>1</v>
@@ -11233,7 +11271,7 @@
         <v>-0.4376471095867895</v>
       </c>
       <c r="G245" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H245" t="n">
         <v>2</v>
@@ -11262,7 +11300,7 @@
         <v>-0.4112574374826276</v>
       </c>
       <c r="G246" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H246" t="n">
         <v>2</v>
@@ -11291,7 +11329,7 @@
         <v>-0.3290725530835924</v>
       </c>
       <c r="G247" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H247" t="n">
         <v>2</v>
@@ -11320,7 +11358,7 @@
         <v>-0.2841611712395567</v>
       </c>
       <c r="G248" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H248" t="n">
         <v>3</v>
@@ -11349,7 +11387,7 @@
         <v>-0.2891761209111679</v>
       </c>
       <c r="G249" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H249" t="n">
         <v>3</v>
@@ -11378,7 +11416,7 @@
         <v>-0.3387289930860609</v>
       </c>
       <c r="G250" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H250" t="n">
         <v>3</v>
@@ -11407,7 +11445,7 @@
         <v>-0.3818405382475538</v>
       </c>
       <c r="G251" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H251" t="n">
         <v>4</v>
@@ -11436,7 +11474,7 @@
         <v>-0.4216392640544888</v>
       </c>
       <c r="G252" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H252" t="n">
         <v>4</v>
@@ -11465,7 +11503,7 @@
         <v>-0.4421303755439488</v>
       </c>
       <c r="G253" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H253" t="n">
         <v>4</v>
@@ -11485,22 +11523,22 @@
         <v>381939888.07</v>
       </c>
       <c r="D254" t="n">
-        <v>146989415733.8505</v>
+        <v>146983537025.4947</v>
       </c>
       <c r="E254" t="n">
-        <v>384.8496067708722</v>
+        <v>384.8342150599265</v>
       </c>
       <c r="F254" t="n">
-        <v>-0.3576484960914765</v>
+        <v>-0.3576741863572318</v>
       </c>
       <c r="G254" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H254" t="n">
         <v>1</v>
       </c>
       <c r="I254" t="n">
-        <v>848.439443087065</v>
+        <v>848.4055105211139</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -11514,22 +11552,22 @@
         <v>331184147.67</v>
       </c>
       <c r="D255" t="n">
-        <v>120401375001.6178</v>
+        <v>120430167625.1589</v>
       </c>
       <c r="E255" t="n">
-        <v>363.5481222416137</v>
+        <v>363.6350606525965</v>
       </c>
       <c r="F255" t="n">
-        <v>-0.393202749966549</v>
+        <v>-0.3930576412849764</v>
       </c>
       <c r="G255" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H255" t="n">
         <v>1</v>
       </c>
       <c r="I255" t="n">
-        <v>801.4781902938615</v>
+        <v>801.6698547147142</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -11543,22 +11581,109 @@
         <v>330663832.07</v>
       </c>
       <c r="D256" t="n">
-        <v>108682573934.9987</v>
+        <v>108684770838.1885</v>
       </c>
       <c r="E256" t="n">
-        <v>328.6799564821807</v>
+        <v>328.6866003995879</v>
       </c>
       <c r="F256" t="n">
-        <v>-0.451401117121016</v>
+        <v>-0.4513900277752994</v>
       </c>
       <c r="G256" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H256" t="n">
         <v>1</v>
       </c>
       <c r="I256" t="n">
-        <v>724.6078320606157</v>
+        <v>724.6224792409315</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B257" t="n">
+        <v>4</v>
+      </c>
+      <c r="C257" t="n">
+        <v>309606702.33</v>
+      </c>
+      <c r="D257" t="n">
+        <v>100819973908.2785</v>
+      </c>
+      <c r="E257" t="n">
+        <v>325.6388610115347</v>
+      </c>
+      <c r="F257" t="n">
+        <v>-0.4564770018685399</v>
+      </c>
+      <c r="G257" t="s">
+        <v>351</v>
+      </c>
+      <c r="H257" t="n">
+        <v>2</v>
+      </c>
+      <c r="I257" t="n">
+        <v>717.9034329860293</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B258" t="n">
+        <v>5</v>
+      </c>
+      <c r="C258" t="n">
+        <v>349357186.94</v>
+      </c>
+      <c r="D258" t="n">
+        <v>118846172584.9012</v>
+      </c>
+      <c r="E258" t="n">
+        <v>340.1852803598179</v>
+      </c>
+      <c r="F258" t="n">
+        <v>-0.432197610177705</v>
+      </c>
+      <c r="G258" t="s">
+        <v>352</v>
+      </c>
+      <c r="H258" t="n">
+        <v>2</v>
+      </c>
+      <c r="I258" t="n">
+        <v>749.9724690812545</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B259" t="n">
+        <v>6</v>
+      </c>
+      <c r="C259" t="n">
+        <v>385242854.54</v>
+      </c>
+      <c r="D259" t="n">
+        <v>142464910292.3646</v>
+      </c>
+      <c r="E259" t="n">
+        <v>369.80545807261</v>
+      </c>
+      <c r="F259" t="n">
+        <v>-0.3827586465797052</v>
+      </c>
+      <c r="G259" t="s">
+        <v>353</v>
+      </c>
+      <c r="H259" t="n">
+        <v>2</v>
+      </c>
+      <c r="I259" t="n">
+        <v>815.2731128668761</v>
       </c>
     </row>
   </sheetData>
